--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B93D5C-D92C-C241-B817-0217AC49B14E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBF39BF-EBC6-1546-AC7A-91C79E76E7B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Find page'!$A$5:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Find page'!$A$5:$M$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General report'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Home page'!$A$5:$M$8</definedName>
     <definedName name="DesignStatus">[1]Summary!$L$1:$L$3</definedName>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
   <si>
     <t>Steps</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -154,6 +151,259 @@
   </si>
   <si>
     <t>Created by : Nguyen Duong</t>
+  </si>
+  <si>
+    <t>Test Case 1: Verify the UI of the "Weather in you city" search box</t>
+  </si>
+  <si>
+    <t>Home_001</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Launch the AUT.</t>
+  </si>
+  <si>
+    <t>Verify the UI of the "Weather in you city" search box.</t>
+  </si>
+  <si>
+    <t>Section: Home page</t>
+  </si>
+  <si>
+    <t>Search box</t>
+  </si>
+  <si>
+    <t>API Search Weather</t>
+  </si>
+  <si>
+    <t>Home_002</t>
+  </si>
+  <si>
+    <t>Select the search box</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input valid city
+Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ho chi minh</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 2: Input "ho chi minh" city in the "Weather in you city" search box and click on search icon</t>
+  </si>
+  <si>
+    <t>Click on search icon</t>
+  </si>
+  <si>
+    <t>Find page</t>
+  </si>
+  <si>
+    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the search box.
+- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
+  </si>
+  <si>
+    <t>Home_003</t>
+  </si>
+  <si>
+    <t>Select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Home_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input valid city
+Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ha noi</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 4: Input valid city like "ha noi" in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Test Case 3: Input valid city like "ho chi minh" in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Home_005</t>
+  </si>
+  <si>
+    <t>Test Case 5: Input invalid city like empty in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Do not input anything</t>
+  </si>
+  <si>
+    <t>Test Case 6: Input invalid city like a space in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Input a space</t>
+  </si>
+  <si>
+    <t>Home_006</t>
+  </si>
+  <si>
+    <t>Test Case 6: Input invalid city like special character in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Input special character
+Example: @</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Test Case 7: Input invalid city like maximum characters in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Input maximum characters of the search box
+Example: Input 100 characters</t>
+  </si>
+  <si>
+    <t>Home_007</t>
+  </si>
+  <si>
+    <t>Home_008</t>
+  </si>
+  <si>
+    <t>Test Case 8: Execute test case 1 to test case 7 on other browser like Firefox</t>
+  </si>
+  <si>
+    <t>Execute from test case 1 to test case 7</t>
+  </si>
+  <si>
+    <t>Test Case 9: Execute test case 1 to test case 7 on mobile browser like Android, Google Chrome</t>
+  </si>
+  <si>
+    <t>Home_009</t>
+  </si>
+  <si>
+    <t>Section: Find page</t>
+  </si>
+  <si>
+    <t>Find_001</t>
+  </si>
+  <si>
+    <t>At the Find page, verify the UI with the design</t>
+  </si>
+  <si>
+    <t>The Find page should be displayed as the design:</t>
+  </si>
+  <si>
+    <t>The icon of the Search button is missing/error</t>
+  </si>
+  <si>
+    <t>Use the "ho chi minh" city to search the weather</t>
+  </si>
+  <si>
+    <t>"ho chi minh" city</t>
+  </si>
+  <si>
+    <t>Verify the weather data in the result</t>
+  </si>
+  <si>
+    <t>Find_002</t>
+  </si>
+  <si>
+    <t>At least a city weather data will be displayed:
+- Full city name, country as hyperlink
+- Temperature
+- Temperature range (min and max temperature)
+- Wind
+- Clouds
+- HPA
+- Geo coords</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Find page should be displayed with the result of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ho chi minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> city weather.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Find page should be displayed with the result of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ha noi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> city weather.</t>
+    </r>
+  </si>
+  <si>
+    <t>The user still stays in the Home page.</t>
+  </si>
+  <si>
+    <t>The Search box should be displayed as the design:
+- The magnifying glass icon on the left.
+- The textbox with placeholder "Weather in your city" on the right.</t>
+  </si>
+  <si>
+    <t>- Navigate to Find page without result and the text "London, UK" is displayed inside the search result.</t>
+  </si>
+  <si>
+    <t>- Navigate to Find page without result.</t>
+  </si>
+  <si>
+    <t>The same as each Expected results of each test case.</t>
+  </si>
+  <si>
+    <t>Test Case 2: Input "ho chi minh" city in the search box and click on search icon</t>
+  </si>
+  <si>
+    <t>Navigate to Find page</t>
   </si>
   <si>
     <r>
@@ -197,7 +447,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Search wather in your city
+      <t xml:space="preserve"> Search weather in your city
 </t>
     </r>
     <r>
@@ -219,52 +469,292 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Launch the browser and navigate to url: https://openweathermap.org/
+      <t>Launch the browser and navigate to url: https://openweathermap.org/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The application under test (AUT):  https://openweathermap.org/
 </t>
     </r>
-  </si>
-  <si>
-    <t>Test Case 1: Verify the UI of the "Weather in you city" search box</t>
-  </si>
-  <si>
-    <t>Home_001</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Launch the AUT.</t>
-  </si>
-  <si>
-    <t>Verify the UI of the "Weather in you city" search box.</t>
-  </si>
-  <si>
-    <t>Section: Home page</t>
-  </si>
-  <si>
-    <t>Search box</t>
-  </si>
-  <si>
-    <t>The Search box should be displayed as the design:
-- The magnifying glass icon on the left
-- The textbox with placeholder "Weather in your city" on the right</t>
-  </si>
-  <si>
-    <t>Test Case 2: Verify the behavior of the "Weather in you city" search box after selecting</t>
-  </si>
-  <si>
-    <t>API Search Weather</t>
-  </si>
-  <si>
-    <t>Home_002</t>
-  </si>
-  <si>
-    <t>Select the search box</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Input valid city
-Example: </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Search and display city weather data in Find page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Precondition: 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Launch the browser and navigate to url: https://openweathermap.org/
+- Input a valid city, submit and navigate to Find page
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 2: Verify the weather data of the "Ho Chi Minh" city after performing search in the Home page</t>
+  </si>
+  <si>
+    <t>Find_003</t>
+  </si>
+  <si>
+    <t>Find_004</t>
+  </si>
+  <si>
+    <t>Find_005</t>
+  </si>
+  <si>
+    <t>Test Case 3: Input "ha noi" city in the search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Test Case 4: Input "ha noi" city in the search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Input nothing</t>
+  </si>
+  <si>
+    <t>Test Case 5: Input invalid city like leave empty search box and click on search icon, and then select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Test Case 6: Input invalid city like special character in the search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Find_006</t>
+  </si>
+  <si>
+    <t>Test Case 8: Input invalid city like a space in the search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Find_008</t>
+  </si>
+  <si>
+    <t>Refresh the Find page by using F5 on keyboard or Refresh button on the web browser</t>
+  </si>
+  <si>
+    <t>The previous data will be displayed without any change:
+- Full city name, country as hyperlink
+- Temperature
+- Temperature range (min and max temperature)
+- Wind
+- Clouds
+- HPA
+- Geo coords</t>
+  </si>
+  <si>
+    <t>Find_009</t>
+  </si>
+  <si>
+    <t>In the city weather data, click on the City name hyperlink</t>
+  </si>
+  <si>
+    <t>Navigate to the Weather Forecast for the selected city</t>
+  </si>
+  <si>
+    <t>In the city weather data, click on the Geo coords</t>
+  </si>
+  <si>
+    <t>Navigate to the Interactive weather maps for the selected city</t>
+  </si>
+  <si>
+    <t>- The temperature range shows duplicate values 
+- There is a redundant space between values and units</t>
+  </si>
+  <si>
+    <t>The Find page should be displayed without result. A message as "Not found" will be displayed</t>
+  </si>
+  <si>
+    <t>Find_010</t>
+  </si>
+  <si>
+    <t>Test Case 7: Close the message "Not found" when searching no result</t>
+  </si>
+  <si>
+    <t>Click on Close button of the message "Not found"</t>
+  </si>
+  <si>
+    <t>The message will be closed</t>
+  </si>
+  <si>
+    <t>Test Case 9: Refresh the Find page</t>
+  </si>
+  <si>
+    <t>Test Case 10: Click on the City name hyperlink</t>
+  </si>
+  <si>
+    <t>Test Case 11: Click on the Geo coords</t>
+  </si>
+  <si>
+    <t>Find_011</t>
+  </si>
+  <si>
+    <t>Test Case 1: Verify the API Request with the API document</t>
+  </si>
+  <si>
+    <t>API_001</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Verify the Request with the document</t>
+  </si>
+  <si>
+    <t>All information of the request are with the document</t>
+  </si>
+  <si>
+    <t>Test Case 12: Input "ho chi minh" city in the "Weather in you city" search box and click on search icon</t>
+  </si>
+  <si>
+    <t>Find_012</t>
+  </si>
+  <si>
+    <t>Test Case 13: Input valid city like "ho chi minh" in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Find_013</t>
+  </si>
+  <si>
+    <t>Focus on "Weather in you city" search box</t>
+  </si>
+  <si>
+    <t>Test Case 14: Execute test case 1 to test case 7 on other browser like Firefox</t>
+  </si>
+  <si>
+    <t>Home_014</t>
+  </si>
+  <si>
+    <t>Test Case 15: Execute test case 1 to test case 7 on mobile browser like Android, Google Chrome</t>
+  </si>
+  <si>
+    <t>Home_015</t>
+  </si>
+  <si>
+    <t>Execute from test case 1 to test case 13</t>
+  </si>
+  <si>
+    <t>API_002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The application under test (AUT):  https://openweathermap.org/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Search weather in your city
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Precondition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create a GET request in the Postman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
     </r>
     <r>
       <rPr>
@@ -275,59 +765,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ho chi minh</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Case 2: Input "ho chi minh" city in the "Weather in you city" search box and click on search icon</t>
-  </si>
-  <si>
-    <t>Click on search icon</t>
-  </si>
-  <si>
-    <t>Find page</t>
-  </si>
-  <si>
-    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the search box.
-- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
-  </si>
-  <si>
-    <t>Home_003</t>
-  </si>
-  <si>
-    <t>Select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Home_004</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Find page should be displayed with the result of the </t>
+      <t>q=ho%20chi%20minh</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ho chi minh</t>
+      <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>Verify the Response</t>
+  </si>
+  <si>
+    <t>The response is correct
+- HTTP Status Code: 200
+- Response Body as JSON</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> city weather</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Input valid city
-Example: </t>
+      <t>Send request with "</t>
     </r>
     <r>
       <rPr>
@@ -338,119 +800,158 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ha noi</t>
+      <t>q=</t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">The Find page should be displayed with the result of the </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>The response is correct
+- HTTP Status Code: 400
+- Response Body as JSON with correct error code and error message</t>
+  </si>
+  <si>
+    <t>API_003</t>
+  </si>
+  <si>
+    <t>API_004</t>
+  </si>
+  <si>
+    <t>Test Case 2: Send request with param "q=ho%20chi%20minh"</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request without "</t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ha noi</t>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>The HTTP Status Code: 500
+The Response Body has error code 500 and error message "Internal server error"</t>
+  </si>
+  <si>
+    <t>Test Case 3: Send request with param "q=" empty</t>
+  </si>
+  <si>
+    <t>Test Case 5: Send request without param "q=@" special character</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q=@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 6: Send request with invalid appid</t>
+  </si>
+  <si>
+    <t>Test Case 4: Send request without param "q"</t>
+  </si>
+  <si>
+    <t>API_005</t>
+  </si>
+  <si>
+    <t>API_006</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q=ho%20chi%20minh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> city weather</t>
+      <t xml:space="preserve"> and invalid "appid=123"</t>
     </r>
   </si>
   <si>
-    <t>Test Case 4: Input valid city like "ha noi" in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Test Case 3: Input valid city like "ho chi minh" in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Home_005</t>
-  </si>
-  <si>
-    <t>Test Case 5: Input invalid city like empty in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Do not input anything</t>
-  </si>
-  <si>
-    <t>The user still stays in the Home page</t>
-  </si>
-  <si>
-    <t>- Navigate to Find page without result</t>
-  </si>
-  <si>
-    <t>Test Case 6: Input invalid city like a space in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Input a space</t>
-  </si>
-  <si>
-    <t>Home_006</t>
-  </si>
-  <si>
-    <t>Test Case 6: Input invalid city like special character in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Input special character
-Example: @</t>
-  </si>
-  <si>
-    <t>The Find page should be displayed without result</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Test Case 7: Input invalid city like maximum characters in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Input maximum characters of the search box
-Example: Input 100 characters</t>
-  </si>
-  <si>
-    <t>Home_007</t>
-  </si>
-  <si>
-    <t>Home_008</t>
-  </si>
-  <si>
-    <t>Test Case 8: Execute test case 1 to test case 7 on other browser like Firefox</t>
-  </si>
-  <si>
-    <t>Execute from test case 1 to test case 7</t>
-  </si>
-  <si>
-    <t>The same as each Expected results of each test case</t>
-  </si>
-  <si>
-    <t>Test Case 9: Execute test case 1 to test case 7 on mobile browser like Android, Google Chrome</t>
-  </si>
-  <si>
-    <t>Home_009</t>
-  </si>
-  <si>
-    <t>Section: Find page</t>
-  </si>
-  <si>
-    <t>Find_001</t>
-  </si>
-  <si>
-    <t>Search page</t>
+    <t>The response is correct
+- HTTP Status Code: 401
+- Response Body as JSON with error code 401 and error message as invalid API key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,13 +1006,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -758,17 +1252,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -782,9 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -819,9 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -831,8 +1319,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,59 +1374,68 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -902,7 +1444,19 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="172">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -953,6 +1507,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -987,6 +1565,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1113,6 +1703,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1147,6 +1749,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1239,6 +1875,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1283,6 +1953,42 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1307,6 +2013,54 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1329,6 +2083,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C6500"/>
@@ -1355,6 +2119,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1529,6 +2305,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1587,6 +2397,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1599,6 +2443,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1657,6 +2525,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1727,6 +2607,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1739,6 +2653,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1751,6 +2699,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1763,6 +2745,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1775,6 +2791,50 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1809,6 +2869,90 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1891,6 +3035,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1983,6 +3139,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2017,6 +3185,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2063,6 +3255,78 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2090,6 +3354,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2502,10 +3790,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3230,10 +4518,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3599,10 +4887,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4396,21 +5684,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <f>'Home page'!J3</f>
@@ -4427,15 +5715,15 @@
     </row>
     <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <f>'Find page'!J3</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <f>'Find page'!K3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <f>'Find page'!L3</f>
@@ -4443,33 +5731,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="41">
+      <c r="A4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="33">
         <f>' API Search Weather'!J3</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="41">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33">
         <f>' API Search Weather'!K3</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="41">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33">
         <f>' API Search Weather'!L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10">
         <f>SUM(B2:B4)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <f>SUM(C2:C4)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(D2:D4)</f>
@@ -4490,9 +5778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4514,35 +5802,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>9</v>
@@ -4551,19 +5839,19 @@
         <v>10</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -4583,1067 +5871,1036 @@
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
         <f>J3/I3</f>
         <v>0.7</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <f>K3/I3</f>
         <v>0.3</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f>L3/I3</f>
         <v>0</v>
       </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="21" t="s">
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="A6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="25"/>
+      <c r="A7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="38"/>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24">
+      <c r="C10" s="38"/>
+      <c r="D10" s="23">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="38">
         <v>1</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="23">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="23">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="23">
+        <v>3</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="38"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="38"/>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="23">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="23">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24">
+      <c r="B30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="46" t="s">
+      <c r="E30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="23">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="23">
+        <v>3</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="23">
+        <v>4</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="23">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24">
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="23">
         <v>2</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24">
+      <c r="E36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="23">
         <v>3</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24">
+      <c r="E37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="38"/>
+    </row>
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="23">
         <v>4</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24">
+      <c r="E38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="38"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="46" t="s">
+      <c r="E40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24">
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="23">
         <v>2</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24">
+      <c r="E41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="44"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="23">
         <v>3</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24">
+      <c r="E42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="44"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="23">
         <v>4</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24">
+      <c r="E43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="44"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24">
+      <c r="E45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="47"/>
+      <c r="I45" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="38"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="23">
         <v>2</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24">
-        <v>3</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="E46" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="23">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="47"/>
+      <c r="I48" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24">
-        <v>4</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24">
+      <c r="J48" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="38"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="25"/>
-    </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24">
-        <v>3</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24">
-        <v>4</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="25"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="E49" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24">
-        <v>2</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="25"/>
-    </row>
-    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="24">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="25"/>
-    </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24">
-        <v>4</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="25"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24">
-        <v>2</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="25"/>
-    </row>
-    <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="24">
-        <v>3</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="25"/>
-    </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="24">
-        <v>4</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="25"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="24">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="42"/>
-      <c r="I45" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="25"/>
-    </row>
-    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="24">
-        <v>2</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="25"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="24">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="25"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="25"/>
-    </row>
-    <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="24">
-        <v>2</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="25"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="123">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
@@ -5668,246 +6925,277 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I18 G50:I1048576 G7:H8 G10:H13">
-    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="127" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:L489 J2:L18">
-    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="71" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="128" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="129" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="81" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="48" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="41" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="cellIs" dxfId="79" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:L23">
-    <cfRule type="cellIs" dxfId="78" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="44" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="46" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="47" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="75" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="43" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="74" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="42" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="35" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33">
-    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G38">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="22" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G46">
+    <cfRule type="cellIs" dxfId="156" priority="10" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I28">
+    <cfRule type="cellIs" dxfId="155" priority="38" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:L28">
+    <cfRule type="cellIs" dxfId="154" priority="37" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
+    <cfRule type="cellIs" dxfId="151" priority="36" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I33">
+    <cfRule type="cellIs" dxfId="150" priority="32" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:L33">
+    <cfRule type="cellIs" dxfId="149" priority="31" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="33" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="34" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H33">
+    <cfRule type="cellIs" dxfId="146" priority="30" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I38">
+    <cfRule type="cellIs" dxfId="145" priority="26" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:L38">
+    <cfRule type="cellIs" dxfId="144" priority="25" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="27" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="28" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I43">
+    <cfRule type="cellIs" dxfId="141" priority="19" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:L43">
+    <cfRule type="cellIs" dxfId="140" priority="18" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="20" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="21" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I46">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:L46">
+    <cfRule type="cellIs" dxfId="136" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="14" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H46">
+    <cfRule type="cellIs" dxfId="133" priority="11" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G49">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:L49">
+    <cfRule type="cellIs" dxfId="130" priority="6" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="8" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="9" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H49">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H38">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H43">
+    <cfRule type="cellIs" dxfId="125" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G43">
-    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G46">
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I28">
-    <cfRule type="cellIs" dxfId="68" priority="35" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:L28">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="64" priority="33" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I33">
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:L33">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="31" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H33">
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I38">
-    <cfRule type="cellIs" dxfId="58" priority="23" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:L38">
-    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I43">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:L43">
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H43">
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I46">
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:L46">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G49">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:L49">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5933,11 +7221,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B4"/>
+      <selection pane="topRight" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5959,35 +7247,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>9</v>
@@ -5995,379 +7283,1754 @@
       <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>18</v>
+      <c r="L2" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
-        <f>COUNTIF(A6:A15,"Test Case*")</f>
-        <v>1</v>
+        <f>COUNTIF(A6:A56,"Test Case*")</f>
+        <v>16</v>
       </c>
       <c r="J3" s="11">
-        <f>COUNTIF(J5:J312,"Passed")</f>
-        <v>1</v>
+        <f>COUNTIF(J5:J353,"Passed")</f>
+        <v>14</v>
       </c>
       <c r="K3" s="11">
-        <f>COUNTIF(J5:J312,"Failed")</f>
-        <v>0</v>
+        <f>COUNTIF(J5:J353,"Failed")</f>
+        <v>2</v>
       </c>
       <c r="L3" s="11">
         <f>I3-(J3+K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
         <f>J3/I3</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="K4" s="17">
         <f>K3/I3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="L4" s="17">
         <f>L3/I3</f>
         <v>0</v>
       </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24">
+      <c r="J7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="25" t="s">
+      <c r="E9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="31">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24">
+      <c r="K12" s="38"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="25"/>
+      <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="25"/>
+      <c r="A14" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="31">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="31">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="31">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="38"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="31">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="38"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="31">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="31">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="38"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="31">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="61"/>
+      <c r="I34" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="31">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="37"/>
+    </row>
+    <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="31">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="49"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="61"/>
+      <c r="I38" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="31">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="37"/>
+    </row>
+    <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="31">
+        <v>3</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="59"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="37"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="58"/>
+      <c r="G42" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="61"/>
+      <c r="I42" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="36"/>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="31">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="59"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="37"/>
+    </row>
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="31">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="59"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="37"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="31">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="38"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="31">
+        <v>2</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="44"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="47"/>
+      <c r="I49" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="31">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="38"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="47"/>
+      <c r="I52" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38"/>
+    </row>
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="31">
+        <v>2</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="44"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="38"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="31">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="47"/>
+      <c r="I55" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="38"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="38"/>
+    </row>
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="31">
+        <v>2</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="44"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="39">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
+  <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="184">
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="C2:F4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
   </mergeCells>
-  <conditionalFormatting sqref="J2:L5 J16:L314 K9:L14 J9:J13">
-    <cfRule type="cellIs" dxfId="37" priority="324" operator="equal">
+  <conditionalFormatting sqref="J2:L5 J57:L355">
+    <cfRule type="cellIs" dxfId="123" priority="402" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="403" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="404" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 H9:H11 G2:I3 G9 I9:I13 G13:H13">
-    <cfRule type="cellIs" dxfId="34" priority="316" operator="equal">
+  <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
+    <cfRule type="cellIs" dxfId="120" priority="394" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="33" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="353" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J13 K9:L14">
-    <cfRule type="cellIs" dxfId="32" priority="267" operator="equal">
+  <conditionalFormatting sqref="J26:L32 J45:L50">
+    <cfRule type="cellIs" dxfId="118" priority="345" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I8 G7:H8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="I6:I10 G7:H10">
+    <cfRule type="cellIs" dxfId="115" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:L8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="J6:L10">
+    <cfRule type="cellIs" dxfId="114" priority="79" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="82" operator="equal">
       <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I10 G9:H10">
+    <cfRule type="cellIs" dxfId="111" priority="76" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:L10">
+    <cfRule type="cellIs" dxfId="110" priority="75" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="77" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="107" priority="54" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:L22">
+    <cfRule type="cellIs" dxfId="106" priority="49" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="51" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="52" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I13 H12:H13">
+    <cfRule type="cellIs" dxfId="103" priority="68" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:L13">
+    <cfRule type="cellIs" dxfId="102" priority="67" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="69" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="70" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="cellIs" dxfId="98" priority="65" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I16 H15:H16">
+    <cfRule type="cellIs" dxfId="97" priority="62" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="96" priority="61" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="64" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="92" priority="59" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I19 H18:H19">
+    <cfRule type="cellIs" dxfId="91" priority="56" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:L19">
+    <cfRule type="cellIs" dxfId="90" priority="55" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="58" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I22 G21:H22">
+    <cfRule type="cellIs" dxfId="87" priority="50" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="86" priority="53" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I29 G24:H29">
+    <cfRule type="cellIs" dxfId="85" priority="46" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:L29">
+    <cfRule type="cellIs" dxfId="84" priority="45" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="47" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="48" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I34 G34:H34">
+    <cfRule type="cellIs" dxfId="81" priority="38" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:L34">
+    <cfRule type="cellIs" dxfId="80" priority="37" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I38 G38:H38">
+    <cfRule type="cellIs" dxfId="77" priority="34" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:L38">
+    <cfRule type="cellIs" dxfId="76" priority="33" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="35" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="36" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42 G42:H42">
+    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:L42">
+    <cfRule type="cellIs" dxfId="72" priority="29" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="31" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="32" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G53">
+    <cfRule type="cellIs" dxfId="69" priority="23" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I53">
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:L53">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G56">
+    <cfRule type="cellIs" dxfId="63" priority="17" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I56">
+    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:L56">
+    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G29">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I29">
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:L29">
+    <cfRule type="cellIs" dxfId="55" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:H47">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H50">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G50">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Passed, Failed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L11 L13:L14 G16:I1048576 G2:H3 L7:L8" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L13 G57:I1048576 G2:H3 L7:L10 L15:L16 L18:L19 L21:L22 L34 L38 L42 L52:L53 L55:L56 L24:L29 L31:L32 L49:L50 L46:L47" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J11 J13 J7:J8" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J13 J7:J10 J15:J16 J18:J19 J21:J22 J34 J38 J42 J52:J53 J55:J56 J24:J29 J31:J32 J46:J47 J49:J50" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Passed, Failed, Skipped"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I11 I13 I7:I8" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I13 I7:I10 I15:I16 I18:I19 I21:I22 I34 I38 I42 I52:I53 I55:I56 I24:I29 I31:I32 I49:I50 I46:I47" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6380,11 +9043,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20:F23"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6406,684 +9069,598 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>24</v>
+      <c r="M2" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24">
-        <f>COUNTIF(A6:A184,"Test Case*")</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="24">
-        <f>COUNTIF(J6:J474,"Passed")</f>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23">
+        <f>COUNTIF(A6:A173,"Test Case*")</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="23">
+        <f>COUNTIF(J6:J463,"Passed")</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="23">
+        <f>COUNTIF(J6:J463,"Failed")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="23">
+        <f>COUNTIF(L6:L463,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="24">
-        <f>COUNTIF(J6:J474,"Failed")</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="24">
-        <f>COUNTIF(L6:L474,"Skipped")</f>
-        <v>0</v>
-      </c>
       <c r="M3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
         <f>J3/I3</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="17">
         <f>K3/I3</f>
         <v>0.5</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f>L3/I3</f>
         <v>0</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24">
+      <c r="J7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="25" t="s">
+      <c r="E10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="31">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K13" s="38"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="31">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="31">
         <v>1</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24">
+      <c r="E16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="38"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="25"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="25"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="25"/>
+      <c r="E17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="31">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
-  <mergeCells count="86">
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:H9"/>
+  <mergeCells count="75">
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="C2:F4"/>
@@ -7094,120 +9671,139 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G24:G25 L4:L5 J5:K5 G2:I3 G5:H5 I5:I26 G15:G22 H15:H26 G35:I1048576 G7:H8 G10:H13">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:L474 J2:L26">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+  <conditionalFormatting sqref="J24:L463 J2:L8">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:I30 I27">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+  <conditionalFormatting sqref="I9:I11 G10:H11">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:L27 L28:L30">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+  <conditionalFormatting sqref="J9:L11">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G30">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+  <conditionalFormatting sqref="I12:I14 G13:H14">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J30">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+  <conditionalFormatting sqref="J12:L14">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K30">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+  <conditionalFormatting sqref="I15:I17 G16:G17">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:L17">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I34 I31">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+  <conditionalFormatting sqref="I18:I20 G19:G20">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:L31 L32:L34">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+  <conditionalFormatting sqref="J18:L20">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G34">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J34">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I23 G22:G23">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:L23">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K34">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I23 I7:I8 I15:I18 I10:I13 I25:I26 I28:I30 I32:I34" xr:uid="{FFC4F67B-D271-914A-BAFA-BBF803DFBEE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I10:I11 I13:I14 I16:I17 I19:I20 I22:I23" xr:uid="{FFC4F67B-D271-914A-BAFA-BBF803DFBEE7}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J20:J21 J7:J8 J25 J10:J11 J15:J16 J28:J29 J32:J33" xr:uid="{7505585E-8060-C440-92C5-82B3E853B028}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J13:J14 J16:J17 J19:J20 J22:J23" xr:uid="{7505585E-8060-C440-92C5-82B3E853B028}">
       <formula1>"Passed, Failed, Skipped"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L23 L7:L8 L15:L18 L10:L13 G2:H3 L25:L26 L28:L30 G35:I1048576 L32:L34" xr:uid="{82472565-BF01-5E4B-9340-4955B79D6DB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3 G24:I1048576 L7:L8 L10:L11 L13:L14 L16:L17 L19:L20 L22:L23" xr:uid="{82472565-BF01-5E4B-9340-4955B79D6DB4}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F1048576" xr:uid="{4931B21D-07C8-9F47-932E-AF19607E3BBA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F1048576" xr:uid="{4931B21D-07C8-9F47-932E-AF19607E3BBA}">
       <formula1>"Passed, Failed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Working/Personal/assignment-vdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBF39BF-EBC6-1546-AC7A-91C79E76E7B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07529E08-1996-5541-BDF8-5DAB8F3AC9C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="500" windowWidth="16320" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
     <sheet name="Home page" sheetId="6" r:id="rId2"/>
-    <sheet name="Find page" sheetId="4" r:id="rId3"/>
-    <sheet name=" API Search Weather" sheetId="9" r:id="rId4"/>
+    <sheet name=" API Search Weather" sheetId="9" r:id="rId3"/>
+    <sheet name="Find page" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Find page'!$A$5:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Find page'!$A$5:$M$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General report'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Home page'!$A$5:$M$8</definedName>
     <definedName name="DesignStatus">[1]Summary!$L$1:$L$3</definedName>
@@ -171,9 +171,6 @@
     <t>Section: Home page</t>
   </si>
   <si>
-    <t>Search box</t>
-  </si>
-  <si>
     <t>API Search Weather</t>
   </si>
   <si>
@@ -207,10 +204,6 @@
   </si>
   <si>
     <t>Find page</t>
-  </si>
-  <si>
-    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the search box.
-- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
   </si>
   <si>
     <t>Home_003</t>
@@ -945,6 +938,13 @@
     <t>The response is correct
 - HTTP Status Code: 401
 - Response Body as JSON with error code 401 and error message as invalid API key</t>
+  </si>
+  <si>
+    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the "Weather in your city" search box.
+- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
+  </si>
+  <si>
+    <t>"Weather in you city" search box</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1334,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1346,13 +1352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,6 +1372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1377,34 +1389,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1415,9 +1412,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1425,17 +1424,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1444,7 +1444,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="150">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1616,258 +1616,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4320,6 +4068,375 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D19F-044A-8FD0-620F43B9C0ED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC7CE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="15000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D19F-044A-8FD0-620F43B9C0ED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFE79B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="15000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D19F-044A-8FD0-620F43B9C0ED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2976480129764802E-2"/>
+                  <c:y val="1.3605439261783946E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D19F-044A-8FD0-620F43B9C0ED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4598540145985401E-2"/>
+                  <c:y val="8.1632635570703226E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D19F-044A-8FD0-620F43B9C0ED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4598540145985401E-2"/>
+                  <c:y val="1.0884351409427138E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D19F-044A-8FD0-620F43B9C0ED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4598540145985401E-2"/>
+                  <c:y val="1.0884351409427138E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-VN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D19F-044A-8FD0-620F43B9C0ED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>' API Search Weather'!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>' API Search Weather'!$J$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D19F-044A-8FD0-620F43B9C0ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cylinder"/>
+        <c:axId val="51065216"/>
+        <c:axId val="51077504"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="51065216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51077504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51077504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51065216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2150570594734052E-2"/>
+          <c:y val="1.7093888904940797E-2"/>
+          <c:w val="0.95723122769426883"/>
+          <c:h val="0.89872782841972065"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C6EFCE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="15000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-A7C2-4DD7-ABD4-D709B1021827}"/>
               </c:ext>
             </c:extLst>
@@ -4614,375 +4731,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.2150570594734052E-2"/>
-          <c:y val="1.7093888904940797E-2"/>
-          <c:w val="0.95723122769426883"/>
-          <c:h val="0.89872782841972065"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C6EFCE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
-                  <a:srgbClr val="FF0000">
-                    <a:alpha val="15000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D19F-044A-8FD0-620F43B9C0ED}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC7CE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="15000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D19F-044A-8FD0-620F43B9C0ED}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFE79B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="15000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D19F-044A-8FD0-620F43B9C0ED}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.2976480129764802E-2"/>
-                  <c:y val="1.3605439261783946E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D19F-044A-8FD0-620F43B9C0ED}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4598540145985401E-2"/>
-                  <c:y val="8.1632635570703226E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D19F-044A-8FD0-620F43B9C0ED}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4598540145985401E-2"/>
-                  <c:y val="1.0884351409427138E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D19F-044A-8FD0-620F43B9C0ED}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4598540145985401E-2"/>
-                  <c:y val="1.0884351409427138E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-VN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-D19F-044A-8FD0-620F43B9C0ED}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>' API Search Weather'!$J$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>' API Search Weather'!$J$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D19F-044A-8FD0-620F43B9C0ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="cylinder"/>
-        <c:axId val="51065216"/>
-        <c:axId val="51077504"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="51065216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51077504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51077504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51065216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5149,21 +4897,23 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3923</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5768FD-7568-3F4C-8F23-72E9FA1FEF8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5227,23 +4977,21 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3923</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5768FD-7568-3F4C-8F23-72E9FA1FEF8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5715,7 +5463,7 @@
     </row>
     <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <f>'Find page'!J3</f>
@@ -5732,7 +5480,7 @@
     </row>
     <row r="4" spans="1:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="33">
         <f>' API Search Weather'!J3</f>
@@ -5780,7 +5528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5802,8 +5550,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="54" t="s">
         <v>29</v>
       </c>
@@ -5819,14 +5567,14 @@
       <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -5846,12 +5594,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -5875,12 +5623,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -5940,16 +5688,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -5957,64 +5705,64 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="38"/>
+      <c r="B7" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="34"/>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="38"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -6022,106 +5770,106 @@
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="38"/>
+      <c r="A10" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="23">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="52" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="34">
         <v>1</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="A14" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -6129,102 +5877,102 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="38"/>
+      <c r="A15" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="23">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="34" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="23">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="23">
         <v>3</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="23">
         <v>4</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -6232,102 +5980,102 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="38"/>
+      <c r="A20" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="34"/>
       <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="34" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="38"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="A24" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -6335,104 +6083,104 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="38"/>
+      <c r="A25" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="34"/>
       <c r="D25" s="23">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="36" t="s">
+      <c r="I25" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="38"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="23">
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="23">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="23">
         <v>4</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -6440,104 +6188,104 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="38"/>
+      <c r="A30" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="34"/>
       <c r="D30" s="23">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="36" t="s">
+      <c r="F30" s="48"/>
+      <c r="G30" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="38"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="A34" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -6545,102 +6293,102 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="38"/>
+      <c r="A35" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="34"/>
       <c r="D35" s="23">
         <v>1</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="36" t="s">
+      <c r="F35" s="48"/>
+      <c r="G35" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="38"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="23">
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="23">
         <v>3</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="23">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="A39" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -6648,102 +6396,102 @@
       <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="38"/>
+      <c r="A40" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="34"/>
       <c r="D40" s="23">
         <v>1</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" s="36" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="38"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="23">
         <v>2</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="38"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="23">
         <v>3</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="38"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="23">
         <v>4</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -6751,64 +6499,64 @@
       <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="38"/>
+      <c r="A45" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="34"/>
       <c r="D45" s="23">
         <v>1</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="36" t="s">
+      <c r="F45" s="48"/>
+      <c r="G45" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="51"/>
+      <c r="I45" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="38"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="34"/>
     </row>
     <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="23">
         <v>2</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="34"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -6816,68 +6564,137 @@
       <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="38"/>
+      <c r="A48" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="34"/>
       <c r="D48" s="23">
         <v>1</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="38" t="s">
+      <c r="F48" s="48"/>
+      <c r="G48" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="51"/>
+      <c r="I48" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="38"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="38"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="23">
         <v>2</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="123">
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -6902,29 +6719,17 @@
     <mergeCell ref="K15:K18"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:A28"/>
@@ -6933,269 +6738,212 @@
     <mergeCell ref="F25:F28"/>
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="H25:H28"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I18 G50:I1048576 G7:H8 G10:H13">
-    <cfRule type="cellIs" dxfId="171" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:L489 J2:L18">
-    <cfRule type="cellIs" dxfId="170" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="71" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="128" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="129" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="167" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="48" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="166" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="41" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="cellIs" dxfId="165" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:L23">
-    <cfRule type="cellIs" dxfId="164" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="44" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="46" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="47" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="161" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="160" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="42" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="cellIs" dxfId="159" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33">
-    <cfRule type="cellIs" dxfId="158" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G38">
-    <cfRule type="cellIs" dxfId="157" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G46">
-    <cfRule type="cellIs" dxfId="156" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I28">
-    <cfRule type="cellIs" dxfId="155" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L28">
-    <cfRule type="cellIs" dxfId="154" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="151" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="36" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I33">
-    <cfRule type="cellIs" dxfId="150" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="32" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:L33">
-    <cfRule type="cellIs" dxfId="149" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="33" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="34" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H33">
-    <cfRule type="cellIs" dxfId="146" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I38">
-    <cfRule type="cellIs" dxfId="145" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:L38">
-    <cfRule type="cellIs" dxfId="144" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I43">
-    <cfRule type="cellIs" dxfId="141" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:L43">
-    <cfRule type="cellIs" dxfId="140" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="20" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I46">
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L46">
-    <cfRule type="cellIs" dxfId="136" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" dxfId="133" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G49">
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="131" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:L49">
-    <cfRule type="cellIs" dxfId="130" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="8" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="5" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H43">
-    <cfRule type="cellIs" dxfId="125" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G43">
-    <cfRule type="cellIs" dxfId="124" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7220,6 +6968,778 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23">
+        <f>COUNTIF(A6:A173,"Test Case*")</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="23">
+        <f>COUNTIF(J6:J463,"Passed")</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="23">
+        <f>COUNTIF(J6:J463,"Failed")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="23">
+        <f>COUNTIF(L6:L463,"Skipped")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
+        <f>J3/I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="17">
+        <f>K3/I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="17">
+        <f>L3/I3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="31">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="31">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="31">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="34"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <dataConsolidate/>
+  <mergeCells count="75">
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
+    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:L463 J2:L8">
+    <cfRule type="cellIs" dxfId="25" priority="46" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I11 G10:H11">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:L11">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I14 G13:H14">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:L14">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I17 G16:G17">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:L17">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20 G19:G20">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:L20">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I23 G22:G23">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:L23">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I10:I11 I13:I14 I16:I17 I19:I20 I22:I23" xr:uid="{FFC4F67B-D271-914A-BAFA-BBF803DFBEE7}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J13:J14 J16:J17 J19:J20 J22:J23" xr:uid="{7505585E-8060-C440-92C5-82B3E853B028}">
+      <formula1>"Passed, Failed, Skipped"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3 G24:I1048576 L7:L8 L10:L11 L13:L14 L16:L17 L19:L20 L22:L23" xr:uid="{82472565-BF01-5E4B-9340-4955B79D6DB4}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F1048576" xr:uid="{4931B21D-07C8-9F47-932E-AF19607E3BBA}">
+      <formula1>"Passed, Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -7247,10 +7767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
@@ -7264,14 +7784,14 @@
       <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -7291,12 +7811,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -7320,12 +7840,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -7385,16 +7905,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -7403,26 +7923,26 @@
     </row>
     <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>12</v>
@@ -7435,16 +7955,16 @@
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="A8" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -7452,68 +7972,68 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="38"/>
+      <c r="A9" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="31">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="38"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="38"/>
+        <v>67</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -7521,66 +8041,66 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>80</v>
+      <c r="A12" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="31">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="38"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="31">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="A14" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -7588,66 +8108,66 @@
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>80</v>
+      <c r="A15" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="31">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="31">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -7655,66 +8175,66 @@
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>80</v>
+      <c r="A18" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D18" s="31">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="38"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="31">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="A20" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -7722,66 +8242,66 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>80</v>
+      <c r="A21" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D21" s="31">
         <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="38"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="31">
         <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -7789,66 +8309,66 @@
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>80</v>
+      <c r="A24" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="31">
         <v>1</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="38"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="31">
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="A26" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -7856,85 +8376,85 @@
       <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>80</v>
+      <c r="A27" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="31">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="38"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="31">
         <v>2</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="31">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="38"/>
+        <v>104</v>
+      </c>
+      <c r="F29" s="48"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="A30" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -7942,66 +8462,66 @@
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>80</v>
+      <c r="A31" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D31" s="31">
         <v>1</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="38"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="31">
         <v>2</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -8009,85 +8529,85 @@
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>80</v>
+      <c r="A34" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D34" s="31">
         <v>1</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="55" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="59" t="s">
+        <v>94</v>
       </c>
       <c r="H34" s="61"/>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="36"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="31">
         <v>2</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="37"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="39"/>
     </row>
     <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="31">
         <v>3</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -8095,85 +8615,85 @@
       <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>80</v>
+      <c r="A38" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D38" s="31">
         <v>1</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="55" t="s">
-        <v>99</v>
+        <v>33</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="H38" s="61"/>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="J38" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="36"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="38"/>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="31">
         <v>2</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="F39" s="58"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="37"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="39"/>
     </row>
     <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="31">
         <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="56"/>
+        <v>96</v>
+      </c>
+      <c r="F40" s="58"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="62"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="37"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="39"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -8181,85 +8701,85 @@
       <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>80</v>
+      <c r="A42" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D42" s="31">
         <v>1</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="55" t="s">
-        <v>101</v>
+        <v>33</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="59" t="s">
+        <v>99</v>
       </c>
       <c r="H42" s="61"/>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="36"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="36"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="37"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="31">
         <v>2</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="62"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="37"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="39"/>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="31">
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="56"/>
+        <v>98</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="62"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="37"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="39"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
+      <c r="A45" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -8267,66 +8787,66 @@
       <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>121</v>
+      <c r="A46" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="D46" s="31">
         <v>1</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="51"/>
+      <c r="I46" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="38"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="34"/>
     </row>
     <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="31">
         <v>2</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
+      <c r="A48" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -8334,66 +8854,66 @@
       <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>121</v>
+      <c r="A49" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="D49" s="31">
         <v>1</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="38"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="34"/>
     </row>
     <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="31">
         <v>2</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="34"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="A51" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -8401,14 +8921,14 @@
       <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>80</v>
+      <c r="A52" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D52" s="31">
         <v>1</v>
@@ -8416,51 +8936,51 @@
       <c r="E52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="47"/>
-      <c r="I52" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" s="36" t="s">
+      <c r="F52" s="48"/>
+      <c r="G52" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="51"/>
+      <c r="I52" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="38"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="38"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="31">
         <v>2</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="38"/>
+        <v>124</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="34"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
+      <c r="A54" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
@@ -8468,14 +8988,14 @@
       <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>80</v>
+      <c r="A55" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="D55" s="31">
         <v>1</v>
@@ -8483,211 +9003,43 @@
       <c r="E55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55" s="38" t="s">
+      <c r="F55" s="48"/>
+      <c r="G55" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="51"/>
+      <c r="I55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="38"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="34"/>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="38"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="31">
         <v>2</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="38"/>
+        <v>124</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="184">
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
@@ -8704,319 +9056,487 @@
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:L5 J57:L355">
-    <cfRule type="cellIs" dxfId="123" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="402" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="403" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="404" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
-    <cfRule type="cellIs" dxfId="120" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="394" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="119" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="353" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L32 J45:L50">
-    <cfRule type="cellIs" dxfId="118" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="345" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10 G7:H10">
-    <cfRule type="cellIs" dxfId="115" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L10">
-    <cfRule type="cellIs" dxfId="114" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="79" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I10 G9:H10">
-    <cfRule type="cellIs" dxfId="111" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" dxfId="110" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="107" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L22">
-    <cfRule type="cellIs" dxfId="106" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I13 H12:H13">
-    <cfRule type="cellIs" dxfId="103" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="68" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:L13">
-    <cfRule type="cellIs" dxfId="102" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="67" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="98" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I16 H15:H16">
-    <cfRule type="cellIs" dxfId="97" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="96" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="92" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I19 H18:H19">
-    <cfRule type="cellIs" dxfId="91" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="56" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L19">
-    <cfRule type="cellIs" dxfId="90" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22 G21:H22">
-    <cfRule type="cellIs" dxfId="87" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="86" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29 G24:H29">
-    <cfRule type="cellIs" dxfId="85" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L29">
-    <cfRule type="cellIs" dxfId="84" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 G34:H34">
-    <cfRule type="cellIs" dxfId="81" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L34">
-    <cfRule type="cellIs" dxfId="80" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38 G38:H38">
-    <cfRule type="cellIs" dxfId="77" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L38">
-    <cfRule type="cellIs" dxfId="76" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42 G42:H42">
-    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:L42">
-    <cfRule type="cellIs" dxfId="72" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G53">
-    <cfRule type="cellIs" dxfId="69" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:L53">
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="63" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L56">
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I29">
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L29">
-    <cfRule type="cellIs" dxfId="55" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H47">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G50">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9039,776 +9559,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22:G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23">
-        <f>COUNTIF(A6:A173,"Test Case*")</f>
-        <v>6</v>
-      </c>
-      <c r="J3" s="23">
-        <f>COUNTIF(J6:J463,"Passed")</f>
-        <v>3</v>
-      </c>
-      <c r="K3" s="23">
-        <f>COUNTIF(J6:J463,"Failed")</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="23">
-        <f>COUNTIF(L6:L463,"Skipped")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <f>J3/I3</f>
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="17">
-        <f>K3/I3</f>
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="17">
-        <f>L3/I3</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="23">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="31">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="31">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="31">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="31">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="31">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="31">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="38"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <dataConsolidate/>
-  <mergeCells count="75">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-  </mergeCells>
-  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:L463 J2:L8">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I11 G10:H11">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:L11">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 G13:H14">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:L14">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I17 G16:G17">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:L17">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20 G19:G20">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:L20">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I23 G22:G23">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:L23">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I10:I11 I13:I14 I16:I17 I19:I20 I22:I23" xr:uid="{FFC4F67B-D271-914A-BAFA-BBF803DFBEE7}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J13:J14 J16:J17 J19:J20 J22:J23" xr:uid="{7505585E-8060-C440-92C5-82B3E853B028}">
-      <formula1>"Passed, Failed, Skipped"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3 G24:I1048576 L7:L8 L10:L11 L13:L14 L16:L17 L19:L20 L22:L23" xr:uid="{82472565-BF01-5E4B-9340-4955B79D6DB4}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F1048576" xr:uid="{4931B21D-07C8-9F47-932E-AF19607E3BBA}">
-      <formula1>"Passed, Failed"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -8,34 +8,95 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Working/Personal/assignment-vdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07529E08-1996-5541-BDF8-5DAB8F3AC9C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3090799C-6A4E-3B49-B158-AA724F61D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="500" windowWidth="16320" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="32620" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
     <sheet name="Home page" sheetId="6" r:id="rId2"/>
     <sheet name=" API Search Weather" sheetId="9" r:id="rId3"/>
-    <sheet name="Find page" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect Tracking" sheetId="10" r:id="rId4"/>
+    <sheet name="Find page" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Find page'!$A$5:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Find page'!$A$5:$M$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General report'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Home page'!$A$5:$M$8</definedName>
     <definedName name="DesignStatus">[1]Summary!$L$1:$L$3</definedName>
     <definedName name="ImStatus">[1]Summary!$N$1:$N$2</definedName>
     <definedName name="priority">#REF!</definedName>
     <definedName name="Req_Type">[1]Summary!$Q$1:$Q$2</definedName>
+    <definedName name="Status">'[2]Defect Tracking Log'!$T$11:$T$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Julie Arnold</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{51B15265-EC6C-5D44-B2C1-A30C93D57990}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choose from the drop down list</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{CC2BE605-326D-2243-BE1B-E27E95248BC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choose from the drop down list.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>linhvu</author>
@@ -79,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="187">
   <si>
     <t>Steps</t>
   </si>
@@ -946,12 +1007,197 @@
   <si>
     <t>"Weather in you city" search box</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DEFECT TRACKING LOG </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name </t>
+  </si>
+  <si>
+    <t>Assignment - Openweathermap</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>To ensure that the work product meets specifications for performance, defects must be tracked and fixed. These defects may arise from any Phase, but the majority will arise in the Testing Phase and must be properly captured and tracked through resolution. This form will allow documentation of test defects that must be corrected prior to project completion. Also, this form makes it easier to monitor status of the defect correction progress. This form may be used by any member of the software development team.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt; Hover by the red triangle in the top left corner for more detail. Use the Instructions on the next tab to fill out fields.&gt;</t>
+  </si>
+  <si>
+    <t>Defect No.</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Defect Description</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Assigned Date</t>
+  </si>
+  <si>
+    <t>Estimated Time to Fix</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Resolution Date</t>
+  </si>
+  <si>
+    <t>Actual Time to Fix</t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Lifecycle Phase</t>
+  </si>
+  <si>
+    <t>DF001</t>
+  </si>
+  <si>
+    <t>Nguyen Duong</t>
+  </si>
+  <si>
+    <t>The search icon (magnifying glass icon) moves 1px up after focusing on the search box</t>
+  </si>
+  <si>
+    <t>Steps to reproduce:
+1. Launch AUT
+2. Select/Click the search box
+3. Observer
+Expected result:
+- The search icon is still in place
+Actual result:
+- The search icon will moves 1px up</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>DF002</t>
+  </si>
+  <si>
+    <t>The Search icon (magnifying glass icon) has no function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to reproduce:
+1. Launch AUT
+2. At the search box, input valid city. For example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ho chi minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Select Enter button on the keyboard
+4. Observer
+Expected result:
+- The user will be navigated to the Find page with correct city weather data
+Actual result:
+- The search icon has no function. Ther is nothing change</t>
+    </r>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>Opportunity Assessment</t>
+  </si>
+  <si>
+    <t>DF003</t>
+  </si>
+  <si>
+    <t>The Search feature accepts empty value</t>
+  </si>
+  <si>
+    <t>Steps to reproduce:
+1. Launch AUT
+2. At the search box, do not input anthing
+3. Select Enter button on the keyboard
+4. Observer
+Expected result:
+- The user is still staying at the Home page. There is nothing change
+Actual result:
+- The user will be navigated to the Find page with no data, no result</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Initiating</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +1311,58 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,6 +1423,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1560,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1334,34 +1642,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,9 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1389,11 +1673,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1404,11 +1712,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1418,24 +1733,53 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1461,6 +1805,42 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1577,6 +1957,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1623,6 +2027,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1761,6 +2177,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1797,6 +2247,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1809,6 +2293,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1925,6 +2433,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1937,6 +2479,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1995,6 +2571,50 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2029,6 +2649,54 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -2053,6 +2721,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2191,6 +2883,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2203,18 +2929,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2242,376 +2956,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5094,6 +5438,37 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Defect Tracking Log"/>
+      <sheetName val="Defect Tracking Log Instruc"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="T11" t="str">
+            <v>New</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="T12" t="str">
+            <v>Under Review</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="T13" t="str">
+            <v>In Progress</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5526,9 +5901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
+    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5550,8 +5925,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="54" t="s">
         <v>29</v>
       </c>
@@ -5567,14 +5942,14 @@
       <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -5594,12 +5969,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -5623,12 +5998,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -5688,16 +6063,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -5705,64 +6080,64 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="34"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -5770,106 +6145,104 @@
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="23">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="34">
-        <v>1</v>
-      </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="34"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="34"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="34"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -5877,102 +6250,102 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="23">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="35" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="23">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="34"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="23">
         <v>3</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="34"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="23">
         <v>4</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="34"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -5980,102 +6353,102 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="35" t="s">
+      <c r="H20" s="43"/>
+      <c r="I20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="35"/>
     </row>
     <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="34"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -6083,104 +6456,104 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="23">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="23">
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="34"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="23">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="34"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="23">
         <v>4</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="34"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -6188,104 +6561,104 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="23">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="H30" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="34"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="34"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="34"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -6293,102 +6666,102 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="23">
         <v>1</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="35" t="s">
+      <c r="H35" s="43"/>
+      <c r="I35" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="34"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="23">
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="34"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="23">
         <v>3</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="34"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="35"/>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="23">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="34"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="35"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -6396,102 +6769,102 @@
       <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="23">
         <v>1</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49" t="s">
+      <c r="F40" s="40"/>
+      <c r="G40" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="35" t="s">
+      <c r="H40" s="43"/>
+      <c r="I40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="34"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="34"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="34"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="23">
         <v>2</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="34"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="23">
         <v>3</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="34"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="23">
         <v>4</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="34"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="35"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -6499,64 +6872,64 @@
       <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="23">
         <v>1</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="35" t="s">
+      <c r="H45" s="43"/>
+      <c r="I45" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="34"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="34"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="34"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="23">
         <v>2</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="34"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -6564,114 +6937,96 @@
       <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="23">
         <v>1</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="51"/>
-      <c r="I48" s="53" t="s">
+      <c r="H48" s="43"/>
+      <c r="I48" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="34"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="34"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="35"/>
     </row>
     <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="34"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="23">
         <v>2</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="34"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="123">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="F10:F13"/>
@@ -6696,48 +7051,66 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
     <mergeCell ref="M15:M18"/>
     <mergeCell ref="M20:M23"/>
     <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I18 G50:I1048576 G7:H8 G10:H13">
     <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
@@ -6971,9 +7344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22:G23"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6995,8 +7368,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="54" t="s">
         <v>29</v>
       </c>
@@ -7012,14 +7385,14 @@
       <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
@@ -7039,12 +7412,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23">
@@ -7068,12 +7441,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -7133,16 +7506,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -7150,64 +7523,64 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="34"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -7215,64 +7588,64 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="31">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="31">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="34"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -7280,66 +7653,66 @@
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="31">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="34"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -7347,66 +7720,66 @@
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="31">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="31">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="34"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -7414,66 +7787,66 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="31">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="31">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="34"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
@@ -7481,57 +7854,116 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="31">
         <v>1</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="53" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="31">
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="34"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="75">
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="C10:C11"/>
@@ -7542,180 +7974,121 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L463 J2:L8">
-    <cfRule type="cellIs" dxfId="25" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="48" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I11 G10:H11">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="21" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:L11">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="23" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 G13:H14">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:L14">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="19" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17 G16:G17">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:L17">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20 G19:G20">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:L20">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I23 G22:G23">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:L23">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7740,6 +8113,1264 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06CBE9-20CC-0441-8560-ECE826D51085}">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="68" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="68" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="25" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="257" max="257" width="9.1640625" customWidth="1"/>
+    <col min="258" max="258" width="14" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="13" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="13" customWidth="1"/>
+    <col min="261" max="261" width="40.5" customWidth="1"/>
+    <col min="262" max="262" width="31.5" customWidth="1"/>
+    <col min="263" max="263" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="11.5" customWidth="1"/>
+    <col min="275" max="281" width="0" hidden="1" customWidth="1"/>
+    <col min="513" max="513" width="9.1640625" customWidth="1"/>
+    <col min="514" max="514" width="14" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="13" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="13" customWidth="1"/>
+    <col min="517" max="517" width="40.5" customWidth="1"/>
+    <col min="518" max="518" width="31.5" customWidth="1"/>
+    <col min="519" max="519" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="7" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="524" max="525" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="11.5" customWidth="1"/>
+    <col min="531" max="537" width="0" hidden="1" customWidth="1"/>
+    <col min="769" max="769" width="9.1640625" customWidth="1"/>
+    <col min="770" max="770" width="14" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="13" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="13" customWidth="1"/>
+    <col min="773" max="773" width="40.5" customWidth="1"/>
+    <col min="774" max="774" width="31.5" customWidth="1"/>
+    <col min="775" max="775" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="7" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="11.5" customWidth="1"/>
+    <col min="787" max="793" width="0" hidden="1" customWidth="1"/>
+    <col min="1025" max="1025" width="9.1640625" customWidth="1"/>
+    <col min="1026" max="1026" width="14" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="13" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="13" customWidth="1"/>
+    <col min="1029" max="1029" width="40.5" customWidth="1"/>
+    <col min="1030" max="1030" width="31.5" customWidth="1"/>
+    <col min="1031" max="1031" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="7" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1037" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1040" width="11.5" customWidth="1"/>
+    <col min="1043" max="1049" width="0" hidden="1" customWidth="1"/>
+    <col min="1281" max="1281" width="9.1640625" customWidth="1"/>
+    <col min="1282" max="1282" width="14" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="13" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="13" customWidth="1"/>
+    <col min="1285" max="1285" width="40.5" customWidth="1"/>
+    <col min="1286" max="1286" width="31.5" customWidth="1"/>
+    <col min="1287" max="1287" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="7" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1293" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1296" width="11.5" customWidth="1"/>
+    <col min="1299" max="1305" width="0" hidden="1" customWidth="1"/>
+    <col min="1537" max="1537" width="9.1640625" customWidth="1"/>
+    <col min="1538" max="1538" width="14" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="13" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="13" customWidth="1"/>
+    <col min="1541" max="1541" width="40.5" customWidth="1"/>
+    <col min="1542" max="1542" width="31.5" customWidth="1"/>
+    <col min="1543" max="1543" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="7" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1549" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1552" width="11.5" customWidth="1"/>
+    <col min="1555" max="1561" width="0" hidden="1" customWidth="1"/>
+    <col min="1793" max="1793" width="9.1640625" customWidth="1"/>
+    <col min="1794" max="1794" width="14" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="13" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="13" customWidth="1"/>
+    <col min="1797" max="1797" width="40.5" customWidth="1"/>
+    <col min="1798" max="1798" width="31.5" customWidth="1"/>
+    <col min="1799" max="1799" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="7" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1805" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1808" max="1808" width="11.5" customWidth="1"/>
+    <col min="1811" max="1817" width="0" hidden="1" customWidth="1"/>
+    <col min="2049" max="2049" width="9.1640625" customWidth="1"/>
+    <col min="2050" max="2050" width="14" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="13" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="13" customWidth="1"/>
+    <col min="2053" max="2053" width="40.5" customWidth="1"/>
+    <col min="2054" max="2054" width="31.5" customWidth="1"/>
+    <col min="2055" max="2055" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="7" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2061" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2064" width="11.5" customWidth="1"/>
+    <col min="2067" max="2073" width="0" hidden="1" customWidth="1"/>
+    <col min="2305" max="2305" width="9.1640625" customWidth="1"/>
+    <col min="2306" max="2306" width="14" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="13" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="13" customWidth="1"/>
+    <col min="2309" max="2309" width="40.5" customWidth="1"/>
+    <col min="2310" max="2310" width="31.5" customWidth="1"/>
+    <col min="2311" max="2311" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="7" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2317" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2320" width="11.5" customWidth="1"/>
+    <col min="2323" max="2329" width="0" hidden="1" customWidth="1"/>
+    <col min="2561" max="2561" width="9.1640625" customWidth="1"/>
+    <col min="2562" max="2562" width="14" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="13" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="13" customWidth="1"/>
+    <col min="2565" max="2565" width="40.5" customWidth="1"/>
+    <col min="2566" max="2566" width="31.5" customWidth="1"/>
+    <col min="2567" max="2567" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="7" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2573" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2576" width="11.5" customWidth="1"/>
+    <col min="2579" max="2585" width="0" hidden="1" customWidth="1"/>
+    <col min="2817" max="2817" width="9.1640625" customWidth="1"/>
+    <col min="2818" max="2818" width="14" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="13" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="13" customWidth="1"/>
+    <col min="2821" max="2821" width="40.5" customWidth="1"/>
+    <col min="2822" max="2822" width="31.5" customWidth="1"/>
+    <col min="2823" max="2823" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="7" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2829" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2832" max="2832" width="11.5" customWidth="1"/>
+    <col min="2835" max="2841" width="0" hidden="1" customWidth="1"/>
+    <col min="3073" max="3073" width="9.1640625" customWidth="1"/>
+    <col min="3074" max="3074" width="14" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="13" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="13" customWidth="1"/>
+    <col min="3077" max="3077" width="40.5" customWidth="1"/>
+    <col min="3078" max="3078" width="31.5" customWidth="1"/>
+    <col min="3079" max="3079" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="7" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3085" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3088" width="11.5" customWidth="1"/>
+    <col min="3091" max="3097" width="0" hidden="1" customWidth="1"/>
+    <col min="3329" max="3329" width="9.1640625" customWidth="1"/>
+    <col min="3330" max="3330" width="14" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="13" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="13" customWidth="1"/>
+    <col min="3333" max="3333" width="40.5" customWidth="1"/>
+    <col min="3334" max="3334" width="31.5" customWidth="1"/>
+    <col min="3335" max="3335" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="7" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3341" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3344" width="11.5" customWidth="1"/>
+    <col min="3347" max="3353" width="0" hidden="1" customWidth="1"/>
+    <col min="3585" max="3585" width="9.1640625" customWidth="1"/>
+    <col min="3586" max="3586" width="14" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="13" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="13" customWidth="1"/>
+    <col min="3589" max="3589" width="40.5" customWidth="1"/>
+    <col min="3590" max="3590" width="31.5" customWidth="1"/>
+    <col min="3591" max="3591" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="7" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3597" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3600" width="11.5" customWidth="1"/>
+    <col min="3603" max="3609" width="0" hidden="1" customWidth="1"/>
+    <col min="3841" max="3841" width="9.1640625" customWidth="1"/>
+    <col min="3842" max="3842" width="14" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="13" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="13" customWidth="1"/>
+    <col min="3845" max="3845" width="40.5" customWidth="1"/>
+    <col min="3846" max="3846" width="31.5" customWidth="1"/>
+    <col min="3847" max="3847" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="7" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3853" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3856" max="3856" width="11.5" customWidth="1"/>
+    <col min="3859" max="3865" width="0" hidden="1" customWidth="1"/>
+    <col min="4097" max="4097" width="9.1640625" customWidth="1"/>
+    <col min="4098" max="4098" width="14" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="13" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="13" customWidth="1"/>
+    <col min="4101" max="4101" width="40.5" customWidth="1"/>
+    <col min="4102" max="4102" width="31.5" customWidth="1"/>
+    <col min="4103" max="4103" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="7" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4109" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4112" width="11.5" customWidth="1"/>
+    <col min="4115" max="4121" width="0" hidden="1" customWidth="1"/>
+    <col min="4353" max="4353" width="9.1640625" customWidth="1"/>
+    <col min="4354" max="4354" width="14" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="13" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="13" customWidth="1"/>
+    <col min="4357" max="4357" width="40.5" customWidth="1"/>
+    <col min="4358" max="4358" width="31.5" customWidth="1"/>
+    <col min="4359" max="4359" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="7" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4365" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4368" width="11.5" customWidth="1"/>
+    <col min="4371" max="4377" width="0" hidden="1" customWidth="1"/>
+    <col min="4609" max="4609" width="9.1640625" customWidth="1"/>
+    <col min="4610" max="4610" width="14" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="13" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="13" customWidth="1"/>
+    <col min="4613" max="4613" width="40.5" customWidth="1"/>
+    <col min="4614" max="4614" width="31.5" customWidth="1"/>
+    <col min="4615" max="4615" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="7" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4621" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4624" width="11.5" customWidth="1"/>
+    <col min="4627" max="4633" width="0" hidden="1" customWidth="1"/>
+    <col min="4865" max="4865" width="9.1640625" customWidth="1"/>
+    <col min="4866" max="4866" width="14" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="13" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="13" customWidth="1"/>
+    <col min="4869" max="4869" width="40.5" customWidth="1"/>
+    <col min="4870" max="4870" width="31.5" customWidth="1"/>
+    <col min="4871" max="4871" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="7" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4877" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4880" max="4880" width="11.5" customWidth="1"/>
+    <col min="4883" max="4889" width="0" hidden="1" customWidth="1"/>
+    <col min="5121" max="5121" width="9.1640625" customWidth="1"/>
+    <col min="5122" max="5122" width="14" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="13" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="13" customWidth="1"/>
+    <col min="5125" max="5125" width="40.5" customWidth="1"/>
+    <col min="5126" max="5126" width="31.5" customWidth="1"/>
+    <col min="5127" max="5127" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="7" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5133" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5136" width="11.5" customWidth="1"/>
+    <col min="5139" max="5145" width="0" hidden="1" customWidth="1"/>
+    <col min="5377" max="5377" width="9.1640625" customWidth="1"/>
+    <col min="5378" max="5378" width="14" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="13" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="13" customWidth="1"/>
+    <col min="5381" max="5381" width="40.5" customWidth="1"/>
+    <col min="5382" max="5382" width="31.5" customWidth="1"/>
+    <col min="5383" max="5383" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="7" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5389" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5392" width="11.5" customWidth="1"/>
+    <col min="5395" max="5401" width="0" hidden="1" customWidth="1"/>
+    <col min="5633" max="5633" width="9.1640625" customWidth="1"/>
+    <col min="5634" max="5634" width="14" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="13" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="13" customWidth="1"/>
+    <col min="5637" max="5637" width="40.5" customWidth="1"/>
+    <col min="5638" max="5638" width="31.5" customWidth="1"/>
+    <col min="5639" max="5639" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="7" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5645" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5648" width="11.5" customWidth="1"/>
+    <col min="5651" max="5657" width="0" hidden="1" customWidth="1"/>
+    <col min="5889" max="5889" width="9.1640625" customWidth="1"/>
+    <col min="5890" max="5890" width="14" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="13" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="13" customWidth="1"/>
+    <col min="5893" max="5893" width="40.5" customWidth="1"/>
+    <col min="5894" max="5894" width="31.5" customWidth="1"/>
+    <col min="5895" max="5895" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="7" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5901" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5904" max="5904" width="11.5" customWidth="1"/>
+    <col min="5907" max="5913" width="0" hidden="1" customWidth="1"/>
+    <col min="6145" max="6145" width="9.1640625" customWidth="1"/>
+    <col min="6146" max="6146" width="14" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="13" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="13" customWidth="1"/>
+    <col min="6149" max="6149" width="40.5" customWidth="1"/>
+    <col min="6150" max="6150" width="31.5" customWidth="1"/>
+    <col min="6151" max="6151" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="7" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6157" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6160" width="11.5" customWidth="1"/>
+    <col min="6163" max="6169" width="0" hidden="1" customWidth="1"/>
+    <col min="6401" max="6401" width="9.1640625" customWidth="1"/>
+    <col min="6402" max="6402" width="14" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="13" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="13" customWidth="1"/>
+    <col min="6405" max="6405" width="40.5" customWidth="1"/>
+    <col min="6406" max="6406" width="31.5" customWidth="1"/>
+    <col min="6407" max="6407" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="7" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6413" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6416" width="11.5" customWidth="1"/>
+    <col min="6419" max="6425" width="0" hidden="1" customWidth="1"/>
+    <col min="6657" max="6657" width="9.1640625" customWidth="1"/>
+    <col min="6658" max="6658" width="14" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="13" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="13" customWidth="1"/>
+    <col min="6661" max="6661" width="40.5" customWidth="1"/>
+    <col min="6662" max="6662" width="31.5" customWidth="1"/>
+    <col min="6663" max="6663" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="7" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6669" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6672" width="11.5" customWidth="1"/>
+    <col min="6675" max="6681" width="0" hidden="1" customWidth="1"/>
+    <col min="6913" max="6913" width="9.1640625" customWidth="1"/>
+    <col min="6914" max="6914" width="14" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="13" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="13" customWidth="1"/>
+    <col min="6917" max="6917" width="40.5" customWidth="1"/>
+    <col min="6918" max="6918" width="31.5" customWidth="1"/>
+    <col min="6919" max="6919" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="7" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6925" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6928" max="6928" width="11.5" customWidth="1"/>
+    <col min="6931" max="6937" width="0" hidden="1" customWidth="1"/>
+    <col min="7169" max="7169" width="9.1640625" customWidth="1"/>
+    <col min="7170" max="7170" width="14" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="13" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="13" customWidth="1"/>
+    <col min="7173" max="7173" width="40.5" customWidth="1"/>
+    <col min="7174" max="7174" width="31.5" customWidth="1"/>
+    <col min="7175" max="7175" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="7" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7181" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7184" width="11.5" customWidth="1"/>
+    <col min="7187" max="7193" width="0" hidden="1" customWidth="1"/>
+    <col min="7425" max="7425" width="9.1640625" customWidth="1"/>
+    <col min="7426" max="7426" width="14" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="13" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="13" customWidth="1"/>
+    <col min="7429" max="7429" width="40.5" customWidth="1"/>
+    <col min="7430" max="7430" width="31.5" customWidth="1"/>
+    <col min="7431" max="7431" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="7" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7437" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7440" width="11.5" customWidth="1"/>
+    <col min="7443" max="7449" width="0" hidden="1" customWidth="1"/>
+    <col min="7681" max="7681" width="9.1640625" customWidth="1"/>
+    <col min="7682" max="7682" width="14" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="13" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="13" customWidth="1"/>
+    <col min="7685" max="7685" width="40.5" customWidth="1"/>
+    <col min="7686" max="7686" width="31.5" customWidth="1"/>
+    <col min="7687" max="7687" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="7" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7693" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7696" width="11.5" customWidth="1"/>
+    <col min="7699" max="7705" width="0" hidden="1" customWidth="1"/>
+    <col min="7937" max="7937" width="9.1640625" customWidth="1"/>
+    <col min="7938" max="7938" width="14" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="13" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="13" customWidth="1"/>
+    <col min="7941" max="7941" width="40.5" customWidth="1"/>
+    <col min="7942" max="7942" width="31.5" customWidth="1"/>
+    <col min="7943" max="7943" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="7" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7949" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7952" max="7952" width="11.5" customWidth="1"/>
+    <col min="7955" max="7961" width="0" hidden="1" customWidth="1"/>
+    <col min="8193" max="8193" width="9.1640625" customWidth="1"/>
+    <col min="8194" max="8194" width="14" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="13" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="13" customWidth="1"/>
+    <col min="8197" max="8197" width="40.5" customWidth="1"/>
+    <col min="8198" max="8198" width="31.5" customWidth="1"/>
+    <col min="8199" max="8199" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="7" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8205" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8208" width="11.5" customWidth="1"/>
+    <col min="8211" max="8217" width="0" hidden="1" customWidth="1"/>
+    <col min="8449" max="8449" width="9.1640625" customWidth="1"/>
+    <col min="8450" max="8450" width="14" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="13" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="13" customWidth="1"/>
+    <col min="8453" max="8453" width="40.5" customWidth="1"/>
+    <col min="8454" max="8454" width="31.5" customWidth="1"/>
+    <col min="8455" max="8455" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="7" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8461" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8464" width="11.5" customWidth="1"/>
+    <col min="8467" max="8473" width="0" hidden="1" customWidth="1"/>
+    <col min="8705" max="8705" width="9.1640625" customWidth="1"/>
+    <col min="8706" max="8706" width="14" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="13" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="13" customWidth="1"/>
+    <col min="8709" max="8709" width="40.5" customWidth="1"/>
+    <col min="8710" max="8710" width="31.5" customWidth="1"/>
+    <col min="8711" max="8711" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="7" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8717" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8720" width="11.5" customWidth="1"/>
+    <col min="8723" max="8729" width="0" hidden="1" customWidth="1"/>
+    <col min="8961" max="8961" width="9.1640625" customWidth="1"/>
+    <col min="8962" max="8962" width="14" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="13" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="13" customWidth="1"/>
+    <col min="8965" max="8965" width="40.5" customWidth="1"/>
+    <col min="8966" max="8966" width="31.5" customWidth="1"/>
+    <col min="8967" max="8967" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="7" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8973" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8976" max="8976" width="11.5" customWidth="1"/>
+    <col min="8979" max="8985" width="0" hidden="1" customWidth="1"/>
+    <col min="9217" max="9217" width="9.1640625" customWidth="1"/>
+    <col min="9218" max="9218" width="14" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="13" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="13" customWidth="1"/>
+    <col min="9221" max="9221" width="40.5" customWidth="1"/>
+    <col min="9222" max="9222" width="31.5" customWidth="1"/>
+    <col min="9223" max="9223" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="7" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9229" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9232" width="11.5" customWidth="1"/>
+    <col min="9235" max="9241" width="0" hidden="1" customWidth="1"/>
+    <col min="9473" max="9473" width="9.1640625" customWidth="1"/>
+    <col min="9474" max="9474" width="14" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="13" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="13" customWidth="1"/>
+    <col min="9477" max="9477" width="40.5" customWidth="1"/>
+    <col min="9478" max="9478" width="31.5" customWidth="1"/>
+    <col min="9479" max="9479" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="7" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9485" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9488" width="11.5" customWidth="1"/>
+    <col min="9491" max="9497" width="0" hidden="1" customWidth="1"/>
+    <col min="9729" max="9729" width="9.1640625" customWidth="1"/>
+    <col min="9730" max="9730" width="14" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="13" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="13" customWidth="1"/>
+    <col min="9733" max="9733" width="40.5" customWidth="1"/>
+    <col min="9734" max="9734" width="31.5" customWidth="1"/>
+    <col min="9735" max="9735" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="7" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9741" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9744" width="11.5" customWidth="1"/>
+    <col min="9747" max="9753" width="0" hidden="1" customWidth="1"/>
+    <col min="9985" max="9985" width="9.1640625" customWidth="1"/>
+    <col min="9986" max="9986" width="14" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="13" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="13" customWidth="1"/>
+    <col min="9989" max="9989" width="40.5" customWidth="1"/>
+    <col min="9990" max="9990" width="31.5" customWidth="1"/>
+    <col min="9991" max="9991" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="7" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9997" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10000" width="11.5" customWidth="1"/>
+    <col min="10003" max="10009" width="0" hidden="1" customWidth="1"/>
+    <col min="10241" max="10241" width="9.1640625" customWidth="1"/>
+    <col min="10242" max="10242" width="14" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="13" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="13" customWidth="1"/>
+    <col min="10245" max="10245" width="40.5" customWidth="1"/>
+    <col min="10246" max="10246" width="31.5" customWidth="1"/>
+    <col min="10247" max="10247" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="7" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10253" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10256" width="11.5" customWidth="1"/>
+    <col min="10259" max="10265" width="0" hidden="1" customWidth="1"/>
+    <col min="10497" max="10497" width="9.1640625" customWidth="1"/>
+    <col min="10498" max="10498" width="14" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="13" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="13" customWidth="1"/>
+    <col min="10501" max="10501" width="40.5" customWidth="1"/>
+    <col min="10502" max="10502" width="31.5" customWidth="1"/>
+    <col min="10503" max="10503" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="7" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10509" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10512" width="11.5" customWidth="1"/>
+    <col min="10515" max="10521" width="0" hidden="1" customWidth="1"/>
+    <col min="10753" max="10753" width="9.1640625" customWidth="1"/>
+    <col min="10754" max="10754" width="14" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="13" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="13" customWidth="1"/>
+    <col min="10757" max="10757" width="40.5" customWidth="1"/>
+    <col min="10758" max="10758" width="31.5" customWidth="1"/>
+    <col min="10759" max="10759" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="7" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10765" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10768" max="10768" width="11.5" customWidth="1"/>
+    <col min="10771" max="10777" width="0" hidden="1" customWidth="1"/>
+    <col min="11009" max="11009" width="9.1640625" customWidth="1"/>
+    <col min="11010" max="11010" width="14" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="13" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="13" customWidth="1"/>
+    <col min="11013" max="11013" width="40.5" customWidth="1"/>
+    <col min="11014" max="11014" width="31.5" customWidth="1"/>
+    <col min="11015" max="11015" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="7" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11021" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11024" width="11.5" customWidth="1"/>
+    <col min="11027" max="11033" width="0" hidden="1" customWidth="1"/>
+    <col min="11265" max="11265" width="9.1640625" customWidth="1"/>
+    <col min="11266" max="11266" width="14" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="13" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="13" customWidth="1"/>
+    <col min="11269" max="11269" width="40.5" customWidth="1"/>
+    <col min="11270" max="11270" width="31.5" customWidth="1"/>
+    <col min="11271" max="11271" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="7" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11277" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11280" width="11.5" customWidth="1"/>
+    <col min="11283" max="11289" width="0" hidden="1" customWidth="1"/>
+    <col min="11521" max="11521" width="9.1640625" customWidth="1"/>
+    <col min="11522" max="11522" width="14" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="13" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="13" customWidth="1"/>
+    <col min="11525" max="11525" width="40.5" customWidth="1"/>
+    <col min="11526" max="11526" width="31.5" customWidth="1"/>
+    <col min="11527" max="11527" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="7" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11533" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11536" width="11.5" customWidth="1"/>
+    <col min="11539" max="11545" width="0" hidden="1" customWidth="1"/>
+    <col min="11777" max="11777" width="9.1640625" customWidth="1"/>
+    <col min="11778" max="11778" width="14" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="13" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="13" customWidth="1"/>
+    <col min="11781" max="11781" width="40.5" customWidth="1"/>
+    <col min="11782" max="11782" width="31.5" customWidth="1"/>
+    <col min="11783" max="11783" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="7" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11789" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11792" max="11792" width="11.5" customWidth="1"/>
+    <col min="11795" max="11801" width="0" hidden="1" customWidth="1"/>
+    <col min="12033" max="12033" width="9.1640625" customWidth="1"/>
+    <col min="12034" max="12034" width="14" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="13" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="13" customWidth="1"/>
+    <col min="12037" max="12037" width="40.5" customWidth="1"/>
+    <col min="12038" max="12038" width="31.5" customWidth="1"/>
+    <col min="12039" max="12039" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="7" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12045" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12048" width="11.5" customWidth="1"/>
+    <col min="12051" max="12057" width="0" hidden="1" customWidth="1"/>
+    <col min="12289" max="12289" width="9.1640625" customWidth="1"/>
+    <col min="12290" max="12290" width="14" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="13" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="13" customWidth="1"/>
+    <col min="12293" max="12293" width="40.5" customWidth="1"/>
+    <col min="12294" max="12294" width="31.5" customWidth="1"/>
+    <col min="12295" max="12295" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="7" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12301" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12304" width="11.5" customWidth="1"/>
+    <col min="12307" max="12313" width="0" hidden="1" customWidth="1"/>
+    <col min="12545" max="12545" width="9.1640625" customWidth="1"/>
+    <col min="12546" max="12546" width="14" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="13" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="13" customWidth="1"/>
+    <col min="12549" max="12549" width="40.5" customWidth="1"/>
+    <col min="12550" max="12550" width="31.5" customWidth="1"/>
+    <col min="12551" max="12551" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="7" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12557" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12560" width="11.5" customWidth="1"/>
+    <col min="12563" max="12569" width="0" hidden="1" customWidth="1"/>
+    <col min="12801" max="12801" width="9.1640625" customWidth="1"/>
+    <col min="12802" max="12802" width="14" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="13" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="13" customWidth="1"/>
+    <col min="12805" max="12805" width="40.5" customWidth="1"/>
+    <col min="12806" max="12806" width="31.5" customWidth="1"/>
+    <col min="12807" max="12807" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="7" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12813" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12816" max="12816" width="11.5" customWidth="1"/>
+    <col min="12819" max="12825" width="0" hidden="1" customWidth="1"/>
+    <col min="13057" max="13057" width="9.1640625" customWidth="1"/>
+    <col min="13058" max="13058" width="14" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="13" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="13" customWidth="1"/>
+    <col min="13061" max="13061" width="40.5" customWidth="1"/>
+    <col min="13062" max="13062" width="31.5" customWidth="1"/>
+    <col min="13063" max="13063" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="7" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13069" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13072" width="11.5" customWidth="1"/>
+    <col min="13075" max="13081" width="0" hidden="1" customWidth="1"/>
+    <col min="13313" max="13313" width="9.1640625" customWidth="1"/>
+    <col min="13314" max="13314" width="14" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="13" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="13" customWidth="1"/>
+    <col min="13317" max="13317" width="40.5" customWidth="1"/>
+    <col min="13318" max="13318" width="31.5" customWidth="1"/>
+    <col min="13319" max="13319" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="7" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13325" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13328" width="11.5" customWidth="1"/>
+    <col min="13331" max="13337" width="0" hidden="1" customWidth="1"/>
+    <col min="13569" max="13569" width="9.1640625" customWidth="1"/>
+    <col min="13570" max="13570" width="14" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="13" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="13" customWidth="1"/>
+    <col min="13573" max="13573" width="40.5" customWidth="1"/>
+    <col min="13574" max="13574" width="31.5" customWidth="1"/>
+    <col min="13575" max="13575" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="7" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13581" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13584" width="11.5" customWidth="1"/>
+    <col min="13587" max="13593" width="0" hidden="1" customWidth="1"/>
+    <col min="13825" max="13825" width="9.1640625" customWidth="1"/>
+    <col min="13826" max="13826" width="14" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="13" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="13" customWidth="1"/>
+    <col min="13829" max="13829" width="40.5" customWidth="1"/>
+    <col min="13830" max="13830" width="31.5" customWidth="1"/>
+    <col min="13831" max="13831" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="7" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13837" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13840" max="13840" width="11.5" customWidth="1"/>
+    <col min="13843" max="13849" width="0" hidden="1" customWidth="1"/>
+    <col min="14081" max="14081" width="9.1640625" customWidth="1"/>
+    <col min="14082" max="14082" width="14" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="13" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="13" customWidth="1"/>
+    <col min="14085" max="14085" width="40.5" customWidth="1"/>
+    <col min="14086" max="14086" width="31.5" customWidth="1"/>
+    <col min="14087" max="14087" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="7" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14093" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14096" width="11.5" customWidth="1"/>
+    <col min="14099" max="14105" width="0" hidden="1" customWidth="1"/>
+    <col min="14337" max="14337" width="9.1640625" customWidth="1"/>
+    <col min="14338" max="14338" width="14" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="13" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="13" customWidth="1"/>
+    <col min="14341" max="14341" width="40.5" customWidth="1"/>
+    <col min="14342" max="14342" width="31.5" customWidth="1"/>
+    <col min="14343" max="14343" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="7" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14349" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14352" width="11.5" customWidth="1"/>
+    <col min="14355" max="14361" width="0" hidden="1" customWidth="1"/>
+    <col min="14593" max="14593" width="9.1640625" customWidth="1"/>
+    <col min="14594" max="14594" width="14" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="13" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="13" customWidth="1"/>
+    <col min="14597" max="14597" width="40.5" customWidth="1"/>
+    <col min="14598" max="14598" width="31.5" customWidth="1"/>
+    <col min="14599" max="14599" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="7" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14605" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14608" width="11.5" customWidth="1"/>
+    <col min="14611" max="14617" width="0" hidden="1" customWidth="1"/>
+    <col min="14849" max="14849" width="9.1640625" customWidth="1"/>
+    <col min="14850" max="14850" width="14" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="13" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="13" customWidth="1"/>
+    <col min="14853" max="14853" width="40.5" customWidth="1"/>
+    <col min="14854" max="14854" width="31.5" customWidth="1"/>
+    <col min="14855" max="14855" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="7" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14861" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14864" max="14864" width="11.5" customWidth="1"/>
+    <col min="14867" max="14873" width="0" hidden="1" customWidth="1"/>
+    <col min="15105" max="15105" width="9.1640625" customWidth="1"/>
+    <col min="15106" max="15106" width="14" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="13" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="13" customWidth="1"/>
+    <col min="15109" max="15109" width="40.5" customWidth="1"/>
+    <col min="15110" max="15110" width="31.5" customWidth="1"/>
+    <col min="15111" max="15111" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="7" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15117" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15120" width="11.5" customWidth="1"/>
+    <col min="15123" max="15129" width="0" hidden="1" customWidth="1"/>
+    <col min="15361" max="15361" width="9.1640625" customWidth="1"/>
+    <col min="15362" max="15362" width="14" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="13" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="13" customWidth="1"/>
+    <col min="15365" max="15365" width="40.5" customWidth="1"/>
+    <col min="15366" max="15366" width="31.5" customWidth="1"/>
+    <col min="15367" max="15367" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="7" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15373" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15376" width="11.5" customWidth="1"/>
+    <col min="15379" max="15385" width="0" hidden="1" customWidth="1"/>
+    <col min="15617" max="15617" width="9.1640625" customWidth="1"/>
+    <col min="15618" max="15618" width="14" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="13" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="13" customWidth="1"/>
+    <col min="15621" max="15621" width="40.5" customWidth="1"/>
+    <col min="15622" max="15622" width="31.5" customWidth="1"/>
+    <col min="15623" max="15623" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="7" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15629" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15632" width="11.5" customWidth="1"/>
+    <col min="15635" max="15641" width="0" hidden="1" customWidth="1"/>
+    <col min="15873" max="15873" width="9.1640625" customWidth="1"/>
+    <col min="15874" max="15874" width="14" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="13" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="13" customWidth="1"/>
+    <col min="15877" max="15877" width="40.5" customWidth="1"/>
+    <col min="15878" max="15878" width="31.5" customWidth="1"/>
+    <col min="15879" max="15879" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="7" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15885" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15888" max="15888" width="11.5" customWidth="1"/>
+    <col min="15891" max="15897" width="0" hidden="1" customWidth="1"/>
+    <col min="16129" max="16129" width="9.1640625" customWidth="1"/>
+    <col min="16130" max="16130" width="14" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="13" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="13" customWidth="1"/>
+    <col min="16133" max="16133" width="40.5" customWidth="1"/>
+    <col min="16134" max="16134" width="31.5" customWidth="1"/>
+    <col min="16135" max="16135" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="7" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16141" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16144" width="11.5" customWidth="1"/>
+    <col min="16147" max="16153" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+    </row>
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="69"/>
+    </row>
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="69"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+    </row>
+    <row r="10" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="O10" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>168</v>
+      </c>
+      <c r="X10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="75">
+        <v>44266</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="76"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="T11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="196" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="75">
+        <v>44266</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="T12" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" t="s">
+        <v>180</v>
+      </c>
+      <c r="X12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="182" x14ac:dyDescent="0.2">
+      <c r="A13" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="75">
+        <v>44266</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="76"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="76"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="T13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" t="s">
+        <v>185</v>
+      </c>
+      <c r="X13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:O8"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K13 JG11:JG13 TC11:TC13 ACY11:ACY13 AMU11:AMU13 AWQ11:AWQ13 BGM11:BGM13 BQI11:BQI13 CAE11:CAE13 CKA11:CKA13 CTW11:CTW13 DDS11:DDS13 DNO11:DNO13 DXK11:DXK13 EHG11:EHG13 ERC11:ERC13 FAY11:FAY13 FKU11:FKU13 FUQ11:FUQ13 GEM11:GEM13 GOI11:GOI13 GYE11:GYE13 HIA11:HIA13 HRW11:HRW13 IBS11:IBS13 ILO11:ILO13 IVK11:IVK13 JFG11:JFG13 JPC11:JPC13 JYY11:JYY13 KIU11:KIU13 KSQ11:KSQ13 LCM11:LCM13 LMI11:LMI13 LWE11:LWE13 MGA11:MGA13 MPW11:MPW13 MZS11:MZS13 NJO11:NJO13 NTK11:NTK13 ODG11:ODG13 ONC11:ONC13 OWY11:OWY13 PGU11:PGU13 PQQ11:PQQ13 QAM11:QAM13 QKI11:QKI13 QUE11:QUE13 REA11:REA13 RNW11:RNW13 RXS11:RXS13 SHO11:SHO13 SRK11:SRK13 TBG11:TBG13 TLC11:TLC13 TUY11:TUY13 UEU11:UEU13 UOQ11:UOQ13 UYM11:UYM13 VII11:VII13 VSE11:VSE13 WCA11:WCA13 WLW11:WLW13 WVS11:WVS13 K65547:K65549 JG65547:JG65549 TC65547:TC65549 ACY65547:ACY65549 AMU65547:AMU65549 AWQ65547:AWQ65549 BGM65547:BGM65549 BQI65547:BQI65549 CAE65547:CAE65549 CKA65547:CKA65549 CTW65547:CTW65549 DDS65547:DDS65549 DNO65547:DNO65549 DXK65547:DXK65549 EHG65547:EHG65549 ERC65547:ERC65549 FAY65547:FAY65549 FKU65547:FKU65549 FUQ65547:FUQ65549 GEM65547:GEM65549 GOI65547:GOI65549 GYE65547:GYE65549 HIA65547:HIA65549 HRW65547:HRW65549 IBS65547:IBS65549 ILO65547:ILO65549 IVK65547:IVK65549 JFG65547:JFG65549 JPC65547:JPC65549 JYY65547:JYY65549 KIU65547:KIU65549 KSQ65547:KSQ65549 LCM65547:LCM65549 LMI65547:LMI65549 LWE65547:LWE65549 MGA65547:MGA65549 MPW65547:MPW65549 MZS65547:MZS65549 NJO65547:NJO65549 NTK65547:NTK65549 ODG65547:ODG65549 ONC65547:ONC65549 OWY65547:OWY65549 PGU65547:PGU65549 PQQ65547:PQQ65549 QAM65547:QAM65549 QKI65547:QKI65549 QUE65547:QUE65549 REA65547:REA65549 RNW65547:RNW65549 RXS65547:RXS65549 SHO65547:SHO65549 SRK65547:SRK65549 TBG65547:TBG65549 TLC65547:TLC65549 TUY65547:TUY65549 UEU65547:UEU65549 UOQ65547:UOQ65549 UYM65547:UYM65549 VII65547:VII65549 VSE65547:VSE65549 WCA65547:WCA65549 WLW65547:WLW65549 WVS65547:WVS65549 K131083:K131085 JG131083:JG131085 TC131083:TC131085 ACY131083:ACY131085 AMU131083:AMU131085 AWQ131083:AWQ131085 BGM131083:BGM131085 BQI131083:BQI131085 CAE131083:CAE131085 CKA131083:CKA131085 CTW131083:CTW131085 DDS131083:DDS131085 DNO131083:DNO131085 DXK131083:DXK131085 EHG131083:EHG131085 ERC131083:ERC131085 FAY131083:FAY131085 FKU131083:FKU131085 FUQ131083:FUQ131085 GEM131083:GEM131085 GOI131083:GOI131085 GYE131083:GYE131085 HIA131083:HIA131085 HRW131083:HRW131085 IBS131083:IBS131085 ILO131083:ILO131085 IVK131083:IVK131085 JFG131083:JFG131085 JPC131083:JPC131085 JYY131083:JYY131085 KIU131083:KIU131085 KSQ131083:KSQ131085 LCM131083:LCM131085 LMI131083:LMI131085 LWE131083:LWE131085 MGA131083:MGA131085 MPW131083:MPW131085 MZS131083:MZS131085 NJO131083:NJO131085 NTK131083:NTK131085 ODG131083:ODG131085 ONC131083:ONC131085 OWY131083:OWY131085 PGU131083:PGU131085 PQQ131083:PQQ131085 QAM131083:QAM131085 QKI131083:QKI131085 QUE131083:QUE131085 REA131083:REA131085 RNW131083:RNW131085 RXS131083:RXS131085 SHO131083:SHO131085 SRK131083:SRK131085 TBG131083:TBG131085 TLC131083:TLC131085 TUY131083:TUY131085 UEU131083:UEU131085 UOQ131083:UOQ131085 UYM131083:UYM131085 VII131083:VII131085 VSE131083:VSE131085 WCA131083:WCA131085 WLW131083:WLW131085 WVS131083:WVS131085 K196619:K196621 JG196619:JG196621 TC196619:TC196621 ACY196619:ACY196621 AMU196619:AMU196621 AWQ196619:AWQ196621 BGM196619:BGM196621 BQI196619:BQI196621 CAE196619:CAE196621 CKA196619:CKA196621 CTW196619:CTW196621 DDS196619:DDS196621 DNO196619:DNO196621 DXK196619:DXK196621 EHG196619:EHG196621 ERC196619:ERC196621 FAY196619:FAY196621 FKU196619:FKU196621 FUQ196619:FUQ196621 GEM196619:GEM196621 GOI196619:GOI196621 GYE196619:GYE196621 HIA196619:HIA196621 HRW196619:HRW196621 IBS196619:IBS196621 ILO196619:ILO196621 IVK196619:IVK196621 JFG196619:JFG196621 JPC196619:JPC196621 JYY196619:JYY196621 KIU196619:KIU196621 KSQ196619:KSQ196621 LCM196619:LCM196621 LMI196619:LMI196621 LWE196619:LWE196621 MGA196619:MGA196621 MPW196619:MPW196621 MZS196619:MZS196621 NJO196619:NJO196621 NTK196619:NTK196621 ODG196619:ODG196621 ONC196619:ONC196621 OWY196619:OWY196621 PGU196619:PGU196621 PQQ196619:PQQ196621 QAM196619:QAM196621 QKI196619:QKI196621 QUE196619:QUE196621 REA196619:REA196621 RNW196619:RNW196621 RXS196619:RXS196621 SHO196619:SHO196621 SRK196619:SRK196621 TBG196619:TBG196621 TLC196619:TLC196621 TUY196619:TUY196621 UEU196619:UEU196621 UOQ196619:UOQ196621 UYM196619:UYM196621 VII196619:VII196621 VSE196619:VSE196621 WCA196619:WCA196621 WLW196619:WLW196621 WVS196619:WVS196621 K262155:K262157 JG262155:JG262157 TC262155:TC262157 ACY262155:ACY262157 AMU262155:AMU262157 AWQ262155:AWQ262157 BGM262155:BGM262157 BQI262155:BQI262157 CAE262155:CAE262157 CKA262155:CKA262157 CTW262155:CTW262157 DDS262155:DDS262157 DNO262155:DNO262157 DXK262155:DXK262157 EHG262155:EHG262157 ERC262155:ERC262157 FAY262155:FAY262157 FKU262155:FKU262157 FUQ262155:FUQ262157 GEM262155:GEM262157 GOI262155:GOI262157 GYE262155:GYE262157 HIA262155:HIA262157 HRW262155:HRW262157 IBS262155:IBS262157 ILO262155:ILO262157 IVK262155:IVK262157 JFG262155:JFG262157 JPC262155:JPC262157 JYY262155:JYY262157 KIU262155:KIU262157 KSQ262155:KSQ262157 LCM262155:LCM262157 LMI262155:LMI262157 LWE262155:LWE262157 MGA262155:MGA262157 MPW262155:MPW262157 MZS262155:MZS262157 NJO262155:NJO262157 NTK262155:NTK262157 ODG262155:ODG262157 ONC262155:ONC262157 OWY262155:OWY262157 PGU262155:PGU262157 PQQ262155:PQQ262157 QAM262155:QAM262157 QKI262155:QKI262157 QUE262155:QUE262157 REA262155:REA262157 RNW262155:RNW262157 RXS262155:RXS262157 SHO262155:SHO262157 SRK262155:SRK262157 TBG262155:TBG262157 TLC262155:TLC262157 TUY262155:TUY262157 UEU262155:UEU262157 UOQ262155:UOQ262157 UYM262155:UYM262157 VII262155:VII262157 VSE262155:VSE262157 WCA262155:WCA262157 WLW262155:WLW262157 WVS262155:WVS262157 K327691:K327693 JG327691:JG327693 TC327691:TC327693 ACY327691:ACY327693 AMU327691:AMU327693 AWQ327691:AWQ327693 BGM327691:BGM327693 BQI327691:BQI327693 CAE327691:CAE327693 CKA327691:CKA327693 CTW327691:CTW327693 DDS327691:DDS327693 DNO327691:DNO327693 DXK327691:DXK327693 EHG327691:EHG327693 ERC327691:ERC327693 FAY327691:FAY327693 FKU327691:FKU327693 FUQ327691:FUQ327693 GEM327691:GEM327693 GOI327691:GOI327693 GYE327691:GYE327693 HIA327691:HIA327693 HRW327691:HRW327693 IBS327691:IBS327693 ILO327691:ILO327693 IVK327691:IVK327693 JFG327691:JFG327693 JPC327691:JPC327693 JYY327691:JYY327693 KIU327691:KIU327693 KSQ327691:KSQ327693 LCM327691:LCM327693 LMI327691:LMI327693 LWE327691:LWE327693 MGA327691:MGA327693 MPW327691:MPW327693 MZS327691:MZS327693 NJO327691:NJO327693 NTK327691:NTK327693 ODG327691:ODG327693 ONC327691:ONC327693 OWY327691:OWY327693 PGU327691:PGU327693 PQQ327691:PQQ327693 QAM327691:QAM327693 QKI327691:QKI327693 QUE327691:QUE327693 REA327691:REA327693 RNW327691:RNW327693 RXS327691:RXS327693 SHO327691:SHO327693 SRK327691:SRK327693 TBG327691:TBG327693 TLC327691:TLC327693 TUY327691:TUY327693 UEU327691:UEU327693 UOQ327691:UOQ327693 UYM327691:UYM327693 VII327691:VII327693 VSE327691:VSE327693 WCA327691:WCA327693 WLW327691:WLW327693 WVS327691:WVS327693 K393227:K393229 JG393227:JG393229 TC393227:TC393229 ACY393227:ACY393229 AMU393227:AMU393229 AWQ393227:AWQ393229 BGM393227:BGM393229 BQI393227:BQI393229 CAE393227:CAE393229 CKA393227:CKA393229 CTW393227:CTW393229 DDS393227:DDS393229 DNO393227:DNO393229 DXK393227:DXK393229 EHG393227:EHG393229 ERC393227:ERC393229 FAY393227:FAY393229 FKU393227:FKU393229 FUQ393227:FUQ393229 GEM393227:GEM393229 GOI393227:GOI393229 GYE393227:GYE393229 HIA393227:HIA393229 HRW393227:HRW393229 IBS393227:IBS393229 ILO393227:ILO393229 IVK393227:IVK393229 JFG393227:JFG393229 JPC393227:JPC393229 JYY393227:JYY393229 KIU393227:KIU393229 KSQ393227:KSQ393229 LCM393227:LCM393229 LMI393227:LMI393229 LWE393227:LWE393229 MGA393227:MGA393229 MPW393227:MPW393229 MZS393227:MZS393229 NJO393227:NJO393229 NTK393227:NTK393229 ODG393227:ODG393229 ONC393227:ONC393229 OWY393227:OWY393229 PGU393227:PGU393229 PQQ393227:PQQ393229 QAM393227:QAM393229 QKI393227:QKI393229 QUE393227:QUE393229 REA393227:REA393229 RNW393227:RNW393229 RXS393227:RXS393229 SHO393227:SHO393229 SRK393227:SRK393229 TBG393227:TBG393229 TLC393227:TLC393229 TUY393227:TUY393229 UEU393227:UEU393229 UOQ393227:UOQ393229 UYM393227:UYM393229 VII393227:VII393229 VSE393227:VSE393229 WCA393227:WCA393229 WLW393227:WLW393229 WVS393227:WVS393229 K458763:K458765 JG458763:JG458765 TC458763:TC458765 ACY458763:ACY458765 AMU458763:AMU458765 AWQ458763:AWQ458765 BGM458763:BGM458765 BQI458763:BQI458765 CAE458763:CAE458765 CKA458763:CKA458765 CTW458763:CTW458765 DDS458763:DDS458765 DNO458763:DNO458765 DXK458763:DXK458765 EHG458763:EHG458765 ERC458763:ERC458765 FAY458763:FAY458765 FKU458763:FKU458765 FUQ458763:FUQ458765 GEM458763:GEM458765 GOI458763:GOI458765 GYE458763:GYE458765 HIA458763:HIA458765 HRW458763:HRW458765 IBS458763:IBS458765 ILO458763:ILO458765 IVK458763:IVK458765 JFG458763:JFG458765 JPC458763:JPC458765 JYY458763:JYY458765 KIU458763:KIU458765 KSQ458763:KSQ458765 LCM458763:LCM458765 LMI458763:LMI458765 LWE458763:LWE458765 MGA458763:MGA458765 MPW458763:MPW458765 MZS458763:MZS458765 NJO458763:NJO458765 NTK458763:NTK458765 ODG458763:ODG458765 ONC458763:ONC458765 OWY458763:OWY458765 PGU458763:PGU458765 PQQ458763:PQQ458765 QAM458763:QAM458765 QKI458763:QKI458765 QUE458763:QUE458765 REA458763:REA458765 RNW458763:RNW458765 RXS458763:RXS458765 SHO458763:SHO458765 SRK458763:SRK458765 TBG458763:TBG458765 TLC458763:TLC458765 TUY458763:TUY458765 UEU458763:UEU458765 UOQ458763:UOQ458765 UYM458763:UYM458765 VII458763:VII458765 VSE458763:VSE458765 WCA458763:WCA458765 WLW458763:WLW458765 WVS458763:WVS458765 K524299:K524301 JG524299:JG524301 TC524299:TC524301 ACY524299:ACY524301 AMU524299:AMU524301 AWQ524299:AWQ524301 BGM524299:BGM524301 BQI524299:BQI524301 CAE524299:CAE524301 CKA524299:CKA524301 CTW524299:CTW524301 DDS524299:DDS524301 DNO524299:DNO524301 DXK524299:DXK524301 EHG524299:EHG524301 ERC524299:ERC524301 FAY524299:FAY524301 FKU524299:FKU524301 FUQ524299:FUQ524301 GEM524299:GEM524301 GOI524299:GOI524301 GYE524299:GYE524301 HIA524299:HIA524301 HRW524299:HRW524301 IBS524299:IBS524301 ILO524299:ILO524301 IVK524299:IVK524301 JFG524299:JFG524301 JPC524299:JPC524301 JYY524299:JYY524301 KIU524299:KIU524301 KSQ524299:KSQ524301 LCM524299:LCM524301 LMI524299:LMI524301 LWE524299:LWE524301 MGA524299:MGA524301 MPW524299:MPW524301 MZS524299:MZS524301 NJO524299:NJO524301 NTK524299:NTK524301 ODG524299:ODG524301 ONC524299:ONC524301 OWY524299:OWY524301 PGU524299:PGU524301 PQQ524299:PQQ524301 QAM524299:QAM524301 QKI524299:QKI524301 QUE524299:QUE524301 REA524299:REA524301 RNW524299:RNW524301 RXS524299:RXS524301 SHO524299:SHO524301 SRK524299:SRK524301 TBG524299:TBG524301 TLC524299:TLC524301 TUY524299:TUY524301 UEU524299:UEU524301 UOQ524299:UOQ524301 UYM524299:UYM524301 VII524299:VII524301 VSE524299:VSE524301 WCA524299:WCA524301 WLW524299:WLW524301 WVS524299:WVS524301 K589835:K589837 JG589835:JG589837 TC589835:TC589837 ACY589835:ACY589837 AMU589835:AMU589837 AWQ589835:AWQ589837 BGM589835:BGM589837 BQI589835:BQI589837 CAE589835:CAE589837 CKA589835:CKA589837 CTW589835:CTW589837 DDS589835:DDS589837 DNO589835:DNO589837 DXK589835:DXK589837 EHG589835:EHG589837 ERC589835:ERC589837 FAY589835:FAY589837 FKU589835:FKU589837 FUQ589835:FUQ589837 GEM589835:GEM589837 GOI589835:GOI589837 GYE589835:GYE589837 HIA589835:HIA589837 HRW589835:HRW589837 IBS589835:IBS589837 ILO589835:ILO589837 IVK589835:IVK589837 JFG589835:JFG589837 JPC589835:JPC589837 JYY589835:JYY589837 KIU589835:KIU589837 KSQ589835:KSQ589837 LCM589835:LCM589837 LMI589835:LMI589837 LWE589835:LWE589837 MGA589835:MGA589837 MPW589835:MPW589837 MZS589835:MZS589837 NJO589835:NJO589837 NTK589835:NTK589837 ODG589835:ODG589837 ONC589835:ONC589837 OWY589835:OWY589837 PGU589835:PGU589837 PQQ589835:PQQ589837 QAM589835:QAM589837 QKI589835:QKI589837 QUE589835:QUE589837 REA589835:REA589837 RNW589835:RNW589837 RXS589835:RXS589837 SHO589835:SHO589837 SRK589835:SRK589837 TBG589835:TBG589837 TLC589835:TLC589837 TUY589835:TUY589837 UEU589835:UEU589837 UOQ589835:UOQ589837 UYM589835:UYM589837 VII589835:VII589837 VSE589835:VSE589837 WCA589835:WCA589837 WLW589835:WLW589837 WVS589835:WVS589837 K655371:K655373 JG655371:JG655373 TC655371:TC655373 ACY655371:ACY655373 AMU655371:AMU655373 AWQ655371:AWQ655373 BGM655371:BGM655373 BQI655371:BQI655373 CAE655371:CAE655373 CKA655371:CKA655373 CTW655371:CTW655373 DDS655371:DDS655373 DNO655371:DNO655373 DXK655371:DXK655373 EHG655371:EHG655373 ERC655371:ERC655373 FAY655371:FAY655373 FKU655371:FKU655373 FUQ655371:FUQ655373 GEM655371:GEM655373 GOI655371:GOI655373 GYE655371:GYE655373 HIA655371:HIA655373 HRW655371:HRW655373 IBS655371:IBS655373 ILO655371:ILO655373 IVK655371:IVK655373 JFG655371:JFG655373 JPC655371:JPC655373 JYY655371:JYY655373 KIU655371:KIU655373 KSQ655371:KSQ655373 LCM655371:LCM655373 LMI655371:LMI655373 LWE655371:LWE655373 MGA655371:MGA655373 MPW655371:MPW655373 MZS655371:MZS655373 NJO655371:NJO655373 NTK655371:NTK655373 ODG655371:ODG655373 ONC655371:ONC655373 OWY655371:OWY655373 PGU655371:PGU655373 PQQ655371:PQQ655373 QAM655371:QAM655373 QKI655371:QKI655373 QUE655371:QUE655373 REA655371:REA655373 RNW655371:RNW655373 RXS655371:RXS655373 SHO655371:SHO655373 SRK655371:SRK655373 TBG655371:TBG655373 TLC655371:TLC655373 TUY655371:TUY655373 UEU655371:UEU655373 UOQ655371:UOQ655373 UYM655371:UYM655373 VII655371:VII655373 VSE655371:VSE655373 WCA655371:WCA655373 WLW655371:WLW655373 WVS655371:WVS655373 K720907:K720909 JG720907:JG720909 TC720907:TC720909 ACY720907:ACY720909 AMU720907:AMU720909 AWQ720907:AWQ720909 BGM720907:BGM720909 BQI720907:BQI720909 CAE720907:CAE720909 CKA720907:CKA720909 CTW720907:CTW720909 DDS720907:DDS720909 DNO720907:DNO720909 DXK720907:DXK720909 EHG720907:EHG720909 ERC720907:ERC720909 FAY720907:FAY720909 FKU720907:FKU720909 FUQ720907:FUQ720909 GEM720907:GEM720909 GOI720907:GOI720909 GYE720907:GYE720909 HIA720907:HIA720909 HRW720907:HRW720909 IBS720907:IBS720909 ILO720907:ILO720909 IVK720907:IVK720909 JFG720907:JFG720909 JPC720907:JPC720909 JYY720907:JYY720909 KIU720907:KIU720909 KSQ720907:KSQ720909 LCM720907:LCM720909 LMI720907:LMI720909 LWE720907:LWE720909 MGA720907:MGA720909 MPW720907:MPW720909 MZS720907:MZS720909 NJO720907:NJO720909 NTK720907:NTK720909 ODG720907:ODG720909 ONC720907:ONC720909 OWY720907:OWY720909 PGU720907:PGU720909 PQQ720907:PQQ720909 QAM720907:QAM720909 QKI720907:QKI720909 QUE720907:QUE720909 REA720907:REA720909 RNW720907:RNW720909 RXS720907:RXS720909 SHO720907:SHO720909 SRK720907:SRK720909 TBG720907:TBG720909 TLC720907:TLC720909 TUY720907:TUY720909 UEU720907:UEU720909 UOQ720907:UOQ720909 UYM720907:UYM720909 VII720907:VII720909 VSE720907:VSE720909 WCA720907:WCA720909 WLW720907:WLW720909 WVS720907:WVS720909 K786443:K786445 JG786443:JG786445 TC786443:TC786445 ACY786443:ACY786445 AMU786443:AMU786445 AWQ786443:AWQ786445 BGM786443:BGM786445 BQI786443:BQI786445 CAE786443:CAE786445 CKA786443:CKA786445 CTW786443:CTW786445 DDS786443:DDS786445 DNO786443:DNO786445 DXK786443:DXK786445 EHG786443:EHG786445 ERC786443:ERC786445 FAY786443:FAY786445 FKU786443:FKU786445 FUQ786443:FUQ786445 GEM786443:GEM786445 GOI786443:GOI786445 GYE786443:GYE786445 HIA786443:HIA786445 HRW786443:HRW786445 IBS786443:IBS786445 ILO786443:ILO786445 IVK786443:IVK786445 JFG786443:JFG786445 JPC786443:JPC786445 JYY786443:JYY786445 KIU786443:KIU786445 KSQ786443:KSQ786445 LCM786443:LCM786445 LMI786443:LMI786445 LWE786443:LWE786445 MGA786443:MGA786445 MPW786443:MPW786445 MZS786443:MZS786445 NJO786443:NJO786445 NTK786443:NTK786445 ODG786443:ODG786445 ONC786443:ONC786445 OWY786443:OWY786445 PGU786443:PGU786445 PQQ786443:PQQ786445 QAM786443:QAM786445 QKI786443:QKI786445 QUE786443:QUE786445 REA786443:REA786445 RNW786443:RNW786445 RXS786443:RXS786445 SHO786443:SHO786445 SRK786443:SRK786445 TBG786443:TBG786445 TLC786443:TLC786445 TUY786443:TUY786445 UEU786443:UEU786445 UOQ786443:UOQ786445 UYM786443:UYM786445 VII786443:VII786445 VSE786443:VSE786445 WCA786443:WCA786445 WLW786443:WLW786445 WVS786443:WVS786445 K851979:K851981 JG851979:JG851981 TC851979:TC851981 ACY851979:ACY851981 AMU851979:AMU851981 AWQ851979:AWQ851981 BGM851979:BGM851981 BQI851979:BQI851981 CAE851979:CAE851981 CKA851979:CKA851981 CTW851979:CTW851981 DDS851979:DDS851981 DNO851979:DNO851981 DXK851979:DXK851981 EHG851979:EHG851981 ERC851979:ERC851981 FAY851979:FAY851981 FKU851979:FKU851981 FUQ851979:FUQ851981 GEM851979:GEM851981 GOI851979:GOI851981 GYE851979:GYE851981 HIA851979:HIA851981 HRW851979:HRW851981 IBS851979:IBS851981 ILO851979:ILO851981 IVK851979:IVK851981 JFG851979:JFG851981 JPC851979:JPC851981 JYY851979:JYY851981 KIU851979:KIU851981 KSQ851979:KSQ851981 LCM851979:LCM851981 LMI851979:LMI851981 LWE851979:LWE851981 MGA851979:MGA851981 MPW851979:MPW851981 MZS851979:MZS851981 NJO851979:NJO851981 NTK851979:NTK851981 ODG851979:ODG851981 ONC851979:ONC851981 OWY851979:OWY851981 PGU851979:PGU851981 PQQ851979:PQQ851981 QAM851979:QAM851981 QKI851979:QKI851981 QUE851979:QUE851981 REA851979:REA851981 RNW851979:RNW851981 RXS851979:RXS851981 SHO851979:SHO851981 SRK851979:SRK851981 TBG851979:TBG851981 TLC851979:TLC851981 TUY851979:TUY851981 UEU851979:UEU851981 UOQ851979:UOQ851981 UYM851979:UYM851981 VII851979:VII851981 VSE851979:VSE851981 WCA851979:WCA851981 WLW851979:WLW851981 WVS851979:WVS851981 K917515:K917517 JG917515:JG917517 TC917515:TC917517 ACY917515:ACY917517 AMU917515:AMU917517 AWQ917515:AWQ917517 BGM917515:BGM917517 BQI917515:BQI917517 CAE917515:CAE917517 CKA917515:CKA917517 CTW917515:CTW917517 DDS917515:DDS917517 DNO917515:DNO917517 DXK917515:DXK917517 EHG917515:EHG917517 ERC917515:ERC917517 FAY917515:FAY917517 FKU917515:FKU917517 FUQ917515:FUQ917517 GEM917515:GEM917517 GOI917515:GOI917517 GYE917515:GYE917517 HIA917515:HIA917517 HRW917515:HRW917517 IBS917515:IBS917517 ILO917515:ILO917517 IVK917515:IVK917517 JFG917515:JFG917517 JPC917515:JPC917517 JYY917515:JYY917517 KIU917515:KIU917517 KSQ917515:KSQ917517 LCM917515:LCM917517 LMI917515:LMI917517 LWE917515:LWE917517 MGA917515:MGA917517 MPW917515:MPW917517 MZS917515:MZS917517 NJO917515:NJO917517 NTK917515:NTK917517 ODG917515:ODG917517 ONC917515:ONC917517 OWY917515:OWY917517 PGU917515:PGU917517 PQQ917515:PQQ917517 QAM917515:QAM917517 QKI917515:QKI917517 QUE917515:QUE917517 REA917515:REA917517 RNW917515:RNW917517 RXS917515:RXS917517 SHO917515:SHO917517 SRK917515:SRK917517 TBG917515:TBG917517 TLC917515:TLC917517 TUY917515:TUY917517 UEU917515:UEU917517 UOQ917515:UOQ917517 UYM917515:UYM917517 VII917515:VII917517 VSE917515:VSE917517 WCA917515:WCA917517 WLW917515:WLW917517 WVS917515:WVS917517 K983051:K983053 JG983051:JG983053 TC983051:TC983053 ACY983051:ACY983053 AMU983051:AMU983053 AWQ983051:AWQ983053 BGM983051:BGM983053 BQI983051:BQI983053 CAE983051:CAE983053 CKA983051:CKA983053 CTW983051:CTW983053 DDS983051:DDS983053 DNO983051:DNO983053 DXK983051:DXK983053 EHG983051:EHG983053 ERC983051:ERC983053 FAY983051:FAY983053 FKU983051:FKU983053 FUQ983051:FUQ983053 GEM983051:GEM983053 GOI983051:GOI983053 GYE983051:GYE983053 HIA983051:HIA983053 HRW983051:HRW983053 IBS983051:IBS983053 ILO983051:ILO983053 IVK983051:IVK983053 JFG983051:JFG983053 JPC983051:JPC983053 JYY983051:JYY983053 KIU983051:KIU983053 KSQ983051:KSQ983053 LCM983051:LCM983053 LMI983051:LMI983053 LWE983051:LWE983053 MGA983051:MGA983053 MPW983051:MPW983053 MZS983051:MZS983053 NJO983051:NJO983053 NTK983051:NTK983053 ODG983051:ODG983053 ONC983051:ONC983053 OWY983051:OWY983053 PGU983051:PGU983053 PQQ983051:PQQ983053 QAM983051:QAM983053 QKI983051:QKI983053 QUE983051:QUE983053 REA983051:REA983053 RNW983051:RNW983053 RXS983051:RXS983053 SHO983051:SHO983053 SRK983051:SRK983053 TBG983051:TBG983053 TLC983051:TLC983053 TUY983051:TUY983053 UEU983051:UEU983053 UOQ983051:UOQ983053 UYM983051:UYM983053 VII983051:VII983053 VSE983051:VSE983053 WCA983051:WCA983053 WLW983051:WLW983053 WVS983051:WVS983053" xr:uid="{B5231113-F7BF-404F-B160-A3FE81C74A66}">
+      <formula1 xml:space="preserve"> Status</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G13 JC11:JC13 SY11:SY13 ACU11:ACU13 AMQ11:AMQ13 AWM11:AWM13 BGI11:BGI13 BQE11:BQE13 CAA11:CAA13 CJW11:CJW13 CTS11:CTS13 DDO11:DDO13 DNK11:DNK13 DXG11:DXG13 EHC11:EHC13 EQY11:EQY13 FAU11:FAU13 FKQ11:FKQ13 FUM11:FUM13 GEI11:GEI13 GOE11:GOE13 GYA11:GYA13 HHW11:HHW13 HRS11:HRS13 IBO11:IBO13 ILK11:ILK13 IVG11:IVG13 JFC11:JFC13 JOY11:JOY13 JYU11:JYU13 KIQ11:KIQ13 KSM11:KSM13 LCI11:LCI13 LME11:LME13 LWA11:LWA13 MFW11:MFW13 MPS11:MPS13 MZO11:MZO13 NJK11:NJK13 NTG11:NTG13 ODC11:ODC13 OMY11:OMY13 OWU11:OWU13 PGQ11:PGQ13 PQM11:PQM13 QAI11:QAI13 QKE11:QKE13 QUA11:QUA13 RDW11:RDW13 RNS11:RNS13 RXO11:RXO13 SHK11:SHK13 SRG11:SRG13 TBC11:TBC13 TKY11:TKY13 TUU11:TUU13 UEQ11:UEQ13 UOM11:UOM13 UYI11:UYI13 VIE11:VIE13 VSA11:VSA13 WBW11:WBW13 WLS11:WLS13 WVO11:WVO13 G65547:G65549 JC65547:JC65549 SY65547:SY65549 ACU65547:ACU65549 AMQ65547:AMQ65549 AWM65547:AWM65549 BGI65547:BGI65549 BQE65547:BQE65549 CAA65547:CAA65549 CJW65547:CJW65549 CTS65547:CTS65549 DDO65547:DDO65549 DNK65547:DNK65549 DXG65547:DXG65549 EHC65547:EHC65549 EQY65547:EQY65549 FAU65547:FAU65549 FKQ65547:FKQ65549 FUM65547:FUM65549 GEI65547:GEI65549 GOE65547:GOE65549 GYA65547:GYA65549 HHW65547:HHW65549 HRS65547:HRS65549 IBO65547:IBO65549 ILK65547:ILK65549 IVG65547:IVG65549 JFC65547:JFC65549 JOY65547:JOY65549 JYU65547:JYU65549 KIQ65547:KIQ65549 KSM65547:KSM65549 LCI65547:LCI65549 LME65547:LME65549 LWA65547:LWA65549 MFW65547:MFW65549 MPS65547:MPS65549 MZO65547:MZO65549 NJK65547:NJK65549 NTG65547:NTG65549 ODC65547:ODC65549 OMY65547:OMY65549 OWU65547:OWU65549 PGQ65547:PGQ65549 PQM65547:PQM65549 QAI65547:QAI65549 QKE65547:QKE65549 QUA65547:QUA65549 RDW65547:RDW65549 RNS65547:RNS65549 RXO65547:RXO65549 SHK65547:SHK65549 SRG65547:SRG65549 TBC65547:TBC65549 TKY65547:TKY65549 TUU65547:TUU65549 UEQ65547:UEQ65549 UOM65547:UOM65549 UYI65547:UYI65549 VIE65547:VIE65549 VSA65547:VSA65549 WBW65547:WBW65549 WLS65547:WLS65549 WVO65547:WVO65549 G131083:G131085 JC131083:JC131085 SY131083:SY131085 ACU131083:ACU131085 AMQ131083:AMQ131085 AWM131083:AWM131085 BGI131083:BGI131085 BQE131083:BQE131085 CAA131083:CAA131085 CJW131083:CJW131085 CTS131083:CTS131085 DDO131083:DDO131085 DNK131083:DNK131085 DXG131083:DXG131085 EHC131083:EHC131085 EQY131083:EQY131085 FAU131083:FAU131085 FKQ131083:FKQ131085 FUM131083:FUM131085 GEI131083:GEI131085 GOE131083:GOE131085 GYA131083:GYA131085 HHW131083:HHW131085 HRS131083:HRS131085 IBO131083:IBO131085 ILK131083:ILK131085 IVG131083:IVG131085 JFC131083:JFC131085 JOY131083:JOY131085 JYU131083:JYU131085 KIQ131083:KIQ131085 KSM131083:KSM131085 LCI131083:LCI131085 LME131083:LME131085 LWA131083:LWA131085 MFW131083:MFW131085 MPS131083:MPS131085 MZO131083:MZO131085 NJK131083:NJK131085 NTG131083:NTG131085 ODC131083:ODC131085 OMY131083:OMY131085 OWU131083:OWU131085 PGQ131083:PGQ131085 PQM131083:PQM131085 QAI131083:QAI131085 QKE131083:QKE131085 QUA131083:QUA131085 RDW131083:RDW131085 RNS131083:RNS131085 RXO131083:RXO131085 SHK131083:SHK131085 SRG131083:SRG131085 TBC131083:TBC131085 TKY131083:TKY131085 TUU131083:TUU131085 UEQ131083:UEQ131085 UOM131083:UOM131085 UYI131083:UYI131085 VIE131083:VIE131085 VSA131083:VSA131085 WBW131083:WBW131085 WLS131083:WLS131085 WVO131083:WVO131085 G196619:G196621 JC196619:JC196621 SY196619:SY196621 ACU196619:ACU196621 AMQ196619:AMQ196621 AWM196619:AWM196621 BGI196619:BGI196621 BQE196619:BQE196621 CAA196619:CAA196621 CJW196619:CJW196621 CTS196619:CTS196621 DDO196619:DDO196621 DNK196619:DNK196621 DXG196619:DXG196621 EHC196619:EHC196621 EQY196619:EQY196621 FAU196619:FAU196621 FKQ196619:FKQ196621 FUM196619:FUM196621 GEI196619:GEI196621 GOE196619:GOE196621 GYA196619:GYA196621 HHW196619:HHW196621 HRS196619:HRS196621 IBO196619:IBO196621 ILK196619:ILK196621 IVG196619:IVG196621 JFC196619:JFC196621 JOY196619:JOY196621 JYU196619:JYU196621 KIQ196619:KIQ196621 KSM196619:KSM196621 LCI196619:LCI196621 LME196619:LME196621 LWA196619:LWA196621 MFW196619:MFW196621 MPS196619:MPS196621 MZO196619:MZO196621 NJK196619:NJK196621 NTG196619:NTG196621 ODC196619:ODC196621 OMY196619:OMY196621 OWU196619:OWU196621 PGQ196619:PGQ196621 PQM196619:PQM196621 QAI196619:QAI196621 QKE196619:QKE196621 QUA196619:QUA196621 RDW196619:RDW196621 RNS196619:RNS196621 RXO196619:RXO196621 SHK196619:SHK196621 SRG196619:SRG196621 TBC196619:TBC196621 TKY196619:TKY196621 TUU196619:TUU196621 UEQ196619:UEQ196621 UOM196619:UOM196621 UYI196619:UYI196621 VIE196619:VIE196621 VSA196619:VSA196621 WBW196619:WBW196621 WLS196619:WLS196621 WVO196619:WVO196621 G262155:G262157 JC262155:JC262157 SY262155:SY262157 ACU262155:ACU262157 AMQ262155:AMQ262157 AWM262155:AWM262157 BGI262155:BGI262157 BQE262155:BQE262157 CAA262155:CAA262157 CJW262155:CJW262157 CTS262155:CTS262157 DDO262155:DDO262157 DNK262155:DNK262157 DXG262155:DXG262157 EHC262155:EHC262157 EQY262155:EQY262157 FAU262155:FAU262157 FKQ262155:FKQ262157 FUM262155:FUM262157 GEI262155:GEI262157 GOE262155:GOE262157 GYA262155:GYA262157 HHW262155:HHW262157 HRS262155:HRS262157 IBO262155:IBO262157 ILK262155:ILK262157 IVG262155:IVG262157 JFC262155:JFC262157 JOY262155:JOY262157 JYU262155:JYU262157 KIQ262155:KIQ262157 KSM262155:KSM262157 LCI262155:LCI262157 LME262155:LME262157 LWA262155:LWA262157 MFW262155:MFW262157 MPS262155:MPS262157 MZO262155:MZO262157 NJK262155:NJK262157 NTG262155:NTG262157 ODC262155:ODC262157 OMY262155:OMY262157 OWU262155:OWU262157 PGQ262155:PGQ262157 PQM262155:PQM262157 QAI262155:QAI262157 QKE262155:QKE262157 QUA262155:QUA262157 RDW262155:RDW262157 RNS262155:RNS262157 RXO262155:RXO262157 SHK262155:SHK262157 SRG262155:SRG262157 TBC262155:TBC262157 TKY262155:TKY262157 TUU262155:TUU262157 UEQ262155:UEQ262157 UOM262155:UOM262157 UYI262155:UYI262157 VIE262155:VIE262157 VSA262155:VSA262157 WBW262155:WBW262157 WLS262155:WLS262157 WVO262155:WVO262157 G327691:G327693 JC327691:JC327693 SY327691:SY327693 ACU327691:ACU327693 AMQ327691:AMQ327693 AWM327691:AWM327693 BGI327691:BGI327693 BQE327691:BQE327693 CAA327691:CAA327693 CJW327691:CJW327693 CTS327691:CTS327693 DDO327691:DDO327693 DNK327691:DNK327693 DXG327691:DXG327693 EHC327691:EHC327693 EQY327691:EQY327693 FAU327691:FAU327693 FKQ327691:FKQ327693 FUM327691:FUM327693 GEI327691:GEI327693 GOE327691:GOE327693 GYA327691:GYA327693 HHW327691:HHW327693 HRS327691:HRS327693 IBO327691:IBO327693 ILK327691:ILK327693 IVG327691:IVG327693 JFC327691:JFC327693 JOY327691:JOY327693 JYU327691:JYU327693 KIQ327691:KIQ327693 KSM327691:KSM327693 LCI327691:LCI327693 LME327691:LME327693 LWA327691:LWA327693 MFW327691:MFW327693 MPS327691:MPS327693 MZO327691:MZO327693 NJK327691:NJK327693 NTG327691:NTG327693 ODC327691:ODC327693 OMY327691:OMY327693 OWU327691:OWU327693 PGQ327691:PGQ327693 PQM327691:PQM327693 QAI327691:QAI327693 QKE327691:QKE327693 QUA327691:QUA327693 RDW327691:RDW327693 RNS327691:RNS327693 RXO327691:RXO327693 SHK327691:SHK327693 SRG327691:SRG327693 TBC327691:TBC327693 TKY327691:TKY327693 TUU327691:TUU327693 UEQ327691:UEQ327693 UOM327691:UOM327693 UYI327691:UYI327693 VIE327691:VIE327693 VSA327691:VSA327693 WBW327691:WBW327693 WLS327691:WLS327693 WVO327691:WVO327693 G393227:G393229 JC393227:JC393229 SY393227:SY393229 ACU393227:ACU393229 AMQ393227:AMQ393229 AWM393227:AWM393229 BGI393227:BGI393229 BQE393227:BQE393229 CAA393227:CAA393229 CJW393227:CJW393229 CTS393227:CTS393229 DDO393227:DDO393229 DNK393227:DNK393229 DXG393227:DXG393229 EHC393227:EHC393229 EQY393227:EQY393229 FAU393227:FAU393229 FKQ393227:FKQ393229 FUM393227:FUM393229 GEI393227:GEI393229 GOE393227:GOE393229 GYA393227:GYA393229 HHW393227:HHW393229 HRS393227:HRS393229 IBO393227:IBO393229 ILK393227:ILK393229 IVG393227:IVG393229 JFC393227:JFC393229 JOY393227:JOY393229 JYU393227:JYU393229 KIQ393227:KIQ393229 KSM393227:KSM393229 LCI393227:LCI393229 LME393227:LME393229 LWA393227:LWA393229 MFW393227:MFW393229 MPS393227:MPS393229 MZO393227:MZO393229 NJK393227:NJK393229 NTG393227:NTG393229 ODC393227:ODC393229 OMY393227:OMY393229 OWU393227:OWU393229 PGQ393227:PGQ393229 PQM393227:PQM393229 QAI393227:QAI393229 QKE393227:QKE393229 QUA393227:QUA393229 RDW393227:RDW393229 RNS393227:RNS393229 RXO393227:RXO393229 SHK393227:SHK393229 SRG393227:SRG393229 TBC393227:TBC393229 TKY393227:TKY393229 TUU393227:TUU393229 UEQ393227:UEQ393229 UOM393227:UOM393229 UYI393227:UYI393229 VIE393227:VIE393229 VSA393227:VSA393229 WBW393227:WBW393229 WLS393227:WLS393229 WVO393227:WVO393229 G458763:G458765 JC458763:JC458765 SY458763:SY458765 ACU458763:ACU458765 AMQ458763:AMQ458765 AWM458763:AWM458765 BGI458763:BGI458765 BQE458763:BQE458765 CAA458763:CAA458765 CJW458763:CJW458765 CTS458763:CTS458765 DDO458763:DDO458765 DNK458763:DNK458765 DXG458763:DXG458765 EHC458763:EHC458765 EQY458763:EQY458765 FAU458763:FAU458765 FKQ458763:FKQ458765 FUM458763:FUM458765 GEI458763:GEI458765 GOE458763:GOE458765 GYA458763:GYA458765 HHW458763:HHW458765 HRS458763:HRS458765 IBO458763:IBO458765 ILK458763:ILK458765 IVG458763:IVG458765 JFC458763:JFC458765 JOY458763:JOY458765 JYU458763:JYU458765 KIQ458763:KIQ458765 KSM458763:KSM458765 LCI458763:LCI458765 LME458763:LME458765 LWA458763:LWA458765 MFW458763:MFW458765 MPS458763:MPS458765 MZO458763:MZO458765 NJK458763:NJK458765 NTG458763:NTG458765 ODC458763:ODC458765 OMY458763:OMY458765 OWU458763:OWU458765 PGQ458763:PGQ458765 PQM458763:PQM458765 QAI458763:QAI458765 QKE458763:QKE458765 QUA458763:QUA458765 RDW458763:RDW458765 RNS458763:RNS458765 RXO458763:RXO458765 SHK458763:SHK458765 SRG458763:SRG458765 TBC458763:TBC458765 TKY458763:TKY458765 TUU458763:TUU458765 UEQ458763:UEQ458765 UOM458763:UOM458765 UYI458763:UYI458765 VIE458763:VIE458765 VSA458763:VSA458765 WBW458763:WBW458765 WLS458763:WLS458765 WVO458763:WVO458765 G524299:G524301 JC524299:JC524301 SY524299:SY524301 ACU524299:ACU524301 AMQ524299:AMQ524301 AWM524299:AWM524301 BGI524299:BGI524301 BQE524299:BQE524301 CAA524299:CAA524301 CJW524299:CJW524301 CTS524299:CTS524301 DDO524299:DDO524301 DNK524299:DNK524301 DXG524299:DXG524301 EHC524299:EHC524301 EQY524299:EQY524301 FAU524299:FAU524301 FKQ524299:FKQ524301 FUM524299:FUM524301 GEI524299:GEI524301 GOE524299:GOE524301 GYA524299:GYA524301 HHW524299:HHW524301 HRS524299:HRS524301 IBO524299:IBO524301 ILK524299:ILK524301 IVG524299:IVG524301 JFC524299:JFC524301 JOY524299:JOY524301 JYU524299:JYU524301 KIQ524299:KIQ524301 KSM524299:KSM524301 LCI524299:LCI524301 LME524299:LME524301 LWA524299:LWA524301 MFW524299:MFW524301 MPS524299:MPS524301 MZO524299:MZO524301 NJK524299:NJK524301 NTG524299:NTG524301 ODC524299:ODC524301 OMY524299:OMY524301 OWU524299:OWU524301 PGQ524299:PGQ524301 PQM524299:PQM524301 QAI524299:QAI524301 QKE524299:QKE524301 QUA524299:QUA524301 RDW524299:RDW524301 RNS524299:RNS524301 RXO524299:RXO524301 SHK524299:SHK524301 SRG524299:SRG524301 TBC524299:TBC524301 TKY524299:TKY524301 TUU524299:TUU524301 UEQ524299:UEQ524301 UOM524299:UOM524301 UYI524299:UYI524301 VIE524299:VIE524301 VSA524299:VSA524301 WBW524299:WBW524301 WLS524299:WLS524301 WVO524299:WVO524301 G589835:G589837 JC589835:JC589837 SY589835:SY589837 ACU589835:ACU589837 AMQ589835:AMQ589837 AWM589835:AWM589837 BGI589835:BGI589837 BQE589835:BQE589837 CAA589835:CAA589837 CJW589835:CJW589837 CTS589835:CTS589837 DDO589835:DDO589837 DNK589835:DNK589837 DXG589835:DXG589837 EHC589835:EHC589837 EQY589835:EQY589837 FAU589835:FAU589837 FKQ589835:FKQ589837 FUM589835:FUM589837 GEI589835:GEI589837 GOE589835:GOE589837 GYA589835:GYA589837 HHW589835:HHW589837 HRS589835:HRS589837 IBO589835:IBO589837 ILK589835:ILK589837 IVG589835:IVG589837 JFC589835:JFC589837 JOY589835:JOY589837 JYU589835:JYU589837 KIQ589835:KIQ589837 KSM589835:KSM589837 LCI589835:LCI589837 LME589835:LME589837 LWA589835:LWA589837 MFW589835:MFW589837 MPS589835:MPS589837 MZO589835:MZO589837 NJK589835:NJK589837 NTG589835:NTG589837 ODC589835:ODC589837 OMY589835:OMY589837 OWU589835:OWU589837 PGQ589835:PGQ589837 PQM589835:PQM589837 QAI589835:QAI589837 QKE589835:QKE589837 QUA589835:QUA589837 RDW589835:RDW589837 RNS589835:RNS589837 RXO589835:RXO589837 SHK589835:SHK589837 SRG589835:SRG589837 TBC589835:TBC589837 TKY589835:TKY589837 TUU589835:TUU589837 UEQ589835:UEQ589837 UOM589835:UOM589837 UYI589835:UYI589837 VIE589835:VIE589837 VSA589835:VSA589837 WBW589835:WBW589837 WLS589835:WLS589837 WVO589835:WVO589837 G655371:G655373 JC655371:JC655373 SY655371:SY655373 ACU655371:ACU655373 AMQ655371:AMQ655373 AWM655371:AWM655373 BGI655371:BGI655373 BQE655371:BQE655373 CAA655371:CAA655373 CJW655371:CJW655373 CTS655371:CTS655373 DDO655371:DDO655373 DNK655371:DNK655373 DXG655371:DXG655373 EHC655371:EHC655373 EQY655371:EQY655373 FAU655371:FAU655373 FKQ655371:FKQ655373 FUM655371:FUM655373 GEI655371:GEI655373 GOE655371:GOE655373 GYA655371:GYA655373 HHW655371:HHW655373 HRS655371:HRS655373 IBO655371:IBO655373 ILK655371:ILK655373 IVG655371:IVG655373 JFC655371:JFC655373 JOY655371:JOY655373 JYU655371:JYU655373 KIQ655371:KIQ655373 KSM655371:KSM655373 LCI655371:LCI655373 LME655371:LME655373 LWA655371:LWA655373 MFW655371:MFW655373 MPS655371:MPS655373 MZO655371:MZO655373 NJK655371:NJK655373 NTG655371:NTG655373 ODC655371:ODC655373 OMY655371:OMY655373 OWU655371:OWU655373 PGQ655371:PGQ655373 PQM655371:PQM655373 QAI655371:QAI655373 QKE655371:QKE655373 QUA655371:QUA655373 RDW655371:RDW655373 RNS655371:RNS655373 RXO655371:RXO655373 SHK655371:SHK655373 SRG655371:SRG655373 TBC655371:TBC655373 TKY655371:TKY655373 TUU655371:TUU655373 UEQ655371:UEQ655373 UOM655371:UOM655373 UYI655371:UYI655373 VIE655371:VIE655373 VSA655371:VSA655373 WBW655371:WBW655373 WLS655371:WLS655373 WVO655371:WVO655373 G720907:G720909 JC720907:JC720909 SY720907:SY720909 ACU720907:ACU720909 AMQ720907:AMQ720909 AWM720907:AWM720909 BGI720907:BGI720909 BQE720907:BQE720909 CAA720907:CAA720909 CJW720907:CJW720909 CTS720907:CTS720909 DDO720907:DDO720909 DNK720907:DNK720909 DXG720907:DXG720909 EHC720907:EHC720909 EQY720907:EQY720909 FAU720907:FAU720909 FKQ720907:FKQ720909 FUM720907:FUM720909 GEI720907:GEI720909 GOE720907:GOE720909 GYA720907:GYA720909 HHW720907:HHW720909 HRS720907:HRS720909 IBO720907:IBO720909 ILK720907:ILK720909 IVG720907:IVG720909 JFC720907:JFC720909 JOY720907:JOY720909 JYU720907:JYU720909 KIQ720907:KIQ720909 KSM720907:KSM720909 LCI720907:LCI720909 LME720907:LME720909 LWA720907:LWA720909 MFW720907:MFW720909 MPS720907:MPS720909 MZO720907:MZO720909 NJK720907:NJK720909 NTG720907:NTG720909 ODC720907:ODC720909 OMY720907:OMY720909 OWU720907:OWU720909 PGQ720907:PGQ720909 PQM720907:PQM720909 QAI720907:QAI720909 QKE720907:QKE720909 QUA720907:QUA720909 RDW720907:RDW720909 RNS720907:RNS720909 RXO720907:RXO720909 SHK720907:SHK720909 SRG720907:SRG720909 TBC720907:TBC720909 TKY720907:TKY720909 TUU720907:TUU720909 UEQ720907:UEQ720909 UOM720907:UOM720909 UYI720907:UYI720909 VIE720907:VIE720909 VSA720907:VSA720909 WBW720907:WBW720909 WLS720907:WLS720909 WVO720907:WVO720909 G786443:G786445 JC786443:JC786445 SY786443:SY786445 ACU786443:ACU786445 AMQ786443:AMQ786445 AWM786443:AWM786445 BGI786443:BGI786445 BQE786443:BQE786445 CAA786443:CAA786445 CJW786443:CJW786445 CTS786443:CTS786445 DDO786443:DDO786445 DNK786443:DNK786445 DXG786443:DXG786445 EHC786443:EHC786445 EQY786443:EQY786445 FAU786443:FAU786445 FKQ786443:FKQ786445 FUM786443:FUM786445 GEI786443:GEI786445 GOE786443:GOE786445 GYA786443:GYA786445 HHW786443:HHW786445 HRS786443:HRS786445 IBO786443:IBO786445 ILK786443:ILK786445 IVG786443:IVG786445 JFC786443:JFC786445 JOY786443:JOY786445 JYU786443:JYU786445 KIQ786443:KIQ786445 KSM786443:KSM786445 LCI786443:LCI786445 LME786443:LME786445 LWA786443:LWA786445 MFW786443:MFW786445 MPS786443:MPS786445 MZO786443:MZO786445 NJK786443:NJK786445 NTG786443:NTG786445 ODC786443:ODC786445 OMY786443:OMY786445 OWU786443:OWU786445 PGQ786443:PGQ786445 PQM786443:PQM786445 QAI786443:QAI786445 QKE786443:QKE786445 QUA786443:QUA786445 RDW786443:RDW786445 RNS786443:RNS786445 RXO786443:RXO786445 SHK786443:SHK786445 SRG786443:SRG786445 TBC786443:TBC786445 TKY786443:TKY786445 TUU786443:TUU786445 UEQ786443:UEQ786445 UOM786443:UOM786445 UYI786443:UYI786445 VIE786443:VIE786445 VSA786443:VSA786445 WBW786443:WBW786445 WLS786443:WLS786445 WVO786443:WVO786445 G851979:G851981 JC851979:JC851981 SY851979:SY851981 ACU851979:ACU851981 AMQ851979:AMQ851981 AWM851979:AWM851981 BGI851979:BGI851981 BQE851979:BQE851981 CAA851979:CAA851981 CJW851979:CJW851981 CTS851979:CTS851981 DDO851979:DDO851981 DNK851979:DNK851981 DXG851979:DXG851981 EHC851979:EHC851981 EQY851979:EQY851981 FAU851979:FAU851981 FKQ851979:FKQ851981 FUM851979:FUM851981 GEI851979:GEI851981 GOE851979:GOE851981 GYA851979:GYA851981 HHW851979:HHW851981 HRS851979:HRS851981 IBO851979:IBO851981 ILK851979:ILK851981 IVG851979:IVG851981 JFC851979:JFC851981 JOY851979:JOY851981 JYU851979:JYU851981 KIQ851979:KIQ851981 KSM851979:KSM851981 LCI851979:LCI851981 LME851979:LME851981 LWA851979:LWA851981 MFW851979:MFW851981 MPS851979:MPS851981 MZO851979:MZO851981 NJK851979:NJK851981 NTG851979:NTG851981 ODC851979:ODC851981 OMY851979:OMY851981 OWU851979:OWU851981 PGQ851979:PGQ851981 PQM851979:PQM851981 QAI851979:QAI851981 QKE851979:QKE851981 QUA851979:QUA851981 RDW851979:RDW851981 RNS851979:RNS851981 RXO851979:RXO851981 SHK851979:SHK851981 SRG851979:SRG851981 TBC851979:TBC851981 TKY851979:TKY851981 TUU851979:TUU851981 UEQ851979:UEQ851981 UOM851979:UOM851981 UYI851979:UYI851981 VIE851979:VIE851981 VSA851979:VSA851981 WBW851979:WBW851981 WLS851979:WLS851981 WVO851979:WVO851981 G917515:G917517 JC917515:JC917517 SY917515:SY917517 ACU917515:ACU917517 AMQ917515:AMQ917517 AWM917515:AWM917517 BGI917515:BGI917517 BQE917515:BQE917517 CAA917515:CAA917517 CJW917515:CJW917517 CTS917515:CTS917517 DDO917515:DDO917517 DNK917515:DNK917517 DXG917515:DXG917517 EHC917515:EHC917517 EQY917515:EQY917517 FAU917515:FAU917517 FKQ917515:FKQ917517 FUM917515:FUM917517 GEI917515:GEI917517 GOE917515:GOE917517 GYA917515:GYA917517 HHW917515:HHW917517 HRS917515:HRS917517 IBO917515:IBO917517 ILK917515:ILK917517 IVG917515:IVG917517 JFC917515:JFC917517 JOY917515:JOY917517 JYU917515:JYU917517 KIQ917515:KIQ917517 KSM917515:KSM917517 LCI917515:LCI917517 LME917515:LME917517 LWA917515:LWA917517 MFW917515:MFW917517 MPS917515:MPS917517 MZO917515:MZO917517 NJK917515:NJK917517 NTG917515:NTG917517 ODC917515:ODC917517 OMY917515:OMY917517 OWU917515:OWU917517 PGQ917515:PGQ917517 PQM917515:PQM917517 QAI917515:QAI917517 QKE917515:QKE917517 QUA917515:QUA917517 RDW917515:RDW917517 RNS917515:RNS917517 RXO917515:RXO917517 SHK917515:SHK917517 SRG917515:SRG917517 TBC917515:TBC917517 TKY917515:TKY917517 TUU917515:TUU917517 UEQ917515:UEQ917517 UOM917515:UOM917517 UYI917515:UYI917517 VIE917515:VIE917517 VSA917515:VSA917517 WBW917515:WBW917517 WLS917515:WLS917517 WVO917515:WVO917517 G983051:G983053 JC983051:JC983053 SY983051:SY983053 ACU983051:ACU983053 AMQ983051:AMQ983053 AWM983051:AWM983053 BGI983051:BGI983053 BQE983051:BQE983053 CAA983051:CAA983053 CJW983051:CJW983053 CTS983051:CTS983053 DDO983051:DDO983053 DNK983051:DNK983053 DXG983051:DXG983053 EHC983051:EHC983053 EQY983051:EQY983053 FAU983051:FAU983053 FKQ983051:FKQ983053 FUM983051:FUM983053 GEI983051:GEI983053 GOE983051:GOE983053 GYA983051:GYA983053 HHW983051:HHW983053 HRS983051:HRS983053 IBO983051:IBO983053 ILK983051:ILK983053 IVG983051:IVG983053 JFC983051:JFC983053 JOY983051:JOY983053 JYU983051:JYU983053 KIQ983051:KIQ983053 KSM983051:KSM983053 LCI983051:LCI983053 LME983051:LME983053 LWA983051:LWA983053 MFW983051:MFW983053 MPS983051:MPS983053 MZO983051:MZO983053 NJK983051:NJK983053 NTG983051:NTG983053 ODC983051:ODC983053 OMY983051:OMY983053 OWU983051:OWU983053 PGQ983051:PGQ983053 PQM983051:PQM983053 QAI983051:QAI983053 QKE983051:QKE983053 QUA983051:QUA983053 RDW983051:RDW983053 RNS983051:RNS983053 RXO983051:RXO983053 SHK983051:SHK983053 SRG983051:SRG983053 TBC983051:TBC983053 TKY983051:TKY983053 TUU983051:TUU983053 UEQ983051:UEQ983053 UOM983051:UOM983053 UYI983051:UYI983053 VIE983051:VIE983053 VSA983051:VSA983053 WBW983051:WBW983053 WLS983051:WLS983053 WVO983051:WVO983053" xr:uid="{7E50ABD6-5E51-874F-BADA-FAB2EA72CA76}">
+      <formula1 xml:space="preserve"> priority</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -7767,8 +9398,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="54" t="s">
         <v>60</v>
       </c>
@@ -7784,14 +9415,14 @@
       <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -7811,12 +9442,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -7840,12 +9471,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -7905,16 +9536,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -7955,16 +9586,16 @@
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -7972,68 +9603,68 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="31">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="34"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -8041,13 +9672,13 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="31">
@@ -8056,51 +9687,51 @@
       <c r="E12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="31">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="34"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -8108,13 +9739,13 @@
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="31">
@@ -8123,51 +9754,51 @@
       <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="31">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="34"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -8175,13 +9806,13 @@
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="31">
@@ -8190,51 +9821,51 @@
       <c r="E18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="53" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="31">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="34"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -8242,13 +9873,13 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="31">
@@ -8257,51 +9888,51 @@
       <c r="E21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="53" t="s">
+      <c r="H21" s="43"/>
+      <c r="I21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="35"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="31">
         <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="34"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -8309,13 +9940,13 @@
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="31">
@@ -8324,51 +9955,51 @@
       <c r="E24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49" t="s">
+      <c r="F24" s="40"/>
+      <c r="G24" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="53" t="s">
+      <c r="H24" s="43"/>
+      <c r="I24" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="31">
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="34"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -8376,13 +10007,13 @@
       <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="31">
@@ -8391,70 +10022,70 @@
       <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="35" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="31">
         <v>2</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="34"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="31">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="34"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -8462,13 +10093,13 @@
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="31">
@@ -8477,51 +10108,51 @@
       <c r="E31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="40"/>
+      <c r="G31" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="53" t="s">
+      <c r="H31" s="43"/>
+      <c r="I31" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="34"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="31">
         <v>2</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="34"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -8535,7 +10166,7 @@
       <c r="B34" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="31">
@@ -8544,70 +10175,70 @@
       <c r="E34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="59" t="s">
+      <c r="F34" s="58"/>
+      <c r="G34" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="35" t="s">
+      <c r="H34" s="64"/>
+      <c r="I34" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="38"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="39"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="31">
         <v>2</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="39"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="31">
         <v>3</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="66"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="40"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -8621,7 +10252,7 @@
       <c r="B38" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="31">
@@ -8630,70 +10261,70 @@
       <c r="E38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="59" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="35" t="s">
+      <c r="H38" s="64"/>
+      <c r="I38" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="38"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
-      <c r="C39" s="39"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="31">
         <v>2</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="39"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="39"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="31">
         <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="39"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -8707,7 +10338,7 @@
       <c r="B42" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D42" s="31">
@@ -8716,70 +10347,70 @@
       <c r="E42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="59" t="s">
+      <c r="F42" s="58"/>
+      <c r="G42" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="35" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="38"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
-      <c r="C43" s="39"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="31">
         <v>2</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="39"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="56"/>
-      <c r="C44" s="39"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="31">
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="39"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -8787,13 +10418,13 @@
       <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D46" s="31">
@@ -8802,51 +10433,51 @@
       <c r="E46" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49" t="s">
+      <c r="F46" s="40"/>
+      <c r="G46" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="53" t="s">
+      <c r="H46" s="43"/>
+      <c r="I46" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="34"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="34"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="31">
         <v>2</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="34"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="35"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -8854,13 +10485,13 @@
       <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="31">
@@ -8869,51 +10500,51 @@
       <c r="E49" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49" t="s">
+      <c r="F49" s="40"/>
+      <c r="G49" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="35" t="s">
+      <c r="H49" s="43"/>
+      <c r="I49" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="38" t="s">
+      <c r="J49" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="34"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="34"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="35"/>
     </row>
     <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="34"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="31">
         <v>2</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="34"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="35"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -8921,13 +10552,13 @@
       <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="31">
@@ -8936,51 +10567,51 @@
       <c r="E52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49" t="s">
+      <c r="F52" s="40"/>
+      <c r="G52" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="35" t="s">
+      <c r="H52" s="43"/>
+      <c r="I52" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="38" t="s">
+      <c r="J52" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="34"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="34"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="35"/>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="34"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="31">
         <v>2</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="34"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
@@ -8988,13 +10619,13 @@
       <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="31">
@@ -9003,43 +10634,203 @@
       <c r="E55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49" t="s">
+      <c r="F55" s="40"/>
+      <c r="G55" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="53" t="s">
+      <c r="H55" s="43"/>
+      <c r="I55" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="J55" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="34"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="31">
         <v>2</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="34"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="184">
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
@@ -9064,479 +10855,319 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:L5 J57:L355">
-    <cfRule type="cellIs" dxfId="101" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="402" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="403" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="404" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
-    <cfRule type="cellIs" dxfId="98" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="394" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="97" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="353" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L32 J45:L50">
-    <cfRule type="cellIs" dxfId="96" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="345" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10 G7:H10">
-    <cfRule type="cellIs" dxfId="93" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L10">
-    <cfRule type="cellIs" dxfId="92" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I10 G9:H10">
-    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="77" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="85" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L22">
-    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I13 H12:H13">
-    <cfRule type="cellIs" dxfId="81" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:L13">
-    <cfRule type="cellIs" dxfId="80" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I16 H15:H16">
-    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I19 H18:H19">
-    <cfRule type="cellIs" dxfId="69" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L19">
-    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22 G21:H22">
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29 G24:H29">
-    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L29">
-    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 G34:H34">
-    <cfRule type="cellIs" dxfId="59" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L34">
-    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38 G38:H38">
-    <cfRule type="cellIs" dxfId="55" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L38">
-    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42 G42:H42">
-    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:L42">
-    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G53">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:L53">
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L56">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I29">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L29">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H47">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G50">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Working/Personal/assignment-vdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3090799C-6A4E-3B49-B158-AA724F61D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CDAEDB-517F-7E4B-833F-4A046A6E7243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="32620" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
     <sheet name="Home page" sheetId="6" r:id="rId2"/>
     <sheet name=" API Search Weather" sheetId="9" r:id="rId3"/>
-    <sheet name="Defect Tracking" sheetId="10" r:id="rId4"/>
-    <sheet name="Find page" sheetId="4" r:id="rId5"/>
+    <sheet name="Find page" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect Tracking" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -25,7 +25,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Find page'!$A$5:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Find page'!$A$5:$M$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General report'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Home page'!$A$5:$M$8</definedName>
     <definedName name="DesignStatus">[1]Summary!$L$1:$L$3</definedName>
@@ -39,64 +39,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Julie Arnold</author>
-  </authors>
-  <commentList>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{51B15265-EC6C-5D44-B2C1-A30C93D57990}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choose from the drop down list</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{CC2BE605-326D-2243-BE1B-E27E95248BC1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Choose from the drop down list.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>linhvu</author>
@@ -139,8 +81,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Julie Arnold</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{51B15265-EC6C-5D44-B2C1-A30C93D57990}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choose from the drop down list</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{CC2BE605-326D-2243-BE1B-E27E95248BC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choose from the drop down list.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="197">
   <si>
     <t>Steps</t>
   </si>
@@ -364,13 +364,7 @@
     <t>The Find page should be displayed as the design:</t>
   </si>
   <si>
-    <t>The icon of the Search button is missing/error</t>
-  </si>
-  <si>
     <t>Use the "ho chi minh" city to search the weather</t>
-  </si>
-  <si>
-    <t>"ho chi minh" city</t>
   </si>
   <si>
     <t>Verify the weather data in the result</t>
@@ -661,10 +655,6 @@
     <t>Navigate to the Interactive weather maps for the selected city</t>
   </si>
   <si>
-    <t>- The temperature range shows duplicate values 
-- There is a redundant space between values and units</t>
-  </si>
-  <si>
     <t>The Find page should be displayed without result. A message as "Not found" will be displayed</t>
   </si>
   <si>
@@ -738,6 +728,493 @@
   </si>
   <si>
     <t>API_002</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q=ho%20chi%20minh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the Response</t>
+  </si>
+  <si>
+    <t>The response is correct
+- HTTP Status Code: 200
+- Response Body as JSON</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>The response is correct
+- HTTP Status Code: 400
+- Response Body as JSON with correct error code and error message</t>
+  </si>
+  <si>
+    <t>API_003</t>
+  </si>
+  <si>
+    <t>API_004</t>
+  </si>
+  <si>
+    <t>Test Case 2: Send request with param "q=ho%20chi%20minh"</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request without "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>The HTTP Status Code: 500
+The Response Body has error code 500 and error message "Internal server error"</t>
+  </si>
+  <si>
+    <t>Test Case 3: Send request with param "q=" empty</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q=@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 6: Send request with invalid appid</t>
+  </si>
+  <si>
+    <t>Test Case 4: Send request without param "q"</t>
+  </si>
+  <si>
+    <t>API_005</t>
+  </si>
+  <si>
+    <t>API_006</t>
+  </si>
+  <si>
+    <r>
+      <t>Send request with "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q=ho%20chi%20minh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and invalid "appid=123"</t>
+    </r>
+  </si>
+  <si>
+    <t>The response is correct
+- HTTP Status Code: 401
+- Response Body as JSON with error code 401 and error message as invalid API key</t>
+  </si>
+  <si>
+    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the "Weather in your city" search box.
+- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
+  </si>
+  <si>
+    <t>"Weather in you city" search box</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DEFECT TRACKING LOG </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name </t>
+  </si>
+  <si>
+    <t>Assignment - Openweathermap</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purpose: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>To ensure that the work product meets specifications for performance, defects must be tracked and fixed. These defects may arise from any Phase, but the majority will arise in the Testing Phase and must be properly captured and tracked through resolution. This form will allow documentation of test defects that must be corrected prior to project completion. Also, this form makes it easier to monitor status of the defect correction progress. This form may be used by any member of the software development team.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt; Hover by the red triangle in the top left corner for more detail. Use the Instructions on the next tab to fill out fields.&gt;</t>
+  </si>
+  <si>
+    <t>Defect No.</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Defect Summary</t>
+  </si>
+  <si>
+    <t>Defect Description</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Assigned Date</t>
+  </si>
+  <si>
+    <t>Estimated Time to Fix</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Resolution Date</t>
+  </si>
+  <si>
+    <t>Actual Time to Fix</t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Lifecycle Phase</t>
+  </si>
+  <si>
+    <t>DF001</t>
+  </si>
+  <si>
+    <t>Nguyen Duong</t>
+  </si>
+  <si>
+    <t>The search icon (magnifying glass icon) moves 1px up after focusing on the search box</t>
+  </si>
+  <si>
+    <t>Steps to reproduce:
+1. Launch AUT
+2. Select/Click the search box
+3. Observer
+Expected result:
+- The search icon is still in place
+Actual result:
+- The search icon will moves 1px up</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>DF002</t>
+  </si>
+  <si>
+    <t>The Search icon (magnifying glass icon) has no function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to reproduce:
+1. Launch AUT
+2. At the search box, input valid city. For example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ho chi minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Select Enter button on the keyboard
+4. Observer
+Expected result:
+- The user will be navigated to the Find page with correct city weather data
+Actual result:
+- The search icon has no function. Ther is nothing change</t>
+    </r>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>Opportunity Assessment</t>
+  </si>
+  <si>
+    <t>DF003</t>
+  </si>
+  <si>
+    <t>The Search feature accepts empty value</t>
+  </si>
+  <si>
+    <t>Steps to reproduce:
+1. Launch AUT
+2. At the search box, do not input anthing
+3. Select Enter button on the keyboard
+4. Observer
+Expected result:
+- The user is still staying at the Home page. There is nothing change
+Actual result:
+- The user will be navigated to the Find page with no data, no result</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Initiating</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>DF001
+DF002</t>
+  </si>
+  <si>
+    <t>DF004</t>
+  </si>
+  <si>
+    <t>The icon of the Search button is displayed incorrect</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>DF005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to reproduce:
+1. Launch AUT
+2. At the search box, input valid city
+For example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ho chi minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Select Enter button on the keyboard
+4. At the Find page, observer the search icon in search button
+Expected result:
+- The Search icon should be a magnifying glass icon
+Actual result:
+- The Search icon is a mark question icon
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to reproduce:
+1. Launch AUT
+2. At the search box, input valid city
+For example: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ho chi minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Select Enter button on the keyboard
+4. At the Find page, observer the weather data
+Expected result:
+- The temperature range shows correct values from min temperature to max temperature
+Actual result:
+- The temperature range shows the same min and max temperature values
+</t>
+    </r>
+  </si>
+  <si>
+    <t>The temperature range shows the same min and max temperature values</t>
+  </si>
+  <si>
+    <t>- The temperature range shows the same min and max temperature values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DF006</t>
+  </si>
+  <si>
+    <t>HTTP Status Code 500 always returns in the API Response in cases input invalid param "q"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps to reproduce:
+1. Send a API Resquest with invalid param "q"
+2. Verify the API Response
+Expected result:
+- Each error should be specific, meaning completely in the case the server still works normally
+Actual result:
+- The HTTP status code 500 Internal Server Error is displayed although the server still works normally
+</t>
+  </si>
+  <si>
+    <t>Test Case 5: Send request with param "q=@" special character</t>
   </si>
   <si>
     <r>
@@ -803,23 +1280,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Create a GET request in the Postman</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Send request with "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q=ho%20chi%20minh</t>
+      <t xml:space="preserve">Create a GET request in the Postman
+</t>
     </r>
     <r>
       <rPr>
@@ -830,31 +1292,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify the Response</t>
-  </si>
-  <si>
-    <t>The response is correct
-- HTTP Status Code: 200
-- Response Body as JSON</t>
-  </si>
-  <si>
-    <r>
-      <t>Send request with "</t>
+      <t>Tool:</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>q=</t>
+      <t xml:space="preserve"> Postman
+</t>
     </r>
     <r>
       <rPr>
@@ -865,124 +1314,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>The response is correct
-- HTTP Status Code: 400
-- Response Body as JSON with correct error code and error message</t>
-  </si>
-  <si>
-    <t>API_003</t>
-  </si>
-  <si>
-    <t>API_004</t>
-  </si>
-  <si>
-    <t>Test Case 2: Send request with param "q=ho%20chi%20minh"</t>
-  </si>
-  <si>
-    <r>
-      <t>Send request without "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>The HTTP Status Code: 500
-The Response Body has error code 500 and error message "Internal server error"</t>
-  </si>
-  <si>
-    <t>Test Case 3: Send request with param "q=" empty</t>
-  </si>
-  <si>
-    <t>Test Case 5: Send request without param "q=@" special character</t>
-  </si>
-  <si>
-    <r>
-      <t>Send request with "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q=@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Case 6: Send request with invalid appid</t>
-  </si>
-  <si>
-    <t>Test Case 4: Send request without param "q"</t>
-  </si>
-  <si>
-    <t>API_005</t>
-  </si>
-  <si>
-    <t>API_006</t>
-  </si>
-  <si>
-    <r>
-      <t>Send request with "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q=ho%20chi%20minh</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
+      <t>API Testing Collection:</t>
     </r>
     <r>
       <rPr>
@@ -992,201 +1324,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and invalid "appid=123"</t>
+      <t xml:space="preserve"> Please refer to the attached file JSON</t>
     </r>
-  </si>
-  <si>
-    <t>The response is correct
-- HTTP Status Code: 401
-- Response Body as JSON with error code 401 and error message as invalid API key</t>
-  </si>
-  <si>
-    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the "Weather in your city" search box.
-- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
-  </si>
-  <si>
-    <t>"Weather in you city" search box</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DEFECT TRACKING LOG </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Name </t>
-  </si>
-  <si>
-    <t>Assignment - Openweathermap</t>
-  </si>
-  <si>
-    <t>Program Manager</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Purpose: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>To ensure that the work product meets specifications for performance, defects must be tracked and fixed. These defects may arise from any Phase, but the majority will arise in the Testing Phase and must be properly captured and tracked through resolution. This form will allow documentation of test defects that must be corrected prior to project completion. Also, this form makes it easier to monitor status of the defect correction progress. This form may be used by any member of the software development team.</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt; Hover by the red triangle in the top left corner for more detail. Use the Instructions on the next tab to fill out fields.&gt;</t>
-  </si>
-  <si>
-    <t>Defect No.</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Defect Summary</t>
-  </si>
-  <si>
-    <t>Defect Description</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Assigned Date</t>
-  </si>
-  <si>
-    <t>Estimated Time to Fix</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Resolution Date</t>
-  </si>
-  <si>
-    <t>Actual Time to Fix</t>
-  </si>
-  <si>
-    <t>Root Cause</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Lifecycle Phase</t>
-  </si>
-  <si>
-    <t>DF001</t>
-  </si>
-  <si>
-    <t>Nguyen Duong</t>
-  </si>
-  <si>
-    <t>The search icon (magnifying glass icon) moves 1px up after focusing on the search box</t>
-  </si>
-  <si>
-    <t>Steps to reproduce:
-1. Launch AUT
-2. Select/Click the search box
-3. Observer
-Expected result:
-- The search icon is still in place
-Actual result:
-- The search icon will moves 1px up</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>DF002</t>
-  </si>
-  <si>
-    <t>The Search icon (magnifying glass icon) has no function</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Steps to reproduce:
-1. Launch AUT
-2. At the search box, input valid city. For example: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ho chi minh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Select Enter button on the keyboard
-4. Observer
-Expected result:
-- The user will be navigated to the Find page with correct city weather data
-Actual result:
-- The search icon has no function. Ther is nothing change</t>
-    </r>
-  </si>
-  <si>
-    <t>Under Review</t>
-  </si>
-  <si>
-    <t>Opportunity Assessment</t>
-  </si>
-  <si>
-    <t>DF003</t>
-  </si>
-  <si>
-    <t>The Search feature accepts empty value</t>
-  </si>
-  <si>
-    <t>Steps to reproduce:
-1. Launch AUT
-2. At the search box, do not input anthing
-3. Select Enter button on the keyboard
-4. Observer
-Expected result:
-- The user is still staying at the Home page. There is nothing change
-Actual result:
-- The user will be navigated to the Find page with no data, no result</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Initiating</t>
-  </si>
-  <si>
-    <t>Concept</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1336,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1497,34 @@
     <font>
       <sz val="8"/>
       <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1554,13 +1721,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1642,6 +1810,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1700,10 +1898,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1745,11 +1949,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1760,35 +1964,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="153">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2968,6 +3152,40 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5389,6 +5607,138 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2469171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B76643-480A-C147-8860-731B05173A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17843500" y="8674100"/>
+          <a:ext cx="6807200" cy="2367571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2641601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2832101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6752714A-3B72-1546-9C60-80E3CB27482F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15481300" y="11214101"/>
+          <a:ext cx="7772400" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2641601</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7772400" cy="2857500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C61EF8-B297-B24B-895A-96CF6338B5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15481300" y="11214101"/>
+          <a:ext cx="7772400" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -5463,7 +5813,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5793,7 +6143,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5901,9 +6251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10:K13"/>
+    <sheetView topLeftCell="E1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5925,31 +6275,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="54" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -5969,12 +6319,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -5998,12 +6348,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -6063,16 +6413,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -6080,64 +6430,64 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="35"/>
+      <c r="B7" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="35"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -6145,104 +6495,106 @@
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="B10" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="45"/>
       <c r="D10" s="23">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="34" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="35"/>
+      <c r="K10" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="35"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="35"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -6250,102 +6602,102 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="35"/>
+      <c r="B15" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="45"/>
       <c r="D15" s="23">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="35"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="23">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="35"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="23">
         <v>3</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="35"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="23">
         <v>4</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="35"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -6353,102 +6705,102 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="35"/>
+      <c r="B20" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="35"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="35"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="35"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="35"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -6456,104 +6808,106 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="35"/>
+      <c r="B25" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="45"/>
       <c r="D25" s="23">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="35"/>
+      <c r="K25" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="23">
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="35"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="23">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="35"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="23">
         <v>4</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="35"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -6561,104 +6915,106 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="35"/>
+      <c r="B30" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="45"/>
       <c r="D30" s="23">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="44" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="35"/>
+      <c r="K30" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="58"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="35"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="35"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="35"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -6666,102 +7022,102 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="35"/>
+      <c r="B35" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="45"/>
       <c r="D35" s="23">
         <v>1</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J35" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="35"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="23">
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="35"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="23">
         <v>3</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="35"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="23">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="35"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -6769,102 +7125,102 @@
       <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="35"/>
+      <c r="B40" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="45"/>
       <c r="D40" s="23">
         <v>1</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44" t="s">
+      <c r="F40" s="50"/>
+      <c r="G40" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="46" t="s">
+      <c r="J40" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="35"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="35"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="23">
         <v>2</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="35"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="23">
         <v>3</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="35"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="45"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="23">
         <v>4</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="35"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -6872,64 +7228,64 @@
       <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="35"/>
+      <c r="B45" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="45"/>
       <c r="D45" s="23">
         <v>1</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="35"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="35"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="45"/>
     </row>
     <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="35"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="23">
         <v>2</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="35"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="45"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -6937,57 +7293,60 @@
       <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="35"/>
+      <c r="B48" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="45"/>
       <c r="D48" s="23">
         <v>1</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="34" t="s">
+      <c r="F48" s="50"/>
+      <c r="G48" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="I48" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="35"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="45"/>
     </row>
     <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="23">
         <v>2</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="35"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="123">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="L25:L28"/>
@@ -7004,17 +7363,6 @@
     <mergeCell ref="F25:F28"/>
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="H25:H28"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="K20:K23"/>
     <mergeCell ref="L20:L23"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
@@ -7026,9 +7374,15 @@
     <mergeCell ref="J15:J18"/>
     <mergeCell ref="K15:K18"/>
     <mergeCell ref="L15:L18"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="K20:K23"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="M7:M8"/>
@@ -7051,6 +7405,8 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="K30:K33"/>
     <mergeCell ref="L30:L33"/>
@@ -7113,211 +7469,222 @@
     <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I18 G50:I1048576 G7:H8 G10:H13">
-    <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="130" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:L489 J2:L18">
-    <cfRule type="cellIs" dxfId="148" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="74" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="131" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="132" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="145" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="51" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="144" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="44" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="cellIs" dxfId="143" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="48" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:L23">
-    <cfRule type="cellIs" dxfId="142" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="47" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="49" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="50" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="138" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33">
-    <cfRule type="cellIs" dxfId="136" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="32" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G38">
-    <cfRule type="cellIs" dxfId="135" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G46">
-    <cfRule type="cellIs" dxfId="134" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I28">
-    <cfRule type="cellIs" dxfId="133" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="41" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L28">
-    <cfRule type="cellIs" dxfId="132" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="40" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="129" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="39" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I33">
-    <cfRule type="cellIs" dxfId="128" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="35" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:L33">
-    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
+  <conditionalFormatting sqref="J29:L29 J30:J33 L30:L33">
+    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="36" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="37" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H33">
-    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I38">
-    <cfRule type="cellIs" dxfId="123" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:L38">
-    <cfRule type="cellIs" dxfId="122" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="28" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I43">
-    <cfRule type="cellIs" dxfId="119" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:L43">
-    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="21" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="23" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="24" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I46">
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L46">
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="17" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" dxfId="111" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G49">
-    <cfRule type="cellIs" dxfId="110" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:L49">
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="105" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H43">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G43">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
       <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K33">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -7334,6 +7701,11 @@
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K10:K13" location="'Defect Tracking'!A11:O12" display="'Defect Tracking'!A11:O12" xr:uid="{20A32DF0-C99D-4A49-9FA9-B5E80339BD3E}"/>
+    <hyperlink ref="K25:K28" location="'Defect Tracking'!A13:O13" display="DF003" xr:uid="{2CB6B397-4C92-FF47-9817-F58C3FF0E6D1}"/>
+    <hyperlink ref="K30:K33" location="'Defect Tracking'!A13:O13" display="DF003" xr:uid="{A53E8652-03E8-074A-A7A6-AED6C0826541}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7344,9 +7716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H9"/>
+      <selection pane="bottomLeft" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7368,31 +7740,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="54" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
@@ -7412,12 +7784,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23">
@@ -7441,12 +7813,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -7506,16 +7878,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -7523,64 +7895,64 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="35"/>
+      <c r="A7" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="35"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -7588,64 +7960,64 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="A10" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="45"/>
       <c r="D10" s="31">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="35"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="31">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -7653,66 +8025,66 @@
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="35"/>
+      <c r="A13" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="45"/>
       <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="31">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -7720,66 +8092,66 @@
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="35"/>
+      <c r="A16" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="31">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="31">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="A18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -7787,66 +8159,66 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="35"/>
+      <c r="A19" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="D19" s="31">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="35"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="31">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="A21" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
@@ -7854,52 +8226,52 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="35"/>
+      <c r="A22" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="45"/>
       <c r="D22" s="31">
         <v>1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="35"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="31">
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -7934,7 +8306,13 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
@@ -7947,13 +8325,6 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="C2:F4"/>
@@ -7966,7 +8337,9 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -7977,9 +8350,8 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
     <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
@@ -8113,11 +8485,1839 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
+        <f>COUNTIF(A6:A56,"Test Case*")</f>
+        <v>16</v>
+      </c>
+      <c r="J3" s="11">
+        <f>COUNTIF(J5:J353,"Passed")</f>
+        <v>14</v>
+      </c>
+      <c r="K3" s="11">
+        <f>COUNTIF(J5:J353,"Failed")</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <f>I3-(J3+K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
+        <f>J3/I3</f>
+        <v>0.875</v>
+      </c>
+      <c r="K4" s="17">
+        <f>K3/I3</f>
+        <v>0.125</v>
+      </c>
+      <c r="L4" s="17">
+        <f>L3/I3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="31">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="31">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="31">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="31">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="31">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="31">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="45"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="31">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="45"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="31">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="45"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="53"/>
+      <c r="I31" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="31">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="45"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="70"/>
+      <c r="G34" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="56"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="56"/>
+    </row>
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="31">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="57"/>
+    </row>
+    <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="31">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="70"/>
+      <c r="G38" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="76"/>
+      <c r="I38" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="56"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="56"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="31">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="71"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="57"/>
+    </row>
+    <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="31">
+        <v>3</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="70"/>
+      <c r="G42" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="76"/>
+      <c r="I42" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="56"/>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="31">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="71"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="57"/>
+    </row>
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="31">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="71"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="57"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="31">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="53"/>
+      <c r="I46" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="45"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="45"/>
+    </row>
+    <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="31">
+        <v>2</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="50"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="45"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="45"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="45"/>
+    </row>
+    <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="31">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="50"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="45"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="53"/>
+      <c r="I52" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="45"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="45"/>
+    </row>
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="31">
+        <v>2</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="45"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="31">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="53"/>
+      <c r="I55" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="45"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="45"/>
+    </row>
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="31">
+        <v>2</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="50"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="184">
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J2:L5 J57:L355">
+    <cfRule type="cellIs" dxfId="74" priority="402" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="403" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="404" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
+    <cfRule type="cellIs" dxfId="71" priority="394" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:L4">
+    <cfRule type="cellIs" dxfId="70" priority="353" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:L32 J45:L50">
+    <cfRule type="cellIs" dxfId="69" priority="345" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="346" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="347" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I10 G7:H10">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:L10">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I10 G9:H10">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:L10">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="77" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:L22">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I13 H12:H13">
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:L13">
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I16 H15:H16">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I19 H18:H19">
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:L19">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I22 G21:H22">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I29 G24:H29">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:L29">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I34 G34:H34">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:L34">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I38 G38:H38">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:L38">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42 G42:H42">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:L42">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G53">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I53">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:L53">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G56">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I56">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:L56">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G29">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I29">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:L29">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:H47">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H50">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G50">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Passed, Failed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L13 G57:I1048576 G2:H3 L7:L10 L15:L16 L18:L19 L21:L22 L34 L38 L42 L52:L53 L55:L56 L24:L29 L31:L32 L49:L50 L46:L47" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J13 J7:J10 J15:J16 J18:J19 J21:J22 J34 J38 J42 J52:J53 J55:J56 J24:J29 J31:J32 J46:J47 J49:J50" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"Passed, Failed, Skipped"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I13 I7:I10 I15:I16 I18:I19 I21:I22 I34 I38 I42 I52:I53 I55:I56 I24:I29 I31:I32 I49:I50 I46:I47" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K7" location="'Defect Tracking'!A14:P14" display="DF004" xr:uid="{BBA35F6E-112C-264E-BFFB-D674BD69BDCC}"/>
+    <hyperlink ref="K9:K10" location="'Defect Tracking'!A15:P15" display="DF005" xr:uid="{AD670FA6-689C-5B49-BD0E-9FC9B0DED878}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06CBE9-20CC-0441-8560-ECE826D51085}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8125,8 +10325,8 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="68" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="68" customWidth="1"/>
+    <col min="4" max="4" width="13" style="34" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="34" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -8134,8 +10334,7 @@
     <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="15" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
     <col min="20" max="25" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="257" max="257" width="9.1640625" customWidth="1"/>
@@ -9086,128 +11285,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+    </row>
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="81"/>
+    </row>
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="81"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-    </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+    </row>
+    <row r="10" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="B10" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="69"/>
-    </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="C10" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="69"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
+      <c r="D10" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="E10" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-    </row>
-    <row r="10" spans="1:24" ht="42" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="F10" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="G10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="I10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="J10" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="K10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="M10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="73" t="s">
+      <c r="N10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="O10" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="N10" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="O10" s="73" t="s">
-        <v>167</v>
+      <c r="P10" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -9216,1978 +11418,306 @@
         <v>11</v>
       </c>
       <c r="W10" t="s">
+        <v>163</v>
+      </c>
+      <c r="X10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="37">
+        <v>44266</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="X10" t="s">
+      <c r="G11" s="41" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="112" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="75">
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="38"/>
+      <c r="T11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="196" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="37">
         <v>44266</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="77" t="s">
+      <c r="C12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F12" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G12" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="38"/>
+      <c r="T12" t="s">
         <v>174</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="T11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="196" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="75">
-        <v>44266</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="T12" t="s">
-        <v>179</v>
       </c>
       <c r="V12" t="s">
         <v>12</v>
       </c>
       <c r="W12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="X12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="182" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="75">
+      <c r="A13" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="37">
         <v>44266</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="76" t="s">
+      <c r="C13" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="38"/>
       <c r="T13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="V13" t="s">
         <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="X13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="210" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44266</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="38"/>
+      <c r="T14" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" t="s">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="224" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>186</v>
+      </c>
+      <c r="B15" s="37">
+        <v>44266</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="42"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="38"/>
+      <c r="T15" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
+        <v>180</v>
+      </c>
+      <c r="X15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="182" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44266</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="38"/>
+      <c r="T16" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A8:O8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K13 JG11:JG13 TC11:TC13 ACY11:ACY13 AMU11:AMU13 AWQ11:AWQ13 BGM11:BGM13 BQI11:BQI13 CAE11:CAE13 CKA11:CKA13 CTW11:CTW13 DDS11:DDS13 DNO11:DNO13 DXK11:DXK13 EHG11:EHG13 ERC11:ERC13 FAY11:FAY13 FKU11:FKU13 FUQ11:FUQ13 GEM11:GEM13 GOI11:GOI13 GYE11:GYE13 HIA11:HIA13 HRW11:HRW13 IBS11:IBS13 ILO11:ILO13 IVK11:IVK13 JFG11:JFG13 JPC11:JPC13 JYY11:JYY13 KIU11:KIU13 KSQ11:KSQ13 LCM11:LCM13 LMI11:LMI13 LWE11:LWE13 MGA11:MGA13 MPW11:MPW13 MZS11:MZS13 NJO11:NJO13 NTK11:NTK13 ODG11:ODG13 ONC11:ONC13 OWY11:OWY13 PGU11:PGU13 PQQ11:PQQ13 QAM11:QAM13 QKI11:QKI13 QUE11:QUE13 REA11:REA13 RNW11:RNW13 RXS11:RXS13 SHO11:SHO13 SRK11:SRK13 TBG11:TBG13 TLC11:TLC13 TUY11:TUY13 UEU11:UEU13 UOQ11:UOQ13 UYM11:UYM13 VII11:VII13 VSE11:VSE13 WCA11:WCA13 WLW11:WLW13 WVS11:WVS13 K65547:K65549 JG65547:JG65549 TC65547:TC65549 ACY65547:ACY65549 AMU65547:AMU65549 AWQ65547:AWQ65549 BGM65547:BGM65549 BQI65547:BQI65549 CAE65547:CAE65549 CKA65547:CKA65549 CTW65547:CTW65549 DDS65547:DDS65549 DNO65547:DNO65549 DXK65547:DXK65549 EHG65547:EHG65549 ERC65547:ERC65549 FAY65547:FAY65549 FKU65547:FKU65549 FUQ65547:FUQ65549 GEM65547:GEM65549 GOI65547:GOI65549 GYE65547:GYE65549 HIA65547:HIA65549 HRW65547:HRW65549 IBS65547:IBS65549 ILO65547:ILO65549 IVK65547:IVK65549 JFG65547:JFG65549 JPC65547:JPC65549 JYY65547:JYY65549 KIU65547:KIU65549 KSQ65547:KSQ65549 LCM65547:LCM65549 LMI65547:LMI65549 LWE65547:LWE65549 MGA65547:MGA65549 MPW65547:MPW65549 MZS65547:MZS65549 NJO65547:NJO65549 NTK65547:NTK65549 ODG65547:ODG65549 ONC65547:ONC65549 OWY65547:OWY65549 PGU65547:PGU65549 PQQ65547:PQQ65549 QAM65547:QAM65549 QKI65547:QKI65549 QUE65547:QUE65549 REA65547:REA65549 RNW65547:RNW65549 RXS65547:RXS65549 SHO65547:SHO65549 SRK65547:SRK65549 TBG65547:TBG65549 TLC65547:TLC65549 TUY65547:TUY65549 UEU65547:UEU65549 UOQ65547:UOQ65549 UYM65547:UYM65549 VII65547:VII65549 VSE65547:VSE65549 WCA65547:WCA65549 WLW65547:WLW65549 WVS65547:WVS65549 K131083:K131085 JG131083:JG131085 TC131083:TC131085 ACY131083:ACY131085 AMU131083:AMU131085 AWQ131083:AWQ131085 BGM131083:BGM131085 BQI131083:BQI131085 CAE131083:CAE131085 CKA131083:CKA131085 CTW131083:CTW131085 DDS131083:DDS131085 DNO131083:DNO131085 DXK131083:DXK131085 EHG131083:EHG131085 ERC131083:ERC131085 FAY131083:FAY131085 FKU131083:FKU131085 FUQ131083:FUQ131085 GEM131083:GEM131085 GOI131083:GOI131085 GYE131083:GYE131085 HIA131083:HIA131085 HRW131083:HRW131085 IBS131083:IBS131085 ILO131083:ILO131085 IVK131083:IVK131085 JFG131083:JFG131085 JPC131083:JPC131085 JYY131083:JYY131085 KIU131083:KIU131085 KSQ131083:KSQ131085 LCM131083:LCM131085 LMI131083:LMI131085 LWE131083:LWE131085 MGA131083:MGA131085 MPW131083:MPW131085 MZS131083:MZS131085 NJO131083:NJO131085 NTK131083:NTK131085 ODG131083:ODG131085 ONC131083:ONC131085 OWY131083:OWY131085 PGU131083:PGU131085 PQQ131083:PQQ131085 QAM131083:QAM131085 QKI131083:QKI131085 QUE131083:QUE131085 REA131083:REA131085 RNW131083:RNW131085 RXS131083:RXS131085 SHO131083:SHO131085 SRK131083:SRK131085 TBG131083:TBG131085 TLC131083:TLC131085 TUY131083:TUY131085 UEU131083:UEU131085 UOQ131083:UOQ131085 UYM131083:UYM131085 VII131083:VII131085 VSE131083:VSE131085 WCA131083:WCA131085 WLW131083:WLW131085 WVS131083:WVS131085 K196619:K196621 JG196619:JG196621 TC196619:TC196621 ACY196619:ACY196621 AMU196619:AMU196621 AWQ196619:AWQ196621 BGM196619:BGM196621 BQI196619:BQI196621 CAE196619:CAE196621 CKA196619:CKA196621 CTW196619:CTW196621 DDS196619:DDS196621 DNO196619:DNO196621 DXK196619:DXK196621 EHG196619:EHG196621 ERC196619:ERC196621 FAY196619:FAY196621 FKU196619:FKU196621 FUQ196619:FUQ196621 GEM196619:GEM196621 GOI196619:GOI196621 GYE196619:GYE196621 HIA196619:HIA196621 HRW196619:HRW196621 IBS196619:IBS196621 ILO196619:ILO196621 IVK196619:IVK196621 JFG196619:JFG196621 JPC196619:JPC196621 JYY196619:JYY196621 KIU196619:KIU196621 KSQ196619:KSQ196621 LCM196619:LCM196621 LMI196619:LMI196621 LWE196619:LWE196621 MGA196619:MGA196621 MPW196619:MPW196621 MZS196619:MZS196621 NJO196619:NJO196621 NTK196619:NTK196621 ODG196619:ODG196621 ONC196619:ONC196621 OWY196619:OWY196621 PGU196619:PGU196621 PQQ196619:PQQ196621 QAM196619:QAM196621 QKI196619:QKI196621 QUE196619:QUE196621 REA196619:REA196621 RNW196619:RNW196621 RXS196619:RXS196621 SHO196619:SHO196621 SRK196619:SRK196621 TBG196619:TBG196621 TLC196619:TLC196621 TUY196619:TUY196621 UEU196619:UEU196621 UOQ196619:UOQ196621 UYM196619:UYM196621 VII196619:VII196621 VSE196619:VSE196621 WCA196619:WCA196621 WLW196619:WLW196621 WVS196619:WVS196621 K262155:K262157 JG262155:JG262157 TC262155:TC262157 ACY262155:ACY262157 AMU262155:AMU262157 AWQ262155:AWQ262157 BGM262155:BGM262157 BQI262155:BQI262157 CAE262155:CAE262157 CKA262155:CKA262157 CTW262155:CTW262157 DDS262155:DDS262157 DNO262155:DNO262157 DXK262155:DXK262157 EHG262155:EHG262157 ERC262155:ERC262157 FAY262155:FAY262157 FKU262155:FKU262157 FUQ262155:FUQ262157 GEM262155:GEM262157 GOI262155:GOI262157 GYE262155:GYE262157 HIA262155:HIA262157 HRW262155:HRW262157 IBS262155:IBS262157 ILO262155:ILO262157 IVK262155:IVK262157 JFG262155:JFG262157 JPC262155:JPC262157 JYY262155:JYY262157 KIU262155:KIU262157 KSQ262155:KSQ262157 LCM262155:LCM262157 LMI262155:LMI262157 LWE262155:LWE262157 MGA262155:MGA262157 MPW262155:MPW262157 MZS262155:MZS262157 NJO262155:NJO262157 NTK262155:NTK262157 ODG262155:ODG262157 ONC262155:ONC262157 OWY262155:OWY262157 PGU262155:PGU262157 PQQ262155:PQQ262157 QAM262155:QAM262157 QKI262155:QKI262157 QUE262155:QUE262157 REA262155:REA262157 RNW262155:RNW262157 RXS262155:RXS262157 SHO262155:SHO262157 SRK262155:SRK262157 TBG262155:TBG262157 TLC262155:TLC262157 TUY262155:TUY262157 UEU262155:UEU262157 UOQ262155:UOQ262157 UYM262155:UYM262157 VII262155:VII262157 VSE262155:VSE262157 WCA262155:WCA262157 WLW262155:WLW262157 WVS262155:WVS262157 K327691:K327693 JG327691:JG327693 TC327691:TC327693 ACY327691:ACY327693 AMU327691:AMU327693 AWQ327691:AWQ327693 BGM327691:BGM327693 BQI327691:BQI327693 CAE327691:CAE327693 CKA327691:CKA327693 CTW327691:CTW327693 DDS327691:DDS327693 DNO327691:DNO327693 DXK327691:DXK327693 EHG327691:EHG327693 ERC327691:ERC327693 FAY327691:FAY327693 FKU327691:FKU327693 FUQ327691:FUQ327693 GEM327691:GEM327693 GOI327691:GOI327693 GYE327691:GYE327693 HIA327691:HIA327693 HRW327691:HRW327693 IBS327691:IBS327693 ILO327691:ILO327693 IVK327691:IVK327693 JFG327691:JFG327693 JPC327691:JPC327693 JYY327691:JYY327693 KIU327691:KIU327693 KSQ327691:KSQ327693 LCM327691:LCM327693 LMI327691:LMI327693 LWE327691:LWE327693 MGA327691:MGA327693 MPW327691:MPW327693 MZS327691:MZS327693 NJO327691:NJO327693 NTK327691:NTK327693 ODG327691:ODG327693 ONC327691:ONC327693 OWY327691:OWY327693 PGU327691:PGU327693 PQQ327691:PQQ327693 QAM327691:QAM327693 QKI327691:QKI327693 QUE327691:QUE327693 REA327691:REA327693 RNW327691:RNW327693 RXS327691:RXS327693 SHO327691:SHO327693 SRK327691:SRK327693 TBG327691:TBG327693 TLC327691:TLC327693 TUY327691:TUY327693 UEU327691:UEU327693 UOQ327691:UOQ327693 UYM327691:UYM327693 VII327691:VII327693 VSE327691:VSE327693 WCA327691:WCA327693 WLW327691:WLW327693 WVS327691:WVS327693 K393227:K393229 JG393227:JG393229 TC393227:TC393229 ACY393227:ACY393229 AMU393227:AMU393229 AWQ393227:AWQ393229 BGM393227:BGM393229 BQI393227:BQI393229 CAE393227:CAE393229 CKA393227:CKA393229 CTW393227:CTW393229 DDS393227:DDS393229 DNO393227:DNO393229 DXK393227:DXK393229 EHG393227:EHG393229 ERC393227:ERC393229 FAY393227:FAY393229 FKU393227:FKU393229 FUQ393227:FUQ393229 GEM393227:GEM393229 GOI393227:GOI393229 GYE393227:GYE393229 HIA393227:HIA393229 HRW393227:HRW393229 IBS393227:IBS393229 ILO393227:ILO393229 IVK393227:IVK393229 JFG393227:JFG393229 JPC393227:JPC393229 JYY393227:JYY393229 KIU393227:KIU393229 KSQ393227:KSQ393229 LCM393227:LCM393229 LMI393227:LMI393229 LWE393227:LWE393229 MGA393227:MGA393229 MPW393227:MPW393229 MZS393227:MZS393229 NJO393227:NJO393229 NTK393227:NTK393229 ODG393227:ODG393229 ONC393227:ONC393229 OWY393227:OWY393229 PGU393227:PGU393229 PQQ393227:PQQ393229 QAM393227:QAM393229 QKI393227:QKI393229 QUE393227:QUE393229 REA393227:REA393229 RNW393227:RNW393229 RXS393227:RXS393229 SHO393227:SHO393229 SRK393227:SRK393229 TBG393227:TBG393229 TLC393227:TLC393229 TUY393227:TUY393229 UEU393227:UEU393229 UOQ393227:UOQ393229 UYM393227:UYM393229 VII393227:VII393229 VSE393227:VSE393229 WCA393227:WCA393229 WLW393227:WLW393229 WVS393227:WVS393229 K458763:K458765 JG458763:JG458765 TC458763:TC458765 ACY458763:ACY458765 AMU458763:AMU458765 AWQ458763:AWQ458765 BGM458763:BGM458765 BQI458763:BQI458765 CAE458763:CAE458765 CKA458763:CKA458765 CTW458763:CTW458765 DDS458763:DDS458765 DNO458763:DNO458765 DXK458763:DXK458765 EHG458763:EHG458765 ERC458763:ERC458765 FAY458763:FAY458765 FKU458763:FKU458765 FUQ458763:FUQ458765 GEM458763:GEM458765 GOI458763:GOI458765 GYE458763:GYE458765 HIA458763:HIA458765 HRW458763:HRW458765 IBS458763:IBS458765 ILO458763:ILO458765 IVK458763:IVK458765 JFG458763:JFG458765 JPC458763:JPC458765 JYY458763:JYY458765 KIU458763:KIU458765 KSQ458763:KSQ458765 LCM458763:LCM458765 LMI458763:LMI458765 LWE458763:LWE458765 MGA458763:MGA458765 MPW458763:MPW458765 MZS458763:MZS458765 NJO458763:NJO458765 NTK458763:NTK458765 ODG458763:ODG458765 ONC458763:ONC458765 OWY458763:OWY458765 PGU458763:PGU458765 PQQ458763:PQQ458765 QAM458763:QAM458765 QKI458763:QKI458765 QUE458763:QUE458765 REA458763:REA458765 RNW458763:RNW458765 RXS458763:RXS458765 SHO458763:SHO458765 SRK458763:SRK458765 TBG458763:TBG458765 TLC458763:TLC458765 TUY458763:TUY458765 UEU458763:UEU458765 UOQ458763:UOQ458765 UYM458763:UYM458765 VII458763:VII458765 VSE458763:VSE458765 WCA458763:WCA458765 WLW458763:WLW458765 WVS458763:WVS458765 K524299:K524301 JG524299:JG524301 TC524299:TC524301 ACY524299:ACY524301 AMU524299:AMU524301 AWQ524299:AWQ524301 BGM524299:BGM524301 BQI524299:BQI524301 CAE524299:CAE524301 CKA524299:CKA524301 CTW524299:CTW524301 DDS524299:DDS524301 DNO524299:DNO524301 DXK524299:DXK524301 EHG524299:EHG524301 ERC524299:ERC524301 FAY524299:FAY524301 FKU524299:FKU524301 FUQ524299:FUQ524301 GEM524299:GEM524301 GOI524299:GOI524301 GYE524299:GYE524301 HIA524299:HIA524301 HRW524299:HRW524301 IBS524299:IBS524301 ILO524299:ILO524301 IVK524299:IVK524301 JFG524299:JFG524301 JPC524299:JPC524301 JYY524299:JYY524301 KIU524299:KIU524301 KSQ524299:KSQ524301 LCM524299:LCM524301 LMI524299:LMI524301 LWE524299:LWE524301 MGA524299:MGA524301 MPW524299:MPW524301 MZS524299:MZS524301 NJO524299:NJO524301 NTK524299:NTK524301 ODG524299:ODG524301 ONC524299:ONC524301 OWY524299:OWY524301 PGU524299:PGU524301 PQQ524299:PQQ524301 QAM524299:QAM524301 QKI524299:QKI524301 QUE524299:QUE524301 REA524299:REA524301 RNW524299:RNW524301 RXS524299:RXS524301 SHO524299:SHO524301 SRK524299:SRK524301 TBG524299:TBG524301 TLC524299:TLC524301 TUY524299:TUY524301 UEU524299:UEU524301 UOQ524299:UOQ524301 UYM524299:UYM524301 VII524299:VII524301 VSE524299:VSE524301 WCA524299:WCA524301 WLW524299:WLW524301 WVS524299:WVS524301 K589835:K589837 JG589835:JG589837 TC589835:TC589837 ACY589835:ACY589837 AMU589835:AMU589837 AWQ589835:AWQ589837 BGM589835:BGM589837 BQI589835:BQI589837 CAE589835:CAE589837 CKA589835:CKA589837 CTW589835:CTW589837 DDS589835:DDS589837 DNO589835:DNO589837 DXK589835:DXK589837 EHG589835:EHG589837 ERC589835:ERC589837 FAY589835:FAY589837 FKU589835:FKU589837 FUQ589835:FUQ589837 GEM589835:GEM589837 GOI589835:GOI589837 GYE589835:GYE589837 HIA589835:HIA589837 HRW589835:HRW589837 IBS589835:IBS589837 ILO589835:ILO589837 IVK589835:IVK589837 JFG589835:JFG589837 JPC589835:JPC589837 JYY589835:JYY589837 KIU589835:KIU589837 KSQ589835:KSQ589837 LCM589835:LCM589837 LMI589835:LMI589837 LWE589835:LWE589837 MGA589835:MGA589837 MPW589835:MPW589837 MZS589835:MZS589837 NJO589835:NJO589837 NTK589835:NTK589837 ODG589835:ODG589837 ONC589835:ONC589837 OWY589835:OWY589837 PGU589835:PGU589837 PQQ589835:PQQ589837 QAM589835:QAM589837 QKI589835:QKI589837 QUE589835:QUE589837 REA589835:REA589837 RNW589835:RNW589837 RXS589835:RXS589837 SHO589835:SHO589837 SRK589835:SRK589837 TBG589835:TBG589837 TLC589835:TLC589837 TUY589835:TUY589837 UEU589835:UEU589837 UOQ589835:UOQ589837 UYM589835:UYM589837 VII589835:VII589837 VSE589835:VSE589837 WCA589835:WCA589837 WLW589835:WLW589837 WVS589835:WVS589837 K655371:K655373 JG655371:JG655373 TC655371:TC655373 ACY655371:ACY655373 AMU655371:AMU655373 AWQ655371:AWQ655373 BGM655371:BGM655373 BQI655371:BQI655373 CAE655371:CAE655373 CKA655371:CKA655373 CTW655371:CTW655373 DDS655371:DDS655373 DNO655371:DNO655373 DXK655371:DXK655373 EHG655371:EHG655373 ERC655371:ERC655373 FAY655371:FAY655373 FKU655371:FKU655373 FUQ655371:FUQ655373 GEM655371:GEM655373 GOI655371:GOI655373 GYE655371:GYE655373 HIA655371:HIA655373 HRW655371:HRW655373 IBS655371:IBS655373 ILO655371:ILO655373 IVK655371:IVK655373 JFG655371:JFG655373 JPC655371:JPC655373 JYY655371:JYY655373 KIU655371:KIU655373 KSQ655371:KSQ655373 LCM655371:LCM655373 LMI655371:LMI655373 LWE655371:LWE655373 MGA655371:MGA655373 MPW655371:MPW655373 MZS655371:MZS655373 NJO655371:NJO655373 NTK655371:NTK655373 ODG655371:ODG655373 ONC655371:ONC655373 OWY655371:OWY655373 PGU655371:PGU655373 PQQ655371:PQQ655373 QAM655371:QAM655373 QKI655371:QKI655373 QUE655371:QUE655373 REA655371:REA655373 RNW655371:RNW655373 RXS655371:RXS655373 SHO655371:SHO655373 SRK655371:SRK655373 TBG655371:TBG655373 TLC655371:TLC655373 TUY655371:TUY655373 UEU655371:UEU655373 UOQ655371:UOQ655373 UYM655371:UYM655373 VII655371:VII655373 VSE655371:VSE655373 WCA655371:WCA655373 WLW655371:WLW655373 WVS655371:WVS655373 K720907:K720909 JG720907:JG720909 TC720907:TC720909 ACY720907:ACY720909 AMU720907:AMU720909 AWQ720907:AWQ720909 BGM720907:BGM720909 BQI720907:BQI720909 CAE720907:CAE720909 CKA720907:CKA720909 CTW720907:CTW720909 DDS720907:DDS720909 DNO720907:DNO720909 DXK720907:DXK720909 EHG720907:EHG720909 ERC720907:ERC720909 FAY720907:FAY720909 FKU720907:FKU720909 FUQ720907:FUQ720909 GEM720907:GEM720909 GOI720907:GOI720909 GYE720907:GYE720909 HIA720907:HIA720909 HRW720907:HRW720909 IBS720907:IBS720909 ILO720907:ILO720909 IVK720907:IVK720909 JFG720907:JFG720909 JPC720907:JPC720909 JYY720907:JYY720909 KIU720907:KIU720909 KSQ720907:KSQ720909 LCM720907:LCM720909 LMI720907:LMI720909 LWE720907:LWE720909 MGA720907:MGA720909 MPW720907:MPW720909 MZS720907:MZS720909 NJO720907:NJO720909 NTK720907:NTK720909 ODG720907:ODG720909 ONC720907:ONC720909 OWY720907:OWY720909 PGU720907:PGU720909 PQQ720907:PQQ720909 QAM720907:QAM720909 QKI720907:QKI720909 QUE720907:QUE720909 REA720907:REA720909 RNW720907:RNW720909 RXS720907:RXS720909 SHO720907:SHO720909 SRK720907:SRK720909 TBG720907:TBG720909 TLC720907:TLC720909 TUY720907:TUY720909 UEU720907:UEU720909 UOQ720907:UOQ720909 UYM720907:UYM720909 VII720907:VII720909 VSE720907:VSE720909 WCA720907:WCA720909 WLW720907:WLW720909 WVS720907:WVS720909 K786443:K786445 JG786443:JG786445 TC786443:TC786445 ACY786443:ACY786445 AMU786443:AMU786445 AWQ786443:AWQ786445 BGM786443:BGM786445 BQI786443:BQI786445 CAE786443:CAE786445 CKA786443:CKA786445 CTW786443:CTW786445 DDS786443:DDS786445 DNO786443:DNO786445 DXK786443:DXK786445 EHG786443:EHG786445 ERC786443:ERC786445 FAY786443:FAY786445 FKU786443:FKU786445 FUQ786443:FUQ786445 GEM786443:GEM786445 GOI786443:GOI786445 GYE786443:GYE786445 HIA786443:HIA786445 HRW786443:HRW786445 IBS786443:IBS786445 ILO786443:ILO786445 IVK786443:IVK786445 JFG786443:JFG786445 JPC786443:JPC786445 JYY786443:JYY786445 KIU786443:KIU786445 KSQ786443:KSQ786445 LCM786443:LCM786445 LMI786443:LMI786445 LWE786443:LWE786445 MGA786443:MGA786445 MPW786443:MPW786445 MZS786443:MZS786445 NJO786443:NJO786445 NTK786443:NTK786445 ODG786443:ODG786445 ONC786443:ONC786445 OWY786443:OWY786445 PGU786443:PGU786445 PQQ786443:PQQ786445 QAM786443:QAM786445 QKI786443:QKI786445 QUE786443:QUE786445 REA786443:REA786445 RNW786443:RNW786445 RXS786443:RXS786445 SHO786443:SHO786445 SRK786443:SRK786445 TBG786443:TBG786445 TLC786443:TLC786445 TUY786443:TUY786445 UEU786443:UEU786445 UOQ786443:UOQ786445 UYM786443:UYM786445 VII786443:VII786445 VSE786443:VSE786445 WCA786443:WCA786445 WLW786443:WLW786445 WVS786443:WVS786445 K851979:K851981 JG851979:JG851981 TC851979:TC851981 ACY851979:ACY851981 AMU851979:AMU851981 AWQ851979:AWQ851981 BGM851979:BGM851981 BQI851979:BQI851981 CAE851979:CAE851981 CKA851979:CKA851981 CTW851979:CTW851981 DDS851979:DDS851981 DNO851979:DNO851981 DXK851979:DXK851981 EHG851979:EHG851981 ERC851979:ERC851981 FAY851979:FAY851981 FKU851979:FKU851981 FUQ851979:FUQ851981 GEM851979:GEM851981 GOI851979:GOI851981 GYE851979:GYE851981 HIA851979:HIA851981 HRW851979:HRW851981 IBS851979:IBS851981 ILO851979:ILO851981 IVK851979:IVK851981 JFG851979:JFG851981 JPC851979:JPC851981 JYY851979:JYY851981 KIU851979:KIU851981 KSQ851979:KSQ851981 LCM851979:LCM851981 LMI851979:LMI851981 LWE851979:LWE851981 MGA851979:MGA851981 MPW851979:MPW851981 MZS851979:MZS851981 NJO851979:NJO851981 NTK851979:NTK851981 ODG851979:ODG851981 ONC851979:ONC851981 OWY851979:OWY851981 PGU851979:PGU851981 PQQ851979:PQQ851981 QAM851979:QAM851981 QKI851979:QKI851981 QUE851979:QUE851981 REA851979:REA851981 RNW851979:RNW851981 RXS851979:RXS851981 SHO851979:SHO851981 SRK851979:SRK851981 TBG851979:TBG851981 TLC851979:TLC851981 TUY851979:TUY851981 UEU851979:UEU851981 UOQ851979:UOQ851981 UYM851979:UYM851981 VII851979:VII851981 VSE851979:VSE851981 WCA851979:WCA851981 WLW851979:WLW851981 WVS851979:WVS851981 K917515:K917517 JG917515:JG917517 TC917515:TC917517 ACY917515:ACY917517 AMU917515:AMU917517 AWQ917515:AWQ917517 BGM917515:BGM917517 BQI917515:BQI917517 CAE917515:CAE917517 CKA917515:CKA917517 CTW917515:CTW917517 DDS917515:DDS917517 DNO917515:DNO917517 DXK917515:DXK917517 EHG917515:EHG917517 ERC917515:ERC917517 FAY917515:FAY917517 FKU917515:FKU917517 FUQ917515:FUQ917517 GEM917515:GEM917517 GOI917515:GOI917517 GYE917515:GYE917517 HIA917515:HIA917517 HRW917515:HRW917517 IBS917515:IBS917517 ILO917515:ILO917517 IVK917515:IVK917517 JFG917515:JFG917517 JPC917515:JPC917517 JYY917515:JYY917517 KIU917515:KIU917517 KSQ917515:KSQ917517 LCM917515:LCM917517 LMI917515:LMI917517 LWE917515:LWE917517 MGA917515:MGA917517 MPW917515:MPW917517 MZS917515:MZS917517 NJO917515:NJO917517 NTK917515:NTK917517 ODG917515:ODG917517 ONC917515:ONC917517 OWY917515:OWY917517 PGU917515:PGU917517 PQQ917515:PQQ917517 QAM917515:QAM917517 QKI917515:QKI917517 QUE917515:QUE917517 REA917515:REA917517 RNW917515:RNW917517 RXS917515:RXS917517 SHO917515:SHO917517 SRK917515:SRK917517 TBG917515:TBG917517 TLC917515:TLC917517 TUY917515:TUY917517 UEU917515:UEU917517 UOQ917515:UOQ917517 UYM917515:UYM917517 VII917515:VII917517 VSE917515:VSE917517 WCA917515:WCA917517 WLW917515:WLW917517 WVS917515:WVS917517 K983051:K983053 JG983051:JG983053 TC983051:TC983053 ACY983051:ACY983053 AMU983051:AMU983053 AWQ983051:AWQ983053 BGM983051:BGM983053 BQI983051:BQI983053 CAE983051:CAE983053 CKA983051:CKA983053 CTW983051:CTW983053 DDS983051:DDS983053 DNO983051:DNO983053 DXK983051:DXK983053 EHG983051:EHG983053 ERC983051:ERC983053 FAY983051:FAY983053 FKU983051:FKU983053 FUQ983051:FUQ983053 GEM983051:GEM983053 GOI983051:GOI983053 GYE983051:GYE983053 HIA983051:HIA983053 HRW983051:HRW983053 IBS983051:IBS983053 ILO983051:ILO983053 IVK983051:IVK983053 JFG983051:JFG983053 JPC983051:JPC983053 JYY983051:JYY983053 KIU983051:KIU983053 KSQ983051:KSQ983053 LCM983051:LCM983053 LMI983051:LMI983053 LWE983051:LWE983053 MGA983051:MGA983053 MPW983051:MPW983053 MZS983051:MZS983053 NJO983051:NJO983053 NTK983051:NTK983053 ODG983051:ODG983053 ONC983051:ONC983053 OWY983051:OWY983053 PGU983051:PGU983053 PQQ983051:PQQ983053 QAM983051:QAM983053 QKI983051:QKI983053 QUE983051:QUE983053 REA983051:REA983053 RNW983051:RNW983053 RXS983051:RXS983053 SHO983051:SHO983053 SRK983051:SRK983053 TBG983051:TBG983053 TLC983051:TLC983053 TUY983051:TUY983053 UEU983051:UEU983053 UOQ983051:UOQ983053 UYM983051:UYM983053 VII983051:VII983053 VSE983051:VSE983053 WCA983051:WCA983053 WLW983051:WLW983053 WVS983051:WVS983053" xr:uid="{B5231113-F7BF-404F-B160-A3FE81C74A66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K16 JG11:JG16 TC11:TC16 ACY11:ACY16 AMU11:AMU16 AWQ11:AWQ16 BGM11:BGM16 BQI11:BQI16 CAE11:CAE16 CKA11:CKA16 CTW11:CTW16 DDS11:DDS16 DNO11:DNO16 DXK11:DXK16 EHG11:EHG16 ERC11:ERC16 FAY11:FAY16 FKU11:FKU16 FUQ11:FUQ16 GEM11:GEM16 GOI11:GOI16 GYE11:GYE16 HIA11:HIA16 HRW11:HRW16 IBS11:IBS16 ILO11:ILO16 IVK11:IVK16 JFG11:JFG16 JPC11:JPC16 JYY11:JYY16 KIU11:KIU16 KSQ11:KSQ16 LCM11:LCM16 LMI11:LMI16 LWE11:LWE16 MGA11:MGA16 MPW11:MPW16 MZS11:MZS16 NJO11:NJO16 NTK11:NTK16 ODG11:ODG16 ONC11:ONC16 OWY11:OWY16 PGU11:PGU16 PQQ11:PQQ16 QAM11:QAM16 QKI11:QKI16 QUE11:QUE16 REA11:REA16 RNW11:RNW16 RXS11:RXS16 SHO11:SHO16 SRK11:SRK16 TBG11:TBG16 TLC11:TLC16 TUY11:TUY16 UEU11:UEU16 UOQ11:UOQ16 UYM11:UYM16 VII11:VII16 VSE11:VSE16 WCA11:WCA16 WLW11:WLW16 WVS11:WVS16 K65547:K65549 JG65547:JG65549 TC65547:TC65549 ACY65547:ACY65549 AMU65547:AMU65549 AWQ65547:AWQ65549 BGM65547:BGM65549 BQI65547:BQI65549 CAE65547:CAE65549 CKA65547:CKA65549 CTW65547:CTW65549 DDS65547:DDS65549 DNO65547:DNO65549 DXK65547:DXK65549 EHG65547:EHG65549 ERC65547:ERC65549 FAY65547:FAY65549 FKU65547:FKU65549 FUQ65547:FUQ65549 GEM65547:GEM65549 GOI65547:GOI65549 GYE65547:GYE65549 HIA65547:HIA65549 HRW65547:HRW65549 IBS65547:IBS65549 ILO65547:ILO65549 IVK65547:IVK65549 JFG65547:JFG65549 JPC65547:JPC65549 JYY65547:JYY65549 KIU65547:KIU65549 KSQ65547:KSQ65549 LCM65547:LCM65549 LMI65547:LMI65549 LWE65547:LWE65549 MGA65547:MGA65549 MPW65547:MPW65549 MZS65547:MZS65549 NJO65547:NJO65549 NTK65547:NTK65549 ODG65547:ODG65549 ONC65547:ONC65549 OWY65547:OWY65549 PGU65547:PGU65549 PQQ65547:PQQ65549 QAM65547:QAM65549 QKI65547:QKI65549 QUE65547:QUE65549 REA65547:REA65549 RNW65547:RNW65549 RXS65547:RXS65549 SHO65547:SHO65549 SRK65547:SRK65549 TBG65547:TBG65549 TLC65547:TLC65549 TUY65547:TUY65549 UEU65547:UEU65549 UOQ65547:UOQ65549 UYM65547:UYM65549 VII65547:VII65549 VSE65547:VSE65549 WCA65547:WCA65549 WLW65547:WLW65549 WVS65547:WVS65549 K131083:K131085 JG131083:JG131085 TC131083:TC131085 ACY131083:ACY131085 AMU131083:AMU131085 AWQ131083:AWQ131085 BGM131083:BGM131085 BQI131083:BQI131085 CAE131083:CAE131085 CKA131083:CKA131085 CTW131083:CTW131085 DDS131083:DDS131085 DNO131083:DNO131085 DXK131083:DXK131085 EHG131083:EHG131085 ERC131083:ERC131085 FAY131083:FAY131085 FKU131083:FKU131085 FUQ131083:FUQ131085 GEM131083:GEM131085 GOI131083:GOI131085 GYE131083:GYE131085 HIA131083:HIA131085 HRW131083:HRW131085 IBS131083:IBS131085 ILO131083:ILO131085 IVK131083:IVK131085 JFG131083:JFG131085 JPC131083:JPC131085 JYY131083:JYY131085 KIU131083:KIU131085 KSQ131083:KSQ131085 LCM131083:LCM131085 LMI131083:LMI131085 LWE131083:LWE131085 MGA131083:MGA131085 MPW131083:MPW131085 MZS131083:MZS131085 NJO131083:NJO131085 NTK131083:NTK131085 ODG131083:ODG131085 ONC131083:ONC131085 OWY131083:OWY131085 PGU131083:PGU131085 PQQ131083:PQQ131085 QAM131083:QAM131085 QKI131083:QKI131085 QUE131083:QUE131085 REA131083:REA131085 RNW131083:RNW131085 RXS131083:RXS131085 SHO131083:SHO131085 SRK131083:SRK131085 TBG131083:TBG131085 TLC131083:TLC131085 TUY131083:TUY131085 UEU131083:UEU131085 UOQ131083:UOQ131085 UYM131083:UYM131085 VII131083:VII131085 VSE131083:VSE131085 WCA131083:WCA131085 WLW131083:WLW131085 WVS131083:WVS131085 K196619:K196621 JG196619:JG196621 TC196619:TC196621 ACY196619:ACY196621 AMU196619:AMU196621 AWQ196619:AWQ196621 BGM196619:BGM196621 BQI196619:BQI196621 CAE196619:CAE196621 CKA196619:CKA196621 CTW196619:CTW196621 DDS196619:DDS196621 DNO196619:DNO196621 DXK196619:DXK196621 EHG196619:EHG196621 ERC196619:ERC196621 FAY196619:FAY196621 FKU196619:FKU196621 FUQ196619:FUQ196621 GEM196619:GEM196621 GOI196619:GOI196621 GYE196619:GYE196621 HIA196619:HIA196621 HRW196619:HRW196621 IBS196619:IBS196621 ILO196619:ILO196621 IVK196619:IVK196621 JFG196619:JFG196621 JPC196619:JPC196621 JYY196619:JYY196621 KIU196619:KIU196621 KSQ196619:KSQ196621 LCM196619:LCM196621 LMI196619:LMI196621 LWE196619:LWE196621 MGA196619:MGA196621 MPW196619:MPW196621 MZS196619:MZS196621 NJO196619:NJO196621 NTK196619:NTK196621 ODG196619:ODG196621 ONC196619:ONC196621 OWY196619:OWY196621 PGU196619:PGU196621 PQQ196619:PQQ196621 QAM196619:QAM196621 QKI196619:QKI196621 QUE196619:QUE196621 REA196619:REA196621 RNW196619:RNW196621 RXS196619:RXS196621 SHO196619:SHO196621 SRK196619:SRK196621 TBG196619:TBG196621 TLC196619:TLC196621 TUY196619:TUY196621 UEU196619:UEU196621 UOQ196619:UOQ196621 UYM196619:UYM196621 VII196619:VII196621 VSE196619:VSE196621 WCA196619:WCA196621 WLW196619:WLW196621 WVS196619:WVS196621 K262155:K262157 JG262155:JG262157 TC262155:TC262157 ACY262155:ACY262157 AMU262155:AMU262157 AWQ262155:AWQ262157 BGM262155:BGM262157 BQI262155:BQI262157 CAE262155:CAE262157 CKA262155:CKA262157 CTW262155:CTW262157 DDS262155:DDS262157 DNO262155:DNO262157 DXK262155:DXK262157 EHG262155:EHG262157 ERC262155:ERC262157 FAY262155:FAY262157 FKU262155:FKU262157 FUQ262155:FUQ262157 GEM262155:GEM262157 GOI262155:GOI262157 GYE262155:GYE262157 HIA262155:HIA262157 HRW262155:HRW262157 IBS262155:IBS262157 ILO262155:ILO262157 IVK262155:IVK262157 JFG262155:JFG262157 JPC262155:JPC262157 JYY262155:JYY262157 KIU262155:KIU262157 KSQ262155:KSQ262157 LCM262155:LCM262157 LMI262155:LMI262157 LWE262155:LWE262157 MGA262155:MGA262157 MPW262155:MPW262157 MZS262155:MZS262157 NJO262155:NJO262157 NTK262155:NTK262157 ODG262155:ODG262157 ONC262155:ONC262157 OWY262155:OWY262157 PGU262155:PGU262157 PQQ262155:PQQ262157 QAM262155:QAM262157 QKI262155:QKI262157 QUE262155:QUE262157 REA262155:REA262157 RNW262155:RNW262157 RXS262155:RXS262157 SHO262155:SHO262157 SRK262155:SRK262157 TBG262155:TBG262157 TLC262155:TLC262157 TUY262155:TUY262157 UEU262155:UEU262157 UOQ262155:UOQ262157 UYM262155:UYM262157 VII262155:VII262157 VSE262155:VSE262157 WCA262155:WCA262157 WLW262155:WLW262157 WVS262155:WVS262157 K327691:K327693 JG327691:JG327693 TC327691:TC327693 ACY327691:ACY327693 AMU327691:AMU327693 AWQ327691:AWQ327693 BGM327691:BGM327693 BQI327691:BQI327693 CAE327691:CAE327693 CKA327691:CKA327693 CTW327691:CTW327693 DDS327691:DDS327693 DNO327691:DNO327693 DXK327691:DXK327693 EHG327691:EHG327693 ERC327691:ERC327693 FAY327691:FAY327693 FKU327691:FKU327693 FUQ327691:FUQ327693 GEM327691:GEM327693 GOI327691:GOI327693 GYE327691:GYE327693 HIA327691:HIA327693 HRW327691:HRW327693 IBS327691:IBS327693 ILO327691:ILO327693 IVK327691:IVK327693 JFG327691:JFG327693 JPC327691:JPC327693 JYY327691:JYY327693 KIU327691:KIU327693 KSQ327691:KSQ327693 LCM327691:LCM327693 LMI327691:LMI327693 LWE327691:LWE327693 MGA327691:MGA327693 MPW327691:MPW327693 MZS327691:MZS327693 NJO327691:NJO327693 NTK327691:NTK327693 ODG327691:ODG327693 ONC327691:ONC327693 OWY327691:OWY327693 PGU327691:PGU327693 PQQ327691:PQQ327693 QAM327691:QAM327693 QKI327691:QKI327693 QUE327691:QUE327693 REA327691:REA327693 RNW327691:RNW327693 RXS327691:RXS327693 SHO327691:SHO327693 SRK327691:SRK327693 TBG327691:TBG327693 TLC327691:TLC327693 TUY327691:TUY327693 UEU327691:UEU327693 UOQ327691:UOQ327693 UYM327691:UYM327693 VII327691:VII327693 VSE327691:VSE327693 WCA327691:WCA327693 WLW327691:WLW327693 WVS327691:WVS327693 K393227:K393229 JG393227:JG393229 TC393227:TC393229 ACY393227:ACY393229 AMU393227:AMU393229 AWQ393227:AWQ393229 BGM393227:BGM393229 BQI393227:BQI393229 CAE393227:CAE393229 CKA393227:CKA393229 CTW393227:CTW393229 DDS393227:DDS393229 DNO393227:DNO393229 DXK393227:DXK393229 EHG393227:EHG393229 ERC393227:ERC393229 FAY393227:FAY393229 FKU393227:FKU393229 FUQ393227:FUQ393229 GEM393227:GEM393229 GOI393227:GOI393229 GYE393227:GYE393229 HIA393227:HIA393229 HRW393227:HRW393229 IBS393227:IBS393229 ILO393227:ILO393229 IVK393227:IVK393229 JFG393227:JFG393229 JPC393227:JPC393229 JYY393227:JYY393229 KIU393227:KIU393229 KSQ393227:KSQ393229 LCM393227:LCM393229 LMI393227:LMI393229 LWE393227:LWE393229 MGA393227:MGA393229 MPW393227:MPW393229 MZS393227:MZS393229 NJO393227:NJO393229 NTK393227:NTK393229 ODG393227:ODG393229 ONC393227:ONC393229 OWY393227:OWY393229 PGU393227:PGU393229 PQQ393227:PQQ393229 QAM393227:QAM393229 QKI393227:QKI393229 QUE393227:QUE393229 REA393227:REA393229 RNW393227:RNW393229 RXS393227:RXS393229 SHO393227:SHO393229 SRK393227:SRK393229 TBG393227:TBG393229 TLC393227:TLC393229 TUY393227:TUY393229 UEU393227:UEU393229 UOQ393227:UOQ393229 UYM393227:UYM393229 VII393227:VII393229 VSE393227:VSE393229 WCA393227:WCA393229 WLW393227:WLW393229 WVS393227:WVS393229 K458763:K458765 JG458763:JG458765 TC458763:TC458765 ACY458763:ACY458765 AMU458763:AMU458765 AWQ458763:AWQ458765 BGM458763:BGM458765 BQI458763:BQI458765 CAE458763:CAE458765 CKA458763:CKA458765 CTW458763:CTW458765 DDS458763:DDS458765 DNO458763:DNO458765 DXK458763:DXK458765 EHG458763:EHG458765 ERC458763:ERC458765 FAY458763:FAY458765 FKU458763:FKU458765 FUQ458763:FUQ458765 GEM458763:GEM458765 GOI458763:GOI458765 GYE458763:GYE458765 HIA458763:HIA458765 HRW458763:HRW458765 IBS458763:IBS458765 ILO458763:ILO458765 IVK458763:IVK458765 JFG458763:JFG458765 JPC458763:JPC458765 JYY458763:JYY458765 KIU458763:KIU458765 KSQ458763:KSQ458765 LCM458763:LCM458765 LMI458763:LMI458765 LWE458763:LWE458765 MGA458763:MGA458765 MPW458763:MPW458765 MZS458763:MZS458765 NJO458763:NJO458765 NTK458763:NTK458765 ODG458763:ODG458765 ONC458763:ONC458765 OWY458763:OWY458765 PGU458763:PGU458765 PQQ458763:PQQ458765 QAM458763:QAM458765 QKI458763:QKI458765 QUE458763:QUE458765 REA458763:REA458765 RNW458763:RNW458765 RXS458763:RXS458765 SHO458763:SHO458765 SRK458763:SRK458765 TBG458763:TBG458765 TLC458763:TLC458765 TUY458763:TUY458765 UEU458763:UEU458765 UOQ458763:UOQ458765 UYM458763:UYM458765 VII458763:VII458765 VSE458763:VSE458765 WCA458763:WCA458765 WLW458763:WLW458765 WVS458763:WVS458765 K524299:K524301 JG524299:JG524301 TC524299:TC524301 ACY524299:ACY524301 AMU524299:AMU524301 AWQ524299:AWQ524301 BGM524299:BGM524301 BQI524299:BQI524301 CAE524299:CAE524301 CKA524299:CKA524301 CTW524299:CTW524301 DDS524299:DDS524301 DNO524299:DNO524301 DXK524299:DXK524301 EHG524299:EHG524301 ERC524299:ERC524301 FAY524299:FAY524301 FKU524299:FKU524301 FUQ524299:FUQ524301 GEM524299:GEM524301 GOI524299:GOI524301 GYE524299:GYE524301 HIA524299:HIA524301 HRW524299:HRW524301 IBS524299:IBS524301 ILO524299:ILO524301 IVK524299:IVK524301 JFG524299:JFG524301 JPC524299:JPC524301 JYY524299:JYY524301 KIU524299:KIU524301 KSQ524299:KSQ524301 LCM524299:LCM524301 LMI524299:LMI524301 LWE524299:LWE524301 MGA524299:MGA524301 MPW524299:MPW524301 MZS524299:MZS524301 NJO524299:NJO524301 NTK524299:NTK524301 ODG524299:ODG524301 ONC524299:ONC524301 OWY524299:OWY524301 PGU524299:PGU524301 PQQ524299:PQQ524301 QAM524299:QAM524301 QKI524299:QKI524301 QUE524299:QUE524301 REA524299:REA524301 RNW524299:RNW524301 RXS524299:RXS524301 SHO524299:SHO524301 SRK524299:SRK524301 TBG524299:TBG524301 TLC524299:TLC524301 TUY524299:TUY524301 UEU524299:UEU524301 UOQ524299:UOQ524301 UYM524299:UYM524301 VII524299:VII524301 VSE524299:VSE524301 WCA524299:WCA524301 WLW524299:WLW524301 WVS524299:WVS524301 K589835:K589837 JG589835:JG589837 TC589835:TC589837 ACY589835:ACY589837 AMU589835:AMU589837 AWQ589835:AWQ589837 BGM589835:BGM589837 BQI589835:BQI589837 CAE589835:CAE589837 CKA589835:CKA589837 CTW589835:CTW589837 DDS589835:DDS589837 DNO589835:DNO589837 DXK589835:DXK589837 EHG589835:EHG589837 ERC589835:ERC589837 FAY589835:FAY589837 FKU589835:FKU589837 FUQ589835:FUQ589837 GEM589835:GEM589837 GOI589835:GOI589837 GYE589835:GYE589837 HIA589835:HIA589837 HRW589835:HRW589837 IBS589835:IBS589837 ILO589835:ILO589837 IVK589835:IVK589837 JFG589835:JFG589837 JPC589835:JPC589837 JYY589835:JYY589837 KIU589835:KIU589837 KSQ589835:KSQ589837 LCM589835:LCM589837 LMI589835:LMI589837 LWE589835:LWE589837 MGA589835:MGA589837 MPW589835:MPW589837 MZS589835:MZS589837 NJO589835:NJO589837 NTK589835:NTK589837 ODG589835:ODG589837 ONC589835:ONC589837 OWY589835:OWY589837 PGU589835:PGU589837 PQQ589835:PQQ589837 QAM589835:QAM589837 QKI589835:QKI589837 QUE589835:QUE589837 REA589835:REA589837 RNW589835:RNW589837 RXS589835:RXS589837 SHO589835:SHO589837 SRK589835:SRK589837 TBG589835:TBG589837 TLC589835:TLC589837 TUY589835:TUY589837 UEU589835:UEU589837 UOQ589835:UOQ589837 UYM589835:UYM589837 VII589835:VII589837 VSE589835:VSE589837 WCA589835:WCA589837 WLW589835:WLW589837 WVS589835:WVS589837 K655371:K655373 JG655371:JG655373 TC655371:TC655373 ACY655371:ACY655373 AMU655371:AMU655373 AWQ655371:AWQ655373 BGM655371:BGM655373 BQI655371:BQI655373 CAE655371:CAE655373 CKA655371:CKA655373 CTW655371:CTW655373 DDS655371:DDS655373 DNO655371:DNO655373 DXK655371:DXK655373 EHG655371:EHG655373 ERC655371:ERC655373 FAY655371:FAY655373 FKU655371:FKU655373 FUQ655371:FUQ655373 GEM655371:GEM655373 GOI655371:GOI655373 GYE655371:GYE655373 HIA655371:HIA655373 HRW655371:HRW655373 IBS655371:IBS655373 ILO655371:ILO655373 IVK655371:IVK655373 JFG655371:JFG655373 JPC655371:JPC655373 JYY655371:JYY655373 KIU655371:KIU655373 KSQ655371:KSQ655373 LCM655371:LCM655373 LMI655371:LMI655373 LWE655371:LWE655373 MGA655371:MGA655373 MPW655371:MPW655373 MZS655371:MZS655373 NJO655371:NJO655373 NTK655371:NTK655373 ODG655371:ODG655373 ONC655371:ONC655373 OWY655371:OWY655373 PGU655371:PGU655373 PQQ655371:PQQ655373 QAM655371:QAM655373 QKI655371:QKI655373 QUE655371:QUE655373 REA655371:REA655373 RNW655371:RNW655373 RXS655371:RXS655373 SHO655371:SHO655373 SRK655371:SRK655373 TBG655371:TBG655373 TLC655371:TLC655373 TUY655371:TUY655373 UEU655371:UEU655373 UOQ655371:UOQ655373 UYM655371:UYM655373 VII655371:VII655373 VSE655371:VSE655373 WCA655371:WCA655373 WLW655371:WLW655373 WVS655371:WVS655373 K720907:K720909 JG720907:JG720909 TC720907:TC720909 ACY720907:ACY720909 AMU720907:AMU720909 AWQ720907:AWQ720909 BGM720907:BGM720909 BQI720907:BQI720909 CAE720907:CAE720909 CKA720907:CKA720909 CTW720907:CTW720909 DDS720907:DDS720909 DNO720907:DNO720909 DXK720907:DXK720909 EHG720907:EHG720909 ERC720907:ERC720909 FAY720907:FAY720909 FKU720907:FKU720909 FUQ720907:FUQ720909 GEM720907:GEM720909 GOI720907:GOI720909 GYE720907:GYE720909 HIA720907:HIA720909 HRW720907:HRW720909 IBS720907:IBS720909 ILO720907:ILO720909 IVK720907:IVK720909 JFG720907:JFG720909 JPC720907:JPC720909 JYY720907:JYY720909 KIU720907:KIU720909 KSQ720907:KSQ720909 LCM720907:LCM720909 LMI720907:LMI720909 LWE720907:LWE720909 MGA720907:MGA720909 MPW720907:MPW720909 MZS720907:MZS720909 NJO720907:NJO720909 NTK720907:NTK720909 ODG720907:ODG720909 ONC720907:ONC720909 OWY720907:OWY720909 PGU720907:PGU720909 PQQ720907:PQQ720909 QAM720907:QAM720909 QKI720907:QKI720909 QUE720907:QUE720909 REA720907:REA720909 RNW720907:RNW720909 RXS720907:RXS720909 SHO720907:SHO720909 SRK720907:SRK720909 TBG720907:TBG720909 TLC720907:TLC720909 TUY720907:TUY720909 UEU720907:UEU720909 UOQ720907:UOQ720909 UYM720907:UYM720909 VII720907:VII720909 VSE720907:VSE720909 WCA720907:WCA720909 WLW720907:WLW720909 WVS720907:WVS720909 K786443:K786445 JG786443:JG786445 TC786443:TC786445 ACY786443:ACY786445 AMU786443:AMU786445 AWQ786443:AWQ786445 BGM786443:BGM786445 BQI786443:BQI786445 CAE786443:CAE786445 CKA786443:CKA786445 CTW786443:CTW786445 DDS786443:DDS786445 DNO786443:DNO786445 DXK786443:DXK786445 EHG786443:EHG786445 ERC786443:ERC786445 FAY786443:FAY786445 FKU786443:FKU786445 FUQ786443:FUQ786445 GEM786443:GEM786445 GOI786443:GOI786445 GYE786443:GYE786445 HIA786443:HIA786445 HRW786443:HRW786445 IBS786443:IBS786445 ILO786443:ILO786445 IVK786443:IVK786445 JFG786443:JFG786445 JPC786443:JPC786445 JYY786443:JYY786445 KIU786443:KIU786445 KSQ786443:KSQ786445 LCM786443:LCM786445 LMI786443:LMI786445 LWE786443:LWE786445 MGA786443:MGA786445 MPW786443:MPW786445 MZS786443:MZS786445 NJO786443:NJO786445 NTK786443:NTK786445 ODG786443:ODG786445 ONC786443:ONC786445 OWY786443:OWY786445 PGU786443:PGU786445 PQQ786443:PQQ786445 QAM786443:QAM786445 QKI786443:QKI786445 QUE786443:QUE786445 REA786443:REA786445 RNW786443:RNW786445 RXS786443:RXS786445 SHO786443:SHO786445 SRK786443:SRK786445 TBG786443:TBG786445 TLC786443:TLC786445 TUY786443:TUY786445 UEU786443:UEU786445 UOQ786443:UOQ786445 UYM786443:UYM786445 VII786443:VII786445 VSE786443:VSE786445 WCA786443:WCA786445 WLW786443:WLW786445 WVS786443:WVS786445 K851979:K851981 JG851979:JG851981 TC851979:TC851981 ACY851979:ACY851981 AMU851979:AMU851981 AWQ851979:AWQ851981 BGM851979:BGM851981 BQI851979:BQI851981 CAE851979:CAE851981 CKA851979:CKA851981 CTW851979:CTW851981 DDS851979:DDS851981 DNO851979:DNO851981 DXK851979:DXK851981 EHG851979:EHG851981 ERC851979:ERC851981 FAY851979:FAY851981 FKU851979:FKU851981 FUQ851979:FUQ851981 GEM851979:GEM851981 GOI851979:GOI851981 GYE851979:GYE851981 HIA851979:HIA851981 HRW851979:HRW851981 IBS851979:IBS851981 ILO851979:ILO851981 IVK851979:IVK851981 JFG851979:JFG851981 JPC851979:JPC851981 JYY851979:JYY851981 KIU851979:KIU851981 KSQ851979:KSQ851981 LCM851979:LCM851981 LMI851979:LMI851981 LWE851979:LWE851981 MGA851979:MGA851981 MPW851979:MPW851981 MZS851979:MZS851981 NJO851979:NJO851981 NTK851979:NTK851981 ODG851979:ODG851981 ONC851979:ONC851981 OWY851979:OWY851981 PGU851979:PGU851981 PQQ851979:PQQ851981 QAM851979:QAM851981 QKI851979:QKI851981 QUE851979:QUE851981 REA851979:REA851981 RNW851979:RNW851981 RXS851979:RXS851981 SHO851979:SHO851981 SRK851979:SRK851981 TBG851979:TBG851981 TLC851979:TLC851981 TUY851979:TUY851981 UEU851979:UEU851981 UOQ851979:UOQ851981 UYM851979:UYM851981 VII851979:VII851981 VSE851979:VSE851981 WCA851979:WCA851981 WLW851979:WLW851981 WVS851979:WVS851981 K917515:K917517 JG917515:JG917517 TC917515:TC917517 ACY917515:ACY917517 AMU917515:AMU917517 AWQ917515:AWQ917517 BGM917515:BGM917517 BQI917515:BQI917517 CAE917515:CAE917517 CKA917515:CKA917517 CTW917515:CTW917517 DDS917515:DDS917517 DNO917515:DNO917517 DXK917515:DXK917517 EHG917515:EHG917517 ERC917515:ERC917517 FAY917515:FAY917517 FKU917515:FKU917517 FUQ917515:FUQ917517 GEM917515:GEM917517 GOI917515:GOI917517 GYE917515:GYE917517 HIA917515:HIA917517 HRW917515:HRW917517 IBS917515:IBS917517 ILO917515:ILO917517 IVK917515:IVK917517 JFG917515:JFG917517 JPC917515:JPC917517 JYY917515:JYY917517 KIU917515:KIU917517 KSQ917515:KSQ917517 LCM917515:LCM917517 LMI917515:LMI917517 LWE917515:LWE917517 MGA917515:MGA917517 MPW917515:MPW917517 MZS917515:MZS917517 NJO917515:NJO917517 NTK917515:NTK917517 ODG917515:ODG917517 ONC917515:ONC917517 OWY917515:OWY917517 PGU917515:PGU917517 PQQ917515:PQQ917517 QAM917515:QAM917517 QKI917515:QKI917517 QUE917515:QUE917517 REA917515:REA917517 RNW917515:RNW917517 RXS917515:RXS917517 SHO917515:SHO917517 SRK917515:SRK917517 TBG917515:TBG917517 TLC917515:TLC917517 TUY917515:TUY917517 UEU917515:UEU917517 UOQ917515:UOQ917517 UYM917515:UYM917517 VII917515:VII917517 VSE917515:VSE917517 WCA917515:WCA917517 WLW917515:WLW917517 WVS917515:WVS917517 K983051:K983053 JG983051:JG983053 TC983051:TC983053 ACY983051:ACY983053 AMU983051:AMU983053 AWQ983051:AWQ983053 BGM983051:BGM983053 BQI983051:BQI983053 CAE983051:CAE983053 CKA983051:CKA983053 CTW983051:CTW983053 DDS983051:DDS983053 DNO983051:DNO983053 DXK983051:DXK983053 EHG983051:EHG983053 ERC983051:ERC983053 FAY983051:FAY983053 FKU983051:FKU983053 FUQ983051:FUQ983053 GEM983051:GEM983053 GOI983051:GOI983053 GYE983051:GYE983053 HIA983051:HIA983053 HRW983051:HRW983053 IBS983051:IBS983053 ILO983051:ILO983053 IVK983051:IVK983053 JFG983051:JFG983053 JPC983051:JPC983053 JYY983051:JYY983053 KIU983051:KIU983053 KSQ983051:KSQ983053 LCM983051:LCM983053 LMI983051:LMI983053 LWE983051:LWE983053 MGA983051:MGA983053 MPW983051:MPW983053 MZS983051:MZS983053 NJO983051:NJO983053 NTK983051:NTK983053 ODG983051:ODG983053 ONC983051:ONC983053 OWY983051:OWY983053 PGU983051:PGU983053 PQQ983051:PQQ983053 QAM983051:QAM983053 QKI983051:QKI983053 QUE983051:QUE983053 REA983051:REA983053 RNW983051:RNW983053 RXS983051:RXS983053 SHO983051:SHO983053 SRK983051:SRK983053 TBG983051:TBG983053 TLC983051:TLC983053 TUY983051:TUY983053 UEU983051:UEU983053 UOQ983051:UOQ983053 UYM983051:UYM983053 VII983051:VII983053 VSE983051:VSE983053 WCA983051:WCA983053 WLW983051:WLW983053 WVS983051:WVS983053" xr:uid="{B5231113-F7BF-404F-B160-A3FE81C74A66}">
       <formula1 xml:space="preserve"> Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G13 JC11:JC13 SY11:SY13 ACU11:ACU13 AMQ11:AMQ13 AWM11:AWM13 BGI11:BGI13 BQE11:BQE13 CAA11:CAA13 CJW11:CJW13 CTS11:CTS13 DDO11:DDO13 DNK11:DNK13 DXG11:DXG13 EHC11:EHC13 EQY11:EQY13 FAU11:FAU13 FKQ11:FKQ13 FUM11:FUM13 GEI11:GEI13 GOE11:GOE13 GYA11:GYA13 HHW11:HHW13 HRS11:HRS13 IBO11:IBO13 ILK11:ILK13 IVG11:IVG13 JFC11:JFC13 JOY11:JOY13 JYU11:JYU13 KIQ11:KIQ13 KSM11:KSM13 LCI11:LCI13 LME11:LME13 LWA11:LWA13 MFW11:MFW13 MPS11:MPS13 MZO11:MZO13 NJK11:NJK13 NTG11:NTG13 ODC11:ODC13 OMY11:OMY13 OWU11:OWU13 PGQ11:PGQ13 PQM11:PQM13 QAI11:QAI13 QKE11:QKE13 QUA11:QUA13 RDW11:RDW13 RNS11:RNS13 RXO11:RXO13 SHK11:SHK13 SRG11:SRG13 TBC11:TBC13 TKY11:TKY13 TUU11:TUU13 UEQ11:UEQ13 UOM11:UOM13 UYI11:UYI13 VIE11:VIE13 VSA11:VSA13 WBW11:WBW13 WLS11:WLS13 WVO11:WVO13 G65547:G65549 JC65547:JC65549 SY65547:SY65549 ACU65547:ACU65549 AMQ65547:AMQ65549 AWM65547:AWM65549 BGI65547:BGI65549 BQE65547:BQE65549 CAA65547:CAA65549 CJW65547:CJW65549 CTS65547:CTS65549 DDO65547:DDO65549 DNK65547:DNK65549 DXG65547:DXG65549 EHC65547:EHC65549 EQY65547:EQY65549 FAU65547:FAU65549 FKQ65547:FKQ65549 FUM65547:FUM65549 GEI65547:GEI65549 GOE65547:GOE65549 GYA65547:GYA65549 HHW65547:HHW65549 HRS65547:HRS65549 IBO65547:IBO65549 ILK65547:ILK65549 IVG65547:IVG65549 JFC65547:JFC65549 JOY65547:JOY65549 JYU65547:JYU65549 KIQ65547:KIQ65549 KSM65547:KSM65549 LCI65547:LCI65549 LME65547:LME65549 LWA65547:LWA65549 MFW65547:MFW65549 MPS65547:MPS65549 MZO65547:MZO65549 NJK65547:NJK65549 NTG65547:NTG65549 ODC65547:ODC65549 OMY65547:OMY65549 OWU65547:OWU65549 PGQ65547:PGQ65549 PQM65547:PQM65549 QAI65547:QAI65549 QKE65547:QKE65549 QUA65547:QUA65549 RDW65547:RDW65549 RNS65547:RNS65549 RXO65547:RXO65549 SHK65547:SHK65549 SRG65547:SRG65549 TBC65547:TBC65549 TKY65547:TKY65549 TUU65547:TUU65549 UEQ65547:UEQ65549 UOM65547:UOM65549 UYI65547:UYI65549 VIE65547:VIE65549 VSA65547:VSA65549 WBW65547:WBW65549 WLS65547:WLS65549 WVO65547:WVO65549 G131083:G131085 JC131083:JC131085 SY131083:SY131085 ACU131083:ACU131085 AMQ131083:AMQ131085 AWM131083:AWM131085 BGI131083:BGI131085 BQE131083:BQE131085 CAA131083:CAA131085 CJW131083:CJW131085 CTS131083:CTS131085 DDO131083:DDO131085 DNK131083:DNK131085 DXG131083:DXG131085 EHC131083:EHC131085 EQY131083:EQY131085 FAU131083:FAU131085 FKQ131083:FKQ131085 FUM131083:FUM131085 GEI131083:GEI131085 GOE131083:GOE131085 GYA131083:GYA131085 HHW131083:HHW131085 HRS131083:HRS131085 IBO131083:IBO131085 ILK131083:ILK131085 IVG131083:IVG131085 JFC131083:JFC131085 JOY131083:JOY131085 JYU131083:JYU131085 KIQ131083:KIQ131085 KSM131083:KSM131085 LCI131083:LCI131085 LME131083:LME131085 LWA131083:LWA131085 MFW131083:MFW131085 MPS131083:MPS131085 MZO131083:MZO131085 NJK131083:NJK131085 NTG131083:NTG131085 ODC131083:ODC131085 OMY131083:OMY131085 OWU131083:OWU131085 PGQ131083:PGQ131085 PQM131083:PQM131085 QAI131083:QAI131085 QKE131083:QKE131085 QUA131083:QUA131085 RDW131083:RDW131085 RNS131083:RNS131085 RXO131083:RXO131085 SHK131083:SHK131085 SRG131083:SRG131085 TBC131083:TBC131085 TKY131083:TKY131085 TUU131083:TUU131085 UEQ131083:UEQ131085 UOM131083:UOM131085 UYI131083:UYI131085 VIE131083:VIE131085 VSA131083:VSA131085 WBW131083:WBW131085 WLS131083:WLS131085 WVO131083:WVO131085 G196619:G196621 JC196619:JC196621 SY196619:SY196621 ACU196619:ACU196621 AMQ196619:AMQ196621 AWM196619:AWM196621 BGI196619:BGI196621 BQE196619:BQE196621 CAA196619:CAA196621 CJW196619:CJW196621 CTS196619:CTS196621 DDO196619:DDO196621 DNK196619:DNK196621 DXG196619:DXG196621 EHC196619:EHC196621 EQY196619:EQY196621 FAU196619:FAU196621 FKQ196619:FKQ196621 FUM196619:FUM196621 GEI196619:GEI196621 GOE196619:GOE196621 GYA196619:GYA196621 HHW196619:HHW196621 HRS196619:HRS196621 IBO196619:IBO196621 ILK196619:ILK196621 IVG196619:IVG196621 JFC196619:JFC196621 JOY196619:JOY196621 JYU196619:JYU196621 KIQ196619:KIQ196621 KSM196619:KSM196621 LCI196619:LCI196621 LME196619:LME196621 LWA196619:LWA196621 MFW196619:MFW196621 MPS196619:MPS196621 MZO196619:MZO196621 NJK196619:NJK196621 NTG196619:NTG196621 ODC196619:ODC196621 OMY196619:OMY196621 OWU196619:OWU196621 PGQ196619:PGQ196621 PQM196619:PQM196621 QAI196619:QAI196621 QKE196619:QKE196621 QUA196619:QUA196621 RDW196619:RDW196621 RNS196619:RNS196621 RXO196619:RXO196621 SHK196619:SHK196621 SRG196619:SRG196621 TBC196619:TBC196621 TKY196619:TKY196621 TUU196619:TUU196621 UEQ196619:UEQ196621 UOM196619:UOM196621 UYI196619:UYI196621 VIE196619:VIE196621 VSA196619:VSA196621 WBW196619:WBW196621 WLS196619:WLS196621 WVO196619:WVO196621 G262155:G262157 JC262155:JC262157 SY262155:SY262157 ACU262155:ACU262157 AMQ262155:AMQ262157 AWM262155:AWM262157 BGI262155:BGI262157 BQE262155:BQE262157 CAA262155:CAA262157 CJW262155:CJW262157 CTS262155:CTS262157 DDO262155:DDO262157 DNK262155:DNK262157 DXG262155:DXG262157 EHC262155:EHC262157 EQY262155:EQY262157 FAU262155:FAU262157 FKQ262155:FKQ262157 FUM262155:FUM262157 GEI262155:GEI262157 GOE262155:GOE262157 GYA262155:GYA262157 HHW262155:HHW262157 HRS262155:HRS262157 IBO262155:IBO262157 ILK262155:ILK262157 IVG262155:IVG262157 JFC262155:JFC262157 JOY262155:JOY262157 JYU262155:JYU262157 KIQ262155:KIQ262157 KSM262155:KSM262157 LCI262155:LCI262157 LME262155:LME262157 LWA262155:LWA262157 MFW262155:MFW262157 MPS262155:MPS262157 MZO262155:MZO262157 NJK262155:NJK262157 NTG262155:NTG262157 ODC262155:ODC262157 OMY262155:OMY262157 OWU262155:OWU262157 PGQ262155:PGQ262157 PQM262155:PQM262157 QAI262155:QAI262157 QKE262155:QKE262157 QUA262155:QUA262157 RDW262155:RDW262157 RNS262155:RNS262157 RXO262155:RXO262157 SHK262155:SHK262157 SRG262155:SRG262157 TBC262155:TBC262157 TKY262155:TKY262157 TUU262155:TUU262157 UEQ262155:UEQ262157 UOM262155:UOM262157 UYI262155:UYI262157 VIE262155:VIE262157 VSA262155:VSA262157 WBW262155:WBW262157 WLS262155:WLS262157 WVO262155:WVO262157 G327691:G327693 JC327691:JC327693 SY327691:SY327693 ACU327691:ACU327693 AMQ327691:AMQ327693 AWM327691:AWM327693 BGI327691:BGI327693 BQE327691:BQE327693 CAA327691:CAA327693 CJW327691:CJW327693 CTS327691:CTS327693 DDO327691:DDO327693 DNK327691:DNK327693 DXG327691:DXG327693 EHC327691:EHC327693 EQY327691:EQY327693 FAU327691:FAU327693 FKQ327691:FKQ327693 FUM327691:FUM327693 GEI327691:GEI327693 GOE327691:GOE327693 GYA327691:GYA327693 HHW327691:HHW327693 HRS327691:HRS327693 IBO327691:IBO327693 ILK327691:ILK327693 IVG327691:IVG327693 JFC327691:JFC327693 JOY327691:JOY327693 JYU327691:JYU327693 KIQ327691:KIQ327693 KSM327691:KSM327693 LCI327691:LCI327693 LME327691:LME327693 LWA327691:LWA327693 MFW327691:MFW327693 MPS327691:MPS327693 MZO327691:MZO327693 NJK327691:NJK327693 NTG327691:NTG327693 ODC327691:ODC327693 OMY327691:OMY327693 OWU327691:OWU327693 PGQ327691:PGQ327693 PQM327691:PQM327693 QAI327691:QAI327693 QKE327691:QKE327693 QUA327691:QUA327693 RDW327691:RDW327693 RNS327691:RNS327693 RXO327691:RXO327693 SHK327691:SHK327693 SRG327691:SRG327693 TBC327691:TBC327693 TKY327691:TKY327693 TUU327691:TUU327693 UEQ327691:UEQ327693 UOM327691:UOM327693 UYI327691:UYI327693 VIE327691:VIE327693 VSA327691:VSA327693 WBW327691:WBW327693 WLS327691:WLS327693 WVO327691:WVO327693 G393227:G393229 JC393227:JC393229 SY393227:SY393229 ACU393227:ACU393229 AMQ393227:AMQ393229 AWM393227:AWM393229 BGI393227:BGI393229 BQE393227:BQE393229 CAA393227:CAA393229 CJW393227:CJW393229 CTS393227:CTS393229 DDO393227:DDO393229 DNK393227:DNK393229 DXG393227:DXG393229 EHC393227:EHC393229 EQY393227:EQY393229 FAU393227:FAU393229 FKQ393227:FKQ393229 FUM393227:FUM393229 GEI393227:GEI393229 GOE393227:GOE393229 GYA393227:GYA393229 HHW393227:HHW393229 HRS393227:HRS393229 IBO393227:IBO393229 ILK393227:ILK393229 IVG393227:IVG393229 JFC393227:JFC393229 JOY393227:JOY393229 JYU393227:JYU393229 KIQ393227:KIQ393229 KSM393227:KSM393229 LCI393227:LCI393229 LME393227:LME393229 LWA393227:LWA393229 MFW393227:MFW393229 MPS393227:MPS393229 MZO393227:MZO393229 NJK393227:NJK393229 NTG393227:NTG393229 ODC393227:ODC393229 OMY393227:OMY393229 OWU393227:OWU393229 PGQ393227:PGQ393229 PQM393227:PQM393229 QAI393227:QAI393229 QKE393227:QKE393229 QUA393227:QUA393229 RDW393227:RDW393229 RNS393227:RNS393229 RXO393227:RXO393229 SHK393227:SHK393229 SRG393227:SRG393229 TBC393227:TBC393229 TKY393227:TKY393229 TUU393227:TUU393229 UEQ393227:UEQ393229 UOM393227:UOM393229 UYI393227:UYI393229 VIE393227:VIE393229 VSA393227:VSA393229 WBW393227:WBW393229 WLS393227:WLS393229 WVO393227:WVO393229 G458763:G458765 JC458763:JC458765 SY458763:SY458765 ACU458763:ACU458765 AMQ458763:AMQ458765 AWM458763:AWM458765 BGI458763:BGI458765 BQE458763:BQE458765 CAA458763:CAA458765 CJW458763:CJW458765 CTS458763:CTS458765 DDO458763:DDO458765 DNK458763:DNK458765 DXG458763:DXG458765 EHC458763:EHC458765 EQY458763:EQY458765 FAU458763:FAU458765 FKQ458763:FKQ458765 FUM458763:FUM458765 GEI458763:GEI458765 GOE458763:GOE458765 GYA458763:GYA458765 HHW458763:HHW458765 HRS458763:HRS458765 IBO458763:IBO458765 ILK458763:ILK458765 IVG458763:IVG458765 JFC458763:JFC458765 JOY458763:JOY458765 JYU458763:JYU458765 KIQ458763:KIQ458765 KSM458763:KSM458765 LCI458763:LCI458765 LME458763:LME458765 LWA458763:LWA458765 MFW458763:MFW458765 MPS458763:MPS458765 MZO458763:MZO458765 NJK458763:NJK458765 NTG458763:NTG458765 ODC458763:ODC458765 OMY458763:OMY458765 OWU458763:OWU458765 PGQ458763:PGQ458765 PQM458763:PQM458765 QAI458763:QAI458765 QKE458763:QKE458765 QUA458763:QUA458765 RDW458763:RDW458765 RNS458763:RNS458765 RXO458763:RXO458765 SHK458763:SHK458765 SRG458763:SRG458765 TBC458763:TBC458765 TKY458763:TKY458765 TUU458763:TUU458765 UEQ458763:UEQ458765 UOM458763:UOM458765 UYI458763:UYI458765 VIE458763:VIE458765 VSA458763:VSA458765 WBW458763:WBW458765 WLS458763:WLS458765 WVO458763:WVO458765 G524299:G524301 JC524299:JC524301 SY524299:SY524301 ACU524299:ACU524301 AMQ524299:AMQ524301 AWM524299:AWM524301 BGI524299:BGI524301 BQE524299:BQE524301 CAA524299:CAA524301 CJW524299:CJW524301 CTS524299:CTS524301 DDO524299:DDO524301 DNK524299:DNK524301 DXG524299:DXG524301 EHC524299:EHC524301 EQY524299:EQY524301 FAU524299:FAU524301 FKQ524299:FKQ524301 FUM524299:FUM524301 GEI524299:GEI524301 GOE524299:GOE524301 GYA524299:GYA524301 HHW524299:HHW524301 HRS524299:HRS524301 IBO524299:IBO524301 ILK524299:ILK524301 IVG524299:IVG524301 JFC524299:JFC524301 JOY524299:JOY524301 JYU524299:JYU524301 KIQ524299:KIQ524301 KSM524299:KSM524301 LCI524299:LCI524301 LME524299:LME524301 LWA524299:LWA524301 MFW524299:MFW524301 MPS524299:MPS524301 MZO524299:MZO524301 NJK524299:NJK524301 NTG524299:NTG524301 ODC524299:ODC524301 OMY524299:OMY524301 OWU524299:OWU524301 PGQ524299:PGQ524301 PQM524299:PQM524301 QAI524299:QAI524301 QKE524299:QKE524301 QUA524299:QUA524301 RDW524299:RDW524301 RNS524299:RNS524301 RXO524299:RXO524301 SHK524299:SHK524301 SRG524299:SRG524301 TBC524299:TBC524301 TKY524299:TKY524301 TUU524299:TUU524301 UEQ524299:UEQ524301 UOM524299:UOM524301 UYI524299:UYI524301 VIE524299:VIE524301 VSA524299:VSA524301 WBW524299:WBW524301 WLS524299:WLS524301 WVO524299:WVO524301 G589835:G589837 JC589835:JC589837 SY589835:SY589837 ACU589835:ACU589837 AMQ589835:AMQ589837 AWM589835:AWM589837 BGI589835:BGI589837 BQE589835:BQE589837 CAA589835:CAA589837 CJW589835:CJW589837 CTS589835:CTS589837 DDO589835:DDO589837 DNK589835:DNK589837 DXG589835:DXG589837 EHC589835:EHC589837 EQY589835:EQY589837 FAU589835:FAU589837 FKQ589835:FKQ589837 FUM589835:FUM589837 GEI589835:GEI589837 GOE589835:GOE589837 GYA589835:GYA589837 HHW589835:HHW589837 HRS589835:HRS589837 IBO589835:IBO589837 ILK589835:ILK589837 IVG589835:IVG589837 JFC589835:JFC589837 JOY589835:JOY589837 JYU589835:JYU589837 KIQ589835:KIQ589837 KSM589835:KSM589837 LCI589835:LCI589837 LME589835:LME589837 LWA589835:LWA589837 MFW589835:MFW589837 MPS589835:MPS589837 MZO589835:MZO589837 NJK589835:NJK589837 NTG589835:NTG589837 ODC589835:ODC589837 OMY589835:OMY589837 OWU589835:OWU589837 PGQ589835:PGQ589837 PQM589835:PQM589837 QAI589835:QAI589837 QKE589835:QKE589837 QUA589835:QUA589837 RDW589835:RDW589837 RNS589835:RNS589837 RXO589835:RXO589837 SHK589835:SHK589837 SRG589835:SRG589837 TBC589835:TBC589837 TKY589835:TKY589837 TUU589835:TUU589837 UEQ589835:UEQ589837 UOM589835:UOM589837 UYI589835:UYI589837 VIE589835:VIE589837 VSA589835:VSA589837 WBW589835:WBW589837 WLS589835:WLS589837 WVO589835:WVO589837 G655371:G655373 JC655371:JC655373 SY655371:SY655373 ACU655371:ACU655373 AMQ655371:AMQ655373 AWM655371:AWM655373 BGI655371:BGI655373 BQE655371:BQE655373 CAA655371:CAA655373 CJW655371:CJW655373 CTS655371:CTS655373 DDO655371:DDO655373 DNK655371:DNK655373 DXG655371:DXG655373 EHC655371:EHC655373 EQY655371:EQY655373 FAU655371:FAU655373 FKQ655371:FKQ655373 FUM655371:FUM655373 GEI655371:GEI655373 GOE655371:GOE655373 GYA655371:GYA655373 HHW655371:HHW655373 HRS655371:HRS655373 IBO655371:IBO655373 ILK655371:ILK655373 IVG655371:IVG655373 JFC655371:JFC655373 JOY655371:JOY655373 JYU655371:JYU655373 KIQ655371:KIQ655373 KSM655371:KSM655373 LCI655371:LCI655373 LME655371:LME655373 LWA655371:LWA655373 MFW655371:MFW655373 MPS655371:MPS655373 MZO655371:MZO655373 NJK655371:NJK655373 NTG655371:NTG655373 ODC655371:ODC655373 OMY655371:OMY655373 OWU655371:OWU655373 PGQ655371:PGQ655373 PQM655371:PQM655373 QAI655371:QAI655373 QKE655371:QKE655373 QUA655371:QUA655373 RDW655371:RDW655373 RNS655371:RNS655373 RXO655371:RXO655373 SHK655371:SHK655373 SRG655371:SRG655373 TBC655371:TBC655373 TKY655371:TKY655373 TUU655371:TUU655373 UEQ655371:UEQ655373 UOM655371:UOM655373 UYI655371:UYI655373 VIE655371:VIE655373 VSA655371:VSA655373 WBW655371:WBW655373 WLS655371:WLS655373 WVO655371:WVO655373 G720907:G720909 JC720907:JC720909 SY720907:SY720909 ACU720907:ACU720909 AMQ720907:AMQ720909 AWM720907:AWM720909 BGI720907:BGI720909 BQE720907:BQE720909 CAA720907:CAA720909 CJW720907:CJW720909 CTS720907:CTS720909 DDO720907:DDO720909 DNK720907:DNK720909 DXG720907:DXG720909 EHC720907:EHC720909 EQY720907:EQY720909 FAU720907:FAU720909 FKQ720907:FKQ720909 FUM720907:FUM720909 GEI720907:GEI720909 GOE720907:GOE720909 GYA720907:GYA720909 HHW720907:HHW720909 HRS720907:HRS720909 IBO720907:IBO720909 ILK720907:ILK720909 IVG720907:IVG720909 JFC720907:JFC720909 JOY720907:JOY720909 JYU720907:JYU720909 KIQ720907:KIQ720909 KSM720907:KSM720909 LCI720907:LCI720909 LME720907:LME720909 LWA720907:LWA720909 MFW720907:MFW720909 MPS720907:MPS720909 MZO720907:MZO720909 NJK720907:NJK720909 NTG720907:NTG720909 ODC720907:ODC720909 OMY720907:OMY720909 OWU720907:OWU720909 PGQ720907:PGQ720909 PQM720907:PQM720909 QAI720907:QAI720909 QKE720907:QKE720909 QUA720907:QUA720909 RDW720907:RDW720909 RNS720907:RNS720909 RXO720907:RXO720909 SHK720907:SHK720909 SRG720907:SRG720909 TBC720907:TBC720909 TKY720907:TKY720909 TUU720907:TUU720909 UEQ720907:UEQ720909 UOM720907:UOM720909 UYI720907:UYI720909 VIE720907:VIE720909 VSA720907:VSA720909 WBW720907:WBW720909 WLS720907:WLS720909 WVO720907:WVO720909 G786443:G786445 JC786443:JC786445 SY786443:SY786445 ACU786443:ACU786445 AMQ786443:AMQ786445 AWM786443:AWM786445 BGI786443:BGI786445 BQE786443:BQE786445 CAA786443:CAA786445 CJW786443:CJW786445 CTS786443:CTS786445 DDO786443:DDO786445 DNK786443:DNK786445 DXG786443:DXG786445 EHC786443:EHC786445 EQY786443:EQY786445 FAU786443:FAU786445 FKQ786443:FKQ786445 FUM786443:FUM786445 GEI786443:GEI786445 GOE786443:GOE786445 GYA786443:GYA786445 HHW786443:HHW786445 HRS786443:HRS786445 IBO786443:IBO786445 ILK786443:ILK786445 IVG786443:IVG786445 JFC786443:JFC786445 JOY786443:JOY786445 JYU786443:JYU786445 KIQ786443:KIQ786445 KSM786443:KSM786445 LCI786443:LCI786445 LME786443:LME786445 LWA786443:LWA786445 MFW786443:MFW786445 MPS786443:MPS786445 MZO786443:MZO786445 NJK786443:NJK786445 NTG786443:NTG786445 ODC786443:ODC786445 OMY786443:OMY786445 OWU786443:OWU786445 PGQ786443:PGQ786445 PQM786443:PQM786445 QAI786443:QAI786445 QKE786443:QKE786445 QUA786443:QUA786445 RDW786443:RDW786445 RNS786443:RNS786445 RXO786443:RXO786445 SHK786443:SHK786445 SRG786443:SRG786445 TBC786443:TBC786445 TKY786443:TKY786445 TUU786443:TUU786445 UEQ786443:UEQ786445 UOM786443:UOM786445 UYI786443:UYI786445 VIE786443:VIE786445 VSA786443:VSA786445 WBW786443:WBW786445 WLS786443:WLS786445 WVO786443:WVO786445 G851979:G851981 JC851979:JC851981 SY851979:SY851981 ACU851979:ACU851981 AMQ851979:AMQ851981 AWM851979:AWM851981 BGI851979:BGI851981 BQE851979:BQE851981 CAA851979:CAA851981 CJW851979:CJW851981 CTS851979:CTS851981 DDO851979:DDO851981 DNK851979:DNK851981 DXG851979:DXG851981 EHC851979:EHC851981 EQY851979:EQY851981 FAU851979:FAU851981 FKQ851979:FKQ851981 FUM851979:FUM851981 GEI851979:GEI851981 GOE851979:GOE851981 GYA851979:GYA851981 HHW851979:HHW851981 HRS851979:HRS851981 IBO851979:IBO851981 ILK851979:ILK851981 IVG851979:IVG851981 JFC851979:JFC851981 JOY851979:JOY851981 JYU851979:JYU851981 KIQ851979:KIQ851981 KSM851979:KSM851981 LCI851979:LCI851981 LME851979:LME851981 LWA851979:LWA851981 MFW851979:MFW851981 MPS851979:MPS851981 MZO851979:MZO851981 NJK851979:NJK851981 NTG851979:NTG851981 ODC851979:ODC851981 OMY851979:OMY851981 OWU851979:OWU851981 PGQ851979:PGQ851981 PQM851979:PQM851981 QAI851979:QAI851981 QKE851979:QKE851981 QUA851979:QUA851981 RDW851979:RDW851981 RNS851979:RNS851981 RXO851979:RXO851981 SHK851979:SHK851981 SRG851979:SRG851981 TBC851979:TBC851981 TKY851979:TKY851981 TUU851979:TUU851981 UEQ851979:UEQ851981 UOM851979:UOM851981 UYI851979:UYI851981 VIE851979:VIE851981 VSA851979:VSA851981 WBW851979:WBW851981 WLS851979:WLS851981 WVO851979:WVO851981 G917515:G917517 JC917515:JC917517 SY917515:SY917517 ACU917515:ACU917517 AMQ917515:AMQ917517 AWM917515:AWM917517 BGI917515:BGI917517 BQE917515:BQE917517 CAA917515:CAA917517 CJW917515:CJW917517 CTS917515:CTS917517 DDO917515:DDO917517 DNK917515:DNK917517 DXG917515:DXG917517 EHC917515:EHC917517 EQY917515:EQY917517 FAU917515:FAU917517 FKQ917515:FKQ917517 FUM917515:FUM917517 GEI917515:GEI917517 GOE917515:GOE917517 GYA917515:GYA917517 HHW917515:HHW917517 HRS917515:HRS917517 IBO917515:IBO917517 ILK917515:ILK917517 IVG917515:IVG917517 JFC917515:JFC917517 JOY917515:JOY917517 JYU917515:JYU917517 KIQ917515:KIQ917517 KSM917515:KSM917517 LCI917515:LCI917517 LME917515:LME917517 LWA917515:LWA917517 MFW917515:MFW917517 MPS917515:MPS917517 MZO917515:MZO917517 NJK917515:NJK917517 NTG917515:NTG917517 ODC917515:ODC917517 OMY917515:OMY917517 OWU917515:OWU917517 PGQ917515:PGQ917517 PQM917515:PQM917517 QAI917515:QAI917517 QKE917515:QKE917517 QUA917515:QUA917517 RDW917515:RDW917517 RNS917515:RNS917517 RXO917515:RXO917517 SHK917515:SHK917517 SRG917515:SRG917517 TBC917515:TBC917517 TKY917515:TKY917517 TUU917515:TUU917517 UEQ917515:UEQ917517 UOM917515:UOM917517 UYI917515:UYI917517 VIE917515:VIE917517 VSA917515:VSA917517 WBW917515:WBW917517 WLS917515:WLS917517 WVO917515:WVO917517 G983051:G983053 JC983051:JC983053 SY983051:SY983053 ACU983051:ACU983053 AMQ983051:AMQ983053 AWM983051:AWM983053 BGI983051:BGI983053 BQE983051:BQE983053 CAA983051:CAA983053 CJW983051:CJW983053 CTS983051:CTS983053 DDO983051:DDO983053 DNK983051:DNK983053 DXG983051:DXG983053 EHC983051:EHC983053 EQY983051:EQY983053 FAU983051:FAU983053 FKQ983051:FKQ983053 FUM983051:FUM983053 GEI983051:GEI983053 GOE983051:GOE983053 GYA983051:GYA983053 HHW983051:HHW983053 HRS983051:HRS983053 IBO983051:IBO983053 ILK983051:ILK983053 IVG983051:IVG983053 JFC983051:JFC983053 JOY983051:JOY983053 JYU983051:JYU983053 KIQ983051:KIQ983053 KSM983051:KSM983053 LCI983051:LCI983053 LME983051:LME983053 LWA983051:LWA983053 MFW983051:MFW983053 MPS983051:MPS983053 MZO983051:MZO983053 NJK983051:NJK983053 NTG983051:NTG983053 ODC983051:ODC983053 OMY983051:OMY983053 OWU983051:OWU983053 PGQ983051:PGQ983053 PQM983051:PQM983053 QAI983051:QAI983053 QKE983051:QKE983053 QUA983051:QUA983053 RDW983051:RDW983053 RNS983051:RNS983053 RXO983051:RXO983053 SHK983051:SHK983053 SRG983051:SRG983053 TBC983051:TBC983053 TKY983051:TKY983053 TUU983051:TUU983053 UEQ983051:UEQ983053 UOM983051:UOM983053 UYI983051:UYI983053 VIE983051:VIE983053 VSA983051:VSA983053 WBW983051:WBW983053 WLS983051:WLS983053 WVO983051:WVO983053" xr:uid="{7E50ABD6-5E51-874F-BADA-FAB2EA72CA76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO983051:WVO983053 JC11:JC16 SY11:SY16 ACU11:ACU16 AMQ11:AMQ16 AWM11:AWM16 BGI11:BGI16 BQE11:BQE16 CAA11:CAA16 CJW11:CJW16 CTS11:CTS16 DDO11:DDO16 DNK11:DNK16 DXG11:DXG16 EHC11:EHC16 EQY11:EQY16 FAU11:FAU16 FKQ11:FKQ16 FUM11:FUM16 GEI11:GEI16 GOE11:GOE16 GYA11:GYA16 HHW11:HHW16 HRS11:HRS16 IBO11:IBO16 ILK11:ILK16 IVG11:IVG16 JFC11:JFC16 JOY11:JOY16 JYU11:JYU16 KIQ11:KIQ16 KSM11:KSM16 LCI11:LCI16 LME11:LME16 LWA11:LWA16 MFW11:MFW16 MPS11:MPS16 MZO11:MZO16 NJK11:NJK16 NTG11:NTG16 ODC11:ODC16 OMY11:OMY16 OWU11:OWU16 PGQ11:PGQ16 PQM11:PQM16 QAI11:QAI16 QKE11:QKE16 QUA11:QUA16 RDW11:RDW16 RNS11:RNS16 RXO11:RXO16 SHK11:SHK16 SRG11:SRG16 TBC11:TBC16 TKY11:TKY16 TUU11:TUU16 UEQ11:UEQ16 UOM11:UOM16 UYI11:UYI16 VIE11:VIE16 VSA11:VSA16 WBW11:WBW16 WLS11:WLS16 WVO11:WVO16 G65547:G65549 JC65547:JC65549 SY65547:SY65549 ACU65547:ACU65549 AMQ65547:AMQ65549 AWM65547:AWM65549 BGI65547:BGI65549 BQE65547:BQE65549 CAA65547:CAA65549 CJW65547:CJW65549 CTS65547:CTS65549 DDO65547:DDO65549 DNK65547:DNK65549 DXG65547:DXG65549 EHC65547:EHC65549 EQY65547:EQY65549 FAU65547:FAU65549 FKQ65547:FKQ65549 FUM65547:FUM65549 GEI65547:GEI65549 GOE65547:GOE65549 GYA65547:GYA65549 HHW65547:HHW65549 HRS65547:HRS65549 IBO65547:IBO65549 ILK65547:ILK65549 IVG65547:IVG65549 JFC65547:JFC65549 JOY65547:JOY65549 JYU65547:JYU65549 KIQ65547:KIQ65549 KSM65547:KSM65549 LCI65547:LCI65549 LME65547:LME65549 LWA65547:LWA65549 MFW65547:MFW65549 MPS65547:MPS65549 MZO65547:MZO65549 NJK65547:NJK65549 NTG65547:NTG65549 ODC65547:ODC65549 OMY65547:OMY65549 OWU65547:OWU65549 PGQ65547:PGQ65549 PQM65547:PQM65549 QAI65547:QAI65549 QKE65547:QKE65549 QUA65547:QUA65549 RDW65547:RDW65549 RNS65547:RNS65549 RXO65547:RXO65549 SHK65547:SHK65549 SRG65547:SRG65549 TBC65547:TBC65549 TKY65547:TKY65549 TUU65547:TUU65549 UEQ65547:UEQ65549 UOM65547:UOM65549 UYI65547:UYI65549 VIE65547:VIE65549 VSA65547:VSA65549 WBW65547:WBW65549 WLS65547:WLS65549 WVO65547:WVO65549 G131083:G131085 JC131083:JC131085 SY131083:SY131085 ACU131083:ACU131085 AMQ131083:AMQ131085 AWM131083:AWM131085 BGI131083:BGI131085 BQE131083:BQE131085 CAA131083:CAA131085 CJW131083:CJW131085 CTS131083:CTS131085 DDO131083:DDO131085 DNK131083:DNK131085 DXG131083:DXG131085 EHC131083:EHC131085 EQY131083:EQY131085 FAU131083:FAU131085 FKQ131083:FKQ131085 FUM131083:FUM131085 GEI131083:GEI131085 GOE131083:GOE131085 GYA131083:GYA131085 HHW131083:HHW131085 HRS131083:HRS131085 IBO131083:IBO131085 ILK131083:ILK131085 IVG131083:IVG131085 JFC131083:JFC131085 JOY131083:JOY131085 JYU131083:JYU131085 KIQ131083:KIQ131085 KSM131083:KSM131085 LCI131083:LCI131085 LME131083:LME131085 LWA131083:LWA131085 MFW131083:MFW131085 MPS131083:MPS131085 MZO131083:MZO131085 NJK131083:NJK131085 NTG131083:NTG131085 ODC131083:ODC131085 OMY131083:OMY131085 OWU131083:OWU131085 PGQ131083:PGQ131085 PQM131083:PQM131085 QAI131083:QAI131085 QKE131083:QKE131085 QUA131083:QUA131085 RDW131083:RDW131085 RNS131083:RNS131085 RXO131083:RXO131085 SHK131083:SHK131085 SRG131083:SRG131085 TBC131083:TBC131085 TKY131083:TKY131085 TUU131083:TUU131085 UEQ131083:UEQ131085 UOM131083:UOM131085 UYI131083:UYI131085 VIE131083:VIE131085 VSA131083:VSA131085 WBW131083:WBW131085 WLS131083:WLS131085 WVO131083:WVO131085 G196619:G196621 JC196619:JC196621 SY196619:SY196621 ACU196619:ACU196621 AMQ196619:AMQ196621 AWM196619:AWM196621 BGI196619:BGI196621 BQE196619:BQE196621 CAA196619:CAA196621 CJW196619:CJW196621 CTS196619:CTS196621 DDO196619:DDO196621 DNK196619:DNK196621 DXG196619:DXG196621 EHC196619:EHC196621 EQY196619:EQY196621 FAU196619:FAU196621 FKQ196619:FKQ196621 FUM196619:FUM196621 GEI196619:GEI196621 GOE196619:GOE196621 GYA196619:GYA196621 HHW196619:HHW196621 HRS196619:HRS196621 IBO196619:IBO196621 ILK196619:ILK196621 IVG196619:IVG196621 JFC196619:JFC196621 JOY196619:JOY196621 JYU196619:JYU196621 KIQ196619:KIQ196621 KSM196619:KSM196621 LCI196619:LCI196621 LME196619:LME196621 LWA196619:LWA196621 MFW196619:MFW196621 MPS196619:MPS196621 MZO196619:MZO196621 NJK196619:NJK196621 NTG196619:NTG196621 ODC196619:ODC196621 OMY196619:OMY196621 OWU196619:OWU196621 PGQ196619:PGQ196621 PQM196619:PQM196621 QAI196619:QAI196621 QKE196619:QKE196621 QUA196619:QUA196621 RDW196619:RDW196621 RNS196619:RNS196621 RXO196619:RXO196621 SHK196619:SHK196621 SRG196619:SRG196621 TBC196619:TBC196621 TKY196619:TKY196621 TUU196619:TUU196621 UEQ196619:UEQ196621 UOM196619:UOM196621 UYI196619:UYI196621 VIE196619:VIE196621 VSA196619:VSA196621 WBW196619:WBW196621 WLS196619:WLS196621 WVO196619:WVO196621 G262155:G262157 JC262155:JC262157 SY262155:SY262157 ACU262155:ACU262157 AMQ262155:AMQ262157 AWM262155:AWM262157 BGI262155:BGI262157 BQE262155:BQE262157 CAA262155:CAA262157 CJW262155:CJW262157 CTS262155:CTS262157 DDO262155:DDO262157 DNK262155:DNK262157 DXG262155:DXG262157 EHC262155:EHC262157 EQY262155:EQY262157 FAU262155:FAU262157 FKQ262155:FKQ262157 FUM262155:FUM262157 GEI262155:GEI262157 GOE262155:GOE262157 GYA262155:GYA262157 HHW262155:HHW262157 HRS262155:HRS262157 IBO262155:IBO262157 ILK262155:ILK262157 IVG262155:IVG262157 JFC262155:JFC262157 JOY262155:JOY262157 JYU262155:JYU262157 KIQ262155:KIQ262157 KSM262155:KSM262157 LCI262155:LCI262157 LME262155:LME262157 LWA262155:LWA262157 MFW262155:MFW262157 MPS262155:MPS262157 MZO262155:MZO262157 NJK262155:NJK262157 NTG262155:NTG262157 ODC262155:ODC262157 OMY262155:OMY262157 OWU262155:OWU262157 PGQ262155:PGQ262157 PQM262155:PQM262157 QAI262155:QAI262157 QKE262155:QKE262157 QUA262155:QUA262157 RDW262155:RDW262157 RNS262155:RNS262157 RXO262155:RXO262157 SHK262155:SHK262157 SRG262155:SRG262157 TBC262155:TBC262157 TKY262155:TKY262157 TUU262155:TUU262157 UEQ262155:UEQ262157 UOM262155:UOM262157 UYI262155:UYI262157 VIE262155:VIE262157 VSA262155:VSA262157 WBW262155:WBW262157 WLS262155:WLS262157 WVO262155:WVO262157 G327691:G327693 JC327691:JC327693 SY327691:SY327693 ACU327691:ACU327693 AMQ327691:AMQ327693 AWM327691:AWM327693 BGI327691:BGI327693 BQE327691:BQE327693 CAA327691:CAA327693 CJW327691:CJW327693 CTS327691:CTS327693 DDO327691:DDO327693 DNK327691:DNK327693 DXG327691:DXG327693 EHC327691:EHC327693 EQY327691:EQY327693 FAU327691:FAU327693 FKQ327691:FKQ327693 FUM327691:FUM327693 GEI327691:GEI327693 GOE327691:GOE327693 GYA327691:GYA327693 HHW327691:HHW327693 HRS327691:HRS327693 IBO327691:IBO327693 ILK327691:ILK327693 IVG327691:IVG327693 JFC327691:JFC327693 JOY327691:JOY327693 JYU327691:JYU327693 KIQ327691:KIQ327693 KSM327691:KSM327693 LCI327691:LCI327693 LME327691:LME327693 LWA327691:LWA327693 MFW327691:MFW327693 MPS327691:MPS327693 MZO327691:MZO327693 NJK327691:NJK327693 NTG327691:NTG327693 ODC327691:ODC327693 OMY327691:OMY327693 OWU327691:OWU327693 PGQ327691:PGQ327693 PQM327691:PQM327693 QAI327691:QAI327693 QKE327691:QKE327693 QUA327691:QUA327693 RDW327691:RDW327693 RNS327691:RNS327693 RXO327691:RXO327693 SHK327691:SHK327693 SRG327691:SRG327693 TBC327691:TBC327693 TKY327691:TKY327693 TUU327691:TUU327693 UEQ327691:UEQ327693 UOM327691:UOM327693 UYI327691:UYI327693 VIE327691:VIE327693 VSA327691:VSA327693 WBW327691:WBW327693 WLS327691:WLS327693 WVO327691:WVO327693 G393227:G393229 JC393227:JC393229 SY393227:SY393229 ACU393227:ACU393229 AMQ393227:AMQ393229 AWM393227:AWM393229 BGI393227:BGI393229 BQE393227:BQE393229 CAA393227:CAA393229 CJW393227:CJW393229 CTS393227:CTS393229 DDO393227:DDO393229 DNK393227:DNK393229 DXG393227:DXG393229 EHC393227:EHC393229 EQY393227:EQY393229 FAU393227:FAU393229 FKQ393227:FKQ393229 FUM393227:FUM393229 GEI393227:GEI393229 GOE393227:GOE393229 GYA393227:GYA393229 HHW393227:HHW393229 HRS393227:HRS393229 IBO393227:IBO393229 ILK393227:ILK393229 IVG393227:IVG393229 JFC393227:JFC393229 JOY393227:JOY393229 JYU393227:JYU393229 KIQ393227:KIQ393229 KSM393227:KSM393229 LCI393227:LCI393229 LME393227:LME393229 LWA393227:LWA393229 MFW393227:MFW393229 MPS393227:MPS393229 MZO393227:MZO393229 NJK393227:NJK393229 NTG393227:NTG393229 ODC393227:ODC393229 OMY393227:OMY393229 OWU393227:OWU393229 PGQ393227:PGQ393229 PQM393227:PQM393229 QAI393227:QAI393229 QKE393227:QKE393229 QUA393227:QUA393229 RDW393227:RDW393229 RNS393227:RNS393229 RXO393227:RXO393229 SHK393227:SHK393229 SRG393227:SRG393229 TBC393227:TBC393229 TKY393227:TKY393229 TUU393227:TUU393229 UEQ393227:UEQ393229 UOM393227:UOM393229 UYI393227:UYI393229 VIE393227:VIE393229 VSA393227:VSA393229 WBW393227:WBW393229 WLS393227:WLS393229 WVO393227:WVO393229 G458763:G458765 JC458763:JC458765 SY458763:SY458765 ACU458763:ACU458765 AMQ458763:AMQ458765 AWM458763:AWM458765 BGI458763:BGI458765 BQE458763:BQE458765 CAA458763:CAA458765 CJW458763:CJW458765 CTS458763:CTS458765 DDO458763:DDO458765 DNK458763:DNK458765 DXG458763:DXG458765 EHC458763:EHC458765 EQY458763:EQY458765 FAU458763:FAU458765 FKQ458763:FKQ458765 FUM458763:FUM458765 GEI458763:GEI458765 GOE458763:GOE458765 GYA458763:GYA458765 HHW458763:HHW458765 HRS458763:HRS458765 IBO458763:IBO458765 ILK458763:ILK458765 IVG458763:IVG458765 JFC458763:JFC458765 JOY458763:JOY458765 JYU458763:JYU458765 KIQ458763:KIQ458765 KSM458763:KSM458765 LCI458763:LCI458765 LME458763:LME458765 LWA458763:LWA458765 MFW458763:MFW458765 MPS458763:MPS458765 MZO458763:MZO458765 NJK458763:NJK458765 NTG458763:NTG458765 ODC458763:ODC458765 OMY458763:OMY458765 OWU458763:OWU458765 PGQ458763:PGQ458765 PQM458763:PQM458765 QAI458763:QAI458765 QKE458763:QKE458765 QUA458763:QUA458765 RDW458763:RDW458765 RNS458763:RNS458765 RXO458763:RXO458765 SHK458763:SHK458765 SRG458763:SRG458765 TBC458763:TBC458765 TKY458763:TKY458765 TUU458763:TUU458765 UEQ458763:UEQ458765 UOM458763:UOM458765 UYI458763:UYI458765 VIE458763:VIE458765 VSA458763:VSA458765 WBW458763:WBW458765 WLS458763:WLS458765 WVO458763:WVO458765 G524299:G524301 JC524299:JC524301 SY524299:SY524301 ACU524299:ACU524301 AMQ524299:AMQ524301 AWM524299:AWM524301 BGI524299:BGI524301 BQE524299:BQE524301 CAA524299:CAA524301 CJW524299:CJW524301 CTS524299:CTS524301 DDO524299:DDO524301 DNK524299:DNK524301 DXG524299:DXG524301 EHC524299:EHC524301 EQY524299:EQY524301 FAU524299:FAU524301 FKQ524299:FKQ524301 FUM524299:FUM524301 GEI524299:GEI524301 GOE524299:GOE524301 GYA524299:GYA524301 HHW524299:HHW524301 HRS524299:HRS524301 IBO524299:IBO524301 ILK524299:ILK524301 IVG524299:IVG524301 JFC524299:JFC524301 JOY524299:JOY524301 JYU524299:JYU524301 KIQ524299:KIQ524301 KSM524299:KSM524301 LCI524299:LCI524301 LME524299:LME524301 LWA524299:LWA524301 MFW524299:MFW524301 MPS524299:MPS524301 MZO524299:MZO524301 NJK524299:NJK524301 NTG524299:NTG524301 ODC524299:ODC524301 OMY524299:OMY524301 OWU524299:OWU524301 PGQ524299:PGQ524301 PQM524299:PQM524301 QAI524299:QAI524301 QKE524299:QKE524301 QUA524299:QUA524301 RDW524299:RDW524301 RNS524299:RNS524301 RXO524299:RXO524301 SHK524299:SHK524301 SRG524299:SRG524301 TBC524299:TBC524301 TKY524299:TKY524301 TUU524299:TUU524301 UEQ524299:UEQ524301 UOM524299:UOM524301 UYI524299:UYI524301 VIE524299:VIE524301 VSA524299:VSA524301 WBW524299:WBW524301 WLS524299:WLS524301 WVO524299:WVO524301 G589835:G589837 JC589835:JC589837 SY589835:SY589837 ACU589835:ACU589837 AMQ589835:AMQ589837 AWM589835:AWM589837 BGI589835:BGI589837 BQE589835:BQE589837 CAA589835:CAA589837 CJW589835:CJW589837 CTS589835:CTS589837 DDO589835:DDO589837 DNK589835:DNK589837 DXG589835:DXG589837 EHC589835:EHC589837 EQY589835:EQY589837 FAU589835:FAU589837 FKQ589835:FKQ589837 FUM589835:FUM589837 GEI589835:GEI589837 GOE589835:GOE589837 GYA589835:GYA589837 HHW589835:HHW589837 HRS589835:HRS589837 IBO589835:IBO589837 ILK589835:ILK589837 IVG589835:IVG589837 JFC589835:JFC589837 JOY589835:JOY589837 JYU589835:JYU589837 KIQ589835:KIQ589837 KSM589835:KSM589837 LCI589835:LCI589837 LME589835:LME589837 LWA589835:LWA589837 MFW589835:MFW589837 MPS589835:MPS589837 MZO589835:MZO589837 NJK589835:NJK589837 NTG589835:NTG589837 ODC589835:ODC589837 OMY589835:OMY589837 OWU589835:OWU589837 PGQ589835:PGQ589837 PQM589835:PQM589837 QAI589835:QAI589837 QKE589835:QKE589837 QUA589835:QUA589837 RDW589835:RDW589837 RNS589835:RNS589837 RXO589835:RXO589837 SHK589835:SHK589837 SRG589835:SRG589837 TBC589835:TBC589837 TKY589835:TKY589837 TUU589835:TUU589837 UEQ589835:UEQ589837 UOM589835:UOM589837 UYI589835:UYI589837 VIE589835:VIE589837 VSA589835:VSA589837 WBW589835:WBW589837 WLS589835:WLS589837 WVO589835:WVO589837 G655371:G655373 JC655371:JC655373 SY655371:SY655373 ACU655371:ACU655373 AMQ655371:AMQ655373 AWM655371:AWM655373 BGI655371:BGI655373 BQE655371:BQE655373 CAA655371:CAA655373 CJW655371:CJW655373 CTS655371:CTS655373 DDO655371:DDO655373 DNK655371:DNK655373 DXG655371:DXG655373 EHC655371:EHC655373 EQY655371:EQY655373 FAU655371:FAU655373 FKQ655371:FKQ655373 FUM655371:FUM655373 GEI655371:GEI655373 GOE655371:GOE655373 GYA655371:GYA655373 HHW655371:HHW655373 HRS655371:HRS655373 IBO655371:IBO655373 ILK655371:ILK655373 IVG655371:IVG655373 JFC655371:JFC655373 JOY655371:JOY655373 JYU655371:JYU655373 KIQ655371:KIQ655373 KSM655371:KSM655373 LCI655371:LCI655373 LME655371:LME655373 LWA655371:LWA655373 MFW655371:MFW655373 MPS655371:MPS655373 MZO655371:MZO655373 NJK655371:NJK655373 NTG655371:NTG655373 ODC655371:ODC655373 OMY655371:OMY655373 OWU655371:OWU655373 PGQ655371:PGQ655373 PQM655371:PQM655373 QAI655371:QAI655373 QKE655371:QKE655373 QUA655371:QUA655373 RDW655371:RDW655373 RNS655371:RNS655373 RXO655371:RXO655373 SHK655371:SHK655373 SRG655371:SRG655373 TBC655371:TBC655373 TKY655371:TKY655373 TUU655371:TUU655373 UEQ655371:UEQ655373 UOM655371:UOM655373 UYI655371:UYI655373 VIE655371:VIE655373 VSA655371:VSA655373 WBW655371:WBW655373 WLS655371:WLS655373 WVO655371:WVO655373 G720907:G720909 JC720907:JC720909 SY720907:SY720909 ACU720907:ACU720909 AMQ720907:AMQ720909 AWM720907:AWM720909 BGI720907:BGI720909 BQE720907:BQE720909 CAA720907:CAA720909 CJW720907:CJW720909 CTS720907:CTS720909 DDO720907:DDO720909 DNK720907:DNK720909 DXG720907:DXG720909 EHC720907:EHC720909 EQY720907:EQY720909 FAU720907:FAU720909 FKQ720907:FKQ720909 FUM720907:FUM720909 GEI720907:GEI720909 GOE720907:GOE720909 GYA720907:GYA720909 HHW720907:HHW720909 HRS720907:HRS720909 IBO720907:IBO720909 ILK720907:ILK720909 IVG720907:IVG720909 JFC720907:JFC720909 JOY720907:JOY720909 JYU720907:JYU720909 KIQ720907:KIQ720909 KSM720907:KSM720909 LCI720907:LCI720909 LME720907:LME720909 LWA720907:LWA720909 MFW720907:MFW720909 MPS720907:MPS720909 MZO720907:MZO720909 NJK720907:NJK720909 NTG720907:NTG720909 ODC720907:ODC720909 OMY720907:OMY720909 OWU720907:OWU720909 PGQ720907:PGQ720909 PQM720907:PQM720909 QAI720907:QAI720909 QKE720907:QKE720909 QUA720907:QUA720909 RDW720907:RDW720909 RNS720907:RNS720909 RXO720907:RXO720909 SHK720907:SHK720909 SRG720907:SRG720909 TBC720907:TBC720909 TKY720907:TKY720909 TUU720907:TUU720909 UEQ720907:UEQ720909 UOM720907:UOM720909 UYI720907:UYI720909 VIE720907:VIE720909 VSA720907:VSA720909 WBW720907:WBW720909 WLS720907:WLS720909 WVO720907:WVO720909 G786443:G786445 JC786443:JC786445 SY786443:SY786445 ACU786443:ACU786445 AMQ786443:AMQ786445 AWM786443:AWM786445 BGI786443:BGI786445 BQE786443:BQE786445 CAA786443:CAA786445 CJW786443:CJW786445 CTS786443:CTS786445 DDO786443:DDO786445 DNK786443:DNK786445 DXG786443:DXG786445 EHC786443:EHC786445 EQY786443:EQY786445 FAU786443:FAU786445 FKQ786443:FKQ786445 FUM786443:FUM786445 GEI786443:GEI786445 GOE786443:GOE786445 GYA786443:GYA786445 HHW786443:HHW786445 HRS786443:HRS786445 IBO786443:IBO786445 ILK786443:ILK786445 IVG786443:IVG786445 JFC786443:JFC786445 JOY786443:JOY786445 JYU786443:JYU786445 KIQ786443:KIQ786445 KSM786443:KSM786445 LCI786443:LCI786445 LME786443:LME786445 LWA786443:LWA786445 MFW786443:MFW786445 MPS786443:MPS786445 MZO786443:MZO786445 NJK786443:NJK786445 NTG786443:NTG786445 ODC786443:ODC786445 OMY786443:OMY786445 OWU786443:OWU786445 PGQ786443:PGQ786445 PQM786443:PQM786445 QAI786443:QAI786445 QKE786443:QKE786445 QUA786443:QUA786445 RDW786443:RDW786445 RNS786443:RNS786445 RXO786443:RXO786445 SHK786443:SHK786445 SRG786443:SRG786445 TBC786443:TBC786445 TKY786443:TKY786445 TUU786443:TUU786445 UEQ786443:UEQ786445 UOM786443:UOM786445 UYI786443:UYI786445 VIE786443:VIE786445 VSA786443:VSA786445 WBW786443:WBW786445 WLS786443:WLS786445 WVO786443:WVO786445 G851979:G851981 JC851979:JC851981 SY851979:SY851981 ACU851979:ACU851981 AMQ851979:AMQ851981 AWM851979:AWM851981 BGI851979:BGI851981 BQE851979:BQE851981 CAA851979:CAA851981 CJW851979:CJW851981 CTS851979:CTS851981 DDO851979:DDO851981 DNK851979:DNK851981 DXG851979:DXG851981 EHC851979:EHC851981 EQY851979:EQY851981 FAU851979:FAU851981 FKQ851979:FKQ851981 FUM851979:FUM851981 GEI851979:GEI851981 GOE851979:GOE851981 GYA851979:GYA851981 HHW851979:HHW851981 HRS851979:HRS851981 IBO851979:IBO851981 ILK851979:ILK851981 IVG851979:IVG851981 JFC851979:JFC851981 JOY851979:JOY851981 JYU851979:JYU851981 KIQ851979:KIQ851981 KSM851979:KSM851981 LCI851979:LCI851981 LME851979:LME851981 LWA851979:LWA851981 MFW851979:MFW851981 MPS851979:MPS851981 MZO851979:MZO851981 NJK851979:NJK851981 NTG851979:NTG851981 ODC851979:ODC851981 OMY851979:OMY851981 OWU851979:OWU851981 PGQ851979:PGQ851981 PQM851979:PQM851981 QAI851979:QAI851981 QKE851979:QKE851981 QUA851979:QUA851981 RDW851979:RDW851981 RNS851979:RNS851981 RXO851979:RXO851981 SHK851979:SHK851981 SRG851979:SRG851981 TBC851979:TBC851981 TKY851979:TKY851981 TUU851979:TUU851981 UEQ851979:UEQ851981 UOM851979:UOM851981 UYI851979:UYI851981 VIE851979:VIE851981 VSA851979:VSA851981 WBW851979:WBW851981 WLS851979:WLS851981 WVO851979:WVO851981 G917515:G917517 JC917515:JC917517 SY917515:SY917517 ACU917515:ACU917517 AMQ917515:AMQ917517 AWM917515:AWM917517 BGI917515:BGI917517 BQE917515:BQE917517 CAA917515:CAA917517 CJW917515:CJW917517 CTS917515:CTS917517 DDO917515:DDO917517 DNK917515:DNK917517 DXG917515:DXG917517 EHC917515:EHC917517 EQY917515:EQY917517 FAU917515:FAU917517 FKQ917515:FKQ917517 FUM917515:FUM917517 GEI917515:GEI917517 GOE917515:GOE917517 GYA917515:GYA917517 HHW917515:HHW917517 HRS917515:HRS917517 IBO917515:IBO917517 ILK917515:ILK917517 IVG917515:IVG917517 JFC917515:JFC917517 JOY917515:JOY917517 JYU917515:JYU917517 KIQ917515:KIQ917517 KSM917515:KSM917517 LCI917515:LCI917517 LME917515:LME917517 LWA917515:LWA917517 MFW917515:MFW917517 MPS917515:MPS917517 MZO917515:MZO917517 NJK917515:NJK917517 NTG917515:NTG917517 ODC917515:ODC917517 OMY917515:OMY917517 OWU917515:OWU917517 PGQ917515:PGQ917517 PQM917515:PQM917517 QAI917515:QAI917517 QKE917515:QKE917517 QUA917515:QUA917517 RDW917515:RDW917517 RNS917515:RNS917517 RXO917515:RXO917517 SHK917515:SHK917517 SRG917515:SRG917517 TBC917515:TBC917517 TKY917515:TKY917517 TUU917515:TUU917517 UEQ917515:UEQ917517 UOM917515:UOM917517 UYI917515:UYI917517 VIE917515:VIE917517 VSA917515:VSA917517 WBW917515:WBW917517 WLS917515:WLS917517 WVO917515:WVO917517 G983051:G983053 JC983051:JC983053 SY983051:SY983053 ACU983051:ACU983053 AMQ983051:AMQ983053 AWM983051:AWM983053 BGI983051:BGI983053 BQE983051:BQE983053 CAA983051:CAA983053 CJW983051:CJW983053 CTS983051:CTS983053 DDO983051:DDO983053 DNK983051:DNK983053 DXG983051:DXG983053 EHC983051:EHC983053 EQY983051:EQY983053 FAU983051:FAU983053 FKQ983051:FKQ983053 FUM983051:FUM983053 GEI983051:GEI983053 GOE983051:GOE983053 GYA983051:GYA983053 HHW983051:HHW983053 HRS983051:HRS983053 IBO983051:IBO983053 ILK983051:ILK983053 IVG983051:IVG983053 JFC983051:JFC983053 JOY983051:JOY983053 JYU983051:JYU983053 KIQ983051:KIQ983053 KSM983051:KSM983053 LCI983051:LCI983053 LME983051:LME983053 LWA983051:LWA983053 MFW983051:MFW983053 MPS983051:MPS983053 MZO983051:MZO983053 NJK983051:NJK983053 NTG983051:NTG983053 ODC983051:ODC983053 OMY983051:OMY983053 OWU983051:OWU983053 PGQ983051:PGQ983053 PQM983051:PQM983053 QAI983051:QAI983053 QKE983051:QKE983053 QUA983051:QUA983053 RDW983051:RDW983053 RNS983051:RNS983053 RXO983051:RXO983053 SHK983051:SHK983053 SRG983051:SRG983053 TBC983051:TBC983053 TKY983051:TKY983053 TUU983051:TUU983053 UEQ983051:UEQ983053 UOM983051:UOM983053 UYI983051:UYI983053 VIE983051:VIE983053 VSA983051:VSA983053 WBW983051:WBW983053 WLS983051:WLS983053" xr:uid="{7E50ABD6-5E51-874F-BADA-FAB2EA72CA76}">
       <formula1 xml:space="preserve"> priority</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M56"/>
-  <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E56" sqref="E56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
-        <f>COUNTIF(A6:A56,"Test Case*")</f>
-        <v>16</v>
-      </c>
-      <c r="J3" s="11">
-        <f>COUNTIF(J5:J353,"Passed")</f>
-        <v>14</v>
-      </c>
-      <c r="K3" s="11">
-        <f>COUNTIF(J5:J353,"Failed")</f>
-        <v>2</v>
-      </c>
-      <c r="L3" s="11">
-        <f>I3-(J3+K3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <f>J3/I3</f>
-        <v>0.875</v>
-      </c>
-      <c r="K4" s="17">
-        <f>K3/I3</f>
-        <v>0.125</v>
-      </c>
-      <c r="L4" s="17">
-        <f>L3/I3</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="31">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="31">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="31">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31">
-        <v>2</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31">
-        <v>2</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="31">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31">
-        <v>2</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31">
-        <v>2</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="31">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="31">
-        <v>2</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="31">
-        <v>3</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="31">
-        <v>2</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="35"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="31">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="46"/>
-    </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="31">
-        <v>2</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="31">
-        <v>3</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="51"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-    </row>
-    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="31">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="46"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="46"/>
-    </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="31">
-        <v>2</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="47"/>
-    </row>
-    <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="31">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="47"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-    </row>
-    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="31">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="46"/>
-    </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="31">
-        <v>2</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="47"/>
-    </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="31">
-        <v>3</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="47"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-    </row>
-    <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="31">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="43"/>
-      <c r="I46" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="35"/>
-    </row>
-    <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="31">
-        <v>2</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="35"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-    </row>
-    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="31">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="35"/>
-    </row>
-    <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="31">
-        <v>2</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="35"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="31">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="35"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="35"/>
-    </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="31">
-        <v>2</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="35"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="31">
-        <v>1</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="35"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="35"/>
-    </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="31">
-        <v>2</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="35"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="184">
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J2:L5 J57:L355">
-    <cfRule type="cellIs" dxfId="74" priority="402" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="403" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="404" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
-    <cfRule type="cellIs" dxfId="71" priority="394" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="70" priority="353" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:L32 J45:L50">
-    <cfRule type="cellIs" dxfId="69" priority="345" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="346" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="347" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I10 G7:H10">
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:L10">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10 G9:H10">
-    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="77" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:L22">
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I13 H12:H13">
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:L13">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I16 H15:H16">
-    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I19 H18:H19">
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:L19">
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I22 G21:H22">
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I29 G24:H29">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:L29">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I34 G34:H34">
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L34">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I38 G38:H38">
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:L38">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42 G42:H42">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:L42">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G53">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:L53">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:L56">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I29">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:L29">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H47">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H50">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:G50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Passed, Failed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L13 G57:I1048576 G2:H3 L7:L10 L15:L16 L18:L19 L21:L22 L34 L38 L42 L52:L53 L55:L56 L24:L29 L31:L32 L49:L50 L46:L47" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J13 J7:J10 J15:J16 J18:J19 J21:J22 J34 J38 J42 J52:J53 J55:J56 J24:J29 J31:J32 J46:J47 J49:J50" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>"Passed, Failed, Skipped"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I13 I7:I10 I15:I16 I18:I19 I21:I22 I34 I38 I42 I52:I53 I55:I56 I24:I29 I31:I32 I49:I50 I46:I47" xr:uid="{00000000-0002-0000-0200-000003000000}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Working/Personal/assignment-vdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CDAEDB-517F-7E4B-833F-4A046A6E7243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD7CBB-A5F4-DD48-968A-0076324B4888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="199">
   <si>
     <t>Steps</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>Test Case 7: Input invalid city like maximum characters in the "Weather in you city" search box and select Enter on the keyboard</t>
   </si>
   <si>
     <t>Input maximum characters of the search box
@@ -1326,6 +1323,15 @@
       </rPr>
       <t xml:space="preserve"> Please refer to the attached file JSON</t>
     </r>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test Case 7: Input invalid city like 100 characters in the "Weather in you city" search box and select Enter on the keyboard</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1978,75 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="159">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -6251,9 +6325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35:K38"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6295,7 +6371,7 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -6434,7 +6510,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="11">
@@ -6445,7 +6521,7 @@
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="44" t="s">
@@ -6455,7 +6531,9 @@
         <v>9</v>
       </c>
       <c r="K7" s="66"/>
-      <c r="L7" s="46"/>
+      <c r="L7" s="46" t="s">
+        <v>197</v>
+      </c>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -6499,7 +6577,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="23">
@@ -6510,10 +6588,10 @@
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>12</v>
@@ -6522,9 +6600,11 @@
         <v>10</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="46"/>
+        <v>181</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>196</v>
+      </c>
       <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6606,7 +6686,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="23">
@@ -6617,7 +6697,7 @@
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="54" t="s">
@@ -6627,7 +6707,9 @@
         <v>9</v>
       </c>
       <c r="K15" s="45"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="58" t="s">
+        <v>196</v>
+      </c>
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6709,7 +6791,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="23">
@@ -6720,7 +6802,7 @@
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="54" t="s">
@@ -6730,7 +6812,9 @@
         <v>9</v>
       </c>
       <c r="K20" s="45"/>
-      <c r="L20" s="58"/>
+      <c r="L20" s="58" t="s">
+        <v>197</v>
+      </c>
       <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6812,7 +6896,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="23">
@@ -6823,10 +6907,10 @@
       </c>
       <c r="F25" s="50"/>
       <c r="G25" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="54" t="s">
         <v>51</v>
@@ -6835,9 +6919,11 @@
         <v>10</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="L25" s="58" t="s">
+        <v>197</v>
+      </c>
       <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6919,7 +7005,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="23">
@@ -6930,10 +7016,10 @@
       </c>
       <c r="F30" s="50"/>
       <c r="G30" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="54" t="s">
         <v>51</v>
@@ -6942,9 +7028,11 @@
         <v>10</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="L30" s="58" t="s">
+        <v>196</v>
+      </c>
       <c r="M30" s="45"/>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7026,7 +7114,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="23">
@@ -7037,7 +7125,7 @@
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="54" t="s">
@@ -7047,7 +7135,9 @@
         <v>9</v>
       </c>
       <c r="K35" s="45"/>
-      <c r="L35" s="58"/>
+      <c r="L35" s="58" t="s">
+        <v>197</v>
+      </c>
       <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7109,7 +7199,7 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -7126,10 +7216,10 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="23">
@@ -7140,7 +7230,7 @@
       </c>
       <c r="F40" s="50"/>
       <c r="G40" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="54" t="s">
@@ -7150,7 +7240,9 @@
         <v>9</v>
       </c>
       <c r="K40" s="45"/>
-      <c r="L40" s="58"/>
+      <c r="L40" s="58" t="s">
+        <v>196</v>
+      </c>
       <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7180,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="52"/>
@@ -7212,7 +7304,7 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -7229,10 +7321,10 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="23">
@@ -7243,7 +7335,7 @@
       </c>
       <c r="F45" s="50"/>
       <c r="G45" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="54" t="s">
@@ -7264,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="50"/>
       <c r="G46" s="52"/>
@@ -7277,7 +7369,7 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -7294,10 +7386,10 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="23">
@@ -7308,7 +7400,7 @@
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="44" t="s">
@@ -7318,7 +7410,9 @@
         <v>9</v>
       </c>
       <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
+      <c r="L48" s="46" t="s">
+        <v>197</v>
+      </c>
       <c r="M48" s="45"/>
     </row>
     <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -7329,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="52"/>
@@ -7469,157 +7563,183 @@
     <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I18 G50:I1048576 G7:H8 G10:H13">
-    <cfRule type="cellIs" dxfId="152" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="136" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:L489 J2:L18">
-    <cfRule type="cellIs" dxfId="151" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="137" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="138" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="148" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="57" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="147" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="cellIs" dxfId="146" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:L23">
-    <cfRule type="cellIs" dxfId="145" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="55" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="56" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="142" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="52" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="141" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="51" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="cellIs" dxfId="140" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="44" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33">
-    <cfRule type="cellIs" dxfId="139" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G38">
-    <cfRule type="cellIs" dxfId="138" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G46">
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I28">
-    <cfRule type="cellIs" dxfId="136" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="47" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L28">
-    <cfRule type="cellIs" dxfId="135" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="48" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="132" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I33">
-    <cfRule type="cellIs" dxfId="131" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="41" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:L29 J30:J33 L30:L33">
-    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="40" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="42" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="43" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H33">
-    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="39" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I38">
-    <cfRule type="cellIs" dxfId="126" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="35" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:L38">
-    <cfRule type="cellIs" dxfId="125" priority="28" operator="equal">
+  <conditionalFormatting sqref="J34:L34 J35:K38">
+    <cfRule type="cellIs" dxfId="131" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="36" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="37" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I43">
-    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:L43">
-    <cfRule type="cellIs" dxfId="121" priority="21" operator="equal">
+  <conditionalFormatting sqref="J39:L39 J40:K43">
+    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="29" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="30" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I46">
+    <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:L46">
+    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="23" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="24" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H46">
+    <cfRule type="cellIs" dxfId="120" priority="20" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G49">
+    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I49">
     <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:L46">
+  <conditionalFormatting sqref="J47:L49">
     <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -7630,60 +7750,56 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H46">
+  <conditionalFormatting sqref="H48:H49">
     <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G49">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:L49">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="11" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H43">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G43">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K33">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L38">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L43">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7691,7 +7807,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Passed, Failed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L8 L15:L18 L10:L13 G2:H3 G50:I1048576 L20:L23 L25:L28 L30:L33 L35:L38 L40:L43 L45:L46 L48:L49" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L8 L15:L18 L10:L13 G2:H3 G50:I1048576 L20:L23 L25:L28 L30:L33 L48:L49 L35:L38 L45:L46 L40:L43" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J15:J16 J20:J21 J25:J26 J30:J31 J35:J36 J40:J41 J45:J46 J48:J49" xr:uid="{00000000-0002-0000-0100-000002000000}">
@@ -7760,7 +7876,7 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -7879,7 +7995,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -7896,21 +8012,21 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>109</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="44" t="s">
@@ -7944,7 +8060,7 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -7961,21 +8077,21 @@
     </row>
     <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="31">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="44" t="s">
@@ -7996,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="52"/>
@@ -8009,7 +8125,7 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -8026,24 +8142,24 @@
     </row>
     <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" s="44" t="s">
         <v>12</v>
@@ -8063,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="52"/>
@@ -8076,7 +8192,7 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -8093,24 +8209,24 @@
     </row>
     <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="31">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" s="44" t="s">
         <v>12</v>
@@ -8130,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="52"/>
@@ -8143,7 +8259,7 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -8160,24 +8276,24 @@
     </row>
     <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="31">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="50"/>
       <c r="G19" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I19" s="44" t="s">
         <v>12</v>
@@ -8197,7 +8313,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="52"/>
@@ -8210,7 +8326,7 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -8227,21 +8343,21 @@
     </row>
     <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="31">
         <v>1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="44" t="s">
@@ -8262,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="52"/>
@@ -8354,113 +8470,113 @@
     <mergeCell ref="C10:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
-    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="47" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L463 J2:L8">
-    <cfRule type="cellIs" dxfId="100" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="48" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="49" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I11 G10:H11">
-    <cfRule type="cellIs" dxfId="97" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="21" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:L11">
-    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="23" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 G13:H14">
-    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:L14">
-    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="19" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17 G16:G17">
-    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:L17">
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20 G19:G20">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:L20">
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I23 G22:G23">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:L23">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8515,7 +8631,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="45"/>
       <c r="C1" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
@@ -8532,7 +8648,7 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -8668,26 +8784,26 @@
     </row>
     <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>12</v>
@@ -8696,14 +8812,14 @@
         <v>10</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -8720,7 +8836,7 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>36</v>
@@ -8730,14 +8846,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="44" t="s">
         <v>12</v>
@@ -8746,7 +8862,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="45"/>
@@ -8759,7 +8875,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="52"/>
@@ -8772,7 +8888,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -8789,13 +8905,13 @@
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="31">
         <v>1</v>
@@ -8805,7 +8921,7 @@
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="53"/>
       <c r="I12" s="44" t="s">
@@ -8839,7 +8955,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -8856,13 +8972,13 @@
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="31">
         <v>1</v>
@@ -8872,7 +8988,7 @@
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="44" t="s">
@@ -8906,7 +9022,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -8923,13 +9039,13 @@
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="31">
         <v>1</v>
@@ -8939,7 +9055,7 @@
       </c>
       <c r="F18" s="50"/>
       <c r="G18" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="44" t="s">
@@ -8973,7 +9089,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
@@ -8990,23 +9106,23 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="31">
         <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="44" t="s">
@@ -9040,7 +9156,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -9057,13 +9173,13 @@
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="31">
         <v>1</v>
@@ -9073,7 +9189,7 @@
       </c>
       <c r="F24" s="50"/>
       <c r="G24" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="44" t="s">
@@ -9107,7 +9223,7 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -9124,13 +9240,13 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="31">
         <v>1</v>
@@ -9140,7 +9256,7 @@
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="54" t="s">
@@ -9180,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="52"/>
@@ -9193,7 +9309,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -9210,13 +9326,13 @@
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="31">
         <v>1</v>
@@ -9226,7 +9342,7 @@
       </c>
       <c r="F31" s="50"/>
       <c r="G31" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="44" t="s">
@@ -9260,7 +9376,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -9277,13 +9393,13 @@
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="31">
         <v>1</v>
@@ -9293,7 +9409,7 @@
       </c>
       <c r="F34" s="70"/>
       <c r="G34" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="54" t="s">
@@ -9333,7 +9449,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="72"/>
       <c r="G36" s="75"/>
@@ -9346,7 +9462,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -9363,13 +9479,13 @@
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="31">
         <v>1</v>
@@ -9379,7 +9495,7 @@
       </c>
       <c r="F38" s="70"/>
       <c r="G38" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" s="76"/>
       <c r="I38" s="54" t="s">
@@ -9419,7 +9535,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="71"/>
       <c r="G40" s="74"/>
@@ -9432,7 +9548,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -9449,13 +9565,13 @@
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="31">
         <v>1</v>
@@ -9465,7 +9581,7 @@
       </c>
       <c r="F42" s="70"/>
       <c r="G42" s="73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H42" s="76"/>
       <c r="I42" s="54" t="s">
@@ -9505,7 +9621,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="71"/>
       <c r="G44" s="74"/>
@@ -9518,7 +9634,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -9535,13 +9651,13 @@
     </row>
     <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="31">
         <v>1</v>
@@ -9551,7 +9667,7 @@
       </c>
       <c r="F46" s="50"/>
       <c r="G46" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="44" t="s">
@@ -9585,7 +9701,7 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -9602,13 +9718,13 @@
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="31">
         <v>1</v>
@@ -9618,7 +9734,7 @@
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="54" t="s">
@@ -9652,7 +9768,7 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -9669,13 +9785,13 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="31">
         <v>1</v>
@@ -9685,7 +9801,7 @@
       </c>
       <c r="F52" s="50"/>
       <c r="G52" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52" s="53"/>
       <c r="I52" s="54" t="s">
@@ -9706,7 +9822,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" s="50"/>
       <c r="G53" s="52"/>
@@ -9719,7 +9835,7 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -9736,13 +9852,13 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55" s="31">
         <v>1</v>
@@ -9752,7 +9868,7 @@
       </c>
       <c r="F55" s="50"/>
       <c r="G55" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55" s="53"/>
       <c r="I55" s="44" t="s">
@@ -9773,7 +9889,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="52"/>
@@ -9973,317 +10089,317 @@
     <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:L5 J57:L355">
-    <cfRule type="cellIs" dxfId="74" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="402" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="403" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="404" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
-    <cfRule type="cellIs" dxfId="71" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="394" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="70" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="353" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L32 J45:L50">
-    <cfRule type="cellIs" dxfId="69" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="345" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10 G7:H10">
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L10">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I10 G9:H10">
-    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L22">
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I13 H12:H13">
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:L13">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I16 H15:H16">
-    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I19 H18:H19">
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L19">
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22 G21:H22">
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29 G24:H29">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L29">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 G34:H34">
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L34">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38 G38:H38">
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L38">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42 G42:H42">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:L42">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G53">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:L53">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L56">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I29">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L29">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H47">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10316,7 +10432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06CBE9-20CC-0441-8560-ECE826D51085}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -11286,7 +11402,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -11305,28 +11421,28 @@
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="81"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="81"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -11345,7 +11461,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -11364,52 +11480,52 @@
     </row>
     <row r="10" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>155</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>158</v>
       </c>
       <c r="K10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="N10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="O10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="O10" s="35" t="s">
-        <v>162</v>
-      </c>
       <c r="P10" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -11418,39 +11534,39 @@
         <v>11</v>
       </c>
       <c r="W10" t="s">
+        <v>162</v>
+      </c>
+      <c r="X10" t="s">
         <v>163</v>
-      </c>
-      <c r="X10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="37">
         <v>44266</v>
       </c>
       <c r="C11" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="41" t="s">
         <v>168</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="42"/>
@@ -11458,27 +11574,27 @@
       <c r="O11" s="41"/>
       <c r="P11" s="38"/>
       <c r="T11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="196" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="37">
         <v>44266</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>172</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>173</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>51</v>
@@ -11487,7 +11603,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="41"/>
       <c r="K12" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
@@ -11495,36 +11611,36 @@
       <c r="O12" s="41"/>
       <c r="P12" s="38"/>
       <c r="T12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V12" t="s">
         <v>12</v>
       </c>
       <c r="W12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="182" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="37">
         <v>44266</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>178</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>51</v>
@@ -11533,7 +11649,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="42"/>
@@ -11541,36 +11657,36 @@
       <c r="O13" s="41"/>
       <c r="P13" s="38"/>
       <c r="T13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V13" t="s">
         <v>51</v>
       </c>
       <c r="W13" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" t="s">
         <v>180</v>
-      </c>
-      <c r="X13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="210" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="37">
         <v>44266</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>51</v>
@@ -11579,7 +11695,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L14" s="41"/>
       <c r="M14" s="42"/>
@@ -11587,116 +11703,116 @@
       <c r="O14" s="41"/>
       <c r="P14" s="38"/>
       <c r="T14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V14" t="s">
         <v>51</v>
       </c>
       <c r="W14" t="s">
+        <v>179</v>
+      </c>
+      <c r="X14" t="s">
         <v>180</v>
-      </c>
-      <c r="X14" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="37">
         <v>44266</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="41"/>
       <c r="K15" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M15" s="42"/>
       <c r="N15" s="41"/>
       <c r="O15" s="41"/>
       <c r="P15" s="38"/>
       <c r="T15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V15" t="s">
         <v>51</v>
       </c>
       <c r="W15" t="s">
+        <v>179</v>
+      </c>
+      <c r="X15" t="s">
         <v>180</v>
-      </c>
-      <c r="X15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="182" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="37">
         <v>44266</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>194</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M16" s="42"/>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
       <c r="P16" s="38"/>
       <c r="T16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V16" t="s">
         <v>51</v>
       </c>
       <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
         <v>180</v>
-      </c>
-      <c r="X16" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Working/Personal/assignment-vdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD7CBB-A5F4-DD48-968A-0076324B4888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B971C5-BA54-1B48-8C7C-1F3D6E654E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="32620" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
     <sheet name="Home page" sheetId="6" r:id="rId2"/>
-    <sheet name=" API Search Weather" sheetId="9" r:id="rId3"/>
-    <sheet name="Find page" sheetId="4" r:id="rId4"/>
+    <sheet name="Find page" sheetId="4" r:id="rId3"/>
+    <sheet name=" API Search Weather" sheetId="9" r:id="rId4"/>
     <sheet name="Defect Tracking" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -24,8 +24,8 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Find page'!$A$5:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">' API Search Weather'!$A$5:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Find page'!$A$5:$M$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General report'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Home page'!$A$5:$M$8</definedName>
     <definedName name="DesignStatus">[1]Summary!$L$1:$L$3</definedName>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="189">
   <si>
     <t>Steps</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Test Case 1: Verify the UI of the "Weather in you city" search box</t>
   </si>
   <si>
-    <t>Home_001</t>
-  </si>
-  <si>
     <t>Home page</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>API Search Weather</t>
-  </si>
-  <si>
-    <t>Home_002</t>
   </si>
   <si>
     <t>Select the search box</t>
@@ -258,22 +252,13 @@
     </r>
   </si>
   <si>
-    <t>Test Case 2: Input "ho chi minh" city in the "Weather in you city" search box and click on search icon</t>
-  </si>
-  <si>
     <t>Click on search icon</t>
   </si>
   <si>
     <t>Find page</t>
   </si>
   <si>
-    <t>Home_003</t>
-  </si>
-  <si>
     <t>Select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Home_004</t>
   </si>
   <si>
     <r>
@@ -293,28 +278,10 @@
     </r>
   </si>
   <si>
-    <t>Test Case 4: Input valid city like "ha noi" in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Test Case 3: Input valid city like "ho chi minh" in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
-    <t>Home_005</t>
-  </si>
-  <si>
-    <t>Test Case 5: Input invalid city like empty in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
     <t>Do not input anything</t>
   </si>
   <si>
-    <t>Test Case 6: Input invalid city like a space in the "Weather in you city" search box and select Enter on the keyboard</t>
-  </si>
-  <si>
     <t>Input a space</t>
-  </si>
-  <si>
-    <t>Home_006</t>
   </si>
   <si>
     <t>Test Case 6: Input invalid city like special character in the "Weather in you city" search box and select Enter on the keyboard</t>
@@ -334,9 +301,6 @@
     <t>Home_007</t>
   </si>
   <si>
-    <t>Home_008</t>
-  </si>
-  <si>
     <t>Test Case 8: Execute test case 1 to test case 7 on other browser like Firefox</t>
   </si>
   <si>
@@ -344,9 +308,6 @@
   </si>
   <si>
     <t>Test Case 9: Execute test case 1 to test case 7 on mobile browser like Android, Google Chrome</t>
-  </si>
-  <si>
-    <t>Home_009</t>
   </si>
   <si>
     <t>Section: Find page</t>
@@ -918,10 +879,6 @@
 - Response Body as JSON with error code 401 and error message as invalid API key</t>
   </si>
   <si>
-    <t>- The search icon (magnifying glass icon) moves 1px up after focusing on the "Weather in your city" search box.
-- The Search icon (magnifying glass icon) has no function. Cannot navigate to the Find page by clicking on it.</t>
-  </si>
-  <si>
     <t>"Weather in you city" search box</t>
   </si>
   <si>
@@ -1019,65 +976,10 @@
     <t>Nguyen Duong</t>
   </si>
   <si>
-    <t>The search icon (magnifying glass icon) moves 1px up after focusing on the search box</t>
-  </si>
-  <si>
-    <t>Steps to reproduce:
-1. Launch AUT
-2. Select/Click the search box
-3. Observer
-Expected result:
-- The search icon is still in place
-Actual result:
-- The search icon will moves 1px up</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
     <t>DF002</t>
-  </si>
-  <si>
-    <t>The Search icon (magnifying glass icon) has no function</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Steps to reproduce:
-1. Launch AUT
-2. At the search box, input valid city. For example: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ho chi minh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Select Enter button on the keyboard
-4. Observer
-Expected result:
-- The user will be navigated to the Find page with correct city weather data
-Actual result:
-- The search icon has no function. Ther is nothing change</t>
-    </r>
-  </si>
-  <si>
-    <t>Under Review</t>
-  </si>
-  <si>
-    <t>Opportunity Assessment</t>
   </si>
   <si>
     <t>DF003</t>
@@ -1106,10 +1008,6 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>DF001
-DF002</t>
-  </si>
-  <si>
     <t>DF004</t>
   </si>
   <si>
@@ -1117,9 +1015,6 @@
   </si>
   <si>
     <t>Attachment</t>
-  </si>
-  <si>
-    <t>DF005</t>
   </si>
   <si>
     <r>
@@ -1193,9 +1088,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DF006</t>
   </si>
   <si>
     <t>HTTP Status Code 500 always returns in the API Response in cases input invalid param "q"</t>
@@ -1332,6 +1224,48 @@
   </si>
   <si>
     <t>Test Case 7: Input invalid city like 100 characters in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Test Case 2: Input valid city like "ho chi minh" in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Home001</t>
+  </si>
+  <si>
+    <t>Home002</t>
+  </si>
+  <si>
+    <t>Test Case 3: Input valid city like "ha noi" in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Home003</t>
+  </si>
+  <si>
+    <t>Test Case 4: Input invalid city like empty in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Home004</t>
+  </si>
+  <si>
+    <t>Test Case 5: Input invalid city like a space in the "Weather in you city" search box and select Enter on the keyboard</t>
+  </si>
+  <si>
+    <t>Home005</t>
+  </si>
+  <si>
+    <t>Home006</t>
+  </si>
+  <si>
+    <t>Navigation Search Box</t>
+  </si>
+  <si>
+    <t>Home007</t>
+  </si>
+  <si>
+    <t>Home008</t>
+  </si>
+  <si>
+    <t>Home009</t>
   </si>
 </sst>
 </file>
@@ -1846,13 +1780,31 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1860,9 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1883,32 +1832,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1922,18 +1856,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1943,14 +1870,21 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1978,7 +1912,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="168">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2051,6 +1985,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -3226,6 +3194,74 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4177,7 +4213,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4536,7 +4572,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4630,6 +4666,375 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2150570594734052E-2"/>
+          <c:y val="1.7093888904940797E-2"/>
+          <c:w val="0.95723122769426883"/>
+          <c:h val="0.89872782841972065"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C6EFCE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="15000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-A7C2-4DD7-ABD4-D709B1021827}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC7CE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="15000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A7C2-4DD7-ABD4-D709B1021827}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFE79B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="15000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A7C2-4DD7-ABD4-D709B1021827}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2976480129764802E-2"/>
+                  <c:y val="1.3605439261783956E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A7C2-4DD7-ABD4-D709B1021827}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4598540145985401E-2"/>
+                  <c:y val="8.1632635570703226E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A7C2-4DD7-ABD4-D709B1021827}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4598540145985401E-2"/>
+                  <c:y val="1.0884351409427147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A7C2-4DD7-ABD4-D709B1021827}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4598540145985401E-2"/>
+                  <c:y val="1.0884351409427147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-VN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A7C2-4DD7-ABD4-D709B1021827}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Find page'!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Find page'!$J$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A7C2-4DD7-ABD4-D709B1021827}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cylinder"/>
+        <c:axId val="90144128"/>
+        <c:axId val="94061696"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="90144128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94061696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94061696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90144128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4998,375 +5403,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.2150570594734052E-2"/>
-          <c:y val="1.7093888904940797E-2"/>
-          <c:w val="0.95723122769426883"/>
-          <c:h val="0.89872782841972065"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C6EFCE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
-                  <a:srgbClr val="FF0000">
-                    <a:alpha val="15000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-A7C2-4DD7-ABD4-D709B1021827}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC7CE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="15000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A7C2-4DD7-ABD4-D709B1021827}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFE79B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="15000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A7C2-4DD7-ABD4-D709B1021827}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.2976480129764802E-2"/>
-                  <c:y val="1.3605439261783956E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-A7C2-4DD7-ABD4-D709B1021827}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4598540145985401E-2"/>
-                  <c:y val="8.1632635570703226E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-A7C2-4DD7-ABD4-D709B1021827}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4598540145985401E-2"/>
-                  <c:y val="1.0884351409427147E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A7C2-4DD7-ABD4-D709B1021827}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4598540145985401E-2"/>
-                  <c:y val="1.0884351409427147E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-VN"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A7C2-4DD7-ABD4-D709B1021827}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Find page'!$J$2:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Find page'!$J$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A7C2-4DD7-ABD4-D709B1021827}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="cylinder"/>
-        <c:axId val="90144128"/>
-        <c:axId val="94061696"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="90144128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94061696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94061696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90144128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5533,23 +5569,21 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3923</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5768FD-7568-3F4C-8F23-72E9FA1FEF8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5613,21 +5647,23 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3923</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5768FD-7568-3F4C-8F23-72E9FA1FEF8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5687,13 +5723,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2469171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5731,13 +5767,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2641601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2832101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5775,7 +5811,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2641601</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7772400" cy="2857500"/>
@@ -6245,7 +6281,7 @@
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3">
         <f>'Home page'!J3</f>
@@ -6253,7 +6289,7 @@
       </c>
       <c r="C2" s="3">
         <f>'Home page'!K3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <f>'Home page'!L3</f>
@@ -6262,7 +6298,7 @@
     </row>
     <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <f>'Find page'!J3</f>
@@ -6279,7 +6315,7 @@
     </row>
     <row r="4" spans="1:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="33">
         <f>' API Search Weather'!J3</f>
@@ -6304,7 +6340,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUM(C2:C4)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(D2:D4)</f>
@@ -6323,13 +6359,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40:G43"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6354,7 +6390,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="45"/>
       <c r="C1" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
@@ -6370,12 +6406,12 @@
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -6397,26 +6433,26 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
-        <f>COUNTIF(A6:A199,"Test Case*")</f>
-        <v>10</v>
+        <f>COUNTIF(A6:A194,"Test Case*")</f>
+        <v>9</v>
       </c>
       <c r="J3" s="11">
-        <f>COUNTIF(J6:J489,"Passed")</f>
+        <f>COUNTIF(J6:J484,"Passed")</f>
         <v>7</v>
       </c>
       <c r="K3" s="11">
-        <f>COUNTIF(J6:J489,"Failed")</f>
-        <v>3</v>
+        <f>COUNTIF(J6:J484,"Failed")</f>
+        <v>2</v>
       </c>
       <c r="L3" s="11">
-        <f>COUNTIF(L6:L489,"Skipped")</f>
+        <f>COUNTIF(L6:L484,"Skipped")</f>
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
@@ -6426,20 +6462,20 @@
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17">
         <f>J3/I3</f>
-        <v>0.7</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="K4" s="17">
         <f>K3/I3</f>
-        <v>0.3</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L4" s="17">
         <f>L3/I3</f>
@@ -6489,16 +6525,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -6506,175 +6542,171 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>141</v>
+      <c r="A7" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="66"/>
-      <c r="L7" s="46" t="s">
-        <v>197</v>
+      <c r="L7" s="64" t="s">
+        <v>173</v>
       </c>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="45"/>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="45"/>
       <c r="K8" s="66"/>
-      <c r="L8" s="46"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="45"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>141</v>
+      <c r="A10" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="23">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="56"/>
+      <c r="J10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="11">
+      <c r="D11" s="23">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="45"/>
-      <c r="D12" s="11">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="45"/>
-      <c r="D13" s="11">
+      <c r="D13" s="23">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="61"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -6682,104 +6714,104 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>141</v>
+      <c r="A15" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="23">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="45"/>
-      <c r="L15" s="58" t="s">
-        <v>196</v>
+      <c r="L15" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45"/>
       <c r="D16" s="23">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="59"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="45"/>
       <c r="D17" s="23">
         <v>3</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="57"/>
+        <v>35</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="59"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="45"/>
       <c r="D18" s="23">
         <v>4</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+        <v>34</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="45"/>
-      <c r="L18" s="62"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="A19" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -6787,104 +6819,108 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>141</v>
+      <c r="A20" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="58" t="s">
-        <v>197</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="45"/>
       <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="59"/>
+        <v>30</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="45"/>
       <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="59"/>
+        <v>36</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="51"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="A24" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -6892,108 +6928,108 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>141</v>
+      <c r="A25" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="23">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="58" t="s">
-        <v>197</v>
+      <c r="K25" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>172</v>
       </c>
       <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="45"/>
       <c r="D26" s="23">
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="59"/>
+        <v>30</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="45"/>
       <c r="D27" s="23">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="59"/>
+        <v>37</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="45"/>
       <c r="D28" s="23">
         <v>4</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="45"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="45"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -7001,108 +7037,104 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>141</v>
+      <c r="A30" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="23">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="58" t="s">
-        <v>196</v>
+        <v>26</v>
+      </c>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="M30" s="45"/>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="45"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="59"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+    <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="45"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="59"/>
+        <v>39</v>
+      </c>
+      <c r="F32" s="55"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="51"/>
       <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="45"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
+      <c r="A34" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -7110,104 +7142,104 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>141</v>
+      <c r="A35" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="23">
         <v>1</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="45"/>
-      <c r="L35" s="58" t="s">
-        <v>197</v>
+      <c r="L35" s="50" t="s">
+        <v>172</v>
       </c>
       <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="45"/>
       <c r="D36" s="23">
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="47"/>
       <c r="K36" s="45"/>
-      <c r="L36" s="59"/>
+      <c r="L36" s="51"/>
       <c r="M36" s="45"/>
     </row>
-    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
+    <row r="37" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="45"/>
       <c r="D37" s="23">
         <v>3</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="57"/>
+        <v>41</v>
+      </c>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="45"/>
-      <c r="L37" s="59"/>
+      <c r="L37" s="51"/>
       <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="23">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="61"/>
+        <v>34</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="45"/>
-      <c r="L38" s="62"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
+      <c r="A39" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -7215,233 +7247,161 @@
       <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>141</v>
+      <c r="A40" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="23">
         <v>1</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="45"/>
-      <c r="L40" s="58" t="s">
-        <v>196</v>
-      </c>
+      <c r="L40" s="50"/>
       <c r="M40" s="45"/>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
+    <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="45"/>
       <c r="D41" s="23">
         <v>2</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="57"/>
+        <v>44</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="45"/>
-      <c r="L41" s="59"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="45"/>
     </row>
-    <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="23">
-        <v>3</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="45"/>
-    </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>185</v>
+      </c>
       <c r="C43" s="45"/>
       <c r="D43" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="58"/>
+      <c r="I43" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>9</v>
+      </c>
       <c r="K43" s="45"/>
-      <c r="L43" s="62"/>
+      <c r="L43" s="64" t="s">
+        <v>173</v>
+      </c>
       <c r="M43" s="45"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="23">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="45"/>
-    </row>
-    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="23">
+    <row r="44" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="23">
         <v>2</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="45"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="23">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="M48" s="45"/>
-    </row>
-    <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="23">
-        <v>2</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="45"/>
+      <c r="E44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="55"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
-  <mergeCells count="123">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="J25:J28"/>
+  <mergeCells count="111">
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="L25:L28"/>
     <mergeCell ref="M25:M28"/>
@@ -7449,46 +7409,25 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
     <mergeCell ref="F25:F28"/>
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="H25:H28"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M15:M18"/>
     <mergeCell ref="I20:I23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="C2:F4"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="A7:A8"/>
@@ -7501,326 +7440,301 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I18 G50:I1048576 G7:H8 G10:H13">
-    <cfRule type="cellIs" dxfId="158" priority="136" operator="equal">
+  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 G45:I1048576 G7:H8 I5:I13">
+    <cfRule type="cellIs" dxfId="167" priority="139" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:L489 J2:L18">
-    <cfRule type="cellIs" dxfId="157" priority="80" operator="equal">
+  <conditionalFormatting sqref="J45:L484 J2:L13">
+    <cfRule type="cellIs" dxfId="166" priority="83" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="140" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="141" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H13">
+    <cfRule type="cellIs" dxfId="163" priority="60" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G18">
+    <cfRule type="cellIs" dxfId="162" priority="53" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I18">
+    <cfRule type="cellIs" dxfId="161" priority="57" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:L18">
+    <cfRule type="cellIs" dxfId="160" priority="56" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="58" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="59" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="154" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G13">
+    <cfRule type="cellIs" dxfId="156" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="153" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="47" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G28">
+    <cfRule type="cellIs" dxfId="154" priority="41" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G33">
+    <cfRule type="cellIs" dxfId="153" priority="34" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G41">
+    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="cellIs" dxfId="152" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:L23">
-    <cfRule type="cellIs" dxfId="151" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="148" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="48" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="147" priority="51" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G28">
+  <conditionalFormatting sqref="I24:I28">
     <cfRule type="cellIs" dxfId="146" priority="44" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G33">
-    <cfRule type="cellIs" dxfId="145" priority="38" operator="equal">
+  <conditionalFormatting sqref="J24:L24 J25:J28 L25:L28">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="45" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="46" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
+    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I33">
+    <cfRule type="cellIs" dxfId="141" priority="38" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:L29 J30:K33">
+    <cfRule type="cellIs" dxfId="140" priority="37" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="39" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="40" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I38">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:L34 J35:K38">
+    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="32" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="33" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I41">
+    <cfRule type="cellIs" dxfId="133" priority="25" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:L41">
+    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="26" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="27" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H41">
+    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G44">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:I44">
+    <cfRule type="cellIs" dxfId="127" priority="19" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:L44">
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="21" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H33">
+    <cfRule type="cellIs" dxfId="122" priority="15" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H38">
+    <cfRule type="cellIs" dxfId="121" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G38">
-    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G46">
-    <cfRule type="cellIs" dxfId="143" priority="19" operator="equal">
+  <conditionalFormatting sqref="L30:L33">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I28">
-    <cfRule type="cellIs" dxfId="142" priority="47" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:L28">
-    <cfRule type="cellIs" dxfId="141" priority="46" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="138" priority="45" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I33">
-    <cfRule type="cellIs" dxfId="137" priority="41" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:L29 J30:J33 L30:L33">
-    <cfRule type="cellIs" dxfId="136" priority="40" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="42" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="43" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H33">
-    <cfRule type="cellIs" dxfId="133" priority="39" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I38">
-    <cfRule type="cellIs" dxfId="132" priority="35" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:L34 J35:K38">
-    <cfRule type="cellIs" dxfId="131" priority="34" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="36" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="37" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I43">
-    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:L39 J40:K43">
-    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="29" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="30" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I46">
-    <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:L46">
-    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="23" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="24" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" dxfId="120" priority="20" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G49">
-    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I49">
-    <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:L49">
-    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="17" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="18" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H43">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G43">
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K33">
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L38">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L43">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="K25:K28">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F45:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Passed, Failed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L8 L15:L18 L10:L13 G2:H3 G50:I1048576 L20:L23 L25:L28 L30:L33 L48:L49 L35:L38 L45:L46 L40:L43" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L8 L10:L13 G2:H3 G45:I1048576 L15:L18 L20:L23 L25:L28 L43:L44 L30:L33 L40:L41 L35:L38" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J15:J16 J20:J21 J25:J26 J30:J31 J35:J36 J40:J41 J45:J46 J48:J49" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J15:J16 J20:J21 J25:J26 J30:J31 J35:J36 J40:J41 J43:J44" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Passed, Failed, Skipped"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I15:I18 I10:I13 I20:I23 I25:I28 I30:I33 I35:I38 I40:I43 I45:I46 I48:I49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I10:I13 I15:I18 I20:I23 I25:I28 I30:I33 I35:I38 I40:I41 I43:I44" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K10:K13" location="'Defect Tracking'!A11:O12" display="'Defect Tracking'!A11:O12" xr:uid="{20A32DF0-C99D-4A49-9FA9-B5E80339BD3E}"/>
-    <hyperlink ref="K25:K28" location="'Defect Tracking'!A13:O13" display="DF003" xr:uid="{2CB6B397-4C92-FF47-9817-F58C3FF0E6D1}"/>
-    <hyperlink ref="K30:K33" location="'Defect Tracking'!A13:O13" display="DF003" xr:uid="{A53E8652-03E8-074A-A7A6-AED6C0826541}"/>
+    <hyperlink ref="K20:K23" location="'Defect Tracking'!A11:P11" display="DF001" xr:uid="{2CB6B397-4C92-FF47-9817-F58C3FF0E6D1}"/>
+    <hyperlink ref="K25:K28" location="'Defect Tracking'!A11:P11" display="DF001" xr:uid="{705955D0-F049-7D49-9CB4-58C404E465A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7829,783 +7743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23">
-        <f>COUNTIF(A6:A173,"Test Case*")</f>
-        <v>6</v>
-      </c>
-      <c r="J3" s="23">
-        <f>COUNTIF(J6:J463,"Passed")</f>
-        <v>3</v>
-      </c>
-      <c r="K3" s="23">
-        <f>COUNTIF(J6:J463,"Failed")</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="23">
-        <f>COUNTIF(L6:L463,"Skipped")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <f>J3/I3</f>
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="17">
-        <f>K3/I3</f>
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="17">
-        <f>L3/I3</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="23">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="31">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="31">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="31">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="31">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="31">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="31">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="45"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <dataConsolidate/>
-  <mergeCells count="75">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C10:C11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
-    <cfRule type="cellIs" dxfId="107" priority="47" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:L463 J2:L8">
-    <cfRule type="cellIs" dxfId="106" priority="46" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="48" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="49" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I11 G10:H11">
-    <cfRule type="cellIs" dxfId="103" priority="21" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:L11">
-    <cfRule type="cellIs" dxfId="102" priority="20" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="22" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="23" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 G13:H14">
-    <cfRule type="cellIs" dxfId="99" priority="17" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:L14">
-    <cfRule type="cellIs" dxfId="98" priority="16" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="19" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I17 G16:G17">
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:L17">
-    <cfRule type="cellIs" dxfId="94" priority="12" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="14" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="15" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20 G19:G20">
-    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:L20">
-    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I23 G22:G23">
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:L23">
-    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I10:I11 I13:I14 I16:I17 I19:I20 I22:I23" xr:uid="{FFC4F67B-D271-914A-BAFA-BBF803DFBEE7}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J13:J14 J16:J17 J19:J20 J22:J23" xr:uid="{7505585E-8060-C440-92C5-82B3E853B028}">
-      <formula1>"Passed, Failed, Skipped"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3 G24:I1048576 L7:L8 L10:L11 L13:L14 L16:L17 L19:L20 L22:L23" xr:uid="{82472565-BF01-5E4B-9340-4955B79D6DB4}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F1048576" xr:uid="{4931B21D-07C8-9F47-932E-AF19607E3BBA}">
-      <formula1>"Passed, Failed"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
@@ -8631,7 +7773,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="45"/>
       <c r="C1" s="65" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
@@ -8647,12 +7789,12 @@
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -8674,10 +7816,10 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -8703,10 +7845,10 @@
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -8766,16 +7908,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -8784,26 +7926,26 @@
     </row>
     <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="28" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>12</v>
@@ -8812,22 +7954,22 @@
         <v>10</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="A8" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -8835,68 +7977,68 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>36</v>
+      <c r="A9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="31">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="46"/>
+      <c r="K9" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="64"/>
       <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="45"/>
       <c r="D10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="44"/>
+        <v>51</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="46"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="A11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -8904,66 +8046,66 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>36</v>
+      <c r="A12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D12" s="31">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="45"/>
       <c r="D13" s="31">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -8971,66 +8113,66 @@
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>36</v>
+      <c r="A15" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D15" s="31">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45"/>
       <c r="D16" s="31">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="44"/>
+        <v>34</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="A17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -9038,66 +8180,66 @@
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>36</v>
+      <c r="A18" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D18" s="31">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="45"/>
       <c r="D19" s="31">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="44"/>
+        <v>34</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="A20" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -9105,66 +8247,66 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>36</v>
+      <c r="A21" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D21" s="31">
         <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="44" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="45"/>
       <c r="D22" s="31">
         <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
+      <c r="A23" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -9172,66 +8314,66 @@
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>36</v>
+      <c r="A24" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D24" s="31">
         <v>1</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="45"/>
       <c r="D25" s="31">
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="A26" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -9239,85 +8381,85 @@
       <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>36</v>
+      <c r="A27" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D27" s="31">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="45"/>
-      <c r="L27" s="58"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="45"/>
       <c r="D28" s="31">
         <v>2</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="45"/>
-      <c r="L28" s="59"/>
+      <c r="L28" s="51"/>
       <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="45"/>
       <c r="D29" s="31">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="57"/>
+        <v>87</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="45"/>
-      <c r="L29" s="59"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
+      <c r="A30" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -9325,66 +8467,66 @@
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>36</v>
+      <c r="A31" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D31" s="31">
         <v>1</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="58"/>
+      <c r="I31" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="45"/>
       <c r="D32" s="31">
         <v>2</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="F32" s="55"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
+      <c r="A33" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -9393,84 +8535,84 @@
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="31">
         <v>1</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="69"/>
+      <c r="G34" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="73"/>
+      <c r="I34" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="56"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="57"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="31">
         <v>2</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="F35" s="70"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="61"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="31">
         <v>3</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="76"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="48"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="61"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -9479,84 +8621,84 @@
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="D38" s="31">
         <v>1</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="69"/>
+      <c r="G38" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="73"/>
+      <c r="I38" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="56" t="s">
+      <c r="J38" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="56"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="56"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="57"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="31">
         <v>2</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="F39" s="70"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="57"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="31">
         <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="57"/>
+        <v>80</v>
+      </c>
+      <c r="F40" s="70"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
+      <c r="A41" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -9565,84 +8707,84 @@
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="67" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="D42" s="31">
         <v>1</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="69"/>
+      <c r="G42" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="73"/>
+      <c r="I42" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="56" t="s">
+      <c r="J42" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="56"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="56"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="57"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="31">
         <v>2</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="F43" s="70"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="57"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="31">
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="57"/>
+        <v>82</v>
+      </c>
+      <c r="F44" s="70"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
+      <c r="A45" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -9650,66 +8792,66 @@
       <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>36</v>
+      <c r="A46" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D46" s="31">
         <v>1</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="53"/>
-      <c r="I46" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="58"/>
+      <c r="I46" s="63" t="s">
         <v>12</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K46" s="45"/>
-      <c r="L46" s="46"/>
+      <c r="L46" s="64"/>
       <c r="M46" s="45"/>
     </row>
     <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="45"/>
       <c r="D47" s="31">
         <v>2</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="45"/>
       <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="45"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
+      <c r="A48" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -9717,66 +8859,66 @@
       <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>36</v>
+      <c r="A49" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D49" s="31">
         <v>1</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="56" t="s">
+      <c r="J49" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K49" s="45"/>
-      <c r="L49" s="58"/>
+      <c r="L49" s="50"/>
       <c r="M49" s="45"/>
     </row>
     <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="45"/>
       <c r="D50" s="31">
         <v>2</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+        <v>34</v>
+      </c>
+      <c r="F50" s="55"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="47"/>
       <c r="K50" s="45"/>
-      <c r="L50" s="59"/>
+      <c r="L50" s="51"/>
       <c r="M50" s="45"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
+      <c r="A51" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -9784,66 +8926,66 @@
       <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>36</v>
+      <c r="A52" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D52" s="31">
         <v>1</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J52" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="G52" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="46" t="s">
         <v>9</v>
       </c>
       <c r="K52" s="45"/>
-      <c r="L52" s="58"/>
+      <c r="L52" s="50"/>
       <c r="M52" s="45"/>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="45"/>
       <c r="D53" s="31">
         <v>2</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="57"/>
+        <v>107</v>
+      </c>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="45"/>
-      <c r="L53" s="59"/>
+      <c r="L53" s="51"/>
       <c r="M53" s="45"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
+      <c r="A54" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
@@ -9851,218 +8993,58 @@
       <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>36</v>
+      <c r="A55" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D55" s="31">
         <v>1</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="53"/>
-      <c r="I55" s="44" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="58"/>
+      <c r="I55" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="J55" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K55" s="45"/>
-      <c r="L55" s="46"/>
+      <c r="L55" s="64"/>
       <c r="M55" s="45"/>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="45"/>
       <c r="D56" s="31">
         <v>2</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="F56" s="55"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="63"/>
       <c r="J56" s="45"/>
       <c r="K56" s="45"/>
-      <c r="L56" s="46"/>
+      <c r="L56" s="64"/>
       <c r="M56" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="184">
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
@@ -10087,319 +9069,479 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:L5 J57:L355">
-    <cfRule type="cellIs" dxfId="80" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="402" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="403" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="404" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
-    <cfRule type="cellIs" dxfId="77" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="394" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="76" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="353" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L32 J45:L50">
-    <cfRule type="cellIs" dxfId="75" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="345" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10 G7:H10">
-    <cfRule type="cellIs" dxfId="72" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L10">
-    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I10 G9:H10">
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L22">
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I13 H12:H13">
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="68" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:L13">
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I16 H15:H16">
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I19 H18:H19">
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L19">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22 G21:H22">
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29 G24:H29">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L29">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 G34:H34">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L34">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38 G38:H38">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L38">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42 G42:H42">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:L42">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G53">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:L53">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L56">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I29">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H47">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G50">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10418,8 +9560,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K7" location="'Defect Tracking'!A14:P14" display="DF004" xr:uid="{BBA35F6E-112C-264E-BFFB-D674BD69BDCC}"/>
-    <hyperlink ref="K9:K10" location="'Defect Tracking'!A15:P15" display="DF005" xr:uid="{AD670FA6-689C-5B49-BD0E-9FC9B0DED878}"/>
+    <hyperlink ref="K7" location="'Defect Tracking'!A12:P12" display="DF002" xr:uid="{BBA35F6E-112C-264E-BFFB-D674BD69BDCC}"/>
+    <hyperlink ref="K9:K10" location="'Defect Tracking'!A13:P13" display="DF003" xr:uid="{AD670FA6-689C-5B49-BD0E-9FC9B0DED878}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10428,12 +9570,817 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B517F69-E8A7-B543-91EA-9AD672758A0C}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23">
+        <f>COUNTIF(A6:A173,"Test Case*")</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="23">
+        <f>COUNTIF(J6:J463,"Passed")</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="23">
+        <f>COUNTIF(J6:J463,"Failed")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="23">
+        <f>COUNTIF(L6:L463,"Skipped")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17">
+        <f>J3/I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="17">
+        <f>K3/I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="17">
+        <f>L3/I3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="31">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="31">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="64"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="31">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="64"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="31">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="45"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <dataConsolidate/>
+  <mergeCells count="75">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
+    <cfRule type="cellIs" dxfId="110" priority="53" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:L463 J2:L8">
+    <cfRule type="cellIs" dxfId="109" priority="52" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="55" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I11 G10:H11">
+    <cfRule type="cellIs" dxfId="106" priority="27" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:L11">
+    <cfRule type="cellIs" dxfId="105" priority="26" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="28" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="29" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I14 G13:H14">
+    <cfRule type="cellIs" dxfId="102" priority="23" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:L14">
+    <cfRule type="cellIs" dxfId="101" priority="22" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I17 G16:G17">
+    <cfRule type="cellIs" dxfId="98" priority="19" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:L15 J16:J17 L16:L17">
+    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20 G19:G20">
+    <cfRule type="cellIs" dxfId="94" priority="15" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:L18 J19:J20 L19:L20">
+    <cfRule type="cellIs" dxfId="93" priority="14" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="17" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I23 G22:G23">
+    <cfRule type="cellIs" dxfId="88" priority="9" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:L23">
+    <cfRule type="cellIs" dxfId="87" priority="8" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K17">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8 I10:I11 I13:I14 I16:I17 I19:I20 I22:I23" xr:uid="{FFC4F67B-D271-914A-BAFA-BBF803DFBEE7}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J8 J10:J11 J13:J14 J16:J17 J19:J20 J22:J23" xr:uid="{7505585E-8060-C440-92C5-82B3E853B028}">
+      <formula1>"Passed, Failed, Skipped"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3 G24:I1048576 L7:L8 L10:L11 L13:L14 L16:L17 L19:L20 L22:L23" xr:uid="{82472565-BF01-5E4B-9340-4955B79D6DB4}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F1048576" xr:uid="{4931B21D-07C8-9F47-932E-AF19607E3BBA}">
+      <formula1>"Passed, Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K13:K14" location="'Defect Tracking'!A14:P14" display="DF004" xr:uid="{99488B3E-E4A6-644E-9CD4-C465D0D17FFC}"/>
+    <hyperlink ref="K16:K17" location="'Defect Tracking'!A14:P14" display="DF004" xr:uid="{996DFABA-5DA5-5142-A511-93633A7C6611}"/>
+    <hyperlink ref="K19:K20" location="'Defect Tracking'!A14:P14" display="DF004" xr:uid="{45168547-4B89-1C41-B80B-9AAF81B6FECF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06CBE9-20CC-0441-8560-ECE826D51085}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11400,9 +11347,9 @@
     <col min="16147" max="16153" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -11418,31 +11365,32 @@
       <c r="M1" s="80"/>
       <c r="N1" s="80"/>
       <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B4" s="81"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B5" s="81"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -11461,7 +11409,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -11480,52 +11428,52 @@
     </row>
     <row r="10" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -11534,39 +11482,39 @@
         <v>11</v>
       </c>
       <c r="W10" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="X10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="112" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="182" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B11" s="37">
         <v>44266</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>168</v>
+        <v>156</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="42"/>
@@ -11574,36 +11522,45 @@
       <c r="O11" s="41"/>
       <c r="P11" s="38"/>
       <c r="T11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="196" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>158</v>
+      </c>
+      <c r="X11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="210" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B12" s="37">
         <v>44266</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="42"/>
       <c r="J12" s="41"/>
       <c r="K12" s="41" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
@@ -11611,224 +11568,132 @@
       <c r="O12" s="41"/>
       <c r="P12" s="38"/>
       <c r="T12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="V12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="182" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B13" s="37">
         <v>44266</v>
       </c>
       <c r="C13" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>176</v>
-      </c>
       <c r="F13" s="39" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>167</v>
+      </c>
       <c r="J13" s="41"/>
       <c r="K13" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="41"/>
+        <v>152</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>167</v>
+      </c>
       <c r="M13" s="42"/>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="38"/>
       <c r="T13" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="210" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="182" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B14" s="37">
         <v>44266</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
+      <c r="I14" s="42" t="s">
+        <v>167</v>
+      </c>
       <c r="J14" s="41"/>
       <c r="K14" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="41"/>
+        <v>152</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>167</v>
+      </c>
       <c r="M14" s="42"/>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
       <c r="P14" s="38"/>
       <c r="T14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="V14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="224" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="37">
-        <v>44266</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="38"/>
-      <c r="T15" t="s">
-        <v>178</v>
-      </c>
-      <c r="V15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W15" t="s">
-        <v>179</v>
-      </c>
-      <c r="X15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="182" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="37">
-        <v>44266</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="38"/>
-      <c r="T16" t="s">
-        <v>178</v>
-      </c>
-      <c r="V16" t="s">
-        <v>51</v>
-      </c>
-      <c r="W16" t="s">
-        <v>179</v>
-      </c>
-      <c r="X16" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K16 JG11:JG16 TC11:TC16 ACY11:ACY16 AMU11:AMU16 AWQ11:AWQ16 BGM11:BGM16 BQI11:BQI16 CAE11:CAE16 CKA11:CKA16 CTW11:CTW16 DDS11:DDS16 DNO11:DNO16 DXK11:DXK16 EHG11:EHG16 ERC11:ERC16 FAY11:FAY16 FKU11:FKU16 FUQ11:FUQ16 GEM11:GEM16 GOI11:GOI16 GYE11:GYE16 HIA11:HIA16 HRW11:HRW16 IBS11:IBS16 ILO11:ILO16 IVK11:IVK16 JFG11:JFG16 JPC11:JPC16 JYY11:JYY16 KIU11:KIU16 KSQ11:KSQ16 LCM11:LCM16 LMI11:LMI16 LWE11:LWE16 MGA11:MGA16 MPW11:MPW16 MZS11:MZS16 NJO11:NJO16 NTK11:NTK16 ODG11:ODG16 ONC11:ONC16 OWY11:OWY16 PGU11:PGU16 PQQ11:PQQ16 QAM11:QAM16 QKI11:QKI16 QUE11:QUE16 REA11:REA16 RNW11:RNW16 RXS11:RXS16 SHO11:SHO16 SRK11:SRK16 TBG11:TBG16 TLC11:TLC16 TUY11:TUY16 UEU11:UEU16 UOQ11:UOQ16 UYM11:UYM16 VII11:VII16 VSE11:VSE16 WCA11:WCA16 WLW11:WLW16 WVS11:WVS16 K65547:K65549 JG65547:JG65549 TC65547:TC65549 ACY65547:ACY65549 AMU65547:AMU65549 AWQ65547:AWQ65549 BGM65547:BGM65549 BQI65547:BQI65549 CAE65547:CAE65549 CKA65547:CKA65549 CTW65547:CTW65549 DDS65547:DDS65549 DNO65547:DNO65549 DXK65547:DXK65549 EHG65547:EHG65549 ERC65547:ERC65549 FAY65547:FAY65549 FKU65547:FKU65549 FUQ65547:FUQ65549 GEM65547:GEM65549 GOI65547:GOI65549 GYE65547:GYE65549 HIA65547:HIA65549 HRW65547:HRW65549 IBS65547:IBS65549 ILO65547:ILO65549 IVK65547:IVK65549 JFG65547:JFG65549 JPC65547:JPC65549 JYY65547:JYY65549 KIU65547:KIU65549 KSQ65547:KSQ65549 LCM65547:LCM65549 LMI65547:LMI65549 LWE65547:LWE65549 MGA65547:MGA65549 MPW65547:MPW65549 MZS65547:MZS65549 NJO65547:NJO65549 NTK65547:NTK65549 ODG65547:ODG65549 ONC65547:ONC65549 OWY65547:OWY65549 PGU65547:PGU65549 PQQ65547:PQQ65549 QAM65547:QAM65549 QKI65547:QKI65549 QUE65547:QUE65549 REA65547:REA65549 RNW65547:RNW65549 RXS65547:RXS65549 SHO65547:SHO65549 SRK65547:SRK65549 TBG65547:TBG65549 TLC65547:TLC65549 TUY65547:TUY65549 UEU65547:UEU65549 UOQ65547:UOQ65549 UYM65547:UYM65549 VII65547:VII65549 VSE65547:VSE65549 WCA65547:WCA65549 WLW65547:WLW65549 WVS65547:WVS65549 K131083:K131085 JG131083:JG131085 TC131083:TC131085 ACY131083:ACY131085 AMU131083:AMU131085 AWQ131083:AWQ131085 BGM131083:BGM131085 BQI131083:BQI131085 CAE131083:CAE131085 CKA131083:CKA131085 CTW131083:CTW131085 DDS131083:DDS131085 DNO131083:DNO131085 DXK131083:DXK131085 EHG131083:EHG131085 ERC131083:ERC131085 FAY131083:FAY131085 FKU131083:FKU131085 FUQ131083:FUQ131085 GEM131083:GEM131085 GOI131083:GOI131085 GYE131083:GYE131085 HIA131083:HIA131085 HRW131083:HRW131085 IBS131083:IBS131085 ILO131083:ILO131085 IVK131083:IVK131085 JFG131083:JFG131085 JPC131083:JPC131085 JYY131083:JYY131085 KIU131083:KIU131085 KSQ131083:KSQ131085 LCM131083:LCM131085 LMI131083:LMI131085 LWE131083:LWE131085 MGA131083:MGA131085 MPW131083:MPW131085 MZS131083:MZS131085 NJO131083:NJO131085 NTK131083:NTK131085 ODG131083:ODG131085 ONC131083:ONC131085 OWY131083:OWY131085 PGU131083:PGU131085 PQQ131083:PQQ131085 QAM131083:QAM131085 QKI131083:QKI131085 QUE131083:QUE131085 REA131083:REA131085 RNW131083:RNW131085 RXS131083:RXS131085 SHO131083:SHO131085 SRK131083:SRK131085 TBG131083:TBG131085 TLC131083:TLC131085 TUY131083:TUY131085 UEU131083:UEU131085 UOQ131083:UOQ131085 UYM131083:UYM131085 VII131083:VII131085 VSE131083:VSE131085 WCA131083:WCA131085 WLW131083:WLW131085 WVS131083:WVS131085 K196619:K196621 JG196619:JG196621 TC196619:TC196621 ACY196619:ACY196621 AMU196619:AMU196621 AWQ196619:AWQ196621 BGM196619:BGM196621 BQI196619:BQI196621 CAE196619:CAE196621 CKA196619:CKA196621 CTW196619:CTW196621 DDS196619:DDS196621 DNO196619:DNO196621 DXK196619:DXK196621 EHG196619:EHG196621 ERC196619:ERC196621 FAY196619:FAY196621 FKU196619:FKU196621 FUQ196619:FUQ196621 GEM196619:GEM196621 GOI196619:GOI196621 GYE196619:GYE196621 HIA196619:HIA196621 HRW196619:HRW196621 IBS196619:IBS196621 ILO196619:ILO196621 IVK196619:IVK196621 JFG196619:JFG196621 JPC196619:JPC196621 JYY196619:JYY196621 KIU196619:KIU196621 KSQ196619:KSQ196621 LCM196619:LCM196621 LMI196619:LMI196621 LWE196619:LWE196621 MGA196619:MGA196621 MPW196619:MPW196621 MZS196619:MZS196621 NJO196619:NJO196621 NTK196619:NTK196621 ODG196619:ODG196621 ONC196619:ONC196621 OWY196619:OWY196621 PGU196619:PGU196621 PQQ196619:PQQ196621 QAM196619:QAM196621 QKI196619:QKI196621 QUE196619:QUE196621 REA196619:REA196621 RNW196619:RNW196621 RXS196619:RXS196621 SHO196619:SHO196621 SRK196619:SRK196621 TBG196619:TBG196621 TLC196619:TLC196621 TUY196619:TUY196621 UEU196619:UEU196621 UOQ196619:UOQ196621 UYM196619:UYM196621 VII196619:VII196621 VSE196619:VSE196621 WCA196619:WCA196621 WLW196619:WLW196621 WVS196619:WVS196621 K262155:K262157 JG262155:JG262157 TC262155:TC262157 ACY262155:ACY262157 AMU262155:AMU262157 AWQ262155:AWQ262157 BGM262155:BGM262157 BQI262155:BQI262157 CAE262155:CAE262157 CKA262155:CKA262157 CTW262155:CTW262157 DDS262155:DDS262157 DNO262155:DNO262157 DXK262155:DXK262157 EHG262155:EHG262157 ERC262155:ERC262157 FAY262155:FAY262157 FKU262155:FKU262157 FUQ262155:FUQ262157 GEM262155:GEM262157 GOI262155:GOI262157 GYE262155:GYE262157 HIA262155:HIA262157 HRW262155:HRW262157 IBS262155:IBS262157 ILO262155:ILO262157 IVK262155:IVK262157 JFG262155:JFG262157 JPC262155:JPC262157 JYY262155:JYY262157 KIU262155:KIU262157 KSQ262155:KSQ262157 LCM262155:LCM262157 LMI262155:LMI262157 LWE262155:LWE262157 MGA262155:MGA262157 MPW262155:MPW262157 MZS262155:MZS262157 NJO262155:NJO262157 NTK262155:NTK262157 ODG262155:ODG262157 ONC262155:ONC262157 OWY262155:OWY262157 PGU262155:PGU262157 PQQ262155:PQQ262157 QAM262155:QAM262157 QKI262155:QKI262157 QUE262155:QUE262157 REA262155:REA262157 RNW262155:RNW262157 RXS262155:RXS262157 SHO262155:SHO262157 SRK262155:SRK262157 TBG262155:TBG262157 TLC262155:TLC262157 TUY262155:TUY262157 UEU262155:UEU262157 UOQ262155:UOQ262157 UYM262155:UYM262157 VII262155:VII262157 VSE262155:VSE262157 WCA262155:WCA262157 WLW262155:WLW262157 WVS262155:WVS262157 K327691:K327693 JG327691:JG327693 TC327691:TC327693 ACY327691:ACY327693 AMU327691:AMU327693 AWQ327691:AWQ327693 BGM327691:BGM327693 BQI327691:BQI327693 CAE327691:CAE327693 CKA327691:CKA327693 CTW327691:CTW327693 DDS327691:DDS327693 DNO327691:DNO327693 DXK327691:DXK327693 EHG327691:EHG327693 ERC327691:ERC327693 FAY327691:FAY327693 FKU327691:FKU327693 FUQ327691:FUQ327693 GEM327691:GEM327693 GOI327691:GOI327693 GYE327691:GYE327693 HIA327691:HIA327693 HRW327691:HRW327693 IBS327691:IBS327693 ILO327691:ILO327693 IVK327691:IVK327693 JFG327691:JFG327693 JPC327691:JPC327693 JYY327691:JYY327693 KIU327691:KIU327693 KSQ327691:KSQ327693 LCM327691:LCM327693 LMI327691:LMI327693 LWE327691:LWE327693 MGA327691:MGA327693 MPW327691:MPW327693 MZS327691:MZS327693 NJO327691:NJO327693 NTK327691:NTK327693 ODG327691:ODG327693 ONC327691:ONC327693 OWY327691:OWY327693 PGU327691:PGU327693 PQQ327691:PQQ327693 QAM327691:QAM327693 QKI327691:QKI327693 QUE327691:QUE327693 REA327691:REA327693 RNW327691:RNW327693 RXS327691:RXS327693 SHO327691:SHO327693 SRK327691:SRK327693 TBG327691:TBG327693 TLC327691:TLC327693 TUY327691:TUY327693 UEU327691:UEU327693 UOQ327691:UOQ327693 UYM327691:UYM327693 VII327691:VII327693 VSE327691:VSE327693 WCA327691:WCA327693 WLW327691:WLW327693 WVS327691:WVS327693 K393227:K393229 JG393227:JG393229 TC393227:TC393229 ACY393227:ACY393229 AMU393227:AMU393229 AWQ393227:AWQ393229 BGM393227:BGM393229 BQI393227:BQI393229 CAE393227:CAE393229 CKA393227:CKA393229 CTW393227:CTW393229 DDS393227:DDS393229 DNO393227:DNO393229 DXK393227:DXK393229 EHG393227:EHG393229 ERC393227:ERC393229 FAY393227:FAY393229 FKU393227:FKU393229 FUQ393227:FUQ393229 GEM393227:GEM393229 GOI393227:GOI393229 GYE393227:GYE393229 HIA393227:HIA393229 HRW393227:HRW393229 IBS393227:IBS393229 ILO393227:ILO393229 IVK393227:IVK393229 JFG393227:JFG393229 JPC393227:JPC393229 JYY393227:JYY393229 KIU393227:KIU393229 KSQ393227:KSQ393229 LCM393227:LCM393229 LMI393227:LMI393229 LWE393227:LWE393229 MGA393227:MGA393229 MPW393227:MPW393229 MZS393227:MZS393229 NJO393227:NJO393229 NTK393227:NTK393229 ODG393227:ODG393229 ONC393227:ONC393229 OWY393227:OWY393229 PGU393227:PGU393229 PQQ393227:PQQ393229 QAM393227:QAM393229 QKI393227:QKI393229 QUE393227:QUE393229 REA393227:REA393229 RNW393227:RNW393229 RXS393227:RXS393229 SHO393227:SHO393229 SRK393227:SRK393229 TBG393227:TBG393229 TLC393227:TLC393229 TUY393227:TUY393229 UEU393227:UEU393229 UOQ393227:UOQ393229 UYM393227:UYM393229 VII393227:VII393229 VSE393227:VSE393229 WCA393227:WCA393229 WLW393227:WLW393229 WVS393227:WVS393229 K458763:K458765 JG458763:JG458765 TC458763:TC458765 ACY458763:ACY458765 AMU458763:AMU458765 AWQ458763:AWQ458765 BGM458763:BGM458765 BQI458763:BQI458765 CAE458763:CAE458765 CKA458763:CKA458765 CTW458763:CTW458765 DDS458763:DDS458765 DNO458763:DNO458765 DXK458763:DXK458765 EHG458763:EHG458765 ERC458763:ERC458765 FAY458763:FAY458765 FKU458763:FKU458765 FUQ458763:FUQ458765 GEM458763:GEM458765 GOI458763:GOI458765 GYE458763:GYE458765 HIA458763:HIA458765 HRW458763:HRW458765 IBS458763:IBS458765 ILO458763:ILO458765 IVK458763:IVK458765 JFG458763:JFG458765 JPC458763:JPC458765 JYY458763:JYY458765 KIU458763:KIU458765 KSQ458763:KSQ458765 LCM458763:LCM458765 LMI458763:LMI458765 LWE458763:LWE458765 MGA458763:MGA458765 MPW458763:MPW458765 MZS458763:MZS458765 NJO458763:NJO458765 NTK458763:NTK458765 ODG458763:ODG458765 ONC458763:ONC458765 OWY458763:OWY458765 PGU458763:PGU458765 PQQ458763:PQQ458765 QAM458763:QAM458765 QKI458763:QKI458765 QUE458763:QUE458765 REA458763:REA458765 RNW458763:RNW458765 RXS458763:RXS458765 SHO458763:SHO458765 SRK458763:SRK458765 TBG458763:TBG458765 TLC458763:TLC458765 TUY458763:TUY458765 UEU458763:UEU458765 UOQ458763:UOQ458765 UYM458763:UYM458765 VII458763:VII458765 VSE458763:VSE458765 WCA458763:WCA458765 WLW458763:WLW458765 WVS458763:WVS458765 K524299:K524301 JG524299:JG524301 TC524299:TC524301 ACY524299:ACY524301 AMU524299:AMU524301 AWQ524299:AWQ524301 BGM524299:BGM524301 BQI524299:BQI524301 CAE524299:CAE524301 CKA524299:CKA524301 CTW524299:CTW524301 DDS524299:DDS524301 DNO524299:DNO524301 DXK524299:DXK524301 EHG524299:EHG524301 ERC524299:ERC524301 FAY524299:FAY524301 FKU524299:FKU524301 FUQ524299:FUQ524301 GEM524299:GEM524301 GOI524299:GOI524301 GYE524299:GYE524301 HIA524299:HIA524301 HRW524299:HRW524301 IBS524299:IBS524301 ILO524299:ILO524301 IVK524299:IVK524301 JFG524299:JFG524301 JPC524299:JPC524301 JYY524299:JYY524301 KIU524299:KIU524301 KSQ524299:KSQ524301 LCM524299:LCM524301 LMI524299:LMI524301 LWE524299:LWE524301 MGA524299:MGA524301 MPW524299:MPW524301 MZS524299:MZS524301 NJO524299:NJO524301 NTK524299:NTK524301 ODG524299:ODG524301 ONC524299:ONC524301 OWY524299:OWY524301 PGU524299:PGU524301 PQQ524299:PQQ524301 QAM524299:QAM524301 QKI524299:QKI524301 QUE524299:QUE524301 REA524299:REA524301 RNW524299:RNW524301 RXS524299:RXS524301 SHO524299:SHO524301 SRK524299:SRK524301 TBG524299:TBG524301 TLC524299:TLC524301 TUY524299:TUY524301 UEU524299:UEU524301 UOQ524299:UOQ524301 UYM524299:UYM524301 VII524299:VII524301 VSE524299:VSE524301 WCA524299:WCA524301 WLW524299:WLW524301 WVS524299:WVS524301 K589835:K589837 JG589835:JG589837 TC589835:TC589837 ACY589835:ACY589837 AMU589835:AMU589837 AWQ589835:AWQ589837 BGM589835:BGM589837 BQI589835:BQI589837 CAE589835:CAE589837 CKA589835:CKA589837 CTW589835:CTW589837 DDS589835:DDS589837 DNO589835:DNO589837 DXK589835:DXK589837 EHG589835:EHG589837 ERC589835:ERC589837 FAY589835:FAY589837 FKU589835:FKU589837 FUQ589835:FUQ589837 GEM589835:GEM589837 GOI589835:GOI589837 GYE589835:GYE589837 HIA589835:HIA589837 HRW589835:HRW589837 IBS589835:IBS589837 ILO589835:ILO589837 IVK589835:IVK589837 JFG589835:JFG589837 JPC589835:JPC589837 JYY589835:JYY589837 KIU589835:KIU589837 KSQ589835:KSQ589837 LCM589835:LCM589837 LMI589835:LMI589837 LWE589835:LWE589837 MGA589835:MGA589837 MPW589835:MPW589837 MZS589835:MZS589837 NJO589835:NJO589837 NTK589835:NTK589837 ODG589835:ODG589837 ONC589835:ONC589837 OWY589835:OWY589837 PGU589835:PGU589837 PQQ589835:PQQ589837 QAM589835:QAM589837 QKI589835:QKI589837 QUE589835:QUE589837 REA589835:REA589837 RNW589835:RNW589837 RXS589835:RXS589837 SHO589835:SHO589837 SRK589835:SRK589837 TBG589835:TBG589837 TLC589835:TLC589837 TUY589835:TUY589837 UEU589835:UEU589837 UOQ589835:UOQ589837 UYM589835:UYM589837 VII589835:VII589837 VSE589835:VSE589837 WCA589835:WCA589837 WLW589835:WLW589837 WVS589835:WVS589837 K655371:K655373 JG655371:JG655373 TC655371:TC655373 ACY655371:ACY655373 AMU655371:AMU655373 AWQ655371:AWQ655373 BGM655371:BGM655373 BQI655371:BQI655373 CAE655371:CAE655373 CKA655371:CKA655373 CTW655371:CTW655373 DDS655371:DDS655373 DNO655371:DNO655373 DXK655371:DXK655373 EHG655371:EHG655373 ERC655371:ERC655373 FAY655371:FAY655373 FKU655371:FKU655373 FUQ655371:FUQ655373 GEM655371:GEM655373 GOI655371:GOI655373 GYE655371:GYE655373 HIA655371:HIA655373 HRW655371:HRW655373 IBS655371:IBS655373 ILO655371:ILO655373 IVK655371:IVK655373 JFG655371:JFG655373 JPC655371:JPC655373 JYY655371:JYY655373 KIU655371:KIU655373 KSQ655371:KSQ655373 LCM655371:LCM655373 LMI655371:LMI655373 LWE655371:LWE655373 MGA655371:MGA655373 MPW655371:MPW655373 MZS655371:MZS655373 NJO655371:NJO655373 NTK655371:NTK655373 ODG655371:ODG655373 ONC655371:ONC655373 OWY655371:OWY655373 PGU655371:PGU655373 PQQ655371:PQQ655373 QAM655371:QAM655373 QKI655371:QKI655373 QUE655371:QUE655373 REA655371:REA655373 RNW655371:RNW655373 RXS655371:RXS655373 SHO655371:SHO655373 SRK655371:SRK655373 TBG655371:TBG655373 TLC655371:TLC655373 TUY655371:TUY655373 UEU655371:UEU655373 UOQ655371:UOQ655373 UYM655371:UYM655373 VII655371:VII655373 VSE655371:VSE655373 WCA655371:WCA655373 WLW655371:WLW655373 WVS655371:WVS655373 K720907:K720909 JG720907:JG720909 TC720907:TC720909 ACY720907:ACY720909 AMU720907:AMU720909 AWQ720907:AWQ720909 BGM720907:BGM720909 BQI720907:BQI720909 CAE720907:CAE720909 CKA720907:CKA720909 CTW720907:CTW720909 DDS720907:DDS720909 DNO720907:DNO720909 DXK720907:DXK720909 EHG720907:EHG720909 ERC720907:ERC720909 FAY720907:FAY720909 FKU720907:FKU720909 FUQ720907:FUQ720909 GEM720907:GEM720909 GOI720907:GOI720909 GYE720907:GYE720909 HIA720907:HIA720909 HRW720907:HRW720909 IBS720907:IBS720909 ILO720907:ILO720909 IVK720907:IVK720909 JFG720907:JFG720909 JPC720907:JPC720909 JYY720907:JYY720909 KIU720907:KIU720909 KSQ720907:KSQ720909 LCM720907:LCM720909 LMI720907:LMI720909 LWE720907:LWE720909 MGA720907:MGA720909 MPW720907:MPW720909 MZS720907:MZS720909 NJO720907:NJO720909 NTK720907:NTK720909 ODG720907:ODG720909 ONC720907:ONC720909 OWY720907:OWY720909 PGU720907:PGU720909 PQQ720907:PQQ720909 QAM720907:QAM720909 QKI720907:QKI720909 QUE720907:QUE720909 REA720907:REA720909 RNW720907:RNW720909 RXS720907:RXS720909 SHO720907:SHO720909 SRK720907:SRK720909 TBG720907:TBG720909 TLC720907:TLC720909 TUY720907:TUY720909 UEU720907:UEU720909 UOQ720907:UOQ720909 UYM720907:UYM720909 VII720907:VII720909 VSE720907:VSE720909 WCA720907:WCA720909 WLW720907:WLW720909 WVS720907:WVS720909 K786443:K786445 JG786443:JG786445 TC786443:TC786445 ACY786443:ACY786445 AMU786443:AMU786445 AWQ786443:AWQ786445 BGM786443:BGM786445 BQI786443:BQI786445 CAE786443:CAE786445 CKA786443:CKA786445 CTW786443:CTW786445 DDS786443:DDS786445 DNO786443:DNO786445 DXK786443:DXK786445 EHG786443:EHG786445 ERC786443:ERC786445 FAY786443:FAY786445 FKU786443:FKU786445 FUQ786443:FUQ786445 GEM786443:GEM786445 GOI786443:GOI786445 GYE786443:GYE786445 HIA786443:HIA786445 HRW786443:HRW786445 IBS786443:IBS786445 ILO786443:ILO786445 IVK786443:IVK786445 JFG786443:JFG786445 JPC786443:JPC786445 JYY786443:JYY786445 KIU786443:KIU786445 KSQ786443:KSQ786445 LCM786443:LCM786445 LMI786443:LMI786445 LWE786443:LWE786445 MGA786443:MGA786445 MPW786443:MPW786445 MZS786443:MZS786445 NJO786443:NJO786445 NTK786443:NTK786445 ODG786443:ODG786445 ONC786443:ONC786445 OWY786443:OWY786445 PGU786443:PGU786445 PQQ786443:PQQ786445 QAM786443:QAM786445 QKI786443:QKI786445 QUE786443:QUE786445 REA786443:REA786445 RNW786443:RNW786445 RXS786443:RXS786445 SHO786443:SHO786445 SRK786443:SRK786445 TBG786443:TBG786445 TLC786443:TLC786445 TUY786443:TUY786445 UEU786443:UEU786445 UOQ786443:UOQ786445 UYM786443:UYM786445 VII786443:VII786445 VSE786443:VSE786445 WCA786443:WCA786445 WLW786443:WLW786445 WVS786443:WVS786445 K851979:K851981 JG851979:JG851981 TC851979:TC851981 ACY851979:ACY851981 AMU851979:AMU851981 AWQ851979:AWQ851981 BGM851979:BGM851981 BQI851979:BQI851981 CAE851979:CAE851981 CKA851979:CKA851981 CTW851979:CTW851981 DDS851979:DDS851981 DNO851979:DNO851981 DXK851979:DXK851981 EHG851979:EHG851981 ERC851979:ERC851981 FAY851979:FAY851981 FKU851979:FKU851981 FUQ851979:FUQ851981 GEM851979:GEM851981 GOI851979:GOI851981 GYE851979:GYE851981 HIA851979:HIA851981 HRW851979:HRW851981 IBS851979:IBS851981 ILO851979:ILO851981 IVK851979:IVK851981 JFG851979:JFG851981 JPC851979:JPC851981 JYY851979:JYY851981 KIU851979:KIU851981 KSQ851979:KSQ851981 LCM851979:LCM851981 LMI851979:LMI851981 LWE851979:LWE851981 MGA851979:MGA851981 MPW851979:MPW851981 MZS851979:MZS851981 NJO851979:NJO851981 NTK851979:NTK851981 ODG851979:ODG851981 ONC851979:ONC851981 OWY851979:OWY851981 PGU851979:PGU851981 PQQ851979:PQQ851981 QAM851979:QAM851981 QKI851979:QKI851981 QUE851979:QUE851981 REA851979:REA851981 RNW851979:RNW851981 RXS851979:RXS851981 SHO851979:SHO851981 SRK851979:SRK851981 TBG851979:TBG851981 TLC851979:TLC851981 TUY851979:TUY851981 UEU851979:UEU851981 UOQ851979:UOQ851981 UYM851979:UYM851981 VII851979:VII851981 VSE851979:VSE851981 WCA851979:WCA851981 WLW851979:WLW851981 WVS851979:WVS851981 K917515:K917517 JG917515:JG917517 TC917515:TC917517 ACY917515:ACY917517 AMU917515:AMU917517 AWQ917515:AWQ917517 BGM917515:BGM917517 BQI917515:BQI917517 CAE917515:CAE917517 CKA917515:CKA917517 CTW917515:CTW917517 DDS917515:DDS917517 DNO917515:DNO917517 DXK917515:DXK917517 EHG917515:EHG917517 ERC917515:ERC917517 FAY917515:FAY917517 FKU917515:FKU917517 FUQ917515:FUQ917517 GEM917515:GEM917517 GOI917515:GOI917517 GYE917515:GYE917517 HIA917515:HIA917517 HRW917515:HRW917517 IBS917515:IBS917517 ILO917515:ILO917517 IVK917515:IVK917517 JFG917515:JFG917517 JPC917515:JPC917517 JYY917515:JYY917517 KIU917515:KIU917517 KSQ917515:KSQ917517 LCM917515:LCM917517 LMI917515:LMI917517 LWE917515:LWE917517 MGA917515:MGA917517 MPW917515:MPW917517 MZS917515:MZS917517 NJO917515:NJO917517 NTK917515:NTK917517 ODG917515:ODG917517 ONC917515:ONC917517 OWY917515:OWY917517 PGU917515:PGU917517 PQQ917515:PQQ917517 QAM917515:QAM917517 QKI917515:QKI917517 QUE917515:QUE917517 REA917515:REA917517 RNW917515:RNW917517 RXS917515:RXS917517 SHO917515:SHO917517 SRK917515:SRK917517 TBG917515:TBG917517 TLC917515:TLC917517 TUY917515:TUY917517 UEU917515:UEU917517 UOQ917515:UOQ917517 UYM917515:UYM917517 VII917515:VII917517 VSE917515:VSE917517 WCA917515:WCA917517 WLW917515:WLW917517 WVS917515:WVS917517 K983051:K983053 JG983051:JG983053 TC983051:TC983053 ACY983051:ACY983053 AMU983051:AMU983053 AWQ983051:AWQ983053 BGM983051:BGM983053 BQI983051:BQI983053 CAE983051:CAE983053 CKA983051:CKA983053 CTW983051:CTW983053 DDS983051:DDS983053 DNO983051:DNO983053 DXK983051:DXK983053 EHG983051:EHG983053 ERC983051:ERC983053 FAY983051:FAY983053 FKU983051:FKU983053 FUQ983051:FUQ983053 GEM983051:GEM983053 GOI983051:GOI983053 GYE983051:GYE983053 HIA983051:HIA983053 HRW983051:HRW983053 IBS983051:IBS983053 ILO983051:ILO983053 IVK983051:IVK983053 JFG983051:JFG983053 JPC983051:JPC983053 JYY983051:JYY983053 KIU983051:KIU983053 KSQ983051:KSQ983053 LCM983051:LCM983053 LMI983051:LMI983053 LWE983051:LWE983053 MGA983051:MGA983053 MPW983051:MPW983053 MZS983051:MZS983053 NJO983051:NJO983053 NTK983051:NTK983053 ODG983051:ODG983053 ONC983051:ONC983053 OWY983051:OWY983053 PGU983051:PGU983053 PQQ983051:PQQ983053 QAM983051:QAM983053 QKI983051:QKI983053 QUE983051:QUE983053 REA983051:REA983053 RNW983051:RNW983053 RXS983051:RXS983053 SHO983051:SHO983053 SRK983051:SRK983053 TBG983051:TBG983053 TLC983051:TLC983053 TUY983051:TUY983053 UEU983051:UEU983053 UOQ983051:UOQ983053 UYM983051:UYM983053 VII983051:VII983053 VSE983051:VSE983053 WCA983051:WCA983053 WLW983051:WLW983053 WVS983051:WVS983053" xr:uid="{B5231113-F7BF-404F-B160-A3FE81C74A66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K65545:K65547 JG65545:JG65547 TC65545:TC65547 ACY65545:ACY65547 AMU65545:AMU65547 AWQ65545:AWQ65547 BGM65545:BGM65547 BQI65545:BQI65547 CAE65545:CAE65547 CKA65545:CKA65547 CTW65545:CTW65547 DDS65545:DDS65547 DNO65545:DNO65547 DXK65545:DXK65547 EHG65545:EHG65547 ERC65545:ERC65547 FAY65545:FAY65547 FKU65545:FKU65547 FUQ65545:FUQ65547 GEM65545:GEM65547 GOI65545:GOI65547 GYE65545:GYE65547 HIA65545:HIA65547 HRW65545:HRW65547 IBS65545:IBS65547 ILO65545:ILO65547 IVK65545:IVK65547 JFG65545:JFG65547 JPC65545:JPC65547 JYY65545:JYY65547 KIU65545:KIU65547 KSQ65545:KSQ65547 LCM65545:LCM65547 LMI65545:LMI65547 LWE65545:LWE65547 MGA65545:MGA65547 MPW65545:MPW65547 MZS65545:MZS65547 NJO65545:NJO65547 NTK65545:NTK65547 ODG65545:ODG65547 ONC65545:ONC65547 OWY65545:OWY65547 PGU65545:PGU65547 PQQ65545:PQQ65547 QAM65545:QAM65547 QKI65545:QKI65547 QUE65545:QUE65547 REA65545:REA65547 RNW65545:RNW65547 RXS65545:RXS65547 SHO65545:SHO65547 SRK65545:SRK65547 TBG65545:TBG65547 TLC65545:TLC65547 TUY65545:TUY65547 UEU65545:UEU65547 UOQ65545:UOQ65547 UYM65545:UYM65547 VII65545:VII65547 VSE65545:VSE65547 WCA65545:WCA65547 WLW65545:WLW65547 WVS65545:WVS65547 K131081:K131083 JG131081:JG131083 TC131081:TC131083 ACY131081:ACY131083 AMU131081:AMU131083 AWQ131081:AWQ131083 BGM131081:BGM131083 BQI131081:BQI131083 CAE131081:CAE131083 CKA131081:CKA131083 CTW131081:CTW131083 DDS131081:DDS131083 DNO131081:DNO131083 DXK131081:DXK131083 EHG131081:EHG131083 ERC131081:ERC131083 FAY131081:FAY131083 FKU131081:FKU131083 FUQ131081:FUQ131083 GEM131081:GEM131083 GOI131081:GOI131083 GYE131081:GYE131083 HIA131081:HIA131083 HRW131081:HRW131083 IBS131081:IBS131083 ILO131081:ILO131083 IVK131081:IVK131083 JFG131081:JFG131083 JPC131081:JPC131083 JYY131081:JYY131083 KIU131081:KIU131083 KSQ131081:KSQ131083 LCM131081:LCM131083 LMI131081:LMI131083 LWE131081:LWE131083 MGA131081:MGA131083 MPW131081:MPW131083 MZS131081:MZS131083 NJO131081:NJO131083 NTK131081:NTK131083 ODG131081:ODG131083 ONC131081:ONC131083 OWY131081:OWY131083 PGU131081:PGU131083 PQQ131081:PQQ131083 QAM131081:QAM131083 QKI131081:QKI131083 QUE131081:QUE131083 REA131081:REA131083 RNW131081:RNW131083 RXS131081:RXS131083 SHO131081:SHO131083 SRK131081:SRK131083 TBG131081:TBG131083 TLC131081:TLC131083 TUY131081:TUY131083 UEU131081:UEU131083 UOQ131081:UOQ131083 UYM131081:UYM131083 VII131081:VII131083 VSE131081:VSE131083 WCA131081:WCA131083 WLW131081:WLW131083 WVS131081:WVS131083 K196617:K196619 JG196617:JG196619 TC196617:TC196619 ACY196617:ACY196619 AMU196617:AMU196619 AWQ196617:AWQ196619 BGM196617:BGM196619 BQI196617:BQI196619 CAE196617:CAE196619 CKA196617:CKA196619 CTW196617:CTW196619 DDS196617:DDS196619 DNO196617:DNO196619 DXK196617:DXK196619 EHG196617:EHG196619 ERC196617:ERC196619 FAY196617:FAY196619 FKU196617:FKU196619 FUQ196617:FUQ196619 GEM196617:GEM196619 GOI196617:GOI196619 GYE196617:GYE196619 HIA196617:HIA196619 HRW196617:HRW196619 IBS196617:IBS196619 ILO196617:ILO196619 IVK196617:IVK196619 JFG196617:JFG196619 JPC196617:JPC196619 JYY196617:JYY196619 KIU196617:KIU196619 KSQ196617:KSQ196619 LCM196617:LCM196619 LMI196617:LMI196619 LWE196617:LWE196619 MGA196617:MGA196619 MPW196617:MPW196619 MZS196617:MZS196619 NJO196617:NJO196619 NTK196617:NTK196619 ODG196617:ODG196619 ONC196617:ONC196619 OWY196617:OWY196619 PGU196617:PGU196619 PQQ196617:PQQ196619 QAM196617:QAM196619 QKI196617:QKI196619 QUE196617:QUE196619 REA196617:REA196619 RNW196617:RNW196619 RXS196617:RXS196619 SHO196617:SHO196619 SRK196617:SRK196619 TBG196617:TBG196619 TLC196617:TLC196619 TUY196617:TUY196619 UEU196617:UEU196619 UOQ196617:UOQ196619 UYM196617:UYM196619 VII196617:VII196619 VSE196617:VSE196619 WCA196617:WCA196619 WLW196617:WLW196619 WVS196617:WVS196619 K262153:K262155 JG262153:JG262155 TC262153:TC262155 ACY262153:ACY262155 AMU262153:AMU262155 AWQ262153:AWQ262155 BGM262153:BGM262155 BQI262153:BQI262155 CAE262153:CAE262155 CKA262153:CKA262155 CTW262153:CTW262155 DDS262153:DDS262155 DNO262153:DNO262155 DXK262153:DXK262155 EHG262153:EHG262155 ERC262153:ERC262155 FAY262153:FAY262155 FKU262153:FKU262155 FUQ262153:FUQ262155 GEM262153:GEM262155 GOI262153:GOI262155 GYE262153:GYE262155 HIA262153:HIA262155 HRW262153:HRW262155 IBS262153:IBS262155 ILO262153:ILO262155 IVK262153:IVK262155 JFG262153:JFG262155 JPC262153:JPC262155 JYY262153:JYY262155 KIU262153:KIU262155 KSQ262153:KSQ262155 LCM262153:LCM262155 LMI262153:LMI262155 LWE262153:LWE262155 MGA262153:MGA262155 MPW262153:MPW262155 MZS262153:MZS262155 NJO262153:NJO262155 NTK262153:NTK262155 ODG262153:ODG262155 ONC262153:ONC262155 OWY262153:OWY262155 PGU262153:PGU262155 PQQ262153:PQQ262155 QAM262153:QAM262155 QKI262153:QKI262155 QUE262153:QUE262155 REA262153:REA262155 RNW262153:RNW262155 RXS262153:RXS262155 SHO262153:SHO262155 SRK262153:SRK262155 TBG262153:TBG262155 TLC262153:TLC262155 TUY262153:TUY262155 UEU262153:UEU262155 UOQ262153:UOQ262155 UYM262153:UYM262155 VII262153:VII262155 VSE262153:VSE262155 WCA262153:WCA262155 WLW262153:WLW262155 WVS262153:WVS262155 K327689:K327691 JG327689:JG327691 TC327689:TC327691 ACY327689:ACY327691 AMU327689:AMU327691 AWQ327689:AWQ327691 BGM327689:BGM327691 BQI327689:BQI327691 CAE327689:CAE327691 CKA327689:CKA327691 CTW327689:CTW327691 DDS327689:DDS327691 DNO327689:DNO327691 DXK327689:DXK327691 EHG327689:EHG327691 ERC327689:ERC327691 FAY327689:FAY327691 FKU327689:FKU327691 FUQ327689:FUQ327691 GEM327689:GEM327691 GOI327689:GOI327691 GYE327689:GYE327691 HIA327689:HIA327691 HRW327689:HRW327691 IBS327689:IBS327691 ILO327689:ILO327691 IVK327689:IVK327691 JFG327689:JFG327691 JPC327689:JPC327691 JYY327689:JYY327691 KIU327689:KIU327691 KSQ327689:KSQ327691 LCM327689:LCM327691 LMI327689:LMI327691 LWE327689:LWE327691 MGA327689:MGA327691 MPW327689:MPW327691 MZS327689:MZS327691 NJO327689:NJO327691 NTK327689:NTK327691 ODG327689:ODG327691 ONC327689:ONC327691 OWY327689:OWY327691 PGU327689:PGU327691 PQQ327689:PQQ327691 QAM327689:QAM327691 QKI327689:QKI327691 QUE327689:QUE327691 REA327689:REA327691 RNW327689:RNW327691 RXS327689:RXS327691 SHO327689:SHO327691 SRK327689:SRK327691 TBG327689:TBG327691 TLC327689:TLC327691 TUY327689:TUY327691 UEU327689:UEU327691 UOQ327689:UOQ327691 UYM327689:UYM327691 VII327689:VII327691 VSE327689:VSE327691 WCA327689:WCA327691 WLW327689:WLW327691 WVS327689:WVS327691 K393225:K393227 JG393225:JG393227 TC393225:TC393227 ACY393225:ACY393227 AMU393225:AMU393227 AWQ393225:AWQ393227 BGM393225:BGM393227 BQI393225:BQI393227 CAE393225:CAE393227 CKA393225:CKA393227 CTW393225:CTW393227 DDS393225:DDS393227 DNO393225:DNO393227 DXK393225:DXK393227 EHG393225:EHG393227 ERC393225:ERC393227 FAY393225:FAY393227 FKU393225:FKU393227 FUQ393225:FUQ393227 GEM393225:GEM393227 GOI393225:GOI393227 GYE393225:GYE393227 HIA393225:HIA393227 HRW393225:HRW393227 IBS393225:IBS393227 ILO393225:ILO393227 IVK393225:IVK393227 JFG393225:JFG393227 JPC393225:JPC393227 JYY393225:JYY393227 KIU393225:KIU393227 KSQ393225:KSQ393227 LCM393225:LCM393227 LMI393225:LMI393227 LWE393225:LWE393227 MGA393225:MGA393227 MPW393225:MPW393227 MZS393225:MZS393227 NJO393225:NJO393227 NTK393225:NTK393227 ODG393225:ODG393227 ONC393225:ONC393227 OWY393225:OWY393227 PGU393225:PGU393227 PQQ393225:PQQ393227 QAM393225:QAM393227 QKI393225:QKI393227 QUE393225:QUE393227 REA393225:REA393227 RNW393225:RNW393227 RXS393225:RXS393227 SHO393225:SHO393227 SRK393225:SRK393227 TBG393225:TBG393227 TLC393225:TLC393227 TUY393225:TUY393227 UEU393225:UEU393227 UOQ393225:UOQ393227 UYM393225:UYM393227 VII393225:VII393227 VSE393225:VSE393227 WCA393225:WCA393227 WLW393225:WLW393227 WVS393225:WVS393227 K458761:K458763 JG458761:JG458763 TC458761:TC458763 ACY458761:ACY458763 AMU458761:AMU458763 AWQ458761:AWQ458763 BGM458761:BGM458763 BQI458761:BQI458763 CAE458761:CAE458763 CKA458761:CKA458763 CTW458761:CTW458763 DDS458761:DDS458763 DNO458761:DNO458763 DXK458761:DXK458763 EHG458761:EHG458763 ERC458761:ERC458763 FAY458761:FAY458763 FKU458761:FKU458763 FUQ458761:FUQ458763 GEM458761:GEM458763 GOI458761:GOI458763 GYE458761:GYE458763 HIA458761:HIA458763 HRW458761:HRW458763 IBS458761:IBS458763 ILO458761:ILO458763 IVK458761:IVK458763 JFG458761:JFG458763 JPC458761:JPC458763 JYY458761:JYY458763 KIU458761:KIU458763 KSQ458761:KSQ458763 LCM458761:LCM458763 LMI458761:LMI458763 LWE458761:LWE458763 MGA458761:MGA458763 MPW458761:MPW458763 MZS458761:MZS458763 NJO458761:NJO458763 NTK458761:NTK458763 ODG458761:ODG458763 ONC458761:ONC458763 OWY458761:OWY458763 PGU458761:PGU458763 PQQ458761:PQQ458763 QAM458761:QAM458763 QKI458761:QKI458763 QUE458761:QUE458763 REA458761:REA458763 RNW458761:RNW458763 RXS458761:RXS458763 SHO458761:SHO458763 SRK458761:SRK458763 TBG458761:TBG458763 TLC458761:TLC458763 TUY458761:TUY458763 UEU458761:UEU458763 UOQ458761:UOQ458763 UYM458761:UYM458763 VII458761:VII458763 VSE458761:VSE458763 WCA458761:WCA458763 WLW458761:WLW458763 WVS458761:WVS458763 K524297:K524299 JG524297:JG524299 TC524297:TC524299 ACY524297:ACY524299 AMU524297:AMU524299 AWQ524297:AWQ524299 BGM524297:BGM524299 BQI524297:BQI524299 CAE524297:CAE524299 CKA524297:CKA524299 CTW524297:CTW524299 DDS524297:DDS524299 DNO524297:DNO524299 DXK524297:DXK524299 EHG524297:EHG524299 ERC524297:ERC524299 FAY524297:FAY524299 FKU524297:FKU524299 FUQ524297:FUQ524299 GEM524297:GEM524299 GOI524297:GOI524299 GYE524297:GYE524299 HIA524297:HIA524299 HRW524297:HRW524299 IBS524297:IBS524299 ILO524297:ILO524299 IVK524297:IVK524299 JFG524297:JFG524299 JPC524297:JPC524299 JYY524297:JYY524299 KIU524297:KIU524299 KSQ524297:KSQ524299 LCM524297:LCM524299 LMI524297:LMI524299 LWE524297:LWE524299 MGA524297:MGA524299 MPW524297:MPW524299 MZS524297:MZS524299 NJO524297:NJO524299 NTK524297:NTK524299 ODG524297:ODG524299 ONC524297:ONC524299 OWY524297:OWY524299 PGU524297:PGU524299 PQQ524297:PQQ524299 QAM524297:QAM524299 QKI524297:QKI524299 QUE524297:QUE524299 REA524297:REA524299 RNW524297:RNW524299 RXS524297:RXS524299 SHO524297:SHO524299 SRK524297:SRK524299 TBG524297:TBG524299 TLC524297:TLC524299 TUY524297:TUY524299 UEU524297:UEU524299 UOQ524297:UOQ524299 UYM524297:UYM524299 VII524297:VII524299 VSE524297:VSE524299 WCA524297:WCA524299 WLW524297:WLW524299 WVS524297:WVS524299 K589833:K589835 JG589833:JG589835 TC589833:TC589835 ACY589833:ACY589835 AMU589833:AMU589835 AWQ589833:AWQ589835 BGM589833:BGM589835 BQI589833:BQI589835 CAE589833:CAE589835 CKA589833:CKA589835 CTW589833:CTW589835 DDS589833:DDS589835 DNO589833:DNO589835 DXK589833:DXK589835 EHG589833:EHG589835 ERC589833:ERC589835 FAY589833:FAY589835 FKU589833:FKU589835 FUQ589833:FUQ589835 GEM589833:GEM589835 GOI589833:GOI589835 GYE589833:GYE589835 HIA589833:HIA589835 HRW589833:HRW589835 IBS589833:IBS589835 ILO589833:ILO589835 IVK589833:IVK589835 JFG589833:JFG589835 JPC589833:JPC589835 JYY589833:JYY589835 KIU589833:KIU589835 KSQ589833:KSQ589835 LCM589833:LCM589835 LMI589833:LMI589835 LWE589833:LWE589835 MGA589833:MGA589835 MPW589833:MPW589835 MZS589833:MZS589835 NJO589833:NJO589835 NTK589833:NTK589835 ODG589833:ODG589835 ONC589833:ONC589835 OWY589833:OWY589835 PGU589833:PGU589835 PQQ589833:PQQ589835 QAM589833:QAM589835 QKI589833:QKI589835 QUE589833:QUE589835 REA589833:REA589835 RNW589833:RNW589835 RXS589833:RXS589835 SHO589833:SHO589835 SRK589833:SRK589835 TBG589833:TBG589835 TLC589833:TLC589835 TUY589833:TUY589835 UEU589833:UEU589835 UOQ589833:UOQ589835 UYM589833:UYM589835 VII589833:VII589835 VSE589833:VSE589835 WCA589833:WCA589835 WLW589833:WLW589835 WVS589833:WVS589835 K655369:K655371 JG655369:JG655371 TC655369:TC655371 ACY655369:ACY655371 AMU655369:AMU655371 AWQ655369:AWQ655371 BGM655369:BGM655371 BQI655369:BQI655371 CAE655369:CAE655371 CKA655369:CKA655371 CTW655369:CTW655371 DDS655369:DDS655371 DNO655369:DNO655371 DXK655369:DXK655371 EHG655369:EHG655371 ERC655369:ERC655371 FAY655369:FAY655371 FKU655369:FKU655371 FUQ655369:FUQ655371 GEM655369:GEM655371 GOI655369:GOI655371 GYE655369:GYE655371 HIA655369:HIA655371 HRW655369:HRW655371 IBS655369:IBS655371 ILO655369:ILO655371 IVK655369:IVK655371 JFG655369:JFG655371 JPC655369:JPC655371 JYY655369:JYY655371 KIU655369:KIU655371 KSQ655369:KSQ655371 LCM655369:LCM655371 LMI655369:LMI655371 LWE655369:LWE655371 MGA655369:MGA655371 MPW655369:MPW655371 MZS655369:MZS655371 NJO655369:NJO655371 NTK655369:NTK655371 ODG655369:ODG655371 ONC655369:ONC655371 OWY655369:OWY655371 PGU655369:PGU655371 PQQ655369:PQQ655371 QAM655369:QAM655371 QKI655369:QKI655371 QUE655369:QUE655371 REA655369:REA655371 RNW655369:RNW655371 RXS655369:RXS655371 SHO655369:SHO655371 SRK655369:SRK655371 TBG655369:TBG655371 TLC655369:TLC655371 TUY655369:TUY655371 UEU655369:UEU655371 UOQ655369:UOQ655371 UYM655369:UYM655371 VII655369:VII655371 VSE655369:VSE655371 WCA655369:WCA655371 WLW655369:WLW655371 WVS655369:WVS655371 K720905:K720907 JG720905:JG720907 TC720905:TC720907 ACY720905:ACY720907 AMU720905:AMU720907 AWQ720905:AWQ720907 BGM720905:BGM720907 BQI720905:BQI720907 CAE720905:CAE720907 CKA720905:CKA720907 CTW720905:CTW720907 DDS720905:DDS720907 DNO720905:DNO720907 DXK720905:DXK720907 EHG720905:EHG720907 ERC720905:ERC720907 FAY720905:FAY720907 FKU720905:FKU720907 FUQ720905:FUQ720907 GEM720905:GEM720907 GOI720905:GOI720907 GYE720905:GYE720907 HIA720905:HIA720907 HRW720905:HRW720907 IBS720905:IBS720907 ILO720905:ILO720907 IVK720905:IVK720907 JFG720905:JFG720907 JPC720905:JPC720907 JYY720905:JYY720907 KIU720905:KIU720907 KSQ720905:KSQ720907 LCM720905:LCM720907 LMI720905:LMI720907 LWE720905:LWE720907 MGA720905:MGA720907 MPW720905:MPW720907 MZS720905:MZS720907 NJO720905:NJO720907 NTK720905:NTK720907 ODG720905:ODG720907 ONC720905:ONC720907 OWY720905:OWY720907 PGU720905:PGU720907 PQQ720905:PQQ720907 QAM720905:QAM720907 QKI720905:QKI720907 QUE720905:QUE720907 REA720905:REA720907 RNW720905:RNW720907 RXS720905:RXS720907 SHO720905:SHO720907 SRK720905:SRK720907 TBG720905:TBG720907 TLC720905:TLC720907 TUY720905:TUY720907 UEU720905:UEU720907 UOQ720905:UOQ720907 UYM720905:UYM720907 VII720905:VII720907 VSE720905:VSE720907 WCA720905:WCA720907 WLW720905:WLW720907 WVS720905:WVS720907 K786441:K786443 JG786441:JG786443 TC786441:TC786443 ACY786441:ACY786443 AMU786441:AMU786443 AWQ786441:AWQ786443 BGM786441:BGM786443 BQI786441:BQI786443 CAE786441:CAE786443 CKA786441:CKA786443 CTW786441:CTW786443 DDS786441:DDS786443 DNO786441:DNO786443 DXK786441:DXK786443 EHG786441:EHG786443 ERC786441:ERC786443 FAY786441:FAY786443 FKU786441:FKU786443 FUQ786441:FUQ786443 GEM786441:GEM786443 GOI786441:GOI786443 GYE786441:GYE786443 HIA786441:HIA786443 HRW786441:HRW786443 IBS786441:IBS786443 ILO786441:ILO786443 IVK786441:IVK786443 JFG786441:JFG786443 JPC786441:JPC786443 JYY786441:JYY786443 KIU786441:KIU786443 KSQ786441:KSQ786443 LCM786441:LCM786443 LMI786441:LMI786443 LWE786441:LWE786443 MGA786441:MGA786443 MPW786441:MPW786443 MZS786441:MZS786443 NJO786441:NJO786443 NTK786441:NTK786443 ODG786441:ODG786443 ONC786441:ONC786443 OWY786441:OWY786443 PGU786441:PGU786443 PQQ786441:PQQ786443 QAM786441:QAM786443 QKI786441:QKI786443 QUE786441:QUE786443 REA786441:REA786443 RNW786441:RNW786443 RXS786441:RXS786443 SHO786441:SHO786443 SRK786441:SRK786443 TBG786441:TBG786443 TLC786441:TLC786443 TUY786441:TUY786443 UEU786441:UEU786443 UOQ786441:UOQ786443 UYM786441:UYM786443 VII786441:VII786443 VSE786441:VSE786443 WCA786441:WCA786443 WLW786441:WLW786443 WVS786441:WVS786443 K851977:K851979 JG851977:JG851979 TC851977:TC851979 ACY851977:ACY851979 AMU851977:AMU851979 AWQ851977:AWQ851979 BGM851977:BGM851979 BQI851977:BQI851979 CAE851977:CAE851979 CKA851977:CKA851979 CTW851977:CTW851979 DDS851977:DDS851979 DNO851977:DNO851979 DXK851977:DXK851979 EHG851977:EHG851979 ERC851977:ERC851979 FAY851977:FAY851979 FKU851977:FKU851979 FUQ851977:FUQ851979 GEM851977:GEM851979 GOI851977:GOI851979 GYE851977:GYE851979 HIA851977:HIA851979 HRW851977:HRW851979 IBS851977:IBS851979 ILO851977:ILO851979 IVK851977:IVK851979 JFG851977:JFG851979 JPC851977:JPC851979 JYY851977:JYY851979 KIU851977:KIU851979 KSQ851977:KSQ851979 LCM851977:LCM851979 LMI851977:LMI851979 LWE851977:LWE851979 MGA851977:MGA851979 MPW851977:MPW851979 MZS851977:MZS851979 NJO851977:NJO851979 NTK851977:NTK851979 ODG851977:ODG851979 ONC851977:ONC851979 OWY851977:OWY851979 PGU851977:PGU851979 PQQ851977:PQQ851979 QAM851977:QAM851979 QKI851977:QKI851979 QUE851977:QUE851979 REA851977:REA851979 RNW851977:RNW851979 RXS851977:RXS851979 SHO851977:SHO851979 SRK851977:SRK851979 TBG851977:TBG851979 TLC851977:TLC851979 TUY851977:TUY851979 UEU851977:UEU851979 UOQ851977:UOQ851979 UYM851977:UYM851979 VII851977:VII851979 VSE851977:VSE851979 WCA851977:WCA851979 WLW851977:WLW851979 WVS851977:WVS851979 K917513:K917515 JG917513:JG917515 TC917513:TC917515 ACY917513:ACY917515 AMU917513:AMU917515 AWQ917513:AWQ917515 BGM917513:BGM917515 BQI917513:BQI917515 CAE917513:CAE917515 CKA917513:CKA917515 CTW917513:CTW917515 DDS917513:DDS917515 DNO917513:DNO917515 DXK917513:DXK917515 EHG917513:EHG917515 ERC917513:ERC917515 FAY917513:FAY917515 FKU917513:FKU917515 FUQ917513:FUQ917515 GEM917513:GEM917515 GOI917513:GOI917515 GYE917513:GYE917515 HIA917513:HIA917515 HRW917513:HRW917515 IBS917513:IBS917515 ILO917513:ILO917515 IVK917513:IVK917515 JFG917513:JFG917515 JPC917513:JPC917515 JYY917513:JYY917515 KIU917513:KIU917515 KSQ917513:KSQ917515 LCM917513:LCM917515 LMI917513:LMI917515 LWE917513:LWE917515 MGA917513:MGA917515 MPW917513:MPW917515 MZS917513:MZS917515 NJO917513:NJO917515 NTK917513:NTK917515 ODG917513:ODG917515 ONC917513:ONC917515 OWY917513:OWY917515 PGU917513:PGU917515 PQQ917513:PQQ917515 QAM917513:QAM917515 QKI917513:QKI917515 QUE917513:QUE917515 REA917513:REA917515 RNW917513:RNW917515 RXS917513:RXS917515 SHO917513:SHO917515 SRK917513:SRK917515 TBG917513:TBG917515 TLC917513:TLC917515 TUY917513:TUY917515 UEU917513:UEU917515 UOQ917513:UOQ917515 UYM917513:UYM917515 VII917513:VII917515 VSE917513:VSE917515 WCA917513:WCA917515 WLW917513:WLW917515 WVS917513:WVS917515 K983049:K983051 JG983049:JG983051 TC983049:TC983051 ACY983049:ACY983051 AMU983049:AMU983051 AWQ983049:AWQ983051 BGM983049:BGM983051 BQI983049:BQI983051 CAE983049:CAE983051 CKA983049:CKA983051 CTW983049:CTW983051 DDS983049:DDS983051 DNO983049:DNO983051 DXK983049:DXK983051 EHG983049:EHG983051 ERC983049:ERC983051 FAY983049:FAY983051 FKU983049:FKU983051 FUQ983049:FUQ983051 GEM983049:GEM983051 GOI983049:GOI983051 GYE983049:GYE983051 HIA983049:HIA983051 HRW983049:HRW983051 IBS983049:IBS983051 ILO983049:ILO983051 IVK983049:IVK983051 JFG983049:JFG983051 JPC983049:JPC983051 JYY983049:JYY983051 KIU983049:KIU983051 KSQ983049:KSQ983051 LCM983049:LCM983051 LMI983049:LMI983051 LWE983049:LWE983051 MGA983049:MGA983051 MPW983049:MPW983051 MZS983049:MZS983051 NJO983049:NJO983051 NTK983049:NTK983051 ODG983049:ODG983051 ONC983049:ONC983051 OWY983049:OWY983051 PGU983049:PGU983051 PQQ983049:PQQ983051 QAM983049:QAM983051 QKI983049:QKI983051 QUE983049:QUE983051 REA983049:REA983051 RNW983049:RNW983051 RXS983049:RXS983051 SHO983049:SHO983051 SRK983049:SRK983051 TBG983049:TBG983051 TLC983049:TLC983051 TUY983049:TUY983051 UEU983049:UEU983051 UOQ983049:UOQ983051 UYM983049:UYM983051 VII983049:VII983051 VSE983049:VSE983051 WCA983049:WCA983051 WLW983049:WLW983051 WVS983049:WVS983051 K11:K14 JG11:JG14 TC11:TC14 ACY11:ACY14 AMU11:AMU14 AWQ11:AWQ14 BGM11:BGM14 BQI11:BQI14 CAE11:CAE14 CKA11:CKA14 CTW11:CTW14 DDS11:DDS14 DNO11:DNO14 DXK11:DXK14 EHG11:EHG14 ERC11:ERC14 FAY11:FAY14 FKU11:FKU14 FUQ11:FUQ14 GEM11:GEM14 GOI11:GOI14 GYE11:GYE14 HIA11:HIA14 HRW11:HRW14 IBS11:IBS14 ILO11:ILO14 IVK11:IVK14 JFG11:JFG14 JPC11:JPC14 JYY11:JYY14 KIU11:KIU14 KSQ11:KSQ14 LCM11:LCM14 LMI11:LMI14 LWE11:LWE14 MGA11:MGA14 MPW11:MPW14 MZS11:MZS14 NJO11:NJO14 NTK11:NTK14 ODG11:ODG14 ONC11:ONC14 OWY11:OWY14 PGU11:PGU14 PQQ11:PQQ14 QAM11:QAM14 QKI11:QKI14 QUE11:QUE14 REA11:REA14 RNW11:RNW14 RXS11:RXS14 SHO11:SHO14 SRK11:SRK14 TBG11:TBG14 TLC11:TLC14 TUY11:TUY14 UEU11:UEU14 UOQ11:UOQ14 UYM11:UYM14 VII11:VII14 VSE11:VSE14 WCA11:WCA14 WLW11:WLW14 WVS11:WVS14" xr:uid="{B5231113-F7BF-404F-B160-A3FE81C74A66}">
       <formula1 xml:space="preserve"> Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO983051:WVO983053 JC11:JC16 SY11:SY16 ACU11:ACU16 AMQ11:AMQ16 AWM11:AWM16 BGI11:BGI16 BQE11:BQE16 CAA11:CAA16 CJW11:CJW16 CTS11:CTS16 DDO11:DDO16 DNK11:DNK16 DXG11:DXG16 EHC11:EHC16 EQY11:EQY16 FAU11:FAU16 FKQ11:FKQ16 FUM11:FUM16 GEI11:GEI16 GOE11:GOE16 GYA11:GYA16 HHW11:HHW16 HRS11:HRS16 IBO11:IBO16 ILK11:ILK16 IVG11:IVG16 JFC11:JFC16 JOY11:JOY16 JYU11:JYU16 KIQ11:KIQ16 KSM11:KSM16 LCI11:LCI16 LME11:LME16 LWA11:LWA16 MFW11:MFW16 MPS11:MPS16 MZO11:MZO16 NJK11:NJK16 NTG11:NTG16 ODC11:ODC16 OMY11:OMY16 OWU11:OWU16 PGQ11:PGQ16 PQM11:PQM16 QAI11:QAI16 QKE11:QKE16 QUA11:QUA16 RDW11:RDW16 RNS11:RNS16 RXO11:RXO16 SHK11:SHK16 SRG11:SRG16 TBC11:TBC16 TKY11:TKY16 TUU11:TUU16 UEQ11:UEQ16 UOM11:UOM16 UYI11:UYI16 VIE11:VIE16 VSA11:VSA16 WBW11:WBW16 WLS11:WLS16 WVO11:WVO16 G65547:G65549 JC65547:JC65549 SY65547:SY65549 ACU65547:ACU65549 AMQ65547:AMQ65549 AWM65547:AWM65549 BGI65547:BGI65549 BQE65547:BQE65549 CAA65547:CAA65549 CJW65547:CJW65549 CTS65547:CTS65549 DDO65547:DDO65549 DNK65547:DNK65549 DXG65547:DXG65549 EHC65547:EHC65549 EQY65547:EQY65549 FAU65547:FAU65549 FKQ65547:FKQ65549 FUM65547:FUM65549 GEI65547:GEI65549 GOE65547:GOE65549 GYA65547:GYA65549 HHW65547:HHW65549 HRS65547:HRS65549 IBO65547:IBO65549 ILK65547:ILK65549 IVG65547:IVG65549 JFC65547:JFC65549 JOY65547:JOY65549 JYU65547:JYU65549 KIQ65547:KIQ65549 KSM65547:KSM65549 LCI65547:LCI65549 LME65547:LME65549 LWA65547:LWA65549 MFW65547:MFW65549 MPS65547:MPS65549 MZO65547:MZO65549 NJK65547:NJK65549 NTG65547:NTG65549 ODC65547:ODC65549 OMY65547:OMY65549 OWU65547:OWU65549 PGQ65547:PGQ65549 PQM65547:PQM65549 QAI65547:QAI65549 QKE65547:QKE65549 QUA65547:QUA65549 RDW65547:RDW65549 RNS65547:RNS65549 RXO65547:RXO65549 SHK65547:SHK65549 SRG65547:SRG65549 TBC65547:TBC65549 TKY65547:TKY65549 TUU65547:TUU65549 UEQ65547:UEQ65549 UOM65547:UOM65549 UYI65547:UYI65549 VIE65547:VIE65549 VSA65547:VSA65549 WBW65547:WBW65549 WLS65547:WLS65549 WVO65547:WVO65549 G131083:G131085 JC131083:JC131085 SY131083:SY131085 ACU131083:ACU131085 AMQ131083:AMQ131085 AWM131083:AWM131085 BGI131083:BGI131085 BQE131083:BQE131085 CAA131083:CAA131085 CJW131083:CJW131085 CTS131083:CTS131085 DDO131083:DDO131085 DNK131083:DNK131085 DXG131083:DXG131085 EHC131083:EHC131085 EQY131083:EQY131085 FAU131083:FAU131085 FKQ131083:FKQ131085 FUM131083:FUM131085 GEI131083:GEI131085 GOE131083:GOE131085 GYA131083:GYA131085 HHW131083:HHW131085 HRS131083:HRS131085 IBO131083:IBO131085 ILK131083:ILK131085 IVG131083:IVG131085 JFC131083:JFC131085 JOY131083:JOY131085 JYU131083:JYU131085 KIQ131083:KIQ131085 KSM131083:KSM131085 LCI131083:LCI131085 LME131083:LME131085 LWA131083:LWA131085 MFW131083:MFW131085 MPS131083:MPS131085 MZO131083:MZO131085 NJK131083:NJK131085 NTG131083:NTG131085 ODC131083:ODC131085 OMY131083:OMY131085 OWU131083:OWU131085 PGQ131083:PGQ131085 PQM131083:PQM131085 QAI131083:QAI131085 QKE131083:QKE131085 QUA131083:QUA131085 RDW131083:RDW131085 RNS131083:RNS131085 RXO131083:RXO131085 SHK131083:SHK131085 SRG131083:SRG131085 TBC131083:TBC131085 TKY131083:TKY131085 TUU131083:TUU131085 UEQ131083:UEQ131085 UOM131083:UOM131085 UYI131083:UYI131085 VIE131083:VIE131085 VSA131083:VSA131085 WBW131083:WBW131085 WLS131083:WLS131085 WVO131083:WVO131085 G196619:G196621 JC196619:JC196621 SY196619:SY196621 ACU196619:ACU196621 AMQ196619:AMQ196621 AWM196619:AWM196621 BGI196619:BGI196621 BQE196619:BQE196621 CAA196619:CAA196621 CJW196619:CJW196621 CTS196619:CTS196621 DDO196619:DDO196621 DNK196619:DNK196621 DXG196619:DXG196621 EHC196619:EHC196621 EQY196619:EQY196621 FAU196619:FAU196621 FKQ196619:FKQ196621 FUM196619:FUM196621 GEI196619:GEI196621 GOE196619:GOE196621 GYA196619:GYA196621 HHW196619:HHW196621 HRS196619:HRS196621 IBO196619:IBO196621 ILK196619:ILK196621 IVG196619:IVG196621 JFC196619:JFC196621 JOY196619:JOY196621 JYU196619:JYU196621 KIQ196619:KIQ196621 KSM196619:KSM196621 LCI196619:LCI196621 LME196619:LME196621 LWA196619:LWA196621 MFW196619:MFW196621 MPS196619:MPS196621 MZO196619:MZO196621 NJK196619:NJK196621 NTG196619:NTG196621 ODC196619:ODC196621 OMY196619:OMY196621 OWU196619:OWU196621 PGQ196619:PGQ196621 PQM196619:PQM196621 QAI196619:QAI196621 QKE196619:QKE196621 QUA196619:QUA196621 RDW196619:RDW196621 RNS196619:RNS196621 RXO196619:RXO196621 SHK196619:SHK196621 SRG196619:SRG196621 TBC196619:TBC196621 TKY196619:TKY196621 TUU196619:TUU196621 UEQ196619:UEQ196621 UOM196619:UOM196621 UYI196619:UYI196621 VIE196619:VIE196621 VSA196619:VSA196621 WBW196619:WBW196621 WLS196619:WLS196621 WVO196619:WVO196621 G262155:G262157 JC262155:JC262157 SY262155:SY262157 ACU262155:ACU262157 AMQ262155:AMQ262157 AWM262155:AWM262157 BGI262155:BGI262157 BQE262155:BQE262157 CAA262155:CAA262157 CJW262155:CJW262157 CTS262155:CTS262157 DDO262155:DDO262157 DNK262155:DNK262157 DXG262155:DXG262157 EHC262155:EHC262157 EQY262155:EQY262157 FAU262155:FAU262157 FKQ262155:FKQ262157 FUM262155:FUM262157 GEI262155:GEI262157 GOE262155:GOE262157 GYA262155:GYA262157 HHW262155:HHW262157 HRS262155:HRS262157 IBO262155:IBO262157 ILK262155:ILK262157 IVG262155:IVG262157 JFC262155:JFC262157 JOY262155:JOY262157 JYU262155:JYU262157 KIQ262155:KIQ262157 KSM262155:KSM262157 LCI262155:LCI262157 LME262155:LME262157 LWA262155:LWA262157 MFW262155:MFW262157 MPS262155:MPS262157 MZO262155:MZO262157 NJK262155:NJK262157 NTG262155:NTG262157 ODC262155:ODC262157 OMY262155:OMY262157 OWU262155:OWU262157 PGQ262155:PGQ262157 PQM262155:PQM262157 QAI262155:QAI262157 QKE262155:QKE262157 QUA262155:QUA262157 RDW262155:RDW262157 RNS262155:RNS262157 RXO262155:RXO262157 SHK262155:SHK262157 SRG262155:SRG262157 TBC262155:TBC262157 TKY262155:TKY262157 TUU262155:TUU262157 UEQ262155:UEQ262157 UOM262155:UOM262157 UYI262155:UYI262157 VIE262155:VIE262157 VSA262155:VSA262157 WBW262155:WBW262157 WLS262155:WLS262157 WVO262155:WVO262157 G327691:G327693 JC327691:JC327693 SY327691:SY327693 ACU327691:ACU327693 AMQ327691:AMQ327693 AWM327691:AWM327693 BGI327691:BGI327693 BQE327691:BQE327693 CAA327691:CAA327693 CJW327691:CJW327693 CTS327691:CTS327693 DDO327691:DDO327693 DNK327691:DNK327693 DXG327691:DXG327693 EHC327691:EHC327693 EQY327691:EQY327693 FAU327691:FAU327693 FKQ327691:FKQ327693 FUM327691:FUM327693 GEI327691:GEI327693 GOE327691:GOE327693 GYA327691:GYA327693 HHW327691:HHW327693 HRS327691:HRS327693 IBO327691:IBO327693 ILK327691:ILK327693 IVG327691:IVG327693 JFC327691:JFC327693 JOY327691:JOY327693 JYU327691:JYU327693 KIQ327691:KIQ327693 KSM327691:KSM327693 LCI327691:LCI327693 LME327691:LME327693 LWA327691:LWA327693 MFW327691:MFW327693 MPS327691:MPS327693 MZO327691:MZO327693 NJK327691:NJK327693 NTG327691:NTG327693 ODC327691:ODC327693 OMY327691:OMY327693 OWU327691:OWU327693 PGQ327691:PGQ327693 PQM327691:PQM327693 QAI327691:QAI327693 QKE327691:QKE327693 QUA327691:QUA327693 RDW327691:RDW327693 RNS327691:RNS327693 RXO327691:RXO327693 SHK327691:SHK327693 SRG327691:SRG327693 TBC327691:TBC327693 TKY327691:TKY327693 TUU327691:TUU327693 UEQ327691:UEQ327693 UOM327691:UOM327693 UYI327691:UYI327693 VIE327691:VIE327693 VSA327691:VSA327693 WBW327691:WBW327693 WLS327691:WLS327693 WVO327691:WVO327693 G393227:G393229 JC393227:JC393229 SY393227:SY393229 ACU393227:ACU393229 AMQ393227:AMQ393229 AWM393227:AWM393229 BGI393227:BGI393229 BQE393227:BQE393229 CAA393227:CAA393229 CJW393227:CJW393229 CTS393227:CTS393229 DDO393227:DDO393229 DNK393227:DNK393229 DXG393227:DXG393229 EHC393227:EHC393229 EQY393227:EQY393229 FAU393227:FAU393229 FKQ393227:FKQ393229 FUM393227:FUM393229 GEI393227:GEI393229 GOE393227:GOE393229 GYA393227:GYA393229 HHW393227:HHW393229 HRS393227:HRS393229 IBO393227:IBO393229 ILK393227:ILK393229 IVG393227:IVG393229 JFC393227:JFC393229 JOY393227:JOY393229 JYU393227:JYU393229 KIQ393227:KIQ393229 KSM393227:KSM393229 LCI393227:LCI393229 LME393227:LME393229 LWA393227:LWA393229 MFW393227:MFW393229 MPS393227:MPS393229 MZO393227:MZO393229 NJK393227:NJK393229 NTG393227:NTG393229 ODC393227:ODC393229 OMY393227:OMY393229 OWU393227:OWU393229 PGQ393227:PGQ393229 PQM393227:PQM393229 QAI393227:QAI393229 QKE393227:QKE393229 QUA393227:QUA393229 RDW393227:RDW393229 RNS393227:RNS393229 RXO393227:RXO393229 SHK393227:SHK393229 SRG393227:SRG393229 TBC393227:TBC393229 TKY393227:TKY393229 TUU393227:TUU393229 UEQ393227:UEQ393229 UOM393227:UOM393229 UYI393227:UYI393229 VIE393227:VIE393229 VSA393227:VSA393229 WBW393227:WBW393229 WLS393227:WLS393229 WVO393227:WVO393229 G458763:G458765 JC458763:JC458765 SY458763:SY458765 ACU458763:ACU458765 AMQ458763:AMQ458765 AWM458763:AWM458765 BGI458763:BGI458765 BQE458763:BQE458765 CAA458763:CAA458765 CJW458763:CJW458765 CTS458763:CTS458765 DDO458763:DDO458765 DNK458763:DNK458765 DXG458763:DXG458765 EHC458763:EHC458765 EQY458763:EQY458765 FAU458763:FAU458765 FKQ458763:FKQ458765 FUM458763:FUM458765 GEI458763:GEI458765 GOE458763:GOE458765 GYA458763:GYA458765 HHW458763:HHW458765 HRS458763:HRS458765 IBO458763:IBO458765 ILK458763:ILK458765 IVG458763:IVG458765 JFC458763:JFC458765 JOY458763:JOY458765 JYU458763:JYU458765 KIQ458763:KIQ458765 KSM458763:KSM458765 LCI458763:LCI458765 LME458763:LME458765 LWA458763:LWA458765 MFW458763:MFW458765 MPS458763:MPS458765 MZO458763:MZO458765 NJK458763:NJK458765 NTG458763:NTG458765 ODC458763:ODC458765 OMY458763:OMY458765 OWU458763:OWU458765 PGQ458763:PGQ458765 PQM458763:PQM458765 QAI458763:QAI458765 QKE458763:QKE458765 QUA458763:QUA458765 RDW458763:RDW458765 RNS458763:RNS458765 RXO458763:RXO458765 SHK458763:SHK458765 SRG458763:SRG458765 TBC458763:TBC458765 TKY458763:TKY458765 TUU458763:TUU458765 UEQ458763:UEQ458765 UOM458763:UOM458765 UYI458763:UYI458765 VIE458763:VIE458765 VSA458763:VSA458765 WBW458763:WBW458765 WLS458763:WLS458765 WVO458763:WVO458765 G524299:G524301 JC524299:JC524301 SY524299:SY524301 ACU524299:ACU524301 AMQ524299:AMQ524301 AWM524299:AWM524301 BGI524299:BGI524301 BQE524299:BQE524301 CAA524299:CAA524301 CJW524299:CJW524301 CTS524299:CTS524301 DDO524299:DDO524301 DNK524299:DNK524301 DXG524299:DXG524301 EHC524299:EHC524301 EQY524299:EQY524301 FAU524299:FAU524301 FKQ524299:FKQ524301 FUM524299:FUM524301 GEI524299:GEI524301 GOE524299:GOE524301 GYA524299:GYA524301 HHW524299:HHW524301 HRS524299:HRS524301 IBO524299:IBO524301 ILK524299:ILK524301 IVG524299:IVG524301 JFC524299:JFC524301 JOY524299:JOY524301 JYU524299:JYU524301 KIQ524299:KIQ524301 KSM524299:KSM524301 LCI524299:LCI524301 LME524299:LME524301 LWA524299:LWA524301 MFW524299:MFW524301 MPS524299:MPS524301 MZO524299:MZO524301 NJK524299:NJK524301 NTG524299:NTG524301 ODC524299:ODC524301 OMY524299:OMY524301 OWU524299:OWU524301 PGQ524299:PGQ524301 PQM524299:PQM524301 QAI524299:QAI524301 QKE524299:QKE524301 QUA524299:QUA524301 RDW524299:RDW524301 RNS524299:RNS524301 RXO524299:RXO524301 SHK524299:SHK524301 SRG524299:SRG524301 TBC524299:TBC524301 TKY524299:TKY524301 TUU524299:TUU524301 UEQ524299:UEQ524301 UOM524299:UOM524301 UYI524299:UYI524301 VIE524299:VIE524301 VSA524299:VSA524301 WBW524299:WBW524301 WLS524299:WLS524301 WVO524299:WVO524301 G589835:G589837 JC589835:JC589837 SY589835:SY589837 ACU589835:ACU589837 AMQ589835:AMQ589837 AWM589835:AWM589837 BGI589835:BGI589837 BQE589835:BQE589837 CAA589835:CAA589837 CJW589835:CJW589837 CTS589835:CTS589837 DDO589835:DDO589837 DNK589835:DNK589837 DXG589835:DXG589837 EHC589835:EHC589837 EQY589835:EQY589837 FAU589835:FAU589837 FKQ589835:FKQ589837 FUM589835:FUM589837 GEI589835:GEI589837 GOE589835:GOE589837 GYA589835:GYA589837 HHW589835:HHW589837 HRS589835:HRS589837 IBO589835:IBO589837 ILK589835:ILK589837 IVG589835:IVG589837 JFC589835:JFC589837 JOY589835:JOY589837 JYU589835:JYU589837 KIQ589835:KIQ589837 KSM589835:KSM589837 LCI589835:LCI589837 LME589835:LME589837 LWA589835:LWA589837 MFW589835:MFW589837 MPS589835:MPS589837 MZO589835:MZO589837 NJK589835:NJK589837 NTG589835:NTG589837 ODC589835:ODC589837 OMY589835:OMY589837 OWU589835:OWU589837 PGQ589835:PGQ589837 PQM589835:PQM589837 QAI589835:QAI589837 QKE589835:QKE589837 QUA589835:QUA589837 RDW589835:RDW589837 RNS589835:RNS589837 RXO589835:RXO589837 SHK589835:SHK589837 SRG589835:SRG589837 TBC589835:TBC589837 TKY589835:TKY589837 TUU589835:TUU589837 UEQ589835:UEQ589837 UOM589835:UOM589837 UYI589835:UYI589837 VIE589835:VIE589837 VSA589835:VSA589837 WBW589835:WBW589837 WLS589835:WLS589837 WVO589835:WVO589837 G655371:G655373 JC655371:JC655373 SY655371:SY655373 ACU655371:ACU655373 AMQ655371:AMQ655373 AWM655371:AWM655373 BGI655371:BGI655373 BQE655371:BQE655373 CAA655371:CAA655373 CJW655371:CJW655373 CTS655371:CTS655373 DDO655371:DDO655373 DNK655371:DNK655373 DXG655371:DXG655373 EHC655371:EHC655373 EQY655371:EQY655373 FAU655371:FAU655373 FKQ655371:FKQ655373 FUM655371:FUM655373 GEI655371:GEI655373 GOE655371:GOE655373 GYA655371:GYA655373 HHW655371:HHW655373 HRS655371:HRS655373 IBO655371:IBO655373 ILK655371:ILK655373 IVG655371:IVG655373 JFC655371:JFC655373 JOY655371:JOY655373 JYU655371:JYU655373 KIQ655371:KIQ655373 KSM655371:KSM655373 LCI655371:LCI655373 LME655371:LME655373 LWA655371:LWA655373 MFW655371:MFW655373 MPS655371:MPS655373 MZO655371:MZO655373 NJK655371:NJK655373 NTG655371:NTG655373 ODC655371:ODC655373 OMY655371:OMY655373 OWU655371:OWU655373 PGQ655371:PGQ655373 PQM655371:PQM655373 QAI655371:QAI655373 QKE655371:QKE655373 QUA655371:QUA655373 RDW655371:RDW655373 RNS655371:RNS655373 RXO655371:RXO655373 SHK655371:SHK655373 SRG655371:SRG655373 TBC655371:TBC655373 TKY655371:TKY655373 TUU655371:TUU655373 UEQ655371:UEQ655373 UOM655371:UOM655373 UYI655371:UYI655373 VIE655371:VIE655373 VSA655371:VSA655373 WBW655371:WBW655373 WLS655371:WLS655373 WVO655371:WVO655373 G720907:G720909 JC720907:JC720909 SY720907:SY720909 ACU720907:ACU720909 AMQ720907:AMQ720909 AWM720907:AWM720909 BGI720907:BGI720909 BQE720907:BQE720909 CAA720907:CAA720909 CJW720907:CJW720909 CTS720907:CTS720909 DDO720907:DDO720909 DNK720907:DNK720909 DXG720907:DXG720909 EHC720907:EHC720909 EQY720907:EQY720909 FAU720907:FAU720909 FKQ720907:FKQ720909 FUM720907:FUM720909 GEI720907:GEI720909 GOE720907:GOE720909 GYA720907:GYA720909 HHW720907:HHW720909 HRS720907:HRS720909 IBO720907:IBO720909 ILK720907:ILK720909 IVG720907:IVG720909 JFC720907:JFC720909 JOY720907:JOY720909 JYU720907:JYU720909 KIQ720907:KIQ720909 KSM720907:KSM720909 LCI720907:LCI720909 LME720907:LME720909 LWA720907:LWA720909 MFW720907:MFW720909 MPS720907:MPS720909 MZO720907:MZO720909 NJK720907:NJK720909 NTG720907:NTG720909 ODC720907:ODC720909 OMY720907:OMY720909 OWU720907:OWU720909 PGQ720907:PGQ720909 PQM720907:PQM720909 QAI720907:QAI720909 QKE720907:QKE720909 QUA720907:QUA720909 RDW720907:RDW720909 RNS720907:RNS720909 RXO720907:RXO720909 SHK720907:SHK720909 SRG720907:SRG720909 TBC720907:TBC720909 TKY720907:TKY720909 TUU720907:TUU720909 UEQ720907:UEQ720909 UOM720907:UOM720909 UYI720907:UYI720909 VIE720907:VIE720909 VSA720907:VSA720909 WBW720907:WBW720909 WLS720907:WLS720909 WVO720907:WVO720909 G786443:G786445 JC786443:JC786445 SY786443:SY786445 ACU786443:ACU786445 AMQ786443:AMQ786445 AWM786443:AWM786445 BGI786443:BGI786445 BQE786443:BQE786445 CAA786443:CAA786445 CJW786443:CJW786445 CTS786443:CTS786445 DDO786443:DDO786445 DNK786443:DNK786445 DXG786443:DXG786445 EHC786443:EHC786445 EQY786443:EQY786445 FAU786443:FAU786445 FKQ786443:FKQ786445 FUM786443:FUM786445 GEI786443:GEI786445 GOE786443:GOE786445 GYA786443:GYA786445 HHW786443:HHW786445 HRS786443:HRS786445 IBO786443:IBO786445 ILK786443:ILK786445 IVG786443:IVG786445 JFC786443:JFC786445 JOY786443:JOY786445 JYU786443:JYU786445 KIQ786443:KIQ786445 KSM786443:KSM786445 LCI786443:LCI786445 LME786443:LME786445 LWA786443:LWA786445 MFW786443:MFW786445 MPS786443:MPS786445 MZO786443:MZO786445 NJK786443:NJK786445 NTG786443:NTG786445 ODC786443:ODC786445 OMY786443:OMY786445 OWU786443:OWU786445 PGQ786443:PGQ786445 PQM786443:PQM786445 QAI786443:QAI786445 QKE786443:QKE786445 QUA786443:QUA786445 RDW786443:RDW786445 RNS786443:RNS786445 RXO786443:RXO786445 SHK786443:SHK786445 SRG786443:SRG786445 TBC786443:TBC786445 TKY786443:TKY786445 TUU786443:TUU786445 UEQ786443:UEQ786445 UOM786443:UOM786445 UYI786443:UYI786445 VIE786443:VIE786445 VSA786443:VSA786445 WBW786443:WBW786445 WLS786443:WLS786445 WVO786443:WVO786445 G851979:G851981 JC851979:JC851981 SY851979:SY851981 ACU851979:ACU851981 AMQ851979:AMQ851981 AWM851979:AWM851981 BGI851979:BGI851981 BQE851979:BQE851981 CAA851979:CAA851981 CJW851979:CJW851981 CTS851979:CTS851981 DDO851979:DDO851981 DNK851979:DNK851981 DXG851979:DXG851981 EHC851979:EHC851981 EQY851979:EQY851981 FAU851979:FAU851981 FKQ851979:FKQ851981 FUM851979:FUM851981 GEI851979:GEI851981 GOE851979:GOE851981 GYA851979:GYA851981 HHW851979:HHW851981 HRS851979:HRS851981 IBO851979:IBO851981 ILK851979:ILK851981 IVG851979:IVG851981 JFC851979:JFC851981 JOY851979:JOY851981 JYU851979:JYU851981 KIQ851979:KIQ851981 KSM851979:KSM851981 LCI851979:LCI851981 LME851979:LME851981 LWA851979:LWA851981 MFW851979:MFW851981 MPS851979:MPS851981 MZO851979:MZO851981 NJK851979:NJK851981 NTG851979:NTG851981 ODC851979:ODC851981 OMY851979:OMY851981 OWU851979:OWU851981 PGQ851979:PGQ851981 PQM851979:PQM851981 QAI851979:QAI851981 QKE851979:QKE851981 QUA851979:QUA851981 RDW851979:RDW851981 RNS851979:RNS851981 RXO851979:RXO851981 SHK851979:SHK851981 SRG851979:SRG851981 TBC851979:TBC851981 TKY851979:TKY851981 TUU851979:TUU851981 UEQ851979:UEQ851981 UOM851979:UOM851981 UYI851979:UYI851981 VIE851979:VIE851981 VSA851979:VSA851981 WBW851979:WBW851981 WLS851979:WLS851981 WVO851979:WVO851981 G917515:G917517 JC917515:JC917517 SY917515:SY917517 ACU917515:ACU917517 AMQ917515:AMQ917517 AWM917515:AWM917517 BGI917515:BGI917517 BQE917515:BQE917517 CAA917515:CAA917517 CJW917515:CJW917517 CTS917515:CTS917517 DDO917515:DDO917517 DNK917515:DNK917517 DXG917515:DXG917517 EHC917515:EHC917517 EQY917515:EQY917517 FAU917515:FAU917517 FKQ917515:FKQ917517 FUM917515:FUM917517 GEI917515:GEI917517 GOE917515:GOE917517 GYA917515:GYA917517 HHW917515:HHW917517 HRS917515:HRS917517 IBO917515:IBO917517 ILK917515:ILK917517 IVG917515:IVG917517 JFC917515:JFC917517 JOY917515:JOY917517 JYU917515:JYU917517 KIQ917515:KIQ917517 KSM917515:KSM917517 LCI917515:LCI917517 LME917515:LME917517 LWA917515:LWA917517 MFW917515:MFW917517 MPS917515:MPS917517 MZO917515:MZO917517 NJK917515:NJK917517 NTG917515:NTG917517 ODC917515:ODC917517 OMY917515:OMY917517 OWU917515:OWU917517 PGQ917515:PGQ917517 PQM917515:PQM917517 QAI917515:QAI917517 QKE917515:QKE917517 QUA917515:QUA917517 RDW917515:RDW917517 RNS917515:RNS917517 RXO917515:RXO917517 SHK917515:SHK917517 SRG917515:SRG917517 TBC917515:TBC917517 TKY917515:TKY917517 TUU917515:TUU917517 UEQ917515:UEQ917517 UOM917515:UOM917517 UYI917515:UYI917517 VIE917515:VIE917517 VSA917515:VSA917517 WBW917515:WBW917517 WLS917515:WLS917517 WVO917515:WVO917517 G983051:G983053 JC983051:JC983053 SY983051:SY983053 ACU983051:ACU983053 AMQ983051:AMQ983053 AWM983051:AWM983053 BGI983051:BGI983053 BQE983051:BQE983053 CAA983051:CAA983053 CJW983051:CJW983053 CTS983051:CTS983053 DDO983051:DDO983053 DNK983051:DNK983053 DXG983051:DXG983053 EHC983051:EHC983053 EQY983051:EQY983053 FAU983051:FAU983053 FKQ983051:FKQ983053 FUM983051:FUM983053 GEI983051:GEI983053 GOE983051:GOE983053 GYA983051:GYA983053 HHW983051:HHW983053 HRS983051:HRS983053 IBO983051:IBO983053 ILK983051:ILK983053 IVG983051:IVG983053 JFC983051:JFC983053 JOY983051:JOY983053 JYU983051:JYU983053 KIQ983051:KIQ983053 KSM983051:KSM983053 LCI983051:LCI983053 LME983051:LME983053 LWA983051:LWA983053 MFW983051:MFW983053 MPS983051:MPS983053 MZO983051:MZO983053 NJK983051:NJK983053 NTG983051:NTG983053 ODC983051:ODC983053 OMY983051:OMY983053 OWU983051:OWU983053 PGQ983051:PGQ983053 PQM983051:PQM983053 QAI983051:QAI983053 QKE983051:QKE983053 QUA983051:QUA983053 RDW983051:RDW983053 RNS983051:RNS983053 RXO983051:RXO983053 SHK983051:SHK983053 SRG983051:SRG983053 TBC983051:TBC983053 TKY983051:TKY983053 TUU983051:TUU983053 UEQ983051:UEQ983053 UOM983051:UOM983053 UYI983051:UYI983053 VIE983051:VIE983053 VSA983051:VSA983053 WBW983051:WBW983053 WLS983051:WLS983053" xr:uid="{7E50ABD6-5E51-874F-BADA-FAB2EA72CA76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO983049:WVO983051 G65545:G65547 JC65545:JC65547 SY65545:SY65547 ACU65545:ACU65547 AMQ65545:AMQ65547 AWM65545:AWM65547 BGI65545:BGI65547 BQE65545:BQE65547 CAA65545:CAA65547 CJW65545:CJW65547 CTS65545:CTS65547 DDO65545:DDO65547 DNK65545:DNK65547 DXG65545:DXG65547 EHC65545:EHC65547 EQY65545:EQY65547 FAU65545:FAU65547 FKQ65545:FKQ65547 FUM65545:FUM65547 GEI65545:GEI65547 GOE65545:GOE65547 GYA65545:GYA65547 HHW65545:HHW65547 HRS65545:HRS65547 IBO65545:IBO65547 ILK65545:ILK65547 IVG65545:IVG65547 JFC65545:JFC65547 JOY65545:JOY65547 JYU65545:JYU65547 KIQ65545:KIQ65547 KSM65545:KSM65547 LCI65545:LCI65547 LME65545:LME65547 LWA65545:LWA65547 MFW65545:MFW65547 MPS65545:MPS65547 MZO65545:MZO65547 NJK65545:NJK65547 NTG65545:NTG65547 ODC65545:ODC65547 OMY65545:OMY65547 OWU65545:OWU65547 PGQ65545:PGQ65547 PQM65545:PQM65547 QAI65545:QAI65547 QKE65545:QKE65547 QUA65545:QUA65547 RDW65545:RDW65547 RNS65545:RNS65547 RXO65545:RXO65547 SHK65545:SHK65547 SRG65545:SRG65547 TBC65545:TBC65547 TKY65545:TKY65547 TUU65545:TUU65547 UEQ65545:UEQ65547 UOM65545:UOM65547 UYI65545:UYI65547 VIE65545:VIE65547 VSA65545:VSA65547 WBW65545:WBW65547 WLS65545:WLS65547 WVO65545:WVO65547 G131081:G131083 JC131081:JC131083 SY131081:SY131083 ACU131081:ACU131083 AMQ131081:AMQ131083 AWM131081:AWM131083 BGI131081:BGI131083 BQE131081:BQE131083 CAA131081:CAA131083 CJW131081:CJW131083 CTS131081:CTS131083 DDO131081:DDO131083 DNK131081:DNK131083 DXG131081:DXG131083 EHC131081:EHC131083 EQY131081:EQY131083 FAU131081:FAU131083 FKQ131081:FKQ131083 FUM131081:FUM131083 GEI131081:GEI131083 GOE131081:GOE131083 GYA131081:GYA131083 HHW131081:HHW131083 HRS131081:HRS131083 IBO131081:IBO131083 ILK131081:ILK131083 IVG131081:IVG131083 JFC131081:JFC131083 JOY131081:JOY131083 JYU131081:JYU131083 KIQ131081:KIQ131083 KSM131081:KSM131083 LCI131081:LCI131083 LME131081:LME131083 LWA131081:LWA131083 MFW131081:MFW131083 MPS131081:MPS131083 MZO131081:MZO131083 NJK131081:NJK131083 NTG131081:NTG131083 ODC131081:ODC131083 OMY131081:OMY131083 OWU131081:OWU131083 PGQ131081:PGQ131083 PQM131081:PQM131083 QAI131081:QAI131083 QKE131081:QKE131083 QUA131081:QUA131083 RDW131081:RDW131083 RNS131081:RNS131083 RXO131081:RXO131083 SHK131081:SHK131083 SRG131081:SRG131083 TBC131081:TBC131083 TKY131081:TKY131083 TUU131081:TUU131083 UEQ131081:UEQ131083 UOM131081:UOM131083 UYI131081:UYI131083 VIE131081:VIE131083 VSA131081:VSA131083 WBW131081:WBW131083 WLS131081:WLS131083 WVO131081:WVO131083 G196617:G196619 JC196617:JC196619 SY196617:SY196619 ACU196617:ACU196619 AMQ196617:AMQ196619 AWM196617:AWM196619 BGI196617:BGI196619 BQE196617:BQE196619 CAA196617:CAA196619 CJW196617:CJW196619 CTS196617:CTS196619 DDO196617:DDO196619 DNK196617:DNK196619 DXG196617:DXG196619 EHC196617:EHC196619 EQY196617:EQY196619 FAU196617:FAU196619 FKQ196617:FKQ196619 FUM196617:FUM196619 GEI196617:GEI196619 GOE196617:GOE196619 GYA196617:GYA196619 HHW196617:HHW196619 HRS196617:HRS196619 IBO196617:IBO196619 ILK196617:ILK196619 IVG196617:IVG196619 JFC196617:JFC196619 JOY196617:JOY196619 JYU196617:JYU196619 KIQ196617:KIQ196619 KSM196617:KSM196619 LCI196617:LCI196619 LME196617:LME196619 LWA196617:LWA196619 MFW196617:MFW196619 MPS196617:MPS196619 MZO196617:MZO196619 NJK196617:NJK196619 NTG196617:NTG196619 ODC196617:ODC196619 OMY196617:OMY196619 OWU196617:OWU196619 PGQ196617:PGQ196619 PQM196617:PQM196619 QAI196617:QAI196619 QKE196617:QKE196619 QUA196617:QUA196619 RDW196617:RDW196619 RNS196617:RNS196619 RXO196617:RXO196619 SHK196617:SHK196619 SRG196617:SRG196619 TBC196617:TBC196619 TKY196617:TKY196619 TUU196617:TUU196619 UEQ196617:UEQ196619 UOM196617:UOM196619 UYI196617:UYI196619 VIE196617:VIE196619 VSA196617:VSA196619 WBW196617:WBW196619 WLS196617:WLS196619 WVO196617:WVO196619 G262153:G262155 JC262153:JC262155 SY262153:SY262155 ACU262153:ACU262155 AMQ262153:AMQ262155 AWM262153:AWM262155 BGI262153:BGI262155 BQE262153:BQE262155 CAA262153:CAA262155 CJW262153:CJW262155 CTS262153:CTS262155 DDO262153:DDO262155 DNK262153:DNK262155 DXG262153:DXG262155 EHC262153:EHC262155 EQY262153:EQY262155 FAU262153:FAU262155 FKQ262153:FKQ262155 FUM262153:FUM262155 GEI262153:GEI262155 GOE262153:GOE262155 GYA262153:GYA262155 HHW262153:HHW262155 HRS262153:HRS262155 IBO262153:IBO262155 ILK262153:ILK262155 IVG262153:IVG262155 JFC262153:JFC262155 JOY262153:JOY262155 JYU262153:JYU262155 KIQ262153:KIQ262155 KSM262153:KSM262155 LCI262153:LCI262155 LME262153:LME262155 LWA262153:LWA262155 MFW262153:MFW262155 MPS262153:MPS262155 MZO262153:MZO262155 NJK262153:NJK262155 NTG262153:NTG262155 ODC262153:ODC262155 OMY262153:OMY262155 OWU262153:OWU262155 PGQ262153:PGQ262155 PQM262153:PQM262155 QAI262153:QAI262155 QKE262153:QKE262155 QUA262153:QUA262155 RDW262153:RDW262155 RNS262153:RNS262155 RXO262153:RXO262155 SHK262153:SHK262155 SRG262153:SRG262155 TBC262153:TBC262155 TKY262153:TKY262155 TUU262153:TUU262155 UEQ262153:UEQ262155 UOM262153:UOM262155 UYI262153:UYI262155 VIE262153:VIE262155 VSA262153:VSA262155 WBW262153:WBW262155 WLS262153:WLS262155 WVO262153:WVO262155 G327689:G327691 JC327689:JC327691 SY327689:SY327691 ACU327689:ACU327691 AMQ327689:AMQ327691 AWM327689:AWM327691 BGI327689:BGI327691 BQE327689:BQE327691 CAA327689:CAA327691 CJW327689:CJW327691 CTS327689:CTS327691 DDO327689:DDO327691 DNK327689:DNK327691 DXG327689:DXG327691 EHC327689:EHC327691 EQY327689:EQY327691 FAU327689:FAU327691 FKQ327689:FKQ327691 FUM327689:FUM327691 GEI327689:GEI327691 GOE327689:GOE327691 GYA327689:GYA327691 HHW327689:HHW327691 HRS327689:HRS327691 IBO327689:IBO327691 ILK327689:ILK327691 IVG327689:IVG327691 JFC327689:JFC327691 JOY327689:JOY327691 JYU327689:JYU327691 KIQ327689:KIQ327691 KSM327689:KSM327691 LCI327689:LCI327691 LME327689:LME327691 LWA327689:LWA327691 MFW327689:MFW327691 MPS327689:MPS327691 MZO327689:MZO327691 NJK327689:NJK327691 NTG327689:NTG327691 ODC327689:ODC327691 OMY327689:OMY327691 OWU327689:OWU327691 PGQ327689:PGQ327691 PQM327689:PQM327691 QAI327689:QAI327691 QKE327689:QKE327691 QUA327689:QUA327691 RDW327689:RDW327691 RNS327689:RNS327691 RXO327689:RXO327691 SHK327689:SHK327691 SRG327689:SRG327691 TBC327689:TBC327691 TKY327689:TKY327691 TUU327689:TUU327691 UEQ327689:UEQ327691 UOM327689:UOM327691 UYI327689:UYI327691 VIE327689:VIE327691 VSA327689:VSA327691 WBW327689:WBW327691 WLS327689:WLS327691 WVO327689:WVO327691 G393225:G393227 JC393225:JC393227 SY393225:SY393227 ACU393225:ACU393227 AMQ393225:AMQ393227 AWM393225:AWM393227 BGI393225:BGI393227 BQE393225:BQE393227 CAA393225:CAA393227 CJW393225:CJW393227 CTS393225:CTS393227 DDO393225:DDO393227 DNK393225:DNK393227 DXG393225:DXG393227 EHC393225:EHC393227 EQY393225:EQY393227 FAU393225:FAU393227 FKQ393225:FKQ393227 FUM393225:FUM393227 GEI393225:GEI393227 GOE393225:GOE393227 GYA393225:GYA393227 HHW393225:HHW393227 HRS393225:HRS393227 IBO393225:IBO393227 ILK393225:ILK393227 IVG393225:IVG393227 JFC393225:JFC393227 JOY393225:JOY393227 JYU393225:JYU393227 KIQ393225:KIQ393227 KSM393225:KSM393227 LCI393225:LCI393227 LME393225:LME393227 LWA393225:LWA393227 MFW393225:MFW393227 MPS393225:MPS393227 MZO393225:MZO393227 NJK393225:NJK393227 NTG393225:NTG393227 ODC393225:ODC393227 OMY393225:OMY393227 OWU393225:OWU393227 PGQ393225:PGQ393227 PQM393225:PQM393227 QAI393225:QAI393227 QKE393225:QKE393227 QUA393225:QUA393227 RDW393225:RDW393227 RNS393225:RNS393227 RXO393225:RXO393227 SHK393225:SHK393227 SRG393225:SRG393227 TBC393225:TBC393227 TKY393225:TKY393227 TUU393225:TUU393227 UEQ393225:UEQ393227 UOM393225:UOM393227 UYI393225:UYI393227 VIE393225:VIE393227 VSA393225:VSA393227 WBW393225:WBW393227 WLS393225:WLS393227 WVO393225:WVO393227 G458761:G458763 JC458761:JC458763 SY458761:SY458763 ACU458761:ACU458763 AMQ458761:AMQ458763 AWM458761:AWM458763 BGI458761:BGI458763 BQE458761:BQE458763 CAA458761:CAA458763 CJW458761:CJW458763 CTS458761:CTS458763 DDO458761:DDO458763 DNK458761:DNK458763 DXG458761:DXG458763 EHC458761:EHC458763 EQY458761:EQY458763 FAU458761:FAU458763 FKQ458761:FKQ458763 FUM458761:FUM458763 GEI458761:GEI458763 GOE458761:GOE458763 GYA458761:GYA458763 HHW458761:HHW458763 HRS458761:HRS458763 IBO458761:IBO458763 ILK458761:ILK458763 IVG458761:IVG458763 JFC458761:JFC458763 JOY458761:JOY458763 JYU458761:JYU458763 KIQ458761:KIQ458763 KSM458761:KSM458763 LCI458761:LCI458763 LME458761:LME458763 LWA458761:LWA458763 MFW458761:MFW458763 MPS458761:MPS458763 MZO458761:MZO458763 NJK458761:NJK458763 NTG458761:NTG458763 ODC458761:ODC458763 OMY458761:OMY458763 OWU458761:OWU458763 PGQ458761:PGQ458763 PQM458761:PQM458763 QAI458761:QAI458763 QKE458761:QKE458763 QUA458761:QUA458763 RDW458761:RDW458763 RNS458761:RNS458763 RXO458761:RXO458763 SHK458761:SHK458763 SRG458761:SRG458763 TBC458761:TBC458763 TKY458761:TKY458763 TUU458761:TUU458763 UEQ458761:UEQ458763 UOM458761:UOM458763 UYI458761:UYI458763 VIE458761:VIE458763 VSA458761:VSA458763 WBW458761:WBW458763 WLS458761:WLS458763 WVO458761:WVO458763 G524297:G524299 JC524297:JC524299 SY524297:SY524299 ACU524297:ACU524299 AMQ524297:AMQ524299 AWM524297:AWM524299 BGI524297:BGI524299 BQE524297:BQE524299 CAA524297:CAA524299 CJW524297:CJW524299 CTS524297:CTS524299 DDO524297:DDO524299 DNK524297:DNK524299 DXG524297:DXG524299 EHC524297:EHC524299 EQY524297:EQY524299 FAU524297:FAU524299 FKQ524297:FKQ524299 FUM524297:FUM524299 GEI524297:GEI524299 GOE524297:GOE524299 GYA524297:GYA524299 HHW524297:HHW524299 HRS524297:HRS524299 IBO524297:IBO524299 ILK524297:ILK524299 IVG524297:IVG524299 JFC524297:JFC524299 JOY524297:JOY524299 JYU524297:JYU524299 KIQ524297:KIQ524299 KSM524297:KSM524299 LCI524297:LCI524299 LME524297:LME524299 LWA524297:LWA524299 MFW524297:MFW524299 MPS524297:MPS524299 MZO524297:MZO524299 NJK524297:NJK524299 NTG524297:NTG524299 ODC524297:ODC524299 OMY524297:OMY524299 OWU524297:OWU524299 PGQ524297:PGQ524299 PQM524297:PQM524299 QAI524297:QAI524299 QKE524297:QKE524299 QUA524297:QUA524299 RDW524297:RDW524299 RNS524297:RNS524299 RXO524297:RXO524299 SHK524297:SHK524299 SRG524297:SRG524299 TBC524297:TBC524299 TKY524297:TKY524299 TUU524297:TUU524299 UEQ524297:UEQ524299 UOM524297:UOM524299 UYI524297:UYI524299 VIE524297:VIE524299 VSA524297:VSA524299 WBW524297:WBW524299 WLS524297:WLS524299 WVO524297:WVO524299 G589833:G589835 JC589833:JC589835 SY589833:SY589835 ACU589833:ACU589835 AMQ589833:AMQ589835 AWM589833:AWM589835 BGI589833:BGI589835 BQE589833:BQE589835 CAA589833:CAA589835 CJW589833:CJW589835 CTS589833:CTS589835 DDO589833:DDO589835 DNK589833:DNK589835 DXG589833:DXG589835 EHC589833:EHC589835 EQY589833:EQY589835 FAU589833:FAU589835 FKQ589833:FKQ589835 FUM589833:FUM589835 GEI589833:GEI589835 GOE589833:GOE589835 GYA589833:GYA589835 HHW589833:HHW589835 HRS589833:HRS589835 IBO589833:IBO589835 ILK589833:ILK589835 IVG589833:IVG589835 JFC589833:JFC589835 JOY589833:JOY589835 JYU589833:JYU589835 KIQ589833:KIQ589835 KSM589833:KSM589835 LCI589833:LCI589835 LME589833:LME589835 LWA589833:LWA589835 MFW589833:MFW589835 MPS589833:MPS589835 MZO589833:MZO589835 NJK589833:NJK589835 NTG589833:NTG589835 ODC589833:ODC589835 OMY589833:OMY589835 OWU589833:OWU589835 PGQ589833:PGQ589835 PQM589833:PQM589835 QAI589833:QAI589835 QKE589833:QKE589835 QUA589833:QUA589835 RDW589833:RDW589835 RNS589833:RNS589835 RXO589833:RXO589835 SHK589833:SHK589835 SRG589833:SRG589835 TBC589833:TBC589835 TKY589833:TKY589835 TUU589833:TUU589835 UEQ589833:UEQ589835 UOM589833:UOM589835 UYI589833:UYI589835 VIE589833:VIE589835 VSA589833:VSA589835 WBW589833:WBW589835 WLS589833:WLS589835 WVO589833:WVO589835 G655369:G655371 JC655369:JC655371 SY655369:SY655371 ACU655369:ACU655371 AMQ655369:AMQ655371 AWM655369:AWM655371 BGI655369:BGI655371 BQE655369:BQE655371 CAA655369:CAA655371 CJW655369:CJW655371 CTS655369:CTS655371 DDO655369:DDO655371 DNK655369:DNK655371 DXG655369:DXG655371 EHC655369:EHC655371 EQY655369:EQY655371 FAU655369:FAU655371 FKQ655369:FKQ655371 FUM655369:FUM655371 GEI655369:GEI655371 GOE655369:GOE655371 GYA655369:GYA655371 HHW655369:HHW655371 HRS655369:HRS655371 IBO655369:IBO655371 ILK655369:ILK655371 IVG655369:IVG655371 JFC655369:JFC655371 JOY655369:JOY655371 JYU655369:JYU655371 KIQ655369:KIQ655371 KSM655369:KSM655371 LCI655369:LCI655371 LME655369:LME655371 LWA655369:LWA655371 MFW655369:MFW655371 MPS655369:MPS655371 MZO655369:MZO655371 NJK655369:NJK655371 NTG655369:NTG655371 ODC655369:ODC655371 OMY655369:OMY655371 OWU655369:OWU655371 PGQ655369:PGQ655371 PQM655369:PQM655371 QAI655369:QAI655371 QKE655369:QKE655371 QUA655369:QUA655371 RDW655369:RDW655371 RNS655369:RNS655371 RXO655369:RXO655371 SHK655369:SHK655371 SRG655369:SRG655371 TBC655369:TBC655371 TKY655369:TKY655371 TUU655369:TUU655371 UEQ655369:UEQ655371 UOM655369:UOM655371 UYI655369:UYI655371 VIE655369:VIE655371 VSA655369:VSA655371 WBW655369:WBW655371 WLS655369:WLS655371 WVO655369:WVO655371 G720905:G720907 JC720905:JC720907 SY720905:SY720907 ACU720905:ACU720907 AMQ720905:AMQ720907 AWM720905:AWM720907 BGI720905:BGI720907 BQE720905:BQE720907 CAA720905:CAA720907 CJW720905:CJW720907 CTS720905:CTS720907 DDO720905:DDO720907 DNK720905:DNK720907 DXG720905:DXG720907 EHC720905:EHC720907 EQY720905:EQY720907 FAU720905:FAU720907 FKQ720905:FKQ720907 FUM720905:FUM720907 GEI720905:GEI720907 GOE720905:GOE720907 GYA720905:GYA720907 HHW720905:HHW720907 HRS720905:HRS720907 IBO720905:IBO720907 ILK720905:ILK720907 IVG720905:IVG720907 JFC720905:JFC720907 JOY720905:JOY720907 JYU720905:JYU720907 KIQ720905:KIQ720907 KSM720905:KSM720907 LCI720905:LCI720907 LME720905:LME720907 LWA720905:LWA720907 MFW720905:MFW720907 MPS720905:MPS720907 MZO720905:MZO720907 NJK720905:NJK720907 NTG720905:NTG720907 ODC720905:ODC720907 OMY720905:OMY720907 OWU720905:OWU720907 PGQ720905:PGQ720907 PQM720905:PQM720907 QAI720905:QAI720907 QKE720905:QKE720907 QUA720905:QUA720907 RDW720905:RDW720907 RNS720905:RNS720907 RXO720905:RXO720907 SHK720905:SHK720907 SRG720905:SRG720907 TBC720905:TBC720907 TKY720905:TKY720907 TUU720905:TUU720907 UEQ720905:UEQ720907 UOM720905:UOM720907 UYI720905:UYI720907 VIE720905:VIE720907 VSA720905:VSA720907 WBW720905:WBW720907 WLS720905:WLS720907 WVO720905:WVO720907 G786441:G786443 JC786441:JC786443 SY786441:SY786443 ACU786441:ACU786443 AMQ786441:AMQ786443 AWM786441:AWM786443 BGI786441:BGI786443 BQE786441:BQE786443 CAA786441:CAA786443 CJW786441:CJW786443 CTS786441:CTS786443 DDO786441:DDO786443 DNK786441:DNK786443 DXG786441:DXG786443 EHC786441:EHC786443 EQY786441:EQY786443 FAU786441:FAU786443 FKQ786441:FKQ786443 FUM786441:FUM786443 GEI786441:GEI786443 GOE786441:GOE786443 GYA786441:GYA786443 HHW786441:HHW786443 HRS786441:HRS786443 IBO786441:IBO786443 ILK786441:ILK786443 IVG786441:IVG786443 JFC786441:JFC786443 JOY786441:JOY786443 JYU786441:JYU786443 KIQ786441:KIQ786443 KSM786441:KSM786443 LCI786441:LCI786443 LME786441:LME786443 LWA786441:LWA786443 MFW786441:MFW786443 MPS786441:MPS786443 MZO786441:MZO786443 NJK786441:NJK786443 NTG786441:NTG786443 ODC786441:ODC786443 OMY786441:OMY786443 OWU786441:OWU786443 PGQ786441:PGQ786443 PQM786441:PQM786443 QAI786441:QAI786443 QKE786441:QKE786443 QUA786441:QUA786443 RDW786441:RDW786443 RNS786441:RNS786443 RXO786441:RXO786443 SHK786441:SHK786443 SRG786441:SRG786443 TBC786441:TBC786443 TKY786441:TKY786443 TUU786441:TUU786443 UEQ786441:UEQ786443 UOM786441:UOM786443 UYI786441:UYI786443 VIE786441:VIE786443 VSA786441:VSA786443 WBW786441:WBW786443 WLS786441:WLS786443 WVO786441:WVO786443 G851977:G851979 JC851977:JC851979 SY851977:SY851979 ACU851977:ACU851979 AMQ851977:AMQ851979 AWM851977:AWM851979 BGI851977:BGI851979 BQE851977:BQE851979 CAA851977:CAA851979 CJW851977:CJW851979 CTS851977:CTS851979 DDO851977:DDO851979 DNK851977:DNK851979 DXG851977:DXG851979 EHC851977:EHC851979 EQY851977:EQY851979 FAU851977:FAU851979 FKQ851977:FKQ851979 FUM851977:FUM851979 GEI851977:GEI851979 GOE851977:GOE851979 GYA851977:GYA851979 HHW851977:HHW851979 HRS851977:HRS851979 IBO851977:IBO851979 ILK851977:ILK851979 IVG851977:IVG851979 JFC851977:JFC851979 JOY851977:JOY851979 JYU851977:JYU851979 KIQ851977:KIQ851979 KSM851977:KSM851979 LCI851977:LCI851979 LME851977:LME851979 LWA851977:LWA851979 MFW851977:MFW851979 MPS851977:MPS851979 MZO851977:MZO851979 NJK851977:NJK851979 NTG851977:NTG851979 ODC851977:ODC851979 OMY851977:OMY851979 OWU851977:OWU851979 PGQ851977:PGQ851979 PQM851977:PQM851979 QAI851977:QAI851979 QKE851977:QKE851979 QUA851977:QUA851979 RDW851977:RDW851979 RNS851977:RNS851979 RXO851977:RXO851979 SHK851977:SHK851979 SRG851977:SRG851979 TBC851977:TBC851979 TKY851977:TKY851979 TUU851977:TUU851979 UEQ851977:UEQ851979 UOM851977:UOM851979 UYI851977:UYI851979 VIE851977:VIE851979 VSA851977:VSA851979 WBW851977:WBW851979 WLS851977:WLS851979 WVO851977:WVO851979 G917513:G917515 JC917513:JC917515 SY917513:SY917515 ACU917513:ACU917515 AMQ917513:AMQ917515 AWM917513:AWM917515 BGI917513:BGI917515 BQE917513:BQE917515 CAA917513:CAA917515 CJW917513:CJW917515 CTS917513:CTS917515 DDO917513:DDO917515 DNK917513:DNK917515 DXG917513:DXG917515 EHC917513:EHC917515 EQY917513:EQY917515 FAU917513:FAU917515 FKQ917513:FKQ917515 FUM917513:FUM917515 GEI917513:GEI917515 GOE917513:GOE917515 GYA917513:GYA917515 HHW917513:HHW917515 HRS917513:HRS917515 IBO917513:IBO917515 ILK917513:ILK917515 IVG917513:IVG917515 JFC917513:JFC917515 JOY917513:JOY917515 JYU917513:JYU917515 KIQ917513:KIQ917515 KSM917513:KSM917515 LCI917513:LCI917515 LME917513:LME917515 LWA917513:LWA917515 MFW917513:MFW917515 MPS917513:MPS917515 MZO917513:MZO917515 NJK917513:NJK917515 NTG917513:NTG917515 ODC917513:ODC917515 OMY917513:OMY917515 OWU917513:OWU917515 PGQ917513:PGQ917515 PQM917513:PQM917515 QAI917513:QAI917515 QKE917513:QKE917515 QUA917513:QUA917515 RDW917513:RDW917515 RNS917513:RNS917515 RXO917513:RXO917515 SHK917513:SHK917515 SRG917513:SRG917515 TBC917513:TBC917515 TKY917513:TKY917515 TUU917513:TUU917515 UEQ917513:UEQ917515 UOM917513:UOM917515 UYI917513:UYI917515 VIE917513:VIE917515 VSA917513:VSA917515 WBW917513:WBW917515 WLS917513:WLS917515 WVO917513:WVO917515 G983049:G983051 JC983049:JC983051 SY983049:SY983051 ACU983049:ACU983051 AMQ983049:AMQ983051 AWM983049:AWM983051 BGI983049:BGI983051 BQE983049:BQE983051 CAA983049:CAA983051 CJW983049:CJW983051 CTS983049:CTS983051 DDO983049:DDO983051 DNK983049:DNK983051 DXG983049:DXG983051 EHC983049:EHC983051 EQY983049:EQY983051 FAU983049:FAU983051 FKQ983049:FKQ983051 FUM983049:FUM983051 GEI983049:GEI983051 GOE983049:GOE983051 GYA983049:GYA983051 HHW983049:HHW983051 HRS983049:HRS983051 IBO983049:IBO983051 ILK983049:ILK983051 IVG983049:IVG983051 JFC983049:JFC983051 JOY983049:JOY983051 JYU983049:JYU983051 KIQ983049:KIQ983051 KSM983049:KSM983051 LCI983049:LCI983051 LME983049:LME983051 LWA983049:LWA983051 MFW983049:MFW983051 MPS983049:MPS983051 MZO983049:MZO983051 NJK983049:NJK983051 NTG983049:NTG983051 ODC983049:ODC983051 OMY983049:OMY983051 OWU983049:OWU983051 PGQ983049:PGQ983051 PQM983049:PQM983051 QAI983049:QAI983051 QKE983049:QKE983051 QUA983049:QUA983051 RDW983049:RDW983051 RNS983049:RNS983051 RXO983049:RXO983051 SHK983049:SHK983051 SRG983049:SRG983051 TBC983049:TBC983051 TKY983049:TKY983051 TUU983049:TUU983051 UEQ983049:UEQ983051 UOM983049:UOM983051 UYI983049:UYI983051 VIE983049:VIE983051 VSA983049:VSA983051 WBW983049:WBW983051 WLS983049:WLS983051 JC11:JC14 SY11:SY14 ACU11:ACU14 AMQ11:AMQ14 AWM11:AWM14 BGI11:BGI14 BQE11:BQE14 CAA11:CAA14 CJW11:CJW14 CTS11:CTS14 DDO11:DDO14 DNK11:DNK14 DXG11:DXG14 EHC11:EHC14 EQY11:EQY14 FAU11:FAU14 FKQ11:FKQ14 FUM11:FUM14 GEI11:GEI14 GOE11:GOE14 GYA11:GYA14 HHW11:HHW14 HRS11:HRS14 IBO11:IBO14 ILK11:ILK14 IVG11:IVG14 JFC11:JFC14 JOY11:JOY14 JYU11:JYU14 KIQ11:KIQ14 KSM11:KSM14 LCI11:LCI14 LME11:LME14 LWA11:LWA14 MFW11:MFW14 MPS11:MPS14 MZO11:MZO14 NJK11:NJK14 NTG11:NTG14 ODC11:ODC14 OMY11:OMY14 OWU11:OWU14 PGQ11:PGQ14 PQM11:PQM14 QAI11:QAI14 QKE11:QKE14 QUA11:QUA14 RDW11:RDW14 RNS11:RNS14 RXO11:RXO14 SHK11:SHK14 SRG11:SRG14 TBC11:TBC14 TKY11:TKY14 TUU11:TUU14 UEQ11:UEQ14 UOM11:UOM14 UYI11:UYI14 VIE11:VIE14 VSA11:VSA14 WBW11:WBW14 WLS11:WLS14 WVO11:WVO14" xr:uid="{7E50ABD6-5E51-874F-BADA-FAB2EA72CA76}">
       <formula1 xml:space="preserve"> priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assignment_TestCases.xlsx
+++ b/Assignment_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Working/Personal/assignment-vdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B971C5-BA54-1B48-8C7C-1F3D6E654E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D461DA1-700D-044F-AEBA-CCB68931D046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="32620" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="32620" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General report" sheetId="8" r:id="rId1"/>
@@ -1780,31 +1780,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,6 +1794,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1832,17 +1817,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1856,11 +1856,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1870,30 +1877,20 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1904,6 +1901,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -1912,7 +1912,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="165">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1985,6 +1985,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2055,6 +2067,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2113,6 +2159,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2125,6 +2205,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2207,6 +2321,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2265,6 +2403,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2311,6 +2461,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2357,6 +2531,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2449,6 +2635,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2461,6 +2681,40 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE79B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -2473,6 +2727,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2870,318 +3148,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE79B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6361,11 +6327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25:K28"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6406,12 +6372,12 @@
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -6433,10 +6399,10 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -6462,10 +6428,10 @@
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -6525,16 +6491,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -6542,10 +6508,10 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="45"/>
@@ -6555,26 +6521,26 @@
       <c r="E7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="63" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="66"/>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="46" t="s">
         <v>173</v>
       </c>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="45"/>
       <c r="D8" s="11">
         <v>2</v>
@@ -6582,26 +6548,26 @@
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="63"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="45"/>
       <c r="K8" s="66"/>
-      <c r="L8" s="64"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -6609,10 +6575,10 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C10" s="45"/>
@@ -6622,26 +6588,26 @@
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="45"/>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="58" t="s">
         <v>172</v>
       </c>
       <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="45"/>
       <c r="D11" s="23">
         <v>2</v>
@@ -6649,18 +6615,18 @@
       <c r="E11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="45"/>
       <c r="D12" s="23">
         <v>3</v>
@@ -6668,18 +6634,18 @@
       <c r="E12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="47"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="45"/>
-      <c r="L12" s="51"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="45"/>
       <c r="D13" s="23">
         <v>4</v>
@@ -6687,26 +6653,26 @@
       <c r="E13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="48"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -6714,10 +6680,10 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C15" s="45"/>
@@ -6727,26 +6693,26 @@
       <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="45"/>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>173</v>
       </c>
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="45"/>
       <c r="D16" s="23">
         <v>2</v>
@@ -6754,18 +6720,18 @@
       <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="47"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="51"/>
+      <c r="L16" s="59"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="45"/>
       <c r="D17" s="23">
         <v>3</v>
@@ -6773,18 +6739,18 @@
       <c r="E17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="47"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="51"/>
+      <c r="L17" s="59"/>
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="45"/>
       <c r="D18" s="23">
         <v>4</v>
@@ -6792,26 +6758,26 @@
       <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="48"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="45"/>
-      <c r="L18" s="52"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -6819,10 +6785,10 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="45"/>
@@ -6832,30 +6798,30 @@
       <c r="E20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="58" t="s">
         <v>173</v>
       </c>
       <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="45"/>
       <c r="D21" s="23">
         <v>2</v>
@@ -6863,18 +6829,18 @@
       <c r="E21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="59"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="45"/>
       <c r="D22" s="23">
         <v>3</v>
@@ -6882,18 +6848,18 @@
       <c r="E22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="45"/>
       <c r="D23" s="23">
         <v>4</v>
@@ -6901,26 +6867,26 @@
       <c r="E23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="52"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -6928,10 +6894,10 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C25" s="45"/>
@@ -6941,30 +6907,30 @@
       <c r="E25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="58" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="45"/>
       <c r="D26" s="23">
         <v>2</v>
@@ -6972,18 +6938,18 @@
       <c r="E26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="45"/>
       <c r="D27" s="23">
         <v>3</v>
@@ -6991,18 +6957,18 @@
       <c r="E27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="45"/>
       <c r="D28" s="23">
         <v>4</v>
@@ -7010,26 +6976,26 @@
       <c r="E28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="52"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -7037,10 +7003,10 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="45"/>
@@ -7050,26 +7016,26 @@
       <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59" t="s">
+      <c r="H30" s="53"/>
+      <c r="I30" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="45"/>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="58" t="s">
         <v>173</v>
       </c>
       <c r="M30" s="45"/>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="45"/>
       <c r="D31" s="23">
         <v>2</v>
@@ -7077,18 +7043,18 @@
       <c r="E31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="47"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="57"/>
       <c r="K31" s="45"/>
-      <c r="L31" s="51"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="45"/>
       <c r="D32" s="23">
         <v>3</v>
@@ -7096,18 +7062,18 @@
       <c r="E32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="47"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="57"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="51"/>
+      <c r="L32" s="59"/>
       <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="45"/>
       <c r="D33" s="23">
         <v>4</v>
@@ -7115,26 +7081,26 @@
       <c r="E33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="48"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="45"/>
-      <c r="L33" s="52"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
@@ -7142,10 +7108,10 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C35" s="45"/>
@@ -7155,26 +7121,26 @@
       <c r="E35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59" t="s">
+      <c r="H35" s="53"/>
+      <c r="I35" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J35" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="45"/>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="58" t="s">
         <v>172</v>
       </c>
       <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="45"/>
       <c r="D36" s="23">
         <v>2</v>
@@ -7182,18 +7148,18 @@
       <c r="E36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="47"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="45"/>
-      <c r="L36" s="51"/>
+      <c r="L36" s="59"/>
       <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="45"/>
       <c r="D37" s="23">
         <v>3</v>
@@ -7201,18 +7167,18 @@
       <c r="E37" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="47"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="57"/>
       <c r="K37" s="45"/>
-      <c r="L37" s="51"/>
+      <c r="L37" s="59"/>
       <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="45"/>
       <c r="D38" s="23">
         <v>4</v>
@@ -7220,26 +7186,26 @@
       <c r="E38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="48"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
       <c r="K38" s="45"/>
-      <c r="L38" s="52"/>
+      <c r="L38" s="62"/>
       <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -7247,10 +7213,10 @@
       <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C40" s="45"/>
@@ -7260,24 +7226,24 @@
       <c r="E40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56" t="s">
+      <c r="F40" s="50"/>
+      <c r="G40" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59" t="s">
+      <c r="H40" s="53"/>
+      <c r="I40" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="46" t="s">
+      <c r="J40" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="45"/>
-      <c r="L40" s="50"/>
+      <c r="L40" s="58"/>
       <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="45"/>
       <c r="D41" s="23">
         <v>2</v>
@@ -7285,26 +7251,26 @@
       <c r="E41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="47"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="57"/>
       <c r="K41" s="45"/>
-      <c r="L41" s="51"/>
+      <c r="L41" s="59"/>
       <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
@@ -7312,10 +7278,10 @@
       <c r="M42" s="21"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C43" s="45"/>
@@ -7325,26 +7291,26 @@
       <c r="E43" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="63" t="s">
+      <c r="H43" s="53"/>
+      <c r="I43" s="44" t="s">
         <v>40</v>
       </c>
       <c r="J43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K43" s="45"/>
-      <c r="L43" s="64" t="s">
+      <c r="L43" s="46" t="s">
         <v>173</v>
       </c>
       <c r="M43" s="45"/>
     </row>
     <row r="44" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="45"/>
       <c r="D44" s="23">
         <v>2</v>
@@ -7352,55 +7318,70 @@
       <c r="E44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="63"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
-      <c r="L44" s="64"/>
+      <c r="L44" s="46"/>
       <c r="M44" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="111">
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="L25:L28"/>
@@ -7425,263 +7406,248 @@
     <mergeCell ref="M10:M13"/>
     <mergeCell ref="M15:M18"/>
     <mergeCell ref="I20:I23"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 G45:I1048576 G7:H8 I5:I13">
-    <cfRule type="cellIs" dxfId="167" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="139" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L484 J2:L13">
-    <cfRule type="cellIs" dxfId="166" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="83" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="140" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="141" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="163" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="60" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G18">
-    <cfRule type="cellIs" dxfId="162" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I18">
-    <cfRule type="cellIs" dxfId="161" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="57" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L18">
-    <cfRule type="cellIs" dxfId="160" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="56" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="58" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="59" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="55" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G13">
-    <cfRule type="cellIs" dxfId="156" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="cellIs" dxfId="155" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="47" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="cellIs" dxfId="154" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33">
-    <cfRule type="cellIs" dxfId="153" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G41">
-    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="cellIs" dxfId="151" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:L23">
-    <cfRule type="cellIs" dxfId="150" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="147" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="48" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I28">
-    <cfRule type="cellIs" dxfId="146" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="44" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L24 J25:J28 L25:L28">
-    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="43" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="45" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="46" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="42" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I33">
-    <cfRule type="cellIs" dxfId="141" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:L29 J30:K33">
-    <cfRule type="cellIs" dxfId="140" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I38">
-    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="31" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:L34 J35:K38">
-    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="32" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="33" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I41">
-    <cfRule type="cellIs" dxfId="133" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:L41">
-    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="24" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="26" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H41">
-    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G44">
-    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I44">
-    <cfRule type="cellIs" dxfId="127" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:L44">
-    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="20" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H33">
-    <cfRule type="cellIs" dxfId="122" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="121" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G38">
-    <cfRule type="cellIs" dxfId="120" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7708,13 +7674,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K28">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7746,7 +7712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K9" sqref="K9:K10"/>
     </sheetView>
@@ -7789,12 +7755,12 @@
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
@@ -7816,10 +7782,10 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
@@ -7845,10 +7811,10 @@
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -7908,16 +7874,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -7960,16 +7926,16 @@
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -7977,10 +7943,10 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="45"/>
@@ -7990,28 +7956,28 @@
       <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="45"/>
       <c r="D10" s="31">
         <v>2</v>
@@ -8019,26 +7985,26 @@
       <c r="E10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="63"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="64"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -8046,10 +8012,10 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -8061,24 +8027,24 @@
       <c r="E12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="63" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="45"/>
-      <c r="L12" s="64"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="45"/>
       <c r="D13" s="31">
         <v>2</v>
@@ -8086,26 +8052,26 @@
       <c r="E13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="63"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="64"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -8113,10 +8079,10 @@
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="45" t="s">
@@ -8128,24 +8094,24 @@
       <c r="E15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="63" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="45"/>
-      <c r="L15" s="64"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="45"/>
       <c r="D16" s="31">
         <v>2</v>
@@ -8153,26 +8119,26 @@
       <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="63"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="64"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -8180,10 +8146,10 @@
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="45" t="s">
@@ -8195,24 +8161,24 @@
       <c r="E18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="63" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="45"/>
-      <c r="L18" s="64"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="45"/>
       <c r="D19" s="31">
         <v>2</v>
@@ -8220,26 +8186,26 @@
       <c r="E19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="63"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
-      <c r="L19" s="64"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -8247,10 +8213,10 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -8262,24 +8228,24 @@
       <c r="E21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="63" t="s">
+      <c r="H21" s="53"/>
+      <c r="I21" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="45"/>
-      <c r="L21" s="64"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="45"/>
       <c r="D22" s="31">
         <v>2</v>
@@ -8287,26 +8253,26 @@
       <c r="E22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="63"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
-      <c r="L22" s="64"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -8314,10 +8280,10 @@
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="45" t="s">
@@ -8329,24 +8295,24 @@
       <c r="E24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="63" t="s">
+      <c r="H24" s="53"/>
+      <c r="I24" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="45"/>
-      <c r="L24" s="64"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="45"/>
       <c r="D25" s="31">
         <v>2</v>
@@ -8354,26 +8320,26 @@
       <c r="E25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="63"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
-      <c r="L25" s="64"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -8381,10 +8347,10 @@
       <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -8396,24 +8362,24 @@
       <c r="E27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="45"/>
-      <c r="L27" s="50"/>
+      <c r="L27" s="58"/>
       <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="45"/>
       <c r="D28" s="31">
         <v>2</v>
@@ -8421,18 +8387,18 @@
       <c r="E28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="47"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="45"/>
-      <c r="L28" s="51"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="45"/>
       <c r="D29" s="31">
         <v>3</v>
@@ -8440,26 +8406,26 @@
       <c r="E29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="47"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="45"/>
-      <c r="L29" s="51"/>
+      <c r="L29" s="59"/>
       <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -8467,10 +8433,10 @@
       <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="45" t="s">
@@ -8482,24 +8448,24 @@
       <c r="E31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56" t="s">
+      <c r="F31" s="50"/>
+      <c r="G31" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="63" t="s">
+      <c r="H31" s="53"/>
+      <c r="I31" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="45"/>
-      <c r="L31" s="64"/>
+      <c r="L31" s="46"/>
       <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="45"/>
       <c r="D32" s="31">
         <v>2</v>
@@ -8507,26 +8473,26 @@
       <c r="E32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="63"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="64"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -8540,7 +8506,7 @@
       <c r="B34" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="31">
@@ -8549,70 +8515,70 @@
       <c r="E34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="71" t="s">
+      <c r="F34" s="70"/>
+      <c r="G34" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="59" t="s">
+      <c r="H34" s="76"/>
+      <c r="I34" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="46"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="47"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="31">
         <v>2</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="47"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="57"/>
     </row>
     <row r="36" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="48"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="31">
         <v>3</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="77"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="78"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="48"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -8626,7 +8592,7 @@
       <c r="B38" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="31">
@@ -8635,70 +8601,70 @@
       <c r="E38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="71" t="s">
+      <c r="F38" s="70"/>
+      <c r="G38" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="59" t="s">
+      <c r="H38" s="76"/>
+      <c r="I38" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="46" t="s">
+      <c r="J38" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="46"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="46"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="47"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="31">
         <v>2</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="47"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="57"/>
     </row>
     <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="47"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="31">
         <v>3</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="47"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="57"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -8712,7 +8678,7 @@
       <c r="B42" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="31">
@@ -8721,70 +8687,70 @@
       <c r="E42" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="71" t="s">
+      <c r="F42" s="70"/>
+      <c r="G42" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="73"/>
-      <c r="I42" s="59" t="s">
+      <c r="H42" s="76"/>
+      <c r="I42" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="46" t="s">
+      <c r="J42" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="46"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="56"/>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="47"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="31">
         <v>2</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="47"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="57"/>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="47"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="31">
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="47"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="57"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -8792,10 +8758,10 @@
       <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="45" t="s">
@@ -8807,24 +8773,24 @@
       <c r="E46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="63" t="s">
+      <c r="H46" s="53"/>
+      <c r="I46" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K46" s="45"/>
-      <c r="L46" s="64"/>
+      <c r="L46" s="46"/>
       <c r="M46" s="45"/>
     </row>
     <row r="47" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="45"/>
       <c r="D47" s="31">
         <v>2</v>
@@ -8832,26 +8798,26 @@
       <c r="E47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="63"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="45"/>
       <c r="K47" s="45"/>
-      <c r="L47" s="64"/>
+      <c r="L47" s="46"/>
       <c r="M47" s="45"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -8859,10 +8825,10 @@
       <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="45" t="s">
@@ -8874,24 +8840,24 @@
       <c r="E49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56" t="s">
+      <c r="F49" s="50"/>
+      <c r="G49" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="59" t="s">
+      <c r="H49" s="53"/>
+      <c r="I49" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="46" t="s">
+      <c r="J49" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K49" s="45"/>
-      <c r="L49" s="50"/>
+      <c r="L49" s="58"/>
       <c r="M49" s="45"/>
     </row>
     <row r="50" spans="1:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="45"/>
       <c r="D50" s="31">
         <v>2</v>
@@ -8899,26 +8865,26 @@
       <c r="E50" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="47"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
       <c r="K50" s="45"/>
-      <c r="L50" s="51"/>
+      <c r="L50" s="59"/>
       <c r="M50" s="45"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -8926,10 +8892,10 @@
       <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="45" t="s">
@@ -8941,24 +8907,24 @@
       <c r="E52" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56" t="s">
+      <c r="F52" s="50"/>
+      <c r="G52" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="58"/>
-      <c r="I52" s="59" t="s">
+      <c r="H52" s="53"/>
+      <c r="I52" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="46" t="s">
+      <c r="J52" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K52" s="45"/>
-      <c r="L52" s="50"/>
+      <c r="L52" s="58"/>
       <c r="M52" s="45"/>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="45"/>
       <c r="D53" s="31">
         <v>2</v>
@@ -8966,26 +8932,26 @@
       <c r="E53" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="47"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="57"/>
       <c r="K53" s="45"/>
-      <c r="L53" s="51"/>
+      <c r="L53" s="59"/>
       <c r="M53" s="45"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
@@ -8993,10 +8959,10 @@
       <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="45" t="s">
@@ -9008,24 +8974,24 @@
       <c r="E55" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56" t="s">
+      <c r="F55" s="50"/>
+      <c r="G55" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="58"/>
-      <c r="I55" s="63" t="s">
+      <c r="H55" s="53"/>
+      <c r="I55" s="44" t="s">
         <v>40</v>
       </c>
       <c r="J55" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K55" s="45"/>
-      <c r="L55" s="64"/>
+      <c r="L55" s="46"/>
       <c r="M55" s="45"/>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="45"/>
       <c r="D56" s="31">
         <v>2</v>
@@ -9033,18 +8999,178 @@
       <c r="E56" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="63"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="45"/>
       <c r="K56" s="45"/>
-      <c r="L56" s="64"/>
+      <c r="L56" s="46"/>
       <c r="M56" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="184">
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
@@ -9069,479 +9195,319 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:L5 J57:L355">
-    <cfRule type="cellIs" dxfId="83" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="402" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="403" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="404" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 G2:I3 I30:I32 G31:H32 G26:I29 I45:I50">
-    <cfRule type="cellIs" dxfId="80" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="394" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L4">
-    <cfRule type="cellIs" dxfId="79" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="353" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L32 J45:L50">
-    <cfRule type="cellIs" dxfId="78" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="345" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="346" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="347" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I10 G7:H10">
-    <cfRule type="cellIs" dxfId="75" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="80" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:L10">
-    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="79" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I10 G9:H10">
-    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="76" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="75" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="77" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="54" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:L22">
-    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I13 H12:H13">
-    <cfRule type="cellIs" dxfId="63" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="68" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:L13">
-    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="67" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="66" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="65" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I16 H15:H16">
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="62" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="61" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="63" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="60" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="59" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I19 H18:H19">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="56" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:L19">
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="55" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22 G21:H22">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="50" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29 G24:H29">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:L29">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="45" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34 G34:H34">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="38" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L34">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38 G38:H38">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L38">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42 G42:H42">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:L42">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G53">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:L53">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G56">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L56">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G29">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I29">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:L29">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H47">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G50">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9617,12 +9583,12 @@
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
@@ -9644,10 +9610,10 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23">
@@ -9673,10 +9639,10 @@
     <row r="4" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
@@ -9736,16 +9702,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -9753,10 +9719,10 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="45"/>
@@ -9766,24 +9732,24 @@
       <c r="E7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="63" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="45"/>
-      <c r="L7" s="64"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="45"/>
       <c r="D8" s="23">
         <v>2</v>
@@ -9791,26 +9757,26 @@
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="63"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="64"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -9818,10 +9784,10 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="45"/>
@@ -9831,24 +9797,24 @@
       <c r="E10" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="45"/>
-      <c r="L10" s="64"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="45"/>
       <c r="D11" s="31">
         <v>2</v>
@@ -9856,26 +9822,26 @@
       <c r="E11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="63"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="64"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -9883,10 +9849,10 @@
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="45"/>
@@ -9896,28 +9862,28 @@
       <c r="E13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="45"/>
       <c r="D14" s="31">
         <v>2</v>
@@ -9925,26 +9891,26 @@
       <c r="E14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="63"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="64"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -9952,10 +9918,10 @@
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="45"/>
@@ -9965,28 +9931,28 @@
       <c r="E16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="64"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="45"/>
       <c r="D17" s="31">
         <v>2</v>
@@ -9994,26 +9960,26 @@
       <c r="E17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="63"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -10021,10 +9987,10 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="45"/>
@@ -10034,28 +10000,28 @@
       <c r="E19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="45"/>
       <c r="D20" s="31">
         <v>2</v>
@@ -10063,26 +10029,26 @@
       <c r="E20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="63"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="45"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
@@ -10090,10 +10056,10 @@
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="45"/>
@@ -10103,24 +10069,24 @@
       <c r="E22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="63" t="s">
+      <c r="H22" s="52"/>
+      <c r="I22" s="44" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="45"/>
-      <c r="L22" s="64"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="45"/>
       <c r="D23" s="31">
         <v>2</v>
@@ -10128,19 +10094,79 @@
       <c r="E23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="63"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="45"/>
       <c r="K23" s="45"/>
-      <c r="L23" s="64"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="75">
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="G10:G11"/>
@@ -10156,175 +10182,115 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L5 J5:K5 G2:I3 G5:H5 I5:I8 G24:I1048576 G7:H8">
-    <cfRule type="cellIs" dxfId="110" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L463 J2:L8">
-    <cfRule type="cellIs" dxfId="109" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="52" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I11 G10:H11">
-    <cfRule type="cellIs" dxfId="106" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:L11">
-    <cfRule type="cellIs" dxfId="105" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 G13:H14">
-    <cfRule type="cellIs" dxfId="102" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:L14">
-    <cfRule type="cellIs" dxfId="101" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17 G16:G17">
-    <cfRule type="cellIs" dxfId="98" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:L15 J16:J17 L16:L17">
-    <cfRule type="cellIs" dxfId="97" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20 G19:G20">
-    <cfRule type="cellIs" dxfId="94" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:L18 J19:J20 L19:L20">
-    <cfRule type="cellIs" dxfId="93" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I23 G22:G23">
-    <cfRule type="cellIs" dxfId="88" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:L23">
-    <cfRule type="cellIs" dxfId="87" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11348,64 +11314,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="80"/>
       <c r="C3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="80"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
@@ -11682,12 +11648,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A8:O8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K65545:K65547 JG65545:JG65547 TC65545:TC65547 ACY65545:ACY65547 AMU65545:AMU65547 AWQ65545:AWQ65547 BGM65545:BGM65547 BQI65545:BQI65547 CAE65545:CAE65547 CKA65545:CKA65547 CTW65545:CTW65547 DDS65545:DDS65547 DNO65545:DNO65547 DXK65545:DXK65547 EHG65545:EHG65547 ERC65545:ERC65547 FAY65545:FAY65547 FKU65545:FKU65547 FUQ65545:FUQ65547 GEM65545:GEM65547 GOI65545:GOI65547 GYE65545:GYE65547 HIA65545:HIA65547 HRW65545:HRW65547 IBS65545:IBS65547 ILO65545:ILO65547 IVK65545:IVK65547 JFG65545:JFG65547 JPC65545:JPC65547 JYY65545:JYY65547 KIU65545:KIU65547 KSQ65545:KSQ65547 LCM65545:LCM65547 LMI65545:LMI65547 LWE65545:LWE65547 MGA65545:MGA65547 MPW65545:MPW65547 MZS65545:MZS65547 NJO65545:NJO65547 NTK65545:NTK65547 ODG65545:ODG65547 ONC65545:ONC65547 OWY65545:OWY65547 PGU65545:PGU65547 PQQ65545:PQQ65547 QAM65545:QAM65547 QKI65545:QKI65547 QUE65545:QUE65547 REA65545:REA65547 RNW65545:RNW65547 RXS65545:RXS65547 SHO65545:SHO65547 SRK65545:SRK65547 TBG65545:TBG65547 TLC65545:TLC65547 TUY65545:TUY65547 UEU65545:UEU65547 UOQ65545:UOQ65547 UYM65545:UYM65547 VII65545:VII65547 VSE65545:VSE65547 WCA65545:WCA65547 WLW65545:WLW65547 WVS65545:WVS65547 K131081:K131083 JG131081:JG131083 TC131081:TC131083 ACY131081:ACY131083 AMU131081:AMU131083 AWQ131081:AWQ131083 BGM131081:BGM131083 BQI131081:BQI131083 CAE131081:CAE131083 CKA131081:CKA131083 CTW131081:CTW131083 DDS131081:DDS131083 DNO131081:DNO131083 DXK131081:DXK131083 EHG131081:EHG131083 ERC131081:ERC131083 FAY131081:FAY131083 FKU131081:FKU131083 FUQ131081:FUQ131083 GEM131081:GEM131083 GOI131081:GOI131083 GYE131081:GYE131083 HIA131081:HIA131083 HRW131081:HRW131083 IBS131081:IBS131083 ILO131081:ILO131083 IVK131081:IVK131083 JFG131081:JFG131083 JPC131081:JPC131083 JYY131081:JYY131083 KIU131081:KIU131083 KSQ131081:KSQ131083 LCM131081:LCM131083 LMI131081:LMI131083 LWE131081:LWE131083 MGA131081:MGA131083 MPW131081:MPW131083 MZS131081:MZS131083 NJO131081:NJO131083 NTK131081:NTK131083 ODG131081:ODG131083 ONC131081:ONC131083 OWY131081:OWY131083 PGU131081:PGU131083 PQQ131081:PQQ131083 QAM131081:QAM131083 QKI131081:QKI131083 QUE131081:QUE131083 REA131081:REA131083 RNW131081:RNW131083 RXS131081:RXS131083 SHO131081:SHO131083 SRK131081:SRK131083 TBG131081:TBG131083 TLC131081:TLC131083 TUY131081:TUY131083 UEU131081:UEU131083 UOQ131081:UOQ131083 UYM131081:UYM131083 VII131081:VII131083 VSE131081:VSE131083 WCA131081:WCA131083 WLW131081:WLW131083 WVS131081:WVS131083 K196617:K196619 JG196617:JG196619 TC196617:TC196619 ACY196617:ACY196619 AMU196617:AMU196619 AWQ196617:AWQ196619 BGM196617:BGM196619 BQI196617:BQI196619 CAE196617:CAE196619 CKA196617:CKA196619 CTW196617:CTW196619 DDS196617:DDS196619 DNO196617:DNO196619 DXK196617:DXK196619 EHG196617:EHG196619 ERC196617:ERC196619 FAY196617:FAY196619 FKU196617:FKU196619 FUQ196617:FUQ196619 GEM196617:GEM196619 GOI196617:GOI196619 GYE196617:GYE196619 HIA196617:HIA196619 HRW196617:HRW196619 IBS196617:IBS196619 ILO196617:ILO196619 IVK196617:IVK196619 JFG196617:JFG196619 JPC196617:JPC196619 JYY196617:JYY196619 KIU196617:KIU196619 KSQ196617:KSQ196619 LCM196617:LCM196619 LMI196617:LMI196619 LWE196617:LWE196619 MGA196617:MGA196619 MPW196617:MPW196619 MZS196617:MZS196619 NJO196617:NJO196619 NTK196617:NTK196619 ODG196617:ODG196619 ONC196617:ONC196619 OWY196617:OWY196619 PGU196617:PGU196619 PQQ196617:PQQ196619 QAM196617:QAM196619 QKI196617:QKI196619 QUE196617:QUE196619 REA196617:REA196619 RNW196617:RNW196619 RXS196617:RXS196619 SHO196617:SHO196619 SRK196617:SRK196619 TBG196617:TBG196619 TLC196617:TLC196619 TUY196617:TUY196619 UEU196617:UEU196619 UOQ196617:UOQ196619 UYM196617:UYM196619 VII196617:VII196619 VSE196617:VSE196619 WCA196617:WCA196619 WLW196617:WLW196619 WVS196617:WVS196619 K262153:K262155 JG262153:JG262155 TC262153:TC262155 ACY262153:ACY262155 AMU262153:AMU262155 AWQ262153:AWQ262155 BGM262153:BGM262155 BQI262153:BQI262155 CAE262153:CAE262155 CKA262153:CKA262155 CTW262153:CTW262155 DDS262153:DDS262155 DNO262153:DNO262155 DXK262153:DXK262155 EHG262153:EHG262155 ERC262153:ERC262155 FAY262153:FAY262155 FKU262153:FKU262155 FUQ262153:FUQ262155 GEM262153:GEM262155 GOI262153:GOI262155 GYE262153:GYE262155 HIA262153:HIA262155 HRW262153:HRW262155 IBS262153:IBS262155 ILO262153:ILO262155 IVK262153:IVK262155 JFG262153:JFG262155 JPC262153:JPC262155 JYY262153:JYY262155 KIU262153:KIU262155 KSQ262153:KSQ262155 LCM262153:LCM262155 LMI262153:LMI262155 LWE262153:LWE262155 MGA262153:MGA262155 MPW262153:MPW262155 MZS262153:MZS262155 NJO262153:NJO262155 NTK262153:NTK262155 ODG262153:ODG262155 ONC262153:ONC262155 OWY262153:OWY262155 PGU262153:PGU262155 PQQ262153:PQQ262155 QAM262153:QAM262155 QKI262153:QKI262155 QUE262153:QUE262155 REA262153:REA262155 RNW262153:RNW262155 RXS262153:RXS262155 SHO262153:SHO262155 SRK262153:SRK262155 TBG262153:TBG262155 TLC262153:TLC262155 TUY262153:TUY262155 UEU262153:UEU262155 UOQ262153:UOQ262155 UYM262153:UYM262155 VII262153:VII262155 VSE262153:VSE262155 WCA262153:WCA262155 WLW262153:WLW262155 WVS262153:WVS262155 K327689:K327691 JG327689:JG327691 TC327689:TC327691 ACY327689:ACY327691 AMU327689:AMU327691 AWQ327689:AWQ327691 BGM327689:BGM327691 BQI327689:BQI327691 CAE327689:CAE327691 CKA327689:CKA327691 CTW327689:CTW327691 DDS327689:DDS327691 DNO327689:DNO327691 DXK327689:DXK327691 EHG327689:EHG327691 ERC327689:ERC327691 FAY327689:FAY327691 FKU327689:FKU327691 FUQ327689:FUQ327691 GEM327689:GEM327691 GOI327689:GOI327691 GYE327689:GYE327691 HIA327689:HIA327691 HRW327689:HRW327691 IBS327689:IBS327691 ILO327689:ILO327691 IVK327689:IVK327691 JFG327689:JFG327691 JPC327689:JPC327691 JYY327689:JYY327691 KIU327689:KIU327691 KSQ327689:KSQ327691 LCM327689:LCM327691 LMI327689:LMI327691 LWE327689:LWE327691 MGA327689:MGA327691 MPW327689:MPW327691 MZS327689:MZS327691 NJO327689:NJO327691 NTK327689:NTK327691 ODG327689:ODG327691 ONC327689:ONC327691 OWY327689:OWY327691 PGU327689:PGU327691 PQQ327689:PQQ327691 QAM327689:QAM327691 QKI327689:QKI327691 QUE327689:QUE327691 REA327689:REA327691 RNW327689:RNW327691 RXS327689:RXS327691 SHO327689:SHO327691 SRK327689:SRK327691 TBG327689:TBG327691 TLC327689:TLC327691 TUY327689:TUY327691 UEU327689:UEU327691 UOQ327689:UOQ327691 UYM327689:UYM327691 VII327689:VII327691 VSE327689:VSE327691 WCA327689:WCA327691 WLW327689:WLW327691 WVS327689:WVS327691 K393225:K393227 JG393225:JG393227 TC393225:TC393227 ACY393225:ACY393227 AMU393225:AMU393227 AWQ393225:AWQ393227 BGM393225:BGM393227 BQI393225:BQI393227 CAE393225:CAE393227 CKA393225:CKA393227 CTW393225:CTW393227 DDS393225:DDS393227 DNO393225:DNO393227 DXK393225:DXK393227 EHG393225:EHG393227 ERC393225:ERC393227 FAY393225:FAY393227 FKU393225:FKU393227 FUQ393225:FUQ393227 GEM393225:GEM393227 GOI393225:GOI393227 GYE393225:GYE393227 HIA393225:HIA393227 HRW393225:HRW393227 IBS393225:IBS393227 ILO393225:ILO393227 IVK393225:IVK393227 JFG393225:JFG393227 JPC393225:JPC393227 JYY393225:JYY393227 KIU393225:KIU393227 KSQ393225:KSQ393227 LCM393225:LCM393227 LMI393225:LMI393227 LWE393225:LWE393227 MGA393225:MGA393227 MPW393225:MPW393227 MZS393225:MZS393227 NJO393225:NJO393227 NTK393225:NTK393227 ODG393225:ODG393227 ONC393225:ONC393227 OWY393225:OWY393227 PGU393225:PGU393227 PQQ393225:PQQ393227 QAM393225:QAM393227 QKI393225:QKI393227 QUE393225:QUE393227 REA393225:REA393227 RNW393225:RNW393227 RXS393225:RXS393227 SHO393225:SHO393227 SRK393225:SRK393227 TBG393225:TBG393227 TLC393225:TLC393227 TUY393225:TUY393227 UEU393225:UEU393227 UOQ393225:UOQ393227 UYM393225:UYM393227 VII393225:VII393227 VSE393225:VSE393227 WCA393225:WCA393227 WLW393225:WLW393227 WVS393225:WVS393227 K458761:K458763 JG458761:JG458763 TC458761:TC458763 ACY458761:ACY458763 AMU458761:AMU458763 AWQ458761:AWQ458763 BGM458761:BGM458763 BQI458761:BQI458763 CAE458761:CAE458763 CKA458761:CKA458763 CTW458761:CTW458763 DDS458761:DDS458763 DNO458761:DNO458763 DXK458761:DXK458763 EHG458761:EHG458763 ERC458761:ERC458763 FAY458761:FAY458763 FKU458761:FKU458763 FUQ458761:FUQ458763 GEM458761:GEM458763 GOI458761:GOI458763 GYE458761:GYE458763 HIA458761:HIA458763 HRW458761:HRW458763 IBS458761:IBS458763 ILO458761:ILO458763 IVK458761:IVK458763 JFG458761:JFG458763 JPC458761:JPC458763 JYY458761:JYY458763 KIU458761:KIU458763 KSQ458761:KSQ458763 LCM458761:LCM458763 LMI458761:LMI458763 LWE458761:LWE458763 MGA458761:MGA458763 MPW458761:MPW458763 MZS458761:MZS458763 NJO458761:NJO458763 NTK458761:NTK458763 ODG458761:ODG458763 ONC458761:ONC458763 OWY458761:OWY458763 PGU458761:PGU458763 PQQ458761:PQQ458763 QAM458761:QAM458763 QKI458761:QKI458763 QUE458761:QUE458763 REA458761:REA458763 RNW458761:RNW458763 RXS458761:RXS458763 SHO458761:SHO458763 SRK458761:SRK458763 TBG458761:TBG458763 TLC458761:TLC458763 TUY458761:TUY458763 UEU458761:UEU458763 UOQ458761:UOQ458763 UYM458761:UYM458763 VII458761:VII458763 VSE458761:VSE458763 WCA458761:WCA458763 WLW458761:WLW458763 WVS458761:WVS458763 K524297:K524299 JG524297:JG524299 TC524297:TC524299 ACY524297:ACY524299 AMU524297:AMU524299 AWQ524297:AWQ524299 BGM524297:BGM524299 BQI524297:BQI524299 CAE524297:CAE524299 CKA524297:CKA524299 CTW524297:CTW524299 DDS524297:DDS524299 DNO524297:DNO524299 DXK524297:DXK524299 EHG524297:EHG524299 ERC524297:ERC524299 FAY524297:FAY524299 FKU524297:FKU524299 FUQ524297:FUQ524299 GEM524297:GEM524299 GOI524297:GOI524299 GYE524297:GYE524299 HIA524297:HIA524299 HRW524297:HRW524299 IBS524297:IBS524299 ILO524297:ILO524299 IVK524297:IVK524299 JFG524297:JFG524299 JPC524297:JPC524299 JYY524297:JYY524299 KIU524297:KIU524299 KSQ524297:KSQ524299 LCM524297:LCM524299 LMI524297:LMI524299 LWE524297:LWE524299 MGA524297:MGA524299 MPW524297:MPW524299 MZS524297:MZS524299 NJO524297:NJO524299 NTK524297:NTK524299 ODG524297:ODG524299 ONC524297:ONC524299 OWY524297:OWY524299 PGU524297:PGU524299 PQQ524297:PQQ524299 QAM524297:QAM524299 QKI524297:QKI524299 QUE524297:QUE524299 REA524297:REA524299 RNW524297:RNW524299 RXS524297:RXS524299 SHO524297:SHO524299 SRK524297:SRK524299 TBG524297:TBG524299 TLC524297:TLC524299 TUY524297:TUY524299 UEU524297:UEU524299 UOQ524297:UOQ524299 UYM524297:UYM524299 VII524297:VII524299 VSE524297:VSE524299 WCA524297:WCA524299 WLW524297:WLW524299 WVS524297:WVS524299 K589833:K589835 JG589833:JG589835 TC589833:TC589835 ACY589833:ACY589835 AMU589833:AMU589835 AWQ589833:AWQ589835 BGM589833:BGM589835 BQI589833:BQI589835 CAE589833:CAE589835 CKA589833:CKA589835 CTW589833:CTW589835 DDS589833:DDS589835 DNO589833:DNO589835 DXK589833:DXK589835 EHG589833:EHG589835 ERC589833:ERC589835 FAY589833:FAY589835 FKU589833:FKU589835 FUQ589833:FUQ589835 GEM589833:GEM589835 GOI589833:GOI589835 GYE589833:GYE589835 HIA589833:HIA589835 HRW589833:HRW589835 IBS589833:IBS589835 ILO589833:ILO589835 IVK589833:IVK589835 JFG589833:JFG589835 JPC589833:JPC589835 JYY589833:JYY589835 KIU589833:KIU589835 KSQ589833:KSQ589835 LCM589833:LCM589835 LMI589833:LMI589835 LWE589833:LWE589835 MGA589833:MGA589835 MPW589833:MPW589835 MZS589833:MZS589835 NJO589833:NJO589835 NTK589833:NTK589835 ODG589833:ODG589835 ONC589833:ONC589835 OWY589833:OWY589835 PGU589833:PGU589835 PQQ589833:PQQ589835 QAM589833:QAM589835 QKI589833:QKI589835 QUE589833:QUE589835 REA589833:REA589835 RNW589833:RNW589835 RXS589833:RXS589835 SHO589833:SHO589835 SRK589833:SRK589835 TBG589833:TBG589835 TLC589833:TLC589835 TUY589833:TUY589835 UEU589833:UEU589835 UOQ589833:UOQ589835 UYM589833:UYM589835 VII589833:VII589835 VSE589833:VSE589835 WCA589833:WCA589835 WLW589833:WLW589835 WVS589833:WVS589835 K655369:K655371 JG655369:JG655371 TC655369:TC655371 ACY655369:ACY655371 AMU655369:AMU655371 AWQ655369:AWQ655371 BGM655369:BGM655371 BQI655369:BQI655371 CAE655369:CAE655371 CKA655369:CKA655371 CTW655369:CTW655371 DDS655369:DDS655371 DNO655369:DNO655371 DXK655369:DXK655371 EHG655369:EHG655371 ERC655369:ERC655371 FAY655369:FAY655371 FKU655369:FKU655371 FUQ655369:FUQ655371 GEM655369:GEM655371 GOI655369:GOI655371 GYE655369:GYE655371 HIA655369:HIA655371 HRW655369:HRW655371 IBS655369:IBS655371 ILO655369:ILO655371 IVK655369:IVK655371 JFG655369:JFG655371 JPC655369:JPC655371 JYY655369:JYY655371 KIU655369:KIU655371 KSQ655369:KSQ655371 LCM655369:LCM655371 LMI655369:LMI655371 LWE655369:LWE655371 MGA655369:MGA655371 MPW655369:MPW655371 MZS655369:MZS655371 NJO655369:NJO655371 NTK655369:NTK655371 ODG655369:ODG655371 ONC655369:ONC655371 OWY655369:OWY655371 PGU655369:PGU655371 PQQ655369:PQQ655371 QAM655369:QAM655371 QKI655369:QKI655371 QUE655369:QUE655371 REA655369:REA655371 RNW655369:RNW655371 RXS655369:RXS655371 SHO655369:SHO655371 SRK655369:SRK655371 TBG655369:TBG655371 TLC655369:TLC655371 TUY655369:TUY655371 UEU655369:UEU655371 UOQ655369:UOQ655371 UYM655369:UYM655371 VII655369:VII655371 VSE655369:VSE655371 WCA655369:WCA655371 WLW655369:WLW655371 WVS655369:WVS655371 K720905:K720907 JG720905:JG720907 TC720905:TC720907 ACY720905:ACY720907 AMU720905:AMU720907 AWQ720905:AWQ720907 BGM720905:BGM720907 BQI720905:BQI720907 CAE720905:CAE720907 CKA720905:CKA720907 CTW720905:CTW720907 DDS720905:DDS720907 DNO720905:DNO720907 DXK720905:DXK720907 EHG720905:EHG720907 ERC720905:ERC720907 FAY720905:FAY720907 FKU720905:FKU720907 FUQ720905:FUQ720907 GEM720905:GEM720907 GOI720905:GOI720907 GYE720905:GYE720907 HIA720905:HIA720907 HRW720905:HRW720907 IBS720905:IBS720907 ILO720905:ILO720907 IVK720905:IVK720907 JFG720905:JFG720907 JPC720905:JPC720907 JYY720905:JYY720907 KIU720905:KIU720907 KSQ720905:KSQ720907 LCM720905:LCM720907 LMI720905:LMI720907 LWE720905:LWE720907 MGA720905:MGA720907 MPW720905:MPW720907 MZS720905:MZS720907 NJO720905:NJO720907 NTK720905:NTK720907 ODG720905:ODG720907 ONC720905:ONC720907 OWY720905:OWY720907 PGU720905:PGU720907 PQQ720905:PQQ720907 QAM720905:QAM720907 QKI720905:QKI720907 QUE720905:QUE720907 REA720905:REA720907 RNW720905:RNW720907 RXS720905:RXS720907 SHO720905:SHO720907 SRK720905:SRK720907 TBG720905:TBG720907 TLC720905:TLC720907 TUY720905:TUY720907 UEU720905:UEU720907 UOQ720905:UOQ720907 UYM720905:UYM720907 VII720905:VII720907 VSE720905:VSE720907 WCA720905:WCA720907 WLW720905:WLW720907 WVS720905:WVS720907 K786441:K786443 JG786441:JG786443 TC786441:TC786443 ACY786441:ACY786443 AMU786441:AMU786443 AWQ786441:AWQ786443 BGM786441:BGM786443 BQI786441:BQI786443 CAE786441:CAE786443 CKA786441:CKA786443 CTW786441:CTW786443 DDS786441:DDS786443 DNO786441:DNO786443 DXK786441:DXK786443 EHG786441:EHG786443 ERC786441:ERC786443 FAY786441:FAY786443 FKU786441:FKU786443 FUQ786441:FUQ786443 GEM786441:GEM786443 GOI786441:GOI786443 GYE786441:GYE786443 HIA786441:HIA786443 HRW786441:HRW786443 IBS786441:IBS786443 ILO786441:ILO786443 IVK786441:IVK786443 JFG786441:JFG786443 JPC786441:JPC786443 JYY786441:JYY786443 KIU786441:KIU786443 KSQ786441:KSQ786443 LCM786441:LCM786443 LMI786441:LMI786443 LWE786441:LWE786443 MGA786441:MGA786443 MPW786441:MPW786443 MZS786441:MZS786443 NJO786441:NJO786443 NTK786441:NTK786443 ODG786441:ODG786443 ONC786441:ONC786443 OWY786441:OWY786443 PGU786441:PGU786443 PQQ786441:PQQ786443 QAM786441:QAM786443 QKI786441:QKI786443 QUE786441:QUE786443 REA786441:REA786443 RNW786441:RNW786443 RXS786441:RXS786443 SHO786441:SHO786443 SRK786441:SRK786443 TBG786441:TBG786443 TLC786441:TLC786443 TUY786441:TUY786443 UEU786441:UEU786443 UOQ786441:UOQ786443 UYM786441:UYM786443 VII786441:VII786443 VSE786441:VSE786443 WCA786441:WCA786443 WLW786441:WLW786443 WVS786441:WVS786443 K851977:K851979 JG851977:JG851979 TC851977:TC851979 ACY851977:ACY851979 AMU851977:AMU851979 AWQ851977:AWQ851979 BGM851977:BGM851979 BQI851977:BQI851979 CAE851977:CAE851979 CKA851977:CKA851979 CTW851977:CTW851979 DDS851977:DDS851979 DNO851977:DNO851979 DXK851977:DXK851979 EHG851977:EHG851979 ERC851977:ERC851979 FAY851977:FAY851979 FKU851977:FKU851979 FUQ851977:FUQ851979 GEM851977:GEM851979 GOI851977:GOI851979 GYE851977:GYE851979 HIA851977:HIA851979 HRW851977:HRW851979 IBS851977:IBS851979 ILO851977:ILO851979 IVK851977:IVK851979 JFG851977:JFG851979 JPC851977:JPC851979 JYY851977:JYY851979 KIU851977:KIU851979 KSQ851977:KSQ851979 LCM851977:LCM851979 LMI851977:LMI851979 LWE851977:LWE851979 MGA851977:MGA851979 MPW851977:MPW851979 MZS851977:MZS851979 NJO851977:NJO851979 NTK851977:NTK851979 ODG851977:ODG851979 ONC851977:ONC851979 OWY851977:OWY851979 PGU851977:PGU851979 PQQ851977:PQQ851979 QAM851977:QAM851979 QKI851977:QKI851979 QUE851977:QUE851979 REA851977:REA851979 RNW851977:RNW851979 RXS851977:RXS851979 SHO851977:SHO851979 SRK851977:SRK851979 TBG851977:TBG851979 TLC851977:TLC851979 TUY851977:TUY851979 UEU851977:UEU851979 UOQ851977:UOQ851979 UYM851977:UYM851979 VII851977:VII851979 VSE851977:VSE851979 WCA851977:WCA851979 WLW851977:WLW851979 WVS851977:WVS851979 K917513:K917515 JG917513:JG917515 TC917513:TC917515 ACY917513:ACY917515 AMU917513:AMU917515 AWQ917513:AWQ917515 BGM917513:BGM917515 BQI917513:BQI917515 CAE917513:CAE917515 CKA917513:CKA917515 CTW917513:CTW917515 DDS917513:DDS917515 DNO917513:DNO917515 DXK917513:DXK917515 EHG917513:EHG917515 ERC917513:ERC917515 FAY917513:FAY917515 FKU917513:FKU917515 FUQ917513:FUQ917515 GEM917513:GEM917515 GOI917513:GOI917515 GYE917513:GYE917515 HIA917513:HIA917515 HRW917513:HRW917515 IBS917513:IBS917515 ILO917513:ILO917515 IVK917513:IVK917515 JFG917513:JFG917515 JPC917513:JPC917515 JYY917513:JYY917515 KIU917513:KIU917515 KSQ917513:KSQ917515 LCM917513:LCM917515 LMI917513:LMI917515 LWE917513:LWE917515 MGA917513:MGA917515 MPW917513:MPW917515 MZS917513:MZS917515 NJO917513:NJO917515 NTK917513:NTK917515 ODG917513:ODG917515 ONC917513:ONC917515 OWY917513:OWY917515 PGU917513:PGU917515 PQQ917513:PQQ917515 QAM917513:QAM917515 QKI917513:QKI917515 QUE917513:QUE917515 REA917513:REA917515 RNW917513:RNW917515 RXS917513:RXS917515 SHO917513:SHO917515 SRK917513:SRK917515 TBG917513:TBG917515 TLC917513:TLC917515 TUY917513:TUY917515 UEU917513:UEU917515 UOQ917513:UOQ917515 UYM917513:UYM917515 VII917513:VII917515 VSE917513:VSE917515 WCA917513:WCA917515 WLW917513:WLW917515 WVS917513:WVS917515 K983049:K983051 JG983049:JG983051 TC983049:TC983051 ACY983049:ACY983051 AMU983049:AMU983051 AWQ983049:AWQ983051 BGM983049:BGM983051 BQI983049:BQI983051 CAE983049:CAE983051 CKA983049:CKA983051 CTW983049:CTW983051 DDS983049:DDS983051 DNO983049:DNO983051 DXK983049:DXK983051 EHG983049:EHG983051 ERC983049:ERC983051 FAY983049:FAY983051 FKU983049:FKU983051 FUQ983049:FUQ983051 GEM983049:GEM983051 GOI983049:GOI983051 GYE983049:GYE983051 HIA983049:HIA983051 HRW983049:HRW983051 IBS983049:IBS983051 ILO983049:ILO983051 IVK983049:IVK983051 JFG983049:JFG983051 JPC983049:JPC983051 JYY983049:JYY983051 KIU983049:KIU983051 KSQ983049:KSQ983051 LCM983049:LCM983051 LMI983049:LMI983051 LWE983049:LWE983051 MGA983049:MGA983051 MPW983049:MPW983051 MZS983049:MZS983051 NJO983049:NJO983051 NTK983049:NTK983051 ODG983049:ODG983051 ONC983049:ONC983051 OWY983049:OWY983051 PGU983049:PGU983051 PQQ983049:PQQ983051 QAM983049:QAM983051 QKI983049:QKI983051 QUE983049:QUE983051 REA983049:REA983051 RNW983049:RNW983051 RXS983049:RXS983051 SHO983049:SHO983051 SRK983049:SRK983051 TBG983049:TBG983051 TLC983049:TLC983051 TUY983049:TUY983051 UEU983049:UEU983051 UOQ983049:UOQ983051 UYM983049:UYM983051 VII983049:VII983051 VSE983049:VSE983051 WCA983049:WCA983051 WLW983049:WLW983051 WVS983049:WVS983051 K11:K14 JG11:JG14 TC11:TC14 ACY11:ACY14 AMU11:AMU14 AWQ11:AWQ14 BGM11:BGM14 BQI11:BQI14 CAE11:CAE14 CKA11:CKA14 CTW11:CTW14 DDS11:DDS14 DNO11:DNO14 DXK11:DXK14 EHG11:EHG14 ERC11:ERC14 FAY11:FAY14 FKU11:FKU14 FUQ11:FUQ14 GEM11:GEM14 GOI11:GOI14 GYE11:GYE14 HIA11:HIA14 HRW11:HRW14 IBS11:IBS14 ILO11:ILO14 IVK11:IVK14 JFG11:JFG14 JPC11:JPC14 JYY11:JYY14 KIU11:KIU14 KSQ11:KSQ14 LCM11:LCM14 LMI11:LMI14 LWE11:LWE14 MGA11:MGA14 MPW11:MPW14 MZS11:MZS14 NJO11:NJO14 NTK11:NTK14 ODG11:ODG14 ONC11:ONC14 OWY11:OWY14 PGU11:PGU14 PQQ11:PQQ14 QAM11:QAM14 QKI11:QKI14 QUE11:QUE14 REA11:REA14 RNW11:RNW14 RXS11:RXS14 SHO11:SHO14 SRK11:SRK14 TBG11:TBG14 TLC11:TLC14 TUY11:TUY14 UEU11:UEU14 UOQ11:UOQ14 UYM11:UYM14 VII11:VII14 VSE11:VSE14 WCA11:WCA14 WLW11:WLW14 WVS11:WVS14" xr:uid="{B5231113-F7BF-404F-B160-A3FE81C74A66}">
